--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13EA86A4-D12A-4D1B-B96F-2F3F02764CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE75EB-2F8F-458F-87C1-F30BC5EE4C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="488">
   <si>
     <t>ToDo</t>
   </si>
@@ -1501,6 +1501,12 @@
   </si>
   <si>
     <t>26.04.2022</t>
+  </si>
+  <si>
+    <t>27.04.2022</t>
+  </si>
+  <si>
+    <t>Phd: Implement discrete Bayesian Optimization</t>
   </si>
 </sst>
 </file>
@@ -4005,10 +4011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010993A-D4ED-4EB4-B776-F18BCFD807DB}">
-  <dimension ref="A1:G2558"/>
+  <dimension ref="A1:G2580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2533" workbookViewId="0">
-      <selection activeCell="D2555" sqref="D2555"/>
+    <sheetView tabSelected="1" topLeftCell="B2559" workbookViewId="0">
+      <selection activeCell="D2574" sqref="D2574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33855,7 +33861,7 @@
         <v>10</v>
       </c>
       <c r="C2551" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2551" s="1"/>
     </row>
@@ -33938,8 +33944,272 @@
       </c>
       <c r="C2558" s="7">
         <f>SUM(C2539:C2557)</f>
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2559" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2559" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2559" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2559" s="4"/>
+    </row>
+    <row r="2560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2560" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2560" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2560" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2560" s="11"/>
+    </row>
+    <row r="2561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2561" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2561" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2561" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2561" s="7"/>
+    </row>
+    <row r="2562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2562" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2562" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2562" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2562" s="7"/>
+    </row>
+    <row r="2563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2563" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2563" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2563" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2563" s="1"/>
+    </row>
+    <row r="2564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2564" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2564" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2564" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2564" s="7"/>
+    </row>
+    <row r="2565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2565" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2565" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2565" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2565" s="1"/>
+    </row>
+    <row r="2566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2566" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2566" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2566" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2566" s="1"/>
+    </row>
+    <row r="2567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2567" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2567" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2567" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2567" s="1"/>
+    </row>
+    <row r="2568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2568" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2568" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2568" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2568" s="7"/>
+    </row>
+    <row r="2569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2569" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2569" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2569" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2569" s="7"/>
+    </row>
+    <row r="2570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2570" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2570" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2570" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2570" s="1"/>
+    </row>
+    <row r="2571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2571" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2571" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2571" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2571" s="1"/>
+    </row>
+    <row r="2572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2572" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2572" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2572" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2572" s="1"/>
+    </row>
+    <row r="2573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2573" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2573" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2573" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2573" s="7"/>
+    </row>
+    <row r="2574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2574" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2574" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2574" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2574" s="1"/>
+    </row>
+    <row r="2575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2575" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2575" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2575" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2575" s="1"/>
+    </row>
+    <row r="2576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2576" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2576" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2576" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2576" s="1"/>
+    </row>
+    <row r="2577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2577" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2577" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2577" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2577" s="1"/>
+    </row>
+    <row r="2578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2578" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2578" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2578" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2578" s="1"/>
+    </row>
+    <row r="2579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2579" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B2579" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2579" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2579" s="1"/>
+    </row>
+    <row r="2580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2580" s="1"/>
+      <c r="B2580" s="1">
+        <f>SUM(B2560:B2579)</f>
+        <v>153</v>
+      </c>
+      <c r="C2580" s="7">
+        <f>SUM(C2560:C2579)</f>
+        <v>4</v>
+      </c>
+      <c r="D2580" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35343,39 +35613,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AE077A-6D37-41FE-B854-DE1F0AAE9930}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="28">
         <v>0.92519999742507897</v>
       </c>
       <c r="B1" s="28">
         <v>0.68922623762082602</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>0.92483000159263595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>0.92518000602722195</v>
       </c>
       <c r="B2" s="28">
         <v>0.75944833021171398</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0.92431000471115099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>0.92517000436782804</v>
       </c>
       <c r="B3" s="28">
         <v>0.70375937279584999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>0.92413998842239398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>0.92486999630928002</v>
       </c>
@@ -35386,136 +35665,187 @@
         <f>CORREL(A1:A99,B1:B99)</f>
         <v>0.30280612852118793</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>0.92348001003265401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>0.92418999671935997</v>
       </c>
       <c r="B5" s="28">
         <v>0.122700715408658</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0.92332999706268304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>0.92404999732971205</v>
       </c>
       <c r="B6" s="28">
         <v>0.39328405962294199</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>0.92307000160217301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>0.92292000055313095</v>
       </c>
       <c r="B7" s="28">
         <v>0.93172544467337703</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>0.92292000055313095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>0.92286999821662896</v>
       </c>
       <c r="B8" s="28">
         <v>0.357795993118804</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>0.92289999723434402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>0.92277999520301801</v>
       </c>
       <c r="B9" s="28">
         <v>0.62195093022721604</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0.92282000184059099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>0.92255999445915204</v>
       </c>
       <c r="B10" s="28">
         <v>0.29109230601219099</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>0.92268000245094295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>0.92237000465393104</v>
       </c>
       <c r="B11" s="28">
         <v>0.55801829041753304</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0.92245000004768396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>0.92228000164031998</v>
       </c>
       <c r="B12" s="28">
         <v>7.1187612213445203E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>0.92234000563621499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>0.92226001024246196</v>
       </c>
       <c r="B13" s="28">
         <v>0.415237510565102</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>0.92222999334335298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>0.92218999266624502</v>
       </c>
       <c r="B14" s="28">
         <v>0.75820255770711797</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>0.92195000648498504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>0.92217000722885101</v>
       </c>
       <c r="B15" s="28">
         <v>0.55244033312234897</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>0.921819996833801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>0.92212999463081402</v>
       </c>
       <c r="B16" s="28">
         <v>0.44051171617859503</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>0.92170000076293901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>0.92207998633384702</v>
       </c>
       <c r="B17" s="28">
         <v>0.60406765669463403</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>0.92139999270439099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <v>0.92203000783920297</v>
       </c>
       <c r="B18" s="28">
         <v>0.94301731645230302</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>0.92057999372482302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>0.92203000187873796</v>
       </c>
       <c r="B19" s="28">
         <v>0.21229149824246801</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0.92008000016212499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>0.92200999259948702</v>
       </c>
       <c r="B20" s="28">
         <v>0.20426367129478301</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>0.91931000947952302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
         <v>0.92199000120162999</v>
       </c>
@@ -35523,7 +35853,7 @@
         <v>0.50884061267337899</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>0.92197000384330796</v>
       </c>
@@ -35531,7 +35861,7 @@
         <v>0.38931491911738397</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
         <v>0.92183000445365904</v>
       </c>
@@ -35539,7 +35869,7 @@
         <v>0.28973208632376202</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <v>0.92178000807762095</v>
       </c>
@@ -35547,7 +35877,7 @@
         <v>0.90858184975631295</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
         <v>0.92177000045776403</v>
       </c>
@@ -35555,7 +35885,7 @@
         <v>0.86336904770637701</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
         <v>0.92171999812126204</v>
       </c>
@@ -35563,7 +35893,7 @@
         <v>0.97772281529024696</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
         <v>0.92168999910354599</v>
       </c>
@@ -35571,7 +35901,7 @@
         <v>0.41485442547883999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
         <v>0.92168999910354599</v>
       </c>
@@ -35579,7 +35909,7 @@
         <v>0.94643173274833503</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
         <v>0.92165000438690203</v>
       </c>
@@ -35587,7 +35917,7 @@
         <v>0.47027263767153998</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
         <v>0.92153000831604004</v>
       </c>
@@ -35595,7 +35925,7 @@
         <v>0.42956380818251599</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
         <v>0.92153000235557603</v>
       </c>
@@ -35603,7 +35933,7 @@
         <v>0.87123484986671695</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
         <v>0.92148000597953805</v>
       </c>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE75EB-2F8F-458F-87C1-F30BC5EE4C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AB4E05-564A-4846-BF39-24B412DA374A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="489">
   <si>
     <t>ToDo</t>
   </si>
@@ -1507,6 +1507,9 @@
   </si>
   <si>
     <t>Phd: Implement discrete Bayesian Optimization</t>
+  </si>
+  <si>
+    <t>28.04.2022</t>
   </si>
 </sst>
 </file>
@@ -4011,10 +4014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010993A-D4ED-4EB4-B776-F18BCFD807DB}">
-  <dimension ref="A1:G2580"/>
+  <dimension ref="A1:G2602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2559" workbookViewId="0">
-      <selection activeCell="D2574" sqref="D2574"/>
+    <sheetView tabSelected="1" topLeftCell="A2580" workbookViewId="0">
+      <selection activeCell="D2598" sqref="D2598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34111,7 +34114,7 @@
         <v>10</v>
       </c>
       <c r="C2572" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2572" s="1"/>
     </row>
@@ -34207,9 +34210,273 @@
       </c>
       <c r="C2580" s="7">
         <f>SUM(C2560:C2579)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2580" s="1"/>
+    </row>
+    <row r="2581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2581" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2581" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2581" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2581" s="4"/>
+    </row>
+    <row r="2582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2582" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2582" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2582" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2582" s="11"/>
+    </row>
+    <row r="2583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2583" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2583" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2583" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2583" s="7"/>
+    </row>
+    <row r="2584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2584" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2584" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2584" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2584" s="7"/>
+    </row>
+    <row r="2585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2585" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2585" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2585" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2585" s="1"/>
+    </row>
+    <row r="2586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2586" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2586" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2586" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2586" s="7"/>
+    </row>
+    <row r="2587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2587" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2587" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2587" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2587" s="1"/>
+    </row>
+    <row r="2588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2588" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2588" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2588" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2588" s="1"/>
+    </row>
+    <row r="2589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2589" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2589" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2589" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2589" s="1"/>
+    </row>
+    <row r="2590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2590" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2590" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2590" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2590" s="7"/>
+    </row>
+    <row r="2591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2591" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2591" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2591" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2591" s="7"/>
+    </row>
+    <row r="2592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2592" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2592" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2592" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2592" s="1"/>
+    </row>
+    <row r="2593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2593" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2593" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2593" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2593" s="1"/>
+    </row>
+    <row r="2594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2594" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2594" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2594" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2594" s="1"/>
+    </row>
+    <row r="2595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2595" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2595" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2595" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2595" s="7"/>
+    </row>
+    <row r="2596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2596" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2596" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2596" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2596" s="1"/>
+    </row>
+    <row r="2597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2597" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2597" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2597" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2597" s="1"/>
+    </row>
+    <row r="2598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2598" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2598" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2598" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2598" s="1"/>
+    </row>
+    <row r="2599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2599" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2599" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2599" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2599" s="1"/>
+    </row>
+    <row r="2600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2600" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2600" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2600" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2600" s="1"/>
+    </row>
+    <row r="2601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2601" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B2601" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2601" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2601" s="1"/>
+    </row>
+    <row r="2602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2602" s="1"/>
+      <c r="B2602" s="1">
+        <f>SUM(B2582:B2601)</f>
+        <v>153</v>
+      </c>
+      <c r="C2602" s="7">
+        <f>SUM(C2582:C2601)</f>
+        <v>0</v>
+      </c>
+      <c r="D2602" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AB4E05-564A-4846-BF39-24B412DA374A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86D081D-64B9-43D2-9C7A-D2442212F6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="491">
   <si>
     <t>ToDo</t>
   </si>
@@ -1510,6 +1510,12 @@
   </si>
   <si>
     <t>28.04.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Infeasible</t>
+  </si>
+  <si>
+    <t>Phd: Read competitor papers</t>
   </si>
 </sst>
 </file>
@@ -4014,10 +4020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010993A-D4ED-4EB4-B776-F18BCFD807DB}">
-  <dimension ref="A1:G2602"/>
+  <dimension ref="A1:G2603"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2580" workbookViewId="0">
-      <selection activeCell="D2598" sqref="D2598"/>
+      <selection activeCell="A2605" sqref="A2605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34306,7 +34312,7 @@
         <v>4</v>
       </c>
       <c r="C2588" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2588" s="1"/>
     </row>
@@ -34450,33 +34456,45 @@
         <v>8</v>
       </c>
       <c r="C2600" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2600" s="1"/>
     </row>
     <row r="2601" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2601" s="7" t="s">
+      <c r="A2601" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B2601" s="1">
+      <c r="B2601" s="6">
         <v>2</v>
       </c>
-      <c r="C2601" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2601" s="1"/>
+      <c r="C2601" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2601" s="6" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="2602" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2602" s="1"/>
+      <c r="A2602" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="B2602" s="1">
-        <f>SUM(B2582:B2601)</f>
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="C2602" s="7">
-        <f>SUM(C2582:C2601)</f>
         <v>0</v>
       </c>
       <c r="D2602" s="1"/>
+    </row>
+    <row r="2603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2603" s="1">
+        <f>SUM(B2582:B2602)</f>
+        <v>177</v>
+      </c>
+      <c r="C2603" s="7">
+        <f>SUM(C2582:C2602)</f>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86D081D-64B9-43D2-9C7A-D2442212F6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7700B1CA-4892-4441-800B-BB9DDF23D0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="493">
   <si>
     <t>ToDo</t>
   </si>
@@ -1516,6 +1516,12 @@
   </si>
   <si>
     <t>Phd: Read competitor papers</t>
+  </si>
+  <si>
+    <t>29.04.2022</t>
+  </si>
+  <si>
+    <t>Phd: Write Fashion MNIST Experiments</t>
   </si>
 </sst>
 </file>
@@ -4020,10 +4026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010993A-D4ED-4EB4-B776-F18BCFD807DB}">
-  <dimension ref="A1:G2603"/>
+  <dimension ref="A1:G2626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2580" workbookViewId="0">
-      <selection activeCell="A2605" sqref="A2605"/>
+    <sheetView tabSelected="1" topLeftCell="A2602" workbookViewId="0">
+      <selection activeCell="A2613" sqref="A2613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34384,7 +34390,7 @@
         <v>10</v>
       </c>
       <c r="C2594" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2594" s="1"/>
     </row>
@@ -34456,7 +34462,7 @@
         <v>8</v>
       </c>
       <c r="C2600" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2600" s="1"/>
     </row>
@@ -34493,8 +34499,278 @@
       </c>
       <c r="C2603" s="7">
         <f>SUM(C2582:C2602)</f>
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2604" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B2604" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2604" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2604" s="4"/>
+    </row>
+    <row r="2605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2605" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2605" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2605" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2605" s="11"/>
+    </row>
+    <row r="2606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2606" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2606" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2606" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2606" s="7"/>
+    </row>
+    <row r="2607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2607" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2607" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2607" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2607" s="7"/>
+    </row>
+    <row r="2608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2608" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2608" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2608" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2608" s="1"/>
+    </row>
+    <row r="2609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2609" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2609" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2609" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2609" s="7"/>
+    </row>
+    <row r="2610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2610" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2610" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2610" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2610" s="1"/>
+    </row>
+    <row r="2611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2611" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2611" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2611" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2611" s="1"/>
+    </row>
+    <row r="2612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2612" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2612" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2612" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2612" s="1"/>
+    </row>
+    <row r="2613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2613" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2613" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2613" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2613" s="7"/>
+    </row>
+    <row r="2614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2614" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2614" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2614" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2614" s="7"/>
+    </row>
+    <row r="2615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2615" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2615" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2615" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2615" s="1"/>
+    </row>
+    <row r="2616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2616" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2616" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2616" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2616" s="1"/>
+    </row>
+    <row r="2617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2617" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2617" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2617" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2617" s="1"/>
+    </row>
+    <row r="2618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2618" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2618" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2618" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2618" s="7"/>
+    </row>
+    <row r="2619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2619" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2619" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2619" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2619" s="1"/>
+    </row>
+    <row r="2620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2620" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2620" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2620" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2620" s="1"/>
+    </row>
+    <row r="2621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2621" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2621" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2621" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2621" s="1"/>
+    </row>
+    <row r="2622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2622" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2622" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2622" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2622" s="1"/>
+    </row>
+    <row r="2623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2623" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2623" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2623" s="7">
+        <v>3</v>
+      </c>
+      <c r="D2623" s="1"/>
+    </row>
+    <row r="2624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2624" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2624" s="1">
+        <v>24</v>
+      </c>
+      <c r="C2624" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2624" s="1"/>
+    </row>
+    <row r="2625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2625" s="1"/>
+      <c r="B2625" s="1"/>
+      <c r="C2625" s="1"/>
+      <c r="D2625" s="1"/>
+    </row>
+    <row r="2626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2626" s="1"/>
+      <c r="B2626" s="1">
+        <f>SUM(B2605:B2624)</f>
+        <v>175</v>
+      </c>
+      <c r="C2626" s="7">
+        <f>SUM(C2605:C2624)</f>
+        <v>3</v>
+      </c>
+      <c r="D2626" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7700B1CA-4892-4441-800B-BB9DDF23D0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACE99B6-9458-4F47-8CA3-483118E0FC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="498">
   <si>
     <t>ToDo</t>
   </si>
@@ -1522,6 +1522,21 @@
   </si>
   <si>
     <t>Phd: Write Fashion MNIST Experiments</t>
+  </si>
+  <si>
+    <t>Phd-Blackshark: Docker tutorial</t>
+  </si>
+  <si>
+    <t>30.04.2022</t>
+  </si>
+  <si>
+    <t>1.05.2022</t>
+  </si>
+  <si>
+    <t>Insumo: Select Mixpanel categories</t>
+  </si>
+  <si>
+    <t>Phd: Run 3 blocks experiment in Home computer</t>
   </si>
 </sst>
 </file>
@@ -4026,10 +4041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010993A-D4ED-4EB4-B776-F18BCFD807DB}">
-  <dimension ref="A1:G2626"/>
+  <dimension ref="A1:G2673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2602" workbookViewId="0">
-      <selection activeCell="A2613" sqref="A2613"/>
+    <sheetView tabSelected="1" topLeftCell="A2650" workbookViewId="0">
+      <selection activeCell="D2659" sqref="D2659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34570,7 +34585,7 @@
         <v>6</v>
       </c>
       <c r="C2609" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2609" s="7"/>
     </row>
@@ -34660,7 +34675,7 @@
     </row>
     <row r="2617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2617" s="1" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="B2617" s="1">
         <v>10</v>
@@ -34690,7 +34705,7 @@
         <v>3</v>
       </c>
       <c r="C2619" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2619" s="1"/>
     </row>
@@ -34738,7 +34753,7 @@
         <v>8</v>
       </c>
       <c r="C2623" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2623" s="1"/>
     </row>
@@ -34768,9 +34783,565 @@
       </c>
       <c r="C2626" s="7">
         <f>SUM(C2605:C2624)</f>
+        <v>10</v>
+      </c>
+      <c r="D2626" s="1"/>
+    </row>
+    <row r="2627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2627" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2627" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2627" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2627" s="4"/>
+    </row>
+    <row r="2628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2628" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2628" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2628" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2628" s="11"/>
+    </row>
+    <row r="2629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2629" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2629" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2629" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2629" s="7"/>
+    </row>
+    <row r="2630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2630" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2630" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2630" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2630" s="7"/>
+    </row>
+    <row r="2631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2631" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2631" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2631" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2631" s="1"/>
+    </row>
+    <row r="2632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2632" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2632" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2632" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2632" s="7"/>
+    </row>
+    <row r="2633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2633" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2633" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2633" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2633" s="1"/>
+    </row>
+    <row r="2634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2634" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2634" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2634" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2634" s="1"/>
+    </row>
+    <row r="2635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2635" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2635" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2635" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2635" s="1"/>
+    </row>
+    <row r="2636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2636" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2636" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2636" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2636" s="7"/>
+    </row>
+    <row r="2637" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2637" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2637" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2637" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2637" s="7"/>
+    </row>
+    <row r="2638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2638" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2638" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2638" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2638" s="1"/>
+    </row>
+    <row r="2639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2639" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2639" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2639" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2639" s="1"/>
+    </row>
+    <row r="2640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2640" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2640" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2640" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2640" s="1"/>
+    </row>
+    <row r="2641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2641" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2641" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2641" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2641" s="7"/>
+    </row>
+    <row r="2642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2642" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2642" s="1">
         <v>3</v>
       </c>
-      <c r="D2626" s="1"/>
+      <c r="C2642" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2642" s="1"/>
+    </row>
+    <row r="2643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2643" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2643" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2643" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2643" s="1"/>
+    </row>
+    <row r="2644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2644" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2644" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2644" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2644" s="1"/>
+    </row>
+    <row r="2645" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2645" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2645" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2645" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2645" s="1"/>
+    </row>
+    <row r="2646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2646" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2646" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2646" s="7">
+        <v>8</v>
+      </c>
+      <c r="D2646" s="1"/>
+    </row>
+    <row r="2647" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2647" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2647" s="1">
+        <v>24</v>
+      </c>
+      <c r="C2647" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2647" s="1"/>
+    </row>
+    <row r="2648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2648" s="1"/>
+      <c r="B2648" s="1"/>
+      <c r="C2648" s="1"/>
+      <c r="D2648" s="1"/>
+    </row>
+    <row r="2649" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2649" s="1"/>
+      <c r="B2649" s="1">
+        <f>SUM(B2628:B2647)</f>
+        <v>187</v>
+      </c>
+      <c r="C2649" s="7">
+        <f>SUM(C2628:C2647)</f>
+        <v>8</v>
+      </c>
+      <c r="D2649" s="1"/>
+    </row>
+    <row r="2650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2650" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2650" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2650" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2650" s="4"/>
+    </row>
+    <row r="2651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2651" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2651" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2651" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2651" s="11"/>
+    </row>
+    <row r="2652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2652" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2652" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2652" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2652" s="7"/>
+    </row>
+    <row r="2653" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2653" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2653" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2653" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2653" s="7"/>
+    </row>
+    <row r="2654" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2654" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2654" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2654" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2654" s="1"/>
+    </row>
+    <row r="2655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2655" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2655" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2655" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2655" s="7"/>
+    </row>
+    <row r="2656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2656" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2656" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2656" s="7">
+        <v>3</v>
+      </c>
+      <c r="D2656" s="1"/>
+    </row>
+    <row r="2657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2657" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2657" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2657" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2657" s="1"/>
+    </row>
+    <row r="2658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2658" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2658" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2658" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2658" s="1"/>
+    </row>
+    <row r="2659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2659" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2659" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2659" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2659" s="7"/>
+    </row>
+    <row r="2660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2660" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2660" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2660" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2660" s="7"/>
+    </row>
+    <row r="2661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2661" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2661" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2661" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2661" s="1"/>
+    </row>
+    <row r="2662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2662" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2662" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2662" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2662" s="1"/>
+    </row>
+    <row r="2663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2663" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2663" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2663" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2663" s="1"/>
+    </row>
+    <row r="2664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2664" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2664" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2664" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2664" s="7"/>
+    </row>
+    <row r="2665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2665" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2665" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2665" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2665" s="1"/>
+    </row>
+    <row r="2666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2666" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2666" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2666" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2666" s="1"/>
+    </row>
+    <row r="2667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2667" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2667" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2667" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2667" s="1"/>
+    </row>
+    <row r="2668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2668" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2668" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2668" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2668" s="1"/>
+    </row>
+    <row r="2669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2669" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2669" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2669" s="7">
+        <v>8</v>
+      </c>
+      <c r="D2669" s="1"/>
+    </row>
+    <row r="2670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2670" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2670" s="1">
+        <v>24</v>
+      </c>
+      <c r="C2670" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2670" s="1"/>
+    </row>
+    <row r="2671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2671" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2671" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2671" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2671" s="1"/>
+    </row>
+    <row r="2672" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2672" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2672" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2672" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2672" s="1"/>
+    </row>
+    <row r="2673" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2673" s="1">
+        <f>SUM(B2651:B2672)</f>
+        <v>194</v>
+      </c>
+      <c r="C2673" s="7">
+        <f>SUM(C2651:C2672)</f>
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACE99B6-9458-4F47-8CA3-483118E0FC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE0471F-4BBD-4124-9B97-BCD9AC2189BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="501">
   <si>
     <t>ToDo</t>
   </si>
@@ -1537,6 +1537,15 @@
   </si>
   <si>
     <t>Phd: Run 3 blocks experiment in Home computer</t>
+  </si>
+  <si>
+    <t>2.05.2022</t>
+  </si>
+  <si>
+    <t>Phd: Test if masking layer works correctly for Gumbel-Softmax routing</t>
+  </si>
+  <si>
+    <t>Phd: Test if averaging layer works correctly for Gumbel-Softmax routing</t>
   </si>
 </sst>
 </file>
@@ -4041,10 +4050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010993A-D4ED-4EB4-B776-F18BCFD807DB}">
-  <dimension ref="A1:G2673"/>
+  <dimension ref="A1:G2697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2650" workbookViewId="0">
-      <selection activeCell="D2659" sqref="D2659"/>
+    <sheetView tabSelected="1" topLeftCell="A2672" workbookViewId="0">
+      <selection activeCell="A2694" sqref="A2694:D2694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35130,14 +35139,14 @@
       <c r="D2655" s="7"/>
     </row>
     <row r="2656" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2656" s="1" t="s">
+      <c r="A2656" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B2656" s="1">
+      <c r="B2656" s="6">
         <v>8</v>
       </c>
-      <c r="C2656" s="7">
-        <v>3</v>
+      <c r="C2656" s="6">
+        <v>6</v>
       </c>
       <c r="D2656" s="1"/>
     </row>
@@ -35257,7 +35266,7 @@
         <v>6</v>
       </c>
       <c r="C2666" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2666" s="1"/>
     </row>
@@ -35286,16 +35295,16 @@
       <c r="D2668" s="1"/>
     </row>
     <row r="2669" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2669" s="1" t="s">
+      <c r="A2669" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B2669" s="1">
+      <c r="B2669" s="6">
         <v>8</v>
       </c>
-      <c r="C2669" s="7">
-        <v>8</v>
-      </c>
-      <c r="D2669" s="1"/>
+      <c r="C2669" s="6">
+        <v>9</v>
+      </c>
+      <c r="D2669" s="6"/>
     </row>
     <row r="2670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2670" s="1" t="s">
@@ -35310,13 +35319,13 @@
       <c r="D2670" s="1"/>
     </row>
     <row r="2671" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2671" s="1" t="s">
+      <c r="A2671" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="B2671" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2671" s="1">
+      <c r="B2671" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2671" s="6">
         <v>0</v>
       </c>
       <c r="D2671" s="1"/>
@@ -35333,15 +35342,291 @@
       </c>
       <c r="D2672" s="1"/>
     </row>
-    <row r="2673" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2673" s="1">
         <f>SUM(B2651:B2672)</f>
         <v>194</v>
       </c>
       <c r="C2673" s="7">
         <f>SUM(C2651:C2672)</f>
-        <v>11</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2674" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2674" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2674" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2674" s="4"/>
+    </row>
+    <row r="2675" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2675" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2675" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2675" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2675" s="11"/>
+    </row>
+    <row r="2676" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2676" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2676" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2676" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2676" s="7"/>
+    </row>
+    <row r="2677" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2677" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2677" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2677" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2677" s="7"/>
+    </row>
+    <row r="2678" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2678" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2678" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2678" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2678" s="7"/>
+    </row>
+    <row r="2679" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2679" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2679" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2679" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2679" s="7"/>
+    </row>
+    <row r="2680" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2680" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2680" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2680" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2680" s="7"/>
+    </row>
+    <row r="2681" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2681" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2681" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2681" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2681" s="7"/>
+    </row>
+    <row r="2682" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2682" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2682" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2682" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2682" s="7"/>
+    </row>
+    <row r="2683" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2683" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2683" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2683" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2683" s="7"/>
+    </row>
+    <row r="2684" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2684" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2684" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2684" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2684" s="7"/>
+    </row>
+    <row r="2685" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2685" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2685" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2685" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2685" s="7"/>
+    </row>
+    <row r="2686" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2686" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2686" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2686" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2686" s="7"/>
+    </row>
+    <row r="2687" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2687" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2687" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2687" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2687" s="7"/>
+    </row>
+    <row r="2688" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2688" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2688" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2688" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2688" s="7"/>
+    </row>
+    <row r="2689" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2689" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2689" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2689" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2689" s="6"/>
+    </row>
+    <row r="2690" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2690" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2690" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2690" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2690" s="7"/>
+    </row>
+    <row r="2691" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2691" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2691" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2691" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2691" s="7"/>
+    </row>
+    <row r="2692" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2692" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2692" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2692" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2692" s="7"/>
+    </row>
+    <row r="2693" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2693" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2693" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2693" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2693" s="7"/>
+    </row>
+    <row r="2694" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2694" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2694" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2694" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2694" s="6"/>
+    </row>
+    <row r="2695" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2695" s="7"/>
+      <c r="B2695" s="7"/>
+      <c r="C2695" s="7"/>
+      <c r="D2695" s="7"/>
+    </row>
+    <row r="2696" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2696" s="7"/>
+      <c r="B2696" s="7"/>
+      <c r="C2696" s="7"/>
+      <c r="D2696" s="7"/>
+    </row>
+    <row r="2697" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2697" s="1"/>
+      <c r="B2697" s="1">
+        <f>SUM(B2675:B2695)</f>
+        <v>176</v>
+      </c>
+      <c r="C2697" s="7">
+        <f>SUM(C2675:C2695)</f>
+        <v>2</v>
+      </c>
+      <c r="D2697" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE0471F-4BBD-4124-9B97-BCD9AC2189BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C740EE9-B2DF-4E8F-B2AA-4892BF4441C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
   </bookViews>
@@ -4053,7 +4053,7 @@
   <dimension ref="A1:G2697"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2672" workbookViewId="0">
-      <selection activeCell="A2694" sqref="A2694:D2694"/>
+      <selection activeCell="D2689" sqref="D2689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35581,16 +35581,16 @@
       <c r="D2692" s="7"/>
     </row>
     <row r="2693" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2693" s="7" t="s">
+      <c r="A2693" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B2693" s="7">
+      <c r="B2693" s="6">
         <v>3</v>
       </c>
-      <c r="C2693" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2693" s="7"/>
+      <c r="C2693" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2693" s="6"/>
     </row>
     <row r="2694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2694" s="6" t="s">
@@ -35624,7 +35624,7 @@
       </c>
       <c r="C2697" s="7">
         <f>SUM(C2675:C2695)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2697" s="1"/>
     </row>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C740EE9-B2DF-4E8F-B2AA-4892BF4441C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A7E7FA-20AA-4519-8F2B-A8EDADBBF0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="504">
   <si>
     <t>ToDo</t>
   </si>
@@ -1546,6 +1546,15 @@
   </si>
   <si>
     <t>Phd: Test if averaging layer works correctly for Gumbel-Softmax routing</t>
+  </si>
+  <si>
+    <t>3.05.2022</t>
+  </si>
+  <si>
+    <t>Phd-Blackshark: Paperspace  docker image generation</t>
+  </si>
+  <si>
+    <t>Insumo: Mixpanel Query Optimization</t>
   </si>
 </sst>
 </file>
@@ -4050,10 +4059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010993A-D4ED-4EB4-B776-F18BCFD807DB}">
-  <dimension ref="A1:G2697"/>
+  <dimension ref="A1:G2721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2672" workbookViewId="0">
-      <selection activeCell="D2689" sqref="D2689"/>
+    <sheetView tabSelected="1" topLeftCell="A2697" workbookViewId="0">
+      <selection activeCell="A2712" sqref="A2712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35504,7 +35513,7 @@
         <v>10</v>
       </c>
       <c r="C2686" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2686" s="7"/>
     </row>
@@ -35624,9 +35633,285 @@
       </c>
       <c r="C2697" s="7">
         <f>SUM(C2675:C2695)</f>
+        <v>13</v>
+      </c>
+      <c r="D2697" s="1"/>
+    </row>
+    <row r="2698" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2698" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2698" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2698" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2698" s="4"/>
+    </row>
+    <row r="2699" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2699" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2699" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2699" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2699" s="11"/>
+    </row>
+    <row r="2700" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2700" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2700" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2700" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2700" s="7"/>
+    </row>
+    <row r="2701" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2701" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2701" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2701" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2701" s="7"/>
+    </row>
+    <row r="2702" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2702" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2702" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2702" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2702" s="7"/>
+    </row>
+    <row r="2703" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2703" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2703" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2703" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2703" s="7"/>
+    </row>
+    <row r="2704" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2704" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2704" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2704" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2704" s="7"/>
+    </row>
+    <row r="2705" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2705" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2705" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2705" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2705" s="7"/>
+    </row>
+    <row r="2706" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2706" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2706" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2706" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2706" s="7"/>
+    </row>
+    <row r="2707" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2707" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2707" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2707" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2707" s="7"/>
+    </row>
+    <row r="2708" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2708" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2708" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2708" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2708" s="7"/>
+    </row>
+    <row r="2709" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2709" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2709" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2709" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2709" s="7"/>
+    </row>
+    <row r="2710" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2710" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2710" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2710" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2710" s="7"/>
+    </row>
+    <row r="2711" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2711" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2711" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2711" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2711" s="7"/>
+    </row>
+    <row r="2712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2712" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2712" s="7">
         <v>3</v>
       </c>
-      <c r="D2697" s="1"/>
+      <c r="C2712" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2712" s="7"/>
+    </row>
+    <row r="2713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2713" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2713" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2713" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2713" s="7"/>
+    </row>
+    <row r="2714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2714" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2714" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2714" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2714" s="7"/>
+    </row>
+    <row r="2715" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2715" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2715" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2715" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2715" s="7"/>
+    </row>
+    <row r="2716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2716" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2716" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2716" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2716" s="7"/>
+    </row>
+    <row r="2717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2717" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2717" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2717" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2717" s="7"/>
+    </row>
+    <row r="2718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2718" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2718" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2718" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2718" s="7"/>
+    </row>
+    <row r="2719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2719" s="7"/>
+      <c r="B2719" s="7"/>
+      <c r="C2719" s="7"/>
+      <c r="D2719" s="7"/>
+    </row>
+    <row r="2720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2720" s="7"/>
+      <c r="B2720" s="7"/>
+      <c r="C2720" s="7"/>
+      <c r="D2720" s="7"/>
+    </row>
+    <row r="2721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2721" s="1"/>
+      <c r="B2721" s="1">
+        <f>SUM(B2699:B2719)</f>
+        <v>203</v>
+      </c>
+      <c r="C2721" s="7">
+        <f>SUM(C2699:C2719)</f>
+        <v>2</v>
+      </c>
+      <c r="D2721" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A7E7FA-20AA-4519-8F2B-A8EDADBBF0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAC308C-109F-4BEE-AA5D-9290D4EC68F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="507">
   <si>
     <t>ToDo</t>
   </si>
@@ -1555,6 +1555,15 @@
   </si>
   <si>
     <t>Insumo: Mixpanel Query Optimization</t>
+  </si>
+  <si>
+    <t>Phd: Read competitor papers 1</t>
+  </si>
+  <si>
+    <t>Phd: Read competitor papers 2</t>
+  </si>
+  <si>
+    <t>Phd: Prepare Linux environment</t>
   </si>
 </sst>
 </file>
@@ -4062,7 +4071,7 @@
   <dimension ref="A1:G2721"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2697" workbookViewId="0">
-      <selection activeCell="A2712" sqref="A2712"/>
+      <selection activeCell="A2714" sqref="A2714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35789,7 +35798,7 @@
         <v>6</v>
       </c>
       <c r="C2710" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2710" s="7"/>
     </row>
@@ -35831,19 +35840,19 @@
     </row>
     <row r="2714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2714" s="7" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="B2714" s="7">
         <v>6</v>
       </c>
       <c r="C2714" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2714" s="7"/>
     </row>
     <row r="2715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2715" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="B2715" s="7">
         <v>24</v>
@@ -35855,7 +35864,7 @@
     </row>
     <row r="2716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2716" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B2716" s="7">
         <v>24</v>
@@ -35909,7 +35918,7 @@
       </c>
       <c r="C2721" s="7">
         <f>SUM(C2699:C2719)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2721" s="1"/>
     </row>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAC308C-109F-4BEE-AA5D-9290D4EC68F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99646FFC-7AD4-4189-BC42-D7422332D6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
+    <workbookView xWindow="4716" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="512">
   <si>
     <t>ToDo</t>
   </si>
@@ -1564,6 +1564,21 @@
   </si>
   <si>
     <t>Phd: Prepare Linux environment</t>
+  </si>
+  <si>
+    <t>4.05.2022</t>
+  </si>
+  <si>
+    <t>Phd - Blackshark: Prepare GPU docker image</t>
+  </si>
+  <si>
+    <t>Blackshark: Geospatial Postgresql  Training</t>
+  </si>
+  <si>
+    <t>5.05.2022</t>
+  </si>
+  <si>
+    <t>Phd: Prepare Linux environment - Monster</t>
   </si>
 </sst>
 </file>
@@ -4068,10 +4083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010993A-D4ED-4EB4-B776-F18BCFD807DB}">
-  <dimension ref="A1:G2721"/>
+  <dimension ref="A1:G2769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2697" workbookViewId="0">
-      <selection activeCell="A2714" sqref="A2714"/>
+    <sheetView tabSelected="1" topLeftCell="A2750" workbookViewId="0">
+      <selection activeCell="C2757" sqref="C2757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35921,6 +35936,582 @@
         <v>11</v>
       </c>
       <c r="D2721" s="1"/>
+    </row>
+    <row r="2722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2722" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2722" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2722" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2722" s="4"/>
+    </row>
+    <row r="2723" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2723" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2723" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2723" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2723" s="11"/>
+    </row>
+    <row r="2724" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2724" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2724" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2724" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2724" s="7"/>
+    </row>
+    <row r="2725" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2725" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2725" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2725" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2725" s="7"/>
+    </row>
+    <row r="2726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2726" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2726" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2726" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2726" s="7"/>
+    </row>
+    <row r="2727" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2727" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2727" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2727" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2727" s="7"/>
+    </row>
+    <row r="2728" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2728" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2728" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2728" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2728" s="7"/>
+    </row>
+    <row r="2729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2729" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2729" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2729" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2729" s="7"/>
+    </row>
+    <row r="2730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2730" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2730" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2730" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2730" s="7"/>
+    </row>
+    <row r="2731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2731" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2731" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2731" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2731" s="7"/>
+    </row>
+    <row r="2732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2732" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2732" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2732" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2732" s="7"/>
+    </row>
+    <row r="2733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2733" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2733" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2733" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2733" s="7"/>
+    </row>
+    <row r="2734" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2734" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2734" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2734" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2734" s="7"/>
+    </row>
+    <row r="2735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2735" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2735" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2735" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2735" s="7"/>
+    </row>
+    <row r="2736" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2736" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2736" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2736" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2736" s="7"/>
+    </row>
+    <row r="2737" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2737" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2737" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2737" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2737" s="7"/>
+    </row>
+    <row r="2738" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2738" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2738" s="6">
+        <v>6</v>
+      </c>
+      <c r="C2738" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2738" s="7"/>
+    </row>
+    <row r="2739" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2739" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2739" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2739" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2739" s="7"/>
+    </row>
+    <row r="2740" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2740" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2740" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2740" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2740" s="7"/>
+    </row>
+    <row r="2741" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2741" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2741" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2741" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2741" s="7"/>
+    </row>
+    <row r="2742" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2742" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2742" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2742" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2742" s="7"/>
+    </row>
+    <row r="2743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2743" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2743" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2743" s="7">
+        <v>5</v>
+      </c>
+      <c r="D2743" s="7"/>
+    </row>
+    <row r="2744" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2744" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2744" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2744" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2744" s="7"/>
+    </row>
+    <row r="2745" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2745" s="1"/>
+      <c r="B2745" s="1">
+        <f>SUM(B2723:B2744)</f>
+        <v>223</v>
+      </c>
+      <c r="C2745" s="7">
+        <f>SUM(C2723:C2744)</f>
+        <v>5</v>
+      </c>
+      <c r="D2745" s="1"/>
+    </row>
+    <row r="2746" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2746" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2746" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2746" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2746" s="4"/>
+    </row>
+    <row r="2747" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2747" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2747" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2747" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2747" s="11"/>
+    </row>
+    <row r="2748" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2748" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2748" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2748" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2748" s="7"/>
+    </row>
+    <row r="2749" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2749" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2749" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2749" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2749" s="7"/>
+    </row>
+    <row r="2750" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2750" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2750" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2750" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2750" s="7"/>
+    </row>
+    <row r="2751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2751" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2751" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2751" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2751" s="7"/>
+    </row>
+    <row r="2752" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2752" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2752" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2752" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2752" s="7"/>
+    </row>
+    <row r="2753" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2753" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2753" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2753" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2753" s="7"/>
+    </row>
+    <row r="2754" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2754" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2754" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2754" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2754" s="7"/>
+    </row>
+    <row r="2755" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2755" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2755" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2755" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2755" s="7"/>
+    </row>
+    <row r="2756" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2756" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2756" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2756" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2756" s="7"/>
+    </row>
+    <row r="2757" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2757" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2757" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2757" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2757" s="7"/>
+    </row>
+    <row r="2758" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2758" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2758" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2758" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2758" s="7"/>
+    </row>
+    <row r="2759" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2759" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2759" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2759" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2759" s="7"/>
+    </row>
+    <row r="2760" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2760" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2760" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2760" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2760" s="7"/>
+    </row>
+    <row r="2761" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2761" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2761" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2761" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2761" s="7"/>
+    </row>
+    <row r="2762" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2762" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2762" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2762" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2762" s="7"/>
+    </row>
+    <row r="2763" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2763" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2763" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2763" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2763" s="7"/>
+    </row>
+    <row r="2764" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2764" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2764" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2764" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2764" s="7"/>
+    </row>
+    <row r="2765" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2765" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2765" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2765" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2765" s="7"/>
+    </row>
+    <row r="2766" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2766" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2766" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2766" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2766" s="7"/>
+    </row>
+    <row r="2767" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2767" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2767" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2767" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2767" s="7"/>
+    </row>
+    <row r="2768" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2768" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2768" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2768" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2768" s="7"/>
+    </row>
+    <row r="2769" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2769" s="1"/>
+      <c r="B2769" s="1">
+        <f>SUM(B2747:B2768)</f>
+        <v>223</v>
+      </c>
+      <c r="C2769" s="7">
+        <f>SUM(C2747:C2768)</f>
+        <v>2</v>
+      </c>
+      <c r="D2769" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99646FFC-7AD4-4189-BC42-D7422332D6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08189EA7-EDD9-462B-99E5-7E747BFAAD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4716" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
   </bookViews>
@@ -4085,8 +4085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010993A-D4ED-4EB4-B776-F18BCFD807DB}">
   <dimension ref="A1:G2769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2750" workbookViewId="0">
-      <selection activeCell="C2757" sqref="C2757"/>
+    <sheetView tabSelected="1" topLeftCell="A2756" workbookViewId="0">
+      <selection activeCell="A2766" sqref="A2766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36485,7 +36485,7 @@
         <v>10</v>
       </c>
       <c r="C2767" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2767" s="7"/>
     </row>
@@ -36509,7 +36509,7 @@
       </c>
       <c r="C2769" s="7">
         <f>SUM(C2747:C2768)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2769" s="1"/>
     </row>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08189EA7-EDD9-462B-99E5-7E747BFAAD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE859D1-40F8-450C-8B18-406FD1F259CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4716" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sayfa2" sheetId="2" r:id="rId3"/>
     <sheet name="Sayfa4" sheetId="4" r:id="rId4"/>
     <sheet name="Sayfa5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sayfa6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="539">
   <si>
     <t>ToDo</t>
   </si>
@@ -1579,13 +1580,94 @@
   </si>
   <si>
     <t>Phd: Prepare Linux environment - Monster</t>
+  </si>
+  <si>
+    <t>6.05.2022</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/lerhamn-tisch-und-4-stuehle-antikbeize-hell-weiss-gebeizt-vittaryd-beige-s69306277/#content</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/hauga-schlafzimmermoebel-3er-set-vissle-grau-s59485991/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/valevag-taschenfederkernmatratze-fest-hellblau-20470009/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/malm-millberget-billy-oxberg-schreibtisch-aufbewahrungskombi-und-drehstuhl-weiss-beige-s79436377/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/snitsig-kochgeschirr-7-tlg-edelstahl-60139363/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/kavalkad-pfanne-2er-set-schwarz-40139321/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/mopsig-besteck-16-tlg-00343003/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/foerdubbla-messer-2er-set-grau-00436790/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/pruta-dose-mit-deckel-17er-set-transparent-gruen-60149673/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/idealisk-korkenzieher-silberfarben-mattiert-10149029/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/aendlig-messer-3er-set-hellgrau-weiss-70257624/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/faergklar-service-24-tlg-glaenzend-beige-70479663/#content</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/faergklar-service-24-tlg-mattiert-helltuerkis-80477159/#content</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/faergklar-tasse-mit-untertasse-glaenzend-dunkeltuerkis-40481827/#content</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/faergklar-tasse-mit-untertasse-glaenzend-beige-00483630/#content</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/pokal-glas-blau-20461019/#content</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/ivrig-glas-grau-00445228/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/direkt-kuechenutensilien-3-tlg-schwarz-edelstahl-50137581/</t>
+  </si>
+  <si>
+    <t>https://www.electronic4you.at/siemens-wm14n298-iq300-extraklasse-223776.html</t>
+  </si>
+  <si>
+    <t>https://www.electronic4you.at/delonghi-cgh-912c-multi-grill-178336.html</t>
+  </si>
+  <si>
+    <t>https://www.mediamarkt.at/de/product/_philips-wasserkocher-daily-collection-hd9350-90-1-7-liter-edelstahl-schwarz-1634011.html</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/inner-innenkissen-weiss-10230897/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/lyktfibbla-bettwaesche-set-3-teilig-weiss-grau-60466411/</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/nattjasmin-spannbettlaken-dunkelgrau-10442677/#content</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/at/de/p/groenlid-4er-sofa-mit-recamiere-ljungen-hellgruen-s59408846/#content</t>
+  </si>
+  <si>
+    <t>Insumo: Streak table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,6 +1687,22 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="MS Shell Dlg 2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1751,10 +1849,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1798,8 +1897,14 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4083,10 +4188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010993A-D4ED-4EB4-B776-F18BCFD807DB}">
-  <dimension ref="A1:G2769"/>
+  <dimension ref="A1:G2816"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2756" workbookViewId="0">
-      <selection activeCell="A2766" sqref="A2766"/>
+    <sheetView tabSelected="1" topLeftCell="A2794" workbookViewId="0">
+      <selection activeCell="D2801" sqref="D2801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36485,7 +36590,7 @@
         <v>10</v>
       </c>
       <c r="C2767" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2767" s="7"/>
     </row>
@@ -36497,7 +36602,7 @@
         <v>10</v>
       </c>
       <c r="C2768" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2768" s="7"/>
     </row>
@@ -36509,9 +36614,573 @@
       </c>
       <c r="C2769" s="7">
         <f>SUM(C2747:C2768)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2769" s="1"/>
+    </row>
+    <row r="2770" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2770" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2770" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2770" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2770" s="4"/>
+    </row>
+    <row r="2771" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2771" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2771" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2771" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2771" s="11"/>
+    </row>
+    <row r="2772" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2772" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2772" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2772" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2772" s="7"/>
+    </row>
+    <row r="2773" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2773" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2773" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2773" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2773" s="7"/>
+    </row>
+    <row r="2774" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2774" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2774" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2774" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2774" s="7"/>
+    </row>
+    <row r="2775" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2775" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2775" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2775" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2775" s="7"/>
+    </row>
+    <row r="2776" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2776" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2776" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2776" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2776" s="7"/>
+    </row>
+    <row r="2777" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2777" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2777" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2777" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2777" s="7"/>
+    </row>
+    <row r="2778" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2778" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2778" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2778" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2778" s="7"/>
+    </row>
+    <row r="2779" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2779" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2779" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2779" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2779" s="7"/>
+    </row>
+    <row r="2780" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2780" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2780" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2780" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2780" s="7"/>
+    </row>
+    <row r="2781" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2781" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2781" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2781" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2781" s="7"/>
+    </row>
+    <row r="2782" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2782" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2782" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2782" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2782" s="7"/>
+    </row>
+    <row r="2783" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2783" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2783" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2783" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2783" s="7"/>
+    </row>
+    <row r="2784" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2784" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2784" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2784" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2784" s="7"/>
+    </row>
+    <row r="2785" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2785" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2785" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2785" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2785" s="7"/>
+    </row>
+    <row r="2786" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2786" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2786" s="6">
+        <v>6</v>
+      </c>
+      <c r="C2786" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2786" s="7"/>
+    </row>
+    <row r="2787" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2787" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2787" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2787" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2787" s="7"/>
+    </row>
+    <row r="2788" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2788" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2788" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2788" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2788" s="7"/>
+    </row>
+    <row r="2789" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2789" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2789" s="6">
+        <v>12</v>
+      </c>
+      <c r="C2789" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2789" s="7"/>
+    </row>
+    <row r="2790" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2790" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2790" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2790" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2790" s="7"/>
+    </row>
+    <row r="2791" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2791" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2791" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2791" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2791" s="7"/>
+    </row>
+    <row r="2792" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2792" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2792" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2792" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2792" s="7"/>
+    </row>
+    <row r="2793" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2793" s="1"/>
+      <c r="B2793" s="1">
+        <f>SUM(B2771:B2792)</f>
+        <v>223</v>
+      </c>
+      <c r="C2793" s="7">
+        <f>SUM(C2771:C2792)</f>
+        <v>3</v>
+      </c>
+      <c r="D2793" s="1"/>
+    </row>
+    <row r="2794" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2794" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2794" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2794" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2794" s="4"/>
+    </row>
+    <row r="2795" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2795" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2795" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2795" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2795" s="11"/>
+    </row>
+    <row r="2796" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2796" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2796" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2796" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2796" s="7"/>
+    </row>
+    <row r="2797" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2797" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2797" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2797" s="7">
+        <v>3</v>
+      </c>
+      <c r="D2797" s="7"/>
+    </row>
+    <row r="2798" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2798" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2798" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2798" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2798" s="7"/>
+    </row>
+    <row r="2799" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2799" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2799" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2799" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2799" s="7"/>
+    </row>
+    <row r="2800" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2800" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2800" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2800" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2800" s="7"/>
+    </row>
+    <row r="2801" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2801" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2801" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2801" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2801" s="7"/>
+    </row>
+    <row r="2802" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2802" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2802" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2802" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2802" s="7"/>
+    </row>
+    <row r="2803" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2803" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2803" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2803" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2803" s="7"/>
+    </row>
+    <row r="2804" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2804" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2804" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2804" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2804" s="7"/>
+    </row>
+    <row r="2805" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2805" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2805" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2805" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2805" s="7"/>
+    </row>
+    <row r="2806" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2806" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2806" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2806" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2806" s="7"/>
+    </row>
+    <row r="2807" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2807" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2807" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2807" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2807" s="7"/>
+    </row>
+    <row r="2808" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2808" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2808" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2808" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2808" s="7"/>
+    </row>
+    <row r="2809" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2809" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2809" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2809" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2809" s="7"/>
+    </row>
+    <row r="2810" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2810" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2810" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2810" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2810" s="7"/>
+    </row>
+    <row r="2811" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2811" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2811" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2811" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2811" s="7"/>
+    </row>
+    <row r="2812" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2812" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2812" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2812" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2812" s="7"/>
+    </row>
+    <row r="2813" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2813" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2813" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2813" s="7">
+        <v>7</v>
+      </c>
+      <c r="D2813" s="7"/>
+    </row>
+    <row r="2814" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2814" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2814" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2814" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2814" s="7"/>
+    </row>
+    <row r="2815" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2815" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2815" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2815" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2815" s="7"/>
+    </row>
+    <row r="2816" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2816" s="7"/>
+      <c r="B2816" s="7">
+        <f>SUM(B2795:B2815)</f>
+        <v>225</v>
+      </c>
+      <c r="C2816" s="7">
+        <f>SUM(C2795:C2815)</f>
+        <v>10</v>
+      </c>
+      <c r="D2816" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37918,7 +38587,7 @@
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37931,7 +38600,7 @@
         <v>0.68922623762082602</v>
       </c>
       <c r="G1">
-        <v>0.92483000159263595</v>
+        <v>0.92624000906944304</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -37942,7 +38611,7 @@
         <v>0.75944833021171398</v>
       </c>
       <c r="G2">
-        <v>0.92431000471115099</v>
+        <v>0.92519999146461496</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -37953,7 +38622,7 @@
         <v>0.70375937279584999</v>
       </c>
       <c r="G3">
-        <v>0.92413998842239398</v>
+        <v>0.92429999709129296</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -37967,8 +38636,8 @@
         <f>CORREL(A1:A99,B1:B99)</f>
         <v>0.30280612852118793</v>
       </c>
-      <c r="G4">
-        <v>0.92348001003265401</v>
+      <c r="G4" s="29">
+        <v>0.92447999119758595</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -37979,7 +38648,7 @@
         <v>0.122700715408658</v>
       </c>
       <c r="G5">
-        <v>0.92332999706268304</v>
+        <v>0.92385000586509702</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -37990,7 +38659,7 @@
         <v>0.39328405962294199</v>
       </c>
       <c r="G6">
-        <v>0.92307000160217301</v>
+        <v>0.92194999456405602</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -38001,7 +38670,7 @@
         <v>0.93172544467337703</v>
       </c>
       <c r="G7">
-        <v>0.92292000055313095</v>
+        <v>0.92182000875473002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -38011,8 +38680,8 @@
       <c r="B8" s="28">
         <v>0.357795993118804</v>
       </c>
-      <c r="G8">
-        <v>0.92289999723434402</v>
+      <c r="G8" s="30">
+        <v>0.92486999630928002</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -38022,8 +38691,8 @@
       <c r="B9" s="28">
         <v>0.62195093022721604</v>
       </c>
-      <c r="G9">
-        <v>0.92282000184059099</v>
+      <c r="G9" s="30">
+        <v>0.92285000681877105</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -38033,8 +38702,8 @@
       <c r="B10" s="28">
         <v>0.29109230601219099</v>
       </c>
-      <c r="G10">
-        <v>0.92268000245094295</v>
+      <c r="G10" s="29">
+        <v>0.92465999722480796</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -38044,9 +38713,6 @@
       <c r="B11" s="28">
         <v>0.55801829041753304</v>
       </c>
-      <c r="G11">
-        <v>0.92245000004768396</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
@@ -38055,9 +38721,6 @@
       <c r="B12" s="28">
         <v>7.1187612213445203E-2</v>
       </c>
-      <c r="G12">
-        <v>0.92234000563621499</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
@@ -38067,7 +38730,8 @@
         <v>0.415237510565102</v>
       </c>
       <c r="G13">
-        <v>0.92222999334335298</v>
+        <f>AVERAGE(G1:G10)</f>
+        <v>0.92402199983596778</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -38078,7 +38742,8 @@
         <v>0.75820255770711797</v>
       </c>
       <c r="G14">
-        <v>0.92195000648498504</v>
+        <f>_xlfn.STDEV.P(G1:G10)</f>
+        <v>1.3515001521346914E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -38088,9 +38753,6 @@
       <c r="B15" s="28">
         <v>0.55244033312234897</v>
       </c>
-      <c r="G15">
-        <v>0.921819996833801</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
@@ -38099,55 +38761,40 @@
       <c r="B16" s="28">
         <v>0.44051171617859503</v>
       </c>
-      <c r="G16">
-        <v>0.92170000076293901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>0.92207998633384702</v>
       </c>
       <c r="B17" s="28">
         <v>0.60406765669463403</v>
       </c>
-      <c r="G17">
-        <v>0.92139999270439099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <v>0.92203000783920297</v>
       </c>
       <c r="B18" s="28">
         <v>0.94301731645230302</v>
       </c>
-      <c r="G18">
-        <v>0.92057999372482302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>0.92203000187873796</v>
       </c>
       <c r="B19" s="28">
         <v>0.21229149824246801</v>
       </c>
-      <c r="G19">
-        <v>0.92008000016212499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>0.92200999259948702</v>
       </c>
       <c r="B20" s="28">
         <v>0.20426367129478301</v>
       </c>
-      <c r="G20">
-        <v>0.91931000947952302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
         <v>0.92199000120162999</v>
       </c>
@@ -38155,7 +38802,7 @@
         <v>0.50884061267337899</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>0.92197000384330796</v>
       </c>
@@ -38163,7 +38810,7 @@
         <v>0.38931491911738397</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
         <v>0.92183000445365904</v>
       </c>
@@ -38171,7 +38818,7 @@
         <v>0.28973208632376202</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <v>0.92178000807762095</v>
       </c>
@@ -38179,7 +38826,7 @@
         <v>0.90858184975631295</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
         <v>0.92177000045776403</v>
       </c>
@@ -38187,7 +38834,7 @@
         <v>0.86336904770637701</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
         <v>0.92171999812126204</v>
       </c>
@@ -38195,7 +38842,7 @@
         <v>0.97772281529024696</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
         <v>0.92168999910354599</v>
       </c>
@@ -38203,7 +38850,7 @@
         <v>0.41485442547883999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
         <v>0.92168999910354599</v>
       </c>
@@ -38211,7 +38858,7 @@
         <v>0.94643173274833503</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
         <v>0.92165000438690203</v>
       </c>
@@ -38219,7 +38866,7 @@
         <v>0.47027263767153998</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
         <v>0.92153000831604004</v>
       </c>
@@ -38227,7 +38874,7 @@
         <v>0.42956380818251599</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
         <v>0.92153000235557603</v>
       </c>
@@ -38235,7 +38882,7 @@
         <v>0.87123484986671695</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
         <v>0.92148000597953805</v>
       </c>
@@ -38783,4 +39430,260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8B07BB-770E-4F1F-AE98-DB13A00C8056}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="79.33203125" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" s="17">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="B4">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>526</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>527</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>528</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>529</v>
+      </c>
+      <c r="B17">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>529</v>
+      </c>
+      <c r="B18">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>530</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>533</v>
+      </c>
+      <c r="B22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>534</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>534</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>534</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>534</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>535</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>536</v>
+      </c>
+      <c r="B28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f>1600-SUM(B2:B29)</f>
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{424C2D08-4BC7-4A72-B56C-34697F60013C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE859D1-40F8-450C-8B18-406FD1F259CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68293814-7367-40DF-82F8-F2CC4EAFC066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="541">
   <si>
     <t>ToDo</t>
   </si>
@@ -1661,6 +1661,12 @@
   </si>
   <si>
     <t>Insumo: Streak table</t>
+  </si>
+  <si>
+    <t>8.05.2022</t>
+  </si>
+  <si>
+    <t>9.05.2022</t>
   </si>
 </sst>
 </file>
@@ -4188,10 +4194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010993A-D4ED-4EB4-B776-F18BCFD807DB}">
-  <dimension ref="A1:G2816"/>
+  <dimension ref="A1:G2839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2794" workbookViewId="0">
-      <selection activeCell="D2801" sqref="D2801"/>
+    <sheetView tabSelected="1" topLeftCell="A2816" workbookViewId="0">
+      <selection activeCell="D2837" sqref="D2837"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36908,7 +36914,7 @@
     </row>
     <row r="2794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2794" s="3" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="B2794" s="4" t="s">
         <v>0</v>
@@ -37181,6 +37187,282 @@
         <v>10</v>
       </c>
       <c r="D2816" s="7"/>
+    </row>
+    <row r="2817" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2817" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B2817" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2817" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2817" s="4"/>
+    </row>
+    <row r="2818" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2818" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2818" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2818" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2818" s="11"/>
+    </row>
+    <row r="2819" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2819" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2819" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2819" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2819" s="7"/>
+    </row>
+    <row r="2820" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2820" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2820" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2820" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2820" s="7"/>
+    </row>
+    <row r="2821" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2821" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2821" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2821" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2821" s="7"/>
+    </row>
+    <row r="2822" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2822" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2822" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2822" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2822" s="7"/>
+    </row>
+    <row r="2823" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2823" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2823" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2823" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2823" s="7"/>
+    </row>
+    <row r="2824" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2824" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2824" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2824" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2824" s="7"/>
+    </row>
+    <row r="2825" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2825" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2825" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2825" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2825" s="7"/>
+    </row>
+    <row r="2826" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2826" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2826" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2826" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2826" s="7"/>
+    </row>
+    <row r="2827" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2827" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2827" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2827" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2827" s="7"/>
+    </row>
+    <row r="2828" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2828" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2828" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2828" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2828" s="7"/>
+    </row>
+    <row r="2829" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2829" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2829" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2829" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2829" s="7"/>
+    </row>
+    <row r="2830" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2830" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2830" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2830" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2830" s="7"/>
+    </row>
+    <row r="2831" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2831" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2831" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2831" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2831" s="7"/>
+    </row>
+    <row r="2832" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2832" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2832" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2832" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2832" s="7"/>
+    </row>
+    <row r="2833" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2833" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2833" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2833" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2833" s="7"/>
+    </row>
+    <row r="2834" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2834" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2834" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2834" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2834" s="7"/>
+    </row>
+    <row r="2835" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2835" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2835" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2835" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2835" s="7"/>
+    </row>
+    <row r="2836" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2836" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2836" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2836" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2836" s="7"/>
+    </row>
+    <row r="2837" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2837" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2837" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2837" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2837" s="7"/>
+    </row>
+    <row r="2838" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2838" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2838" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2838" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2838" s="7"/>
+    </row>
+    <row r="2839" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2839" s="7"/>
+      <c r="B2839" s="7">
+        <f>SUM(B2818:B2838)</f>
+        <v>225</v>
+      </c>
+      <c r="C2839" s="7">
+        <f>SUM(C2818:C2838)</f>
+        <v>0</v>
+      </c>
+      <c r="D2839" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68293814-7367-40DF-82F8-F2CC4EAFC066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1D64DB-CC34-4C44-9BD2-AD1A15301983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFBB5989-5F03-4E6C-92F7-2FA7EA34683B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="543">
   <si>
     <t>ToDo</t>
   </si>
@@ -1667,6 +1667,12 @@
   </si>
   <si>
     <t>9.05.2022</t>
+  </si>
+  <si>
+    <t>10.05.2022</t>
+  </si>
+  <si>
+    <t>Insumo: Mixpanel Activity Calculation</t>
   </si>
 </sst>
 </file>
@@ -4194,10 +4200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010993A-D4ED-4EB4-B776-F18BCFD807DB}">
-  <dimension ref="A1:G2839"/>
+  <dimension ref="A1:G2862"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2816" workbookViewId="0">
-      <selection activeCell="D2837" sqref="D2837"/>
+    <sheetView tabSelected="1" topLeftCell="A2837" workbookViewId="0">
+      <selection activeCell="A2849" sqref="A2849"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37333,37 +37339,37 @@
       <c r="D2828" s="7"/>
     </row>
     <row r="2829" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2829" s="7" t="s">
+      <c r="A2829" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B2829" s="7">
-        <v>6</v>
-      </c>
-      <c r="C2829" s="7">
+      <c r="B2829" s="6">
+        <v>6</v>
+      </c>
+      <c r="C2829" s="6">
         <v>0</v>
       </c>
       <c r="D2829" s="7"/>
     </row>
     <row r="2830" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2830" s="7" t="s">
+      <c r="A2830" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B2830" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2830" s="7">
+      <c r="B2830" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2830" s="6">
         <v>0</v>
       </c>
       <c r="D2830" s="7"/>
     </row>
     <row r="2831" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2831" s="7" t="s">
+      <c r="A2831" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B2831" s="7">
+      <c r="B2831" s="6">
         <v>3</v>
       </c>
-      <c r="C2831" s="7">
+      <c r="C2831" s="6">
         <v>0</v>
       </c>
       <c r="D2831" s="7"/>
@@ -37417,13 +37423,13 @@
       <c r="D2835" s="7"/>
     </row>
     <row r="2836" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2836" s="7" t="s">
+      <c r="A2836" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="B2836" s="7">
-        <v>6</v>
-      </c>
-      <c r="C2836" s="7">
+      <c r="B2836" s="6">
+        <v>6</v>
+      </c>
+      <c r="C2836" s="6">
         <v>0</v>
       </c>
       <c r="D2836" s="7"/>
@@ -37459,10 +37465,261 @@
         <v>225</v>
       </c>
       <c r="C2839" s="7">
-        <f>SUM(C2818:C2838)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2839" s="7"/>
+    </row>
+    <row r="2840" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2840" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2840" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2840" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2840" s="4"/>
+    </row>
+    <row r="2841" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2841" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2841" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2841" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2841" s="11"/>
+    </row>
+    <row r="2842" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2842" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2842" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2842" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2842" s="7"/>
+    </row>
+    <row r="2843" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2843" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2843" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2843" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2843" s="7"/>
+    </row>
+    <row r="2844" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2844" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2844" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2844" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2844" s="7"/>
+    </row>
+    <row r="2845" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2845" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2845" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2845" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2845" s="7"/>
+    </row>
+    <row r="2846" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2846" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2846" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2846" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2846" s="7"/>
+    </row>
+    <row r="2847" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2847" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2847" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2847" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2847" s="7"/>
+    </row>
+    <row r="2848" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2848" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2848" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2848" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2848" s="7"/>
+    </row>
+    <row r="2849" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2849" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2849" s="7">
+        <v>12</v>
+      </c>
+      <c r="C2849" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2849" s="7"/>
+    </row>
+    <row r="2850" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2850" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2850" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2850" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2850" s="7"/>
+    </row>
+    <row r="2851" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2851" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2851" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2851" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2851" s="7"/>
+    </row>
+    <row r="2852" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2852" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2852" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2852" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2852" s="7"/>
+    </row>
+    <row r="2853" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2853" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2853" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2853" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2853" s="7"/>
+    </row>
+    <row r="2854" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2854" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2854" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2854" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2854" s="7"/>
+    </row>
+    <row r="2855" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2855" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2855" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2855" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2855" s="7"/>
+    </row>
+    <row r="2856" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2856" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2856" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2856" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2856" s="7"/>
+    </row>
+    <row r="2857" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2857" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B2857" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2857" s="7">
+        <v>3</v>
+      </c>
+      <c r="D2857" s="7"/>
+    </row>
+    <row r="2858" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2858" s="7"/>
+      <c r="B2858" s="7">
+        <f>SUM(B2841:B2857)</f>
+        <v>189</v>
+      </c>
+      <c r="C2858" s="7">
+        <f>SUM(C2841:C2857)</f>
+        <v>3</v>
+      </c>
+      <c r="D2858" s="7"/>
+    </row>
+    <row r="2859" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2859" s="7"/>
+      <c r="B2859" s="7"/>
+      <c r="C2859" s="7"/>
+      <c r="D2859" s="7"/>
+    </row>
+    <row r="2860" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2860" s="7"/>
+      <c r="B2860" s="7"/>
+      <c r="C2860" s="7"/>
+      <c r="D2860" s="7"/>
+    </row>
+    <row r="2861" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2861" s="7"/>
+      <c r="B2861" s="7"/>
+      <c r="C2861" s="7"/>
+      <c r="D2861" s="7"/>
+    </row>
+    <row r="2862" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2862" s="7"/>
+      <c r="B2862" s="7"/>
+      <c r="C2862" s="7"/>
+      <c r="D2862" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C6B543-2F0E-445D-9869-8328F696D616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00F0B5D-0019-433E-B216-08F37554DF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="552">
   <si>
     <t>ToDo</t>
   </si>
@@ -1692,6 +1692,15 @@
   </si>
   <si>
     <t>13.05.2022</t>
+  </si>
+  <si>
+    <t>14.05.2022</t>
+  </si>
+  <si>
+    <t>Phd: Gumbel-Softmax Experiment Preparations</t>
+  </si>
+  <si>
+    <t>15.05.2022</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1737,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1787,6 +1796,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1855,7 +1876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1903,6 +1924,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -2917,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2919"/>
+  <dimension ref="A1:G2959"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2898" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2909" sqref="D2909"/>
+    <sheetView tabSelected="1" topLeftCell="A2940" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2955" sqref="D2955"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37142,6 +37170,478 @@
         <v>4</v>
       </c>
       <c r="D2919" s="8"/>
+    </row>
+    <row r="2920" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2920" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B2920" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2920" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2920" s="2"/>
+    </row>
+    <row r="2921" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2921" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2921" s="8">
+        <v>8</v>
+      </c>
+      <c r="C2921" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2921" s="10"/>
+    </row>
+    <row r="2922" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2922" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2922" s="8">
+        <v>24</v>
+      </c>
+      <c r="C2922" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2922" s="8"/>
+    </row>
+    <row r="2923" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2923" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2923" s="31">
+        <v>4</v>
+      </c>
+      <c r="C2923" s="31">
+        <v>7</v>
+      </c>
+      <c r="D2923" s="8"/>
+    </row>
+    <row r="2924" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2924" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2924" s="8">
+        <v>12</v>
+      </c>
+      <c r="C2924" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2924" s="8"/>
+    </row>
+    <row r="2925" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2925" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2925" s="8">
+        <v>6</v>
+      </c>
+      <c r="C2925" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2925" s="8"/>
+    </row>
+    <row r="2926" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2926" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2926" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2926" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2926" s="8"/>
+    </row>
+    <row r="2927" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2927" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2927" s="8">
+        <v>6</v>
+      </c>
+      <c r="C2927" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2927" s="8"/>
+    </row>
+    <row r="2928" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2928" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2928" s="8">
+        <v>24</v>
+      </c>
+      <c r="C2928" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2928" s="8"/>
+    </row>
+    <row r="2929" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2929" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2929" s="8">
+        <v>12</v>
+      </c>
+      <c r="C2929" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2929" s="8"/>
+    </row>
+    <row r="2930" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2930" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2930" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2930" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2930" s="8"/>
+    </row>
+    <row r="2931" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2931" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2931" s="8">
+        <v>6</v>
+      </c>
+      <c r="C2931" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2931" s="8"/>
+    </row>
+    <row r="2932" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2932" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2932" s="8">
+        <v>3</v>
+      </c>
+      <c r="C2932" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2932" s="8"/>
+    </row>
+    <row r="2933" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2933" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2933" s="8">
+        <v>24</v>
+      </c>
+      <c r="C2933" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2933" s="8"/>
+    </row>
+    <row r="2934" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2934" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2934" s="8">
+        <v>24</v>
+      </c>
+      <c r="C2934" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2934" s="8"/>
+    </row>
+    <row r="2935" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2935" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2935" s="8">
+        <v>10</v>
+      </c>
+      <c r="C2935" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2935" s="8"/>
+    </row>
+    <row r="2936" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2936" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2936" s="32">
+        <v>6</v>
+      </c>
+      <c r="C2936" s="32">
+        <v>3</v>
+      </c>
+      <c r="D2936" s="8"/>
+    </row>
+    <row r="2937" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2937" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2937" s="8">
+        <v>6</v>
+      </c>
+      <c r="C2937" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2937" s="8"/>
+    </row>
+    <row r="2938" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2938" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2938" s="19">
+        <v>8</v>
+      </c>
+      <c r="C2938" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2939" s="8"/>
+      <c r="B2939" s="8">
+        <f>SUM(B2921:B2938)</f>
+        <v>191</v>
+      </c>
+      <c r="C2939" s="8">
+        <f>SUM(C2921:C2938)</f>
+        <v>10</v>
+      </c>
+      <c r="D2939" s="8"/>
+    </row>
+    <row r="2940" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2940" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2940" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2940" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2940" s="2"/>
+    </row>
+    <row r="2941" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2941" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2941" s="8">
+        <v>8</v>
+      </c>
+      <c r="C2941" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2941" s="33"/>
+    </row>
+    <row r="2942" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2942" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2942" s="8">
+        <v>24</v>
+      </c>
+      <c r="C2942" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2942" s="34"/>
+    </row>
+    <row r="2943" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2943" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2943" s="8">
+        <v>12</v>
+      </c>
+      <c r="C2943" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2943" s="34"/>
+    </row>
+    <row r="2944" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2944" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2944" s="8">
+        <v>6</v>
+      </c>
+      <c r="C2944" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2944" s="34"/>
+    </row>
+    <row r="2945" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2945" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2945" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2945" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2945" s="34"/>
+    </row>
+    <row r="2946" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2946" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2946" s="8">
+        <v>6</v>
+      </c>
+      <c r="C2946" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2946" s="34"/>
+    </row>
+    <row r="2947" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2947" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2947" s="8">
+        <v>24</v>
+      </c>
+      <c r="C2947" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2947" s="34"/>
+    </row>
+    <row r="2948" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2948" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2948" s="8">
+        <v>12</v>
+      </c>
+      <c r="C2948" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2948" s="34"/>
+    </row>
+    <row r="2949" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2949" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2949" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2949" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2949" s="34"/>
+    </row>
+    <row r="2950" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2950" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2950" s="8">
+        <v>6</v>
+      </c>
+      <c r="C2950" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2950" s="34"/>
+    </row>
+    <row r="2951" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2951" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2951" s="8">
+        <v>3</v>
+      </c>
+      <c r="C2951" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2951" s="34"/>
+    </row>
+    <row r="2952" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2952" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2952" s="8">
+        <v>24</v>
+      </c>
+      <c r="C2952" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2952" s="34"/>
+    </row>
+    <row r="2953" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2953" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2953" s="8">
+        <v>24</v>
+      </c>
+      <c r="C2953" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2953" s="34"/>
+    </row>
+    <row r="2954" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2954" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2954" s="8">
+        <v>10</v>
+      </c>
+      <c r="C2954" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2954" s="34"/>
+    </row>
+    <row r="2955" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2955" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2955" s="32">
+        <v>6</v>
+      </c>
+      <c r="C2955" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2955" s="34"/>
+    </row>
+    <row r="2956" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2956" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2956" s="8">
+        <v>6</v>
+      </c>
+      <c r="C2956" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2956" s="34"/>
+    </row>
+    <row r="2957" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2957" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2957" s="8">
+        <v>8</v>
+      </c>
+      <c r="C2957" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2957" s="34"/>
+    </row>
+    <row r="2958" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2958" s="35"/>
+      <c r="B2958" s="35"/>
+      <c r="C2958" s="35"/>
+    </row>
+    <row r="2959" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2959" s="8"/>
+      <c r="B2959" s="8">
+        <f>SUM(B2941:B2957)</f>
+        <v>187</v>
+      </c>
+      <c r="C2959" s="8">
+        <f>SUM(C2941:C2957)</f>
+        <v>3</v>
+      </c>
+      <c r="D2959" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00F0B5D-0019-433E-B216-08F37554DF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0476C4-85F8-4163-98FC-C8ED66468F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="553">
   <si>
     <t>ToDo</t>
   </si>
@@ -1701,6 +1701,9 @@
   </si>
   <si>
     <t>15.05.2022</t>
+  </si>
+  <si>
+    <t>Phd: Gumbel-Softmax Straight Through Implementation</t>
   </si>
 </sst>
 </file>
@@ -2948,7 +2951,7 @@
   <dimension ref="A1:G2959"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2940" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2955" sqref="D2955"/>
+      <selection activeCell="C2958" sqref="C2958"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37598,7 +37601,7 @@
         <v>6</v>
       </c>
       <c r="C2955" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2955" s="34"/>
     </row>
@@ -37627,19 +37630,25 @@
       <c r="D2957" s="34"/>
     </row>
     <row r="2958" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2958" s="35"/>
-      <c r="B2958" s="35"/>
-      <c r="C2958" s="35"/>
+      <c r="A2958" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2958" s="35">
+        <v>4</v>
+      </c>
+      <c r="C2958" s="35">
+        <v>0</v>
+      </c>
     </row>
     <row r="2959" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2959" s="8"/>
       <c r="B2959" s="8">
-        <f>SUM(B2941:B2957)</f>
-        <v>187</v>
+        <f>SUM(B2941:B2958)</f>
+        <v>191</v>
       </c>
       <c r="C2959" s="8">
-        <f>SUM(C2941:C2957)</f>
-        <v>3</v>
+        <f>SUM(C2941:C2958)</f>
+        <v>6</v>
       </c>
       <c r="D2959" s="34"/>
     </row>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0476C4-85F8-4163-98FC-C8ED66468F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB542280-2F35-433B-9853-7D70C779994A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2951,7 +2951,7 @@
   <dimension ref="A1:G2959"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2940" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2958" sqref="C2958"/>
+      <selection activeCell="D2947" sqref="D2947"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37601,7 +37601,7 @@
         <v>6</v>
       </c>
       <c r="C2955" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2955" s="34"/>
     </row>
@@ -37648,7 +37648,7 @@
       </c>
       <c r="C2959" s="8">
         <f>SUM(C2941:C2958)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2959" s="34"/>
     </row>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB542280-2F35-433B-9853-7D70C779994A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0954C1B-584E-40F9-A59E-72C158280937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2951,7 +2951,7 @@
   <dimension ref="A1:G2959"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2940" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2947" sqref="D2947"/>
+      <selection activeCell="D2955" sqref="D2955"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37601,7 +37601,7 @@
         <v>6</v>
       </c>
       <c r="C2955" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2955" s="34"/>
     </row>
@@ -37648,7 +37648,7 @@
       </c>
       <c r="C2959" s="8">
         <f>SUM(C2941:C2958)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2959" s="34"/>
     </row>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0954C1B-584E-40F9-A59E-72C158280937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6711B4FD-795C-4AA9-AA42-BBAC4AD0261C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="555">
   <si>
     <t>ToDo</t>
   </si>
@@ -1704,6 +1704,12 @@
   </si>
   <si>
     <t>Phd: Gumbel-Softmax Straight Through Implementation</t>
+  </si>
+  <si>
+    <t>16.05.2022</t>
+  </si>
+  <si>
+    <t>Phd: Gumbel-Softmax Experiment Queries Preparaton</t>
   </si>
 </sst>
 </file>
@@ -2948,10 +2954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2959"/>
+  <dimension ref="A1:G2979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2940" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2955" sqref="D2955"/>
+    <sheetView tabSelected="1" topLeftCell="A2957" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2974" sqref="D2974"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37415,7 +37421,7 @@
     </row>
     <row r="2940" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2940" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B2940" s="2" t="s">
         <v>0</v>
@@ -37594,14 +37600,14 @@
       <c r="D2954" s="34"/>
     </row>
     <row r="2955" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2955" s="32" t="s">
+      <c r="A2955" s="31" t="s">
         <v>550</v>
       </c>
-      <c r="B2955" s="32">
-        <v>6</v>
-      </c>
-      <c r="C2955" s="8">
-        <v>12</v>
+      <c r="B2955" s="31">
+        <v>6</v>
+      </c>
+      <c r="C2955" s="31">
+        <v>13</v>
       </c>
       <c r="D2955" s="34"/>
     </row>
@@ -37648,9 +37654,229 @@
       </c>
       <c r="C2959" s="8">
         <f>SUM(C2941:C2958)</f>
+        <v>13</v>
+      </c>
+      <c r="D2959" s="34"/>
+    </row>
+    <row r="2960" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2960" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2960" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2960" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2961" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2961" s="8">
+        <v>8</v>
+      </c>
+      <c r="C2961" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2962" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2962" s="8">
+        <v>24</v>
+      </c>
+      <c r="C2962" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2963" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2963" s="8">
         <v>12</v>
       </c>
-      <c r="D2959" s="34"/>
+      <c r="C2963" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2964" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2964" s="8">
+        <v>6</v>
+      </c>
+      <c r="C2964" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2965" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2965" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2965" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2966" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2966" s="8">
+        <v>6</v>
+      </c>
+      <c r="C2966" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2967" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2967" s="8">
+        <v>24</v>
+      </c>
+      <c r="C2967" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2968" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2968" s="8">
+        <v>12</v>
+      </c>
+      <c r="C2968" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2969" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2969" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2969" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2970" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2970" s="8">
+        <v>6</v>
+      </c>
+      <c r="C2970" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2971" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2971" s="8">
+        <v>3</v>
+      </c>
+      <c r="C2971" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2972" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2972" s="8">
+        <v>24</v>
+      </c>
+      <c r="C2972" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2973" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2973" s="8">
+        <v>24</v>
+      </c>
+      <c r="C2973" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2974" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2974" s="8">
+        <v>10</v>
+      </c>
+      <c r="C2974" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2975" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="B2975" s="32">
+        <v>2</v>
+      </c>
+      <c r="C2975" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2976" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2976" s="8">
+        <v>6</v>
+      </c>
+      <c r="C2976" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2977" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2977" s="8">
+        <v>8</v>
+      </c>
+      <c r="C2977" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2978" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2978" s="35">
+        <v>4</v>
+      </c>
+      <c r="C2978" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2979" s="8"/>
+      <c r="B2979" s="8">
+        <f>SUM(B2961:B2978)</f>
+        <v>187</v>
+      </c>
+      <c r="C2979" s="8">
+        <f>SUM(C2961:C2978)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6711B4FD-795C-4AA9-AA42-BBAC4AD0261C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D93E69F-F7B1-4D45-BFE9-E9C16E8083B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="556">
   <si>
     <t>ToDo</t>
   </si>
@@ -1710,6 +1710,9 @@
   </si>
   <si>
     <t>Phd: Gumbel-Softmax Experiment Queries Preparaton</t>
+  </si>
+  <si>
+    <t>Phd: Database tracking system for experiments</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1749,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1819,6 +1822,12 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1885,7 +1894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1940,6 +1949,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -2957,7 +2967,7 @@
   <dimension ref="A1:G2979"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2957" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2974" sqref="D2974"/>
+      <selection activeCell="D2977" sqref="D2977"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37636,13 +37646,13 @@
       <c r="D2957" s="34"/>
     </row>
     <row r="2958" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2958" s="35" t="s">
+      <c r="A2958" s="36" t="s">
         <v>552</v>
       </c>
-      <c r="B2958" s="35">
-        <v>4</v>
-      </c>
-      <c r="C2958" s="35">
+      <c r="B2958" s="36">
+        <v>4</v>
+      </c>
+      <c r="C2958" s="36">
         <v>0</v>
       </c>
     </row>
@@ -37824,14 +37834,14 @@
       </c>
     </row>
     <row r="2975" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2975" s="32" t="s">
+      <c r="A2975" s="31" t="s">
         <v>554</v>
       </c>
-      <c r="B2975" s="32">
+      <c r="B2975" s="31">
         <v>2</v>
       </c>
-      <c r="C2975" s="8">
-        <v>1</v>
+      <c r="C2975" s="31">
+        <v>2</v>
       </c>
     </row>
     <row r="2976" spans="1:3" x14ac:dyDescent="0.3">
@@ -37858,10 +37868,10 @@
     </row>
     <row r="2978" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2978" s="35" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B2978" s="35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2978" s="8">
         <v>0</v>
@@ -37871,11 +37881,11 @@
       <c r="A2979" s="8"/>
       <c r="B2979" s="8">
         <f>SUM(B2961:B2978)</f>
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2979" s="8">
         <f>SUM(C2961:C2978)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D93E69F-F7B1-4D45-BFE9-E9C16E8083B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025816C8-3728-48A5-BB34-C218032EB4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="557">
   <si>
     <t>ToDo</t>
   </si>
@@ -1713,6 +1713,9 @@
   </si>
   <si>
     <t>Phd: Database tracking system for experiments</t>
+  </si>
+  <si>
+    <t>Phd: Start paperspace experiments</t>
   </si>
 </sst>
 </file>
@@ -2964,10 +2967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2979"/>
+  <dimension ref="A1:G2980"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2957" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2977" sqref="D2977"/>
+      <selection activeCell="D2978" sqref="D2978"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37878,13 +37881,23 @@
       </c>
     </row>
     <row r="2979" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2979" s="8"/>
+      <c r="A2979" s="8" t="s">
+        <v>556</v>
+      </c>
       <c r="B2979" s="8">
-        <f>SUM(B2961:B2978)</f>
-        <v>185</v>
+        <v>2</v>
       </c>
       <c r="C2979" s="8">
-        <f>SUM(C2961:C2978)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2980" s="8">
+        <f>SUM(B2961:B2979)</f>
+        <v>187</v>
+      </c>
+      <c r="C2980" s="8">
+        <f>SUM(C2961:C2979)</f>
         <v>2</v>
       </c>
     </row>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3324" uniqueCount="559">
   <si>
     <t xml:space="preserve">ToDo</t>
   </si>
@@ -1472,6 +1472,9 @@
   </si>
   <si>
     <t xml:space="preserve">Phd: Start paperspace experiments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phd: Algorithm for testing if full routing helps</t>
   </si>
   <si>
     <t xml:space="preserve">MNIST</t>
@@ -2113,7 +2116,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2397,11 +2400,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="80975706"/>
-        <c:axId val="94615511"/>
+        <c:axId val="17444182"/>
+        <c:axId val="54720195"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80975706"/>
+        <c:axId val="17444182"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,12 +2446,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94615511"/>
+        <c:crossAx val="54720195"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94615511"/>
+        <c:axId val="54720195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2490,7 +2493,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80975706"/>
+        <c:crossAx val="17444182"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2549,13 +2552,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1546</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>303840</xdr:colOff>
       <xdr:row>1547</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2564,7 +2567,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="283120920"/>
+          <a:off x="9691920" y="283121280"/>
           <a:ext cx="303840" cy="303840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2589,13 +2592,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1558</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>303840</xdr:colOff>
       <xdr:row>1559</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2604,7 +2607,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="285864120"/>
+          <a:off x="9691920" y="285864480"/>
           <a:ext cx="303840" cy="303840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2667,10 +2670,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2980"/>
+  <dimension ref="A1:G2981"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2957" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2980" activeCellId="0" sqref="D2980"/>
+      <selection pane="topLeft" activeCell="D2968" activeCellId="0" sqref="D2968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37448,7 +37451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2967" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2967" s="8" t="s">
         <v>404</v>
       </c>
@@ -37456,7 +37459,7 @@
         <v>24</v>
       </c>
       <c r="C2967" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2968" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37558,7 +37561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2977" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2977" s="8" t="s">
         <v>468</v>
       </c>
@@ -37566,7 +37569,7 @@
         <v>8</v>
       </c>
       <c r="C2977" s="8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2978" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37588,17 +37591,28 @@
         <v>2</v>
       </c>
       <c r="C2979" s="8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2980" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2980" s="0" t="s">
+        <v>480</v>
+      </c>
       <c r="B2980" s="8" t="n">
-        <f aca="false">SUM(B2961:B2979)</f>
+        <v>0</v>
+      </c>
+      <c r="C2980" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2981" s="8" t="n">
+        <f aca="false">SUM(B2961:B2980)</f>
         <v>184</v>
       </c>
-      <c r="C2980" s="8" t="n">
-        <f aca="false">SUM(C2961:C2979)</f>
-        <v>3</v>
+      <c r="C2981" s="8" t="n">
+        <f aca="false">SUM(C2961:C2980)</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -37633,20 +37647,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37762,13 +37776,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38074,38 +38088,38 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38116,7 +38130,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -38124,7 +38138,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>80</v>
@@ -38138,7 +38152,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -38146,7 +38160,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>80</v>
@@ -38160,7 +38174,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -38168,7 +38182,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>80</v>
@@ -38182,17 +38196,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>80</v>
@@ -38206,17 +38220,17 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>80</v>
@@ -38230,17 +38244,17 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>80</v>
@@ -38254,17 +38268,17 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>80</v>
@@ -38278,17 +38292,17 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>506</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>80</v>
@@ -38302,17 +38316,17 @@
         <v>5</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H29" s="28" t="n">
         <v>80</v>
@@ -38326,17 +38340,17 @@
         <v>5</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H30" s="28" t="n">
         <v>80</v>
@@ -38350,17 +38364,17 @@
         <v>5</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H31" s="28" t="n">
         <v>80</v>
@@ -38374,17 +38388,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H32" s="28" t="n">
         <v>80</v>
@@ -38398,17 +38412,17 @@
         <v>5</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H33" s="28" t="n">
         <v>80</v>
@@ -38422,17 +38436,17 @@
         <v>5</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H34" s="28" t="n">
         <v>80</v>
@@ -38446,17 +38460,17 @@
         <v>5</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H35" s="29" t="n">
         <v>50</v>
@@ -38470,17 +38484,17 @@
         <v>5</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H36" s="29" t="n">
         <v>50</v>
@@ -38494,17 +38508,17 @@
         <v>5</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H37" s="29" t="n">
         <v>50</v>
@@ -38518,20 +38532,20 @@
         <v>5</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38551,22 +38565,22 @@
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39908,7 +39922,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B1" s="12" t="n">
         <v>329</v>
@@ -39916,7 +39930,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>379</v>
@@ -39924,7 +39938,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>399</v>
@@ -39932,7 +39946,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>388</v>
@@ -39940,7 +39954,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>50</v>
@@ -39948,7 +39962,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9</v>
@@ -39956,7 +39970,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>11</v>
@@ -39964,7 +39978,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3.5</v>
@@ -39972,7 +39986,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -39980,7 +39994,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -39988,7 +40002,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -39996,7 +40010,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -40004,7 +40018,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -40012,7 +40026,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
@@ -40020,7 +40034,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -40028,7 +40042,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -40036,7 +40050,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6.5</v>
@@ -40044,7 +40058,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>6.5</v>
@@ -40052,7 +40066,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7</v>
@@ -40060,17 +40074,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>35</v>
@@ -40078,7 +40092,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>
@@ -40086,7 +40100,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
@@ -40094,7 +40108,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6</v>
@@ -40102,7 +40116,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>6</v>
@@ -40110,7 +40124,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>15</v>
@@ -40118,7 +40132,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>35</v>
@@ -40126,7 +40140,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="561">
   <si>
     <t xml:space="preserve">ToDo</t>
   </si>
@@ -1471,16 +1471,16 @@
     <t xml:space="preserve">Phd: Start paperspace experiments</t>
   </si>
   <si>
+    <t xml:space="preserve">Phd: Test single path routing potential of CIGTs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackshark: OSM Data preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phd: Start new experiments</t>
+  </si>
+  <si>
     <t xml:space="preserve">18.05.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phd: Test single path routing potential of CIGTs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blackshark: OSM Data preparation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phd: Start new experiments</t>
   </si>
   <si>
     <t xml:space="preserve">MNIST</t>
@@ -1912,7 +1912,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2045,8 +2045,20 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2122,7 +2134,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2406,11 +2418,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="87910223"/>
-        <c:axId val="86568964"/>
+        <c:axId val="7718945"/>
+        <c:axId val="43656809"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87910223"/>
+        <c:axId val="7718945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2452,12 +2464,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86568964"/>
+        <c:crossAx val="43656809"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86568964"/>
+        <c:axId val="43656809"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2511,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87910223"/>
+        <c:crossAx val="7718945"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2558,13 +2570,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1546</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>303840</xdr:colOff>
       <xdr:row>1547</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2573,7 +2585,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="283120920"/>
+          <a:off x="9691920" y="283121280"/>
           <a:ext cx="303840" cy="303840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2598,13 +2610,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1558</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>303840</xdr:colOff>
       <xdr:row>1559</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2613,7 +2625,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="285864120"/>
+          <a:off x="9691920" y="285864480"/>
           <a:ext cx="303840" cy="303840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2676,10 +2688,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3001"/>
+  <dimension ref="A1:G3022"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2975" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2996" activeCellId="0" sqref="D2996"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2996" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3020" activeCellId="0" sqref="D3020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37612,7 +37624,7 @@
     </row>
     <row r="2981" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2981" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B2981" s="2" t="s">
         <v>0</v>
@@ -37777,18 +37789,18 @@
     </row>
     <row r="2996" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2996" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2996" s="8" t="n">
         <v>5</v>
       </c>
       <c r="C2996" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2997" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2997" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B2997" s="8" t="n">
         <v>8</v>
@@ -37821,13 +37833,13 @@
     </row>
     <row r="3000" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3000" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B3000" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C3000" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3001" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37837,7 +37849,237 @@
       </c>
       <c r="C3001" s="8" t="n">
         <f aca="false">SUM(C2982:C3000)</f>
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3002" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3002" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3002" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3003" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3003" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3003" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3004" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3004" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3004" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3005" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3005" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3005" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3006" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3006" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3006" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3007" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3007" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3007" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3008" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3008" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3008" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3009" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3009" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3009" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3010" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3010" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3010" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3011" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3011" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3011" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3012" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3012" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3012" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3013" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3013" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3013" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3014" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3014" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3014" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3015" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3015" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3015" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3016" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3016" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3016" s="8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3017" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3017" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3017" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3018" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3018" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3018" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3019" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3019" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3019" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3020" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3020" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3020" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3021" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3021" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3021" s="8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3022" s="8" t="n">
+        <f aca="false">SUM(B3003:B3021)</f>
+        <v>192</v>
+      </c>
+      <c r="C3022" s="8" t="n">
+        <f aca="false">SUM(C3003:C3021)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -40133,10 +40375,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40162,7 +40404,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="33" t="s">
         <v>538</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -40170,15 +40412,15 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="33" t="n">
         <v>388</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="33" t="s">
         <v>540</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -40186,7 +40428,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="33" t="s">
         <v>541</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -40194,7 +40436,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="33" t="s">
         <v>542</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -40202,7 +40444,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="33" t="s">
         <v>543</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -40210,7 +40452,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="33" t="s">
         <v>544</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -40218,7 +40460,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="33" t="s">
         <v>545</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -40226,7 +40468,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="33" t="s">
         <v>546</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -40234,7 +40476,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="33" t="s">
         <v>547</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -40242,7 +40484,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="33" t="s">
         <v>548</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -40250,15 +40492,15 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="33" t="s">
         <v>549</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="35" t="s">
         <v>550</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -40266,15 +40508,15 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="33" t="s">
         <v>551</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="36" t="s">
         <v>552</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -40282,7 +40524,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="33" t="s">
         <v>552</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -40290,7 +40532,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="33" t="s">
         <v>553</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -40316,7 +40558,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="33" t="s">
         <v>557</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -40324,7 +40566,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="33" t="s">
         <v>557</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -40332,7 +40574,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="33" t="s">
         <v>557</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -40340,7 +40582,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="33" t="s">
         <v>557</v>
       </c>
       <c r="B26" s="0" t="n">
@@ -40348,7 +40590,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="33" t="s">
         <v>558</v>
       </c>
       <c r="B27" s="0" t="n">
@@ -40356,7 +40598,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="33" t="s">
         <v>559</v>
       </c>
       <c r="B28" s="0" t="n">
@@ -40377,6 +40619,61 @@
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
         <v>189</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0" t="n">
+        <v>0.92330002784729</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="0" t="n">
+        <v>0.922599971294403</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="0" t="n">
+        <v>0.923099994659424</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="0" t="n">
+        <v>0.923200011253357</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="0" t="n">
+        <v>0.922900021076202</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="0" t="n">
+        <v>0.922699987888336</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="0" t="n">
+        <v>0.923099994659424</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="0" t="n">
+        <v>0.922699987888336</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="0" t="n">
+        <v>0.922800004482269</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="0" t="n">
+        <v>0.922100007534027</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="0" t="n">
+        <v>0.923699975013733</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3389" uniqueCount="562">
   <si>
     <t xml:space="preserve">ToDo</t>
   </si>
@@ -1481,6 +1481,9 @@
   </si>
   <si>
     <t xml:space="preserve">18.05.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.05.2022</t>
   </si>
   <si>
     <t xml:space="preserve">MNIST</t>
@@ -2134,7 +2137,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2418,11 +2421,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="7718945"/>
-        <c:axId val="43656809"/>
+        <c:axId val="87073851"/>
+        <c:axId val="45471669"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7718945"/>
+        <c:axId val="87073851"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,12 +2467,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43656809"/>
+        <c:crossAx val="45471669"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43656809"/>
+        <c:axId val="45471669"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2514,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7718945"/>
+        <c:crossAx val="87073851"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2570,11 +2573,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1546</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>1547</xdr:row>
       <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
@@ -2585,8 +2588,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="283121280"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:off x="9692640" y="283121640"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2610,11 +2613,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1558</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>1559</xdr:row>
       <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
@@ -2625,8 +2628,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="285864480"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:off x="9692640" y="285864840"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2659,9 +2662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>532080</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2670,7 +2673,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4466520" y="1299240"/>
-        <a:ext cx="5628960" cy="2742120"/>
+        <a:ext cx="5628600" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2688,10 +2691,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3022"/>
+  <dimension ref="A1:G3054"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2996" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3020" activeCellId="0" sqref="D3020"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3026" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3036" activeCellId="0" sqref="A3036"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38080,6 +38083,286 @@
       <c r="C3022" s="8" t="n">
         <f aca="false">SUM(C3003:C3021)</f>
         <v>7</v>
+      </c>
+    </row>
+    <row r="3023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3023" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B3023" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3023" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3024" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3024" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3024" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3025" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3025" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3025" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3026" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3026" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3026" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3027" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3027" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3027" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3028" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3028" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3028" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3029" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3029" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3029" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3030" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3030" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3030" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3031" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3031" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3031" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3032" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3032" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3032" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3033" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3033" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3033" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3034" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3034" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3034" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3035" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3035" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3035" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3036" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3036" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3036" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3037" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3037" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3037" s="8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3038" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3038" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3038" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3039" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3039" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3039" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3040" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3040" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3040" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3041" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3041" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3041" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3042" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3042" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3042" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3043" s="8" t="n">
+        <f aca="false">SUM(B3024:B3042)</f>
+        <v>192</v>
+      </c>
+      <c r="C3043" s="8" t="n">
+        <f aca="false">SUM(C3024:C3042)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3045" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3045" s="0" t="n">
+        <v>0.924559992551803</v>
+      </c>
+    </row>
+    <row r="3046" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3046" s="0" t="n">
+        <v>0.924300003051758</v>
+      </c>
+    </row>
+    <row r="3047" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3047" s="0" t="n">
+        <v>0.92386000752449</v>
+      </c>
+    </row>
+    <row r="3048" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3048" s="0" t="n">
+        <v>0.923470002412796</v>
+      </c>
+    </row>
+    <row r="3049" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3049" s="0" t="n">
+        <v>0.923190003633499</v>
+      </c>
+    </row>
+    <row r="3050" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3050" s="0" t="n">
+        <v>0.9230299949646</v>
+      </c>
+    </row>
+    <row r="3051" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3051" s="0" t="n">
+        <v>0.922920000553131</v>
+      </c>
+    </row>
+    <row r="3052" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3052" s="0" t="n">
+        <v>0.922719991207123</v>
+      </c>
+    </row>
+    <row r="3053" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3053" s="0" t="n">
+        <v>0.922449994087219</v>
+      </c>
+    </row>
+    <row r="3054" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3054" s="0" t="n">
+        <v>0.921590000391006</v>
       </c>
     </row>
   </sheetData>
@@ -38114,20 +38397,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38243,13 +38526,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38555,38 +38838,38 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38597,7 +38880,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -38605,7 +38888,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>80</v>
@@ -38619,7 +38902,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -38627,7 +38910,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>80</v>
@@ -38641,7 +38924,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -38649,7 +38932,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>80</v>
@@ -38663,17 +38946,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>80</v>
@@ -38687,17 +38970,17 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>80</v>
@@ -38711,17 +38994,17 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>80</v>
@@ -38735,17 +39018,17 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>80</v>
@@ -38759,17 +39042,17 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>80</v>
@@ -38783,17 +39066,17 @@
         <v>5</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H29" s="28" t="n">
         <v>80</v>
@@ -38807,17 +39090,17 @@
         <v>5</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H30" s="28" t="n">
         <v>80</v>
@@ -38831,17 +39114,17 @@
         <v>5</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H31" s="28" t="n">
         <v>80</v>
@@ -38855,17 +39138,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H32" s="28" t="n">
         <v>80</v>
@@ -38879,17 +39162,17 @@
         <v>5</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H33" s="28" t="n">
         <v>80</v>
@@ -38903,17 +39186,17 @@
         <v>5</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H34" s="28" t="n">
         <v>80</v>
@@ -38927,17 +39210,17 @@
         <v>5</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H35" s="29" t="n">
         <v>50</v>
@@ -38951,17 +39234,17 @@
         <v>5</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H36" s="29" t="n">
         <v>50</v>
@@ -38975,17 +39258,17 @@
         <v>5</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H37" s="29" t="n">
         <v>50</v>
@@ -38999,20 +39282,20 @@
         <v>5</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39032,22 +39315,22 @@
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40377,8 +40660,8 @@
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40389,7 +40672,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B1" s="12" t="n">
         <v>329</v>
@@ -40397,7 +40680,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>379</v>
@@ -40405,7 +40688,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>399</v>
@@ -40413,7 +40696,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B4" s="33" t="n">
         <v>388</v>
@@ -40421,7 +40704,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>50</v>
@@ -40429,7 +40712,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9</v>
@@ -40437,7 +40720,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>11</v>
@@ -40445,7 +40728,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3.5</v>
@@ -40453,7 +40736,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -40461,7 +40744,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -40469,7 +40752,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -40477,7 +40760,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -40485,7 +40768,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -40493,7 +40776,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
@@ -40501,7 +40784,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="35" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -40509,7 +40792,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="33" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -40517,7 +40800,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="36" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6.5</v>
@@ -40525,7 +40808,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="33" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>6.5</v>
@@ -40533,7 +40816,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="33" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7</v>
@@ -40541,17 +40824,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>35</v>
@@ -40559,7 +40842,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>
@@ -40567,7 +40850,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="33" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
@@ -40575,7 +40858,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="33" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6</v>
@@ -40583,7 +40866,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="33" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>6</v>
@@ -40591,7 +40874,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="33" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>15</v>
@@ -40599,7 +40882,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="33" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>35</v>
@@ -40607,7 +40890,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -2137,7 +2137,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2421,11 +2421,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="87073851"/>
-        <c:axId val="45471669"/>
+        <c:axId val="79056832"/>
+        <c:axId val="89697225"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87073851"/>
+        <c:axId val="79056832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,12 +2467,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45471669"/>
+        <c:crossAx val="89697225"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45471669"/>
+        <c:axId val="89697225"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2514,7 +2514,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87073851"/>
+        <c:crossAx val="79056832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2694,7 +2694,7 @@
   <dimension ref="A1:G3054"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3026" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3036" activeCellId="0" sqref="A3036"/>
+      <selection pane="topLeft" activeCell="A3040" activeCellId="0" sqref="A3040"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38247,7 +38247,7 @@
         <v>10</v>
       </c>
       <c r="C3037" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38312,57 +38312,87 @@
       </c>
       <c r="C3043" s="8" t="n">
         <f aca="false">SUM(C3024:C3042)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3045" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3045" s="0" t="n">
         <v>0.924559992551803</v>
       </c>
+      <c r="E3045" s="0" t="n">
+        <v>0.924559992551803</v>
+      </c>
     </row>
     <row r="3046" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3046" s="0" t="n">
         <v>0.924300003051758</v>
       </c>
+      <c r="E3046" s="0" t="n">
+        <v>0.924300003051758</v>
+      </c>
     </row>
     <row r="3047" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3047" s="0" t="n">
         <v>0.92386000752449</v>
       </c>
+      <c r="E3047" s="0" t="n">
+        <v>0.92386000752449</v>
+      </c>
     </row>
     <row r="3048" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3048" s="0" t="n">
         <v>0.923470002412796</v>
       </c>
+      <c r="E3048" s="0" t="n">
+        <v>0.923470002412796</v>
+      </c>
     </row>
     <row r="3049" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3049" s="0" t="n">
         <v>0.923190003633499</v>
       </c>
+      <c r="E3049" s="0" t="n">
+        <v>0.923190003633499</v>
+      </c>
     </row>
     <row r="3050" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3050" s="0" t="n">
         <v>0.9230299949646</v>
       </c>
+      <c r="E3050" s="0" t="n">
+        <v>0.92311999797821</v>
+      </c>
     </row>
     <row r="3051" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3051" s="0" t="n">
         <v>0.922920000553131</v>
       </c>
+      <c r="E3051" s="0" t="n">
+        <v>0.9230299949646</v>
+      </c>
     </row>
     <row r="3052" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3052" s="0" t="n">
         <v>0.922719991207123</v>
       </c>
+      <c r="E3052" s="0" t="n">
+        <v>0.922920000553131</v>
+      </c>
     </row>
     <row r="3053" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3053" s="0" t="n">
         <v>0.922449994087219</v>
       </c>
+      <c r="E3053" s="0" t="n">
+        <v>0.922719991207123</v>
+      </c>
     </row>
     <row r="3054" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3054" s="0" t="n">
         <v>0.921590000391006</v>
+      </c>
+      <c r="E3054" s="0" t="n">
+        <v>0.922449994087219</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A0C448-7D3E-407A-8342-05DD9610444A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47671FF5-FD29-4747-84FA-DA0C84068A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38825,7 +38825,7 @@
         <v>2</v>
       </c>
       <c r="C3061" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3062" spans="1:3">
@@ -38851,7 +38851,7 @@
       </c>
       <c r="C3064" s="8">
         <f>SUM(C3045:C3063)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47671FF5-FD29-4747-84FA-DA0C84068A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA804E4-925E-480F-9116-4DBE54E628F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1794,7 +1794,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1867,6 +1867,12 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1933,7 +1939,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1992,6 +1998,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -3009,7 +3016,7 @@
   <dimension ref="A1:G3064"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3041" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3060" sqref="D3060"/>
+      <selection activeCell="D3052" sqref="D3052"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -38818,14 +38825,14 @@
       </c>
     </row>
     <row r="3061" spans="1:3">
-      <c r="A3061" s="5" t="s">
+      <c r="A3061" s="38" t="s">
         <v>477</v>
       </c>
-      <c r="B3061" s="5">
+      <c r="B3061" s="38">
         <v>2</v>
       </c>
-      <c r="C3061" s="8">
-        <v>2</v>
+      <c r="C3061" s="36">
+        <v>3</v>
       </c>
     </row>
     <row r="3062" spans="1:3">
@@ -38851,7 +38858,7 @@
       </c>
       <c r="C3064" s="8">
         <f>SUM(C3045:C3063)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA804E4-925E-480F-9116-4DBE54E628F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D0BD29-792E-4CDB-A21F-53A5790CBB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="576">
   <si>
     <t>ToDo</t>
   </si>
@@ -1752,6 +1752,27 @@
   </si>
   <si>
     <t>Blackshark: Read POC documents for height estimation</t>
+  </si>
+  <si>
+    <t>24.05.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Prepare World Grid</t>
+  </si>
+  <si>
+    <t>Blackshark: Setup PostGIS</t>
+  </si>
+  <si>
+    <t>Blackshark: Gather building vector data</t>
+  </si>
+  <si>
+    <t>Insumo: Gather productivity estimation features</t>
+  </si>
+  <si>
+    <t>25.05.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Docker localhost problem</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1815,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1873,6 +1894,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1939,7 +1966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1999,6 +2026,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -3013,10 +3041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3064"/>
+  <dimension ref="A1:G3106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3041" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3052" sqref="D3052"/>
+    <sheetView tabSelected="1" topLeftCell="A3083" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3090" sqref="D3090"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -38810,7 +38838,7 @@
         <v>8</v>
       </c>
       <c r="C3059" s="8">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3060" spans="1:3">
@@ -38858,7 +38886,467 @@
       </c>
       <c r="C3064" s="8">
         <f>SUM(C3045:C3063)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:3">
+      <c r="A3065" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3065" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3065" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:3">
+      <c r="A3066" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3066" s="37">
+        <v>10</v>
+      </c>
+      <c r="C3066" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:3">
+      <c r="A3067" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3067" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3067" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:3">
+      <c r="A3068" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3068" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3068" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:3">
+      <c r="A3069" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3069" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3069" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:3">
+      <c r="A3070" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3070" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3070" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:3">
+      <c r="A3071" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3071" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3071" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:3">
+      <c r="A3072" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3072" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3072" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:3">
+      <c r="A3073" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3073" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3073" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:3">
+      <c r="A3074" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3074" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3074" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:3">
+      <c r="A3075" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3075" s="37">
         <v>3</v>
+      </c>
+      <c r="C3075" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:3">
+      <c r="A3076" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3076" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3076" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:3">
+      <c r="A3077" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3077" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3077" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:3">
+      <c r="A3078" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3078" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3078" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:3">
+      <c r="A3079" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3079" s="37">
+        <v>5</v>
+      </c>
+      <c r="C3079" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:3">
+      <c r="A3080" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3080" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3080" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:3">
+      <c r="A3081" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3081" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3081" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:3">
+      <c r="A3082" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="B3082" s="38">
+        <v>4</v>
+      </c>
+      <c r="C3082" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:3">
+      <c r="A3083" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3083" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3083" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:3">
+      <c r="A3084" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3084" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3084" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:3">
+      <c r="B3085" s="8">
+        <f>SUM(B3066:B3084)</f>
+        <v>181</v>
+      </c>
+      <c r="C3085" s="8">
+        <f>SUM(C3066:C3084)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:3">
+      <c r="A3086" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B3086" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3086" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:3">
+      <c r="A3087" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3087" s="37">
+        <v>10</v>
+      </c>
+      <c r="C3087" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:3">
+      <c r="A3088" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3088" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3088" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:3">
+      <c r="A3089" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3089" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3089" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:3">
+      <c r="A3090" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3090" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3090" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:3">
+      <c r="A3091" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3091" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3091" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:3">
+      <c r="A3092" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3092" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3092" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:3">
+      <c r="A3093" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3093" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3093" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:3">
+      <c r="A3094" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3094" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3094" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:3">
+      <c r="A3095" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3095" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3095" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:3">
+      <c r="A3096" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3096" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3096" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:3">
+      <c r="A3097" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3097" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3097" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:3">
+      <c r="A3098" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3098" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3098" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:3">
+      <c r="A3099" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3099" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3099" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:3">
+      <c r="A3100" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3100" s="37">
+        <v>5</v>
+      </c>
+      <c r="C3100" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:3">
+      <c r="A3101" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3101" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3101" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:3">
+      <c r="A3102" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3102" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3102" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:3">
+      <c r="A3103" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3103" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3103" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:3">
+      <c r="A3104" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3104" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3104" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:3">
+      <c r="A3105" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3105" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3105" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:3">
+      <c r="B3106" s="8">
+        <f>SUM(B3087:B3105)</f>
+        <v>179</v>
+      </c>
+      <c r="C3106" s="8">
+        <f>SUM(C3087:C3105)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D0BD29-792E-4CDB-A21F-53A5790CBB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B862BD73-D72D-4B75-82F9-A7D18C97AF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="579">
   <si>
     <t>ToDo</t>
   </si>
@@ -1773,6 +1773,15 @@
   </si>
   <si>
     <t>Blackshark: Docker localhost problem</t>
+  </si>
+  <si>
+    <t>26.05.2022</t>
+  </si>
+  <si>
+    <t>Insumo: Kernel Density Implementation - tf_idf implementation - deploy model</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1966,7 +1975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2027,6 +2036,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -3041,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3106"/>
+  <dimension ref="A1:G3127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3083" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3090" sqref="D3090"/>
+    <sheetView tabSelected="1" topLeftCell="A3107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3117" sqref="D3117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -39347,6 +39357,239 @@
       <c r="C3106" s="8">
         <f>SUM(C3087:C3105)</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:3">
+      <c r="A3107" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3107" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3107" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:3">
+      <c r="A3108" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3108" s="37">
+        <v>10</v>
+      </c>
+      <c r="C3108" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:3">
+      <c r="A3109" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3109" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3109" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:3">
+      <c r="A3110" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3110" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3110" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:3">
+      <c r="A3111" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3111" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3111" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:3">
+      <c r="A3112" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3112" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3112" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:3">
+      <c r="A3113" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3113" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3113" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:3">
+      <c r="A3114" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3114" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3114" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:3">
+      <c r="A3115" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3115" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3115" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:3">
+      <c r="A3116" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3116" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3116" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:3">
+      <c r="A3117" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3117" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3117" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:3">
+      <c r="A3118" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3118" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3118" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:3">
+      <c r="A3119" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3119" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3119" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:3">
+      <c r="A3120" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3120" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3120" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:3">
+      <c r="A3121" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3121" s="37">
+        <v>5</v>
+      </c>
+      <c r="C3121" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:3">
+      <c r="A3122" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3122" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3122" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:3">
+      <c r="A3123" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3123" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3123" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:3">
+      <c r="A3124" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3124" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3124" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:3">
+      <c r="A3125" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3125" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3125" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:3">
+      <c r="A3126" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3126" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3126" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:3">
+      <c r="A3127" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="B3127" s="8">
+        <f>SUM(B3108:B3126)</f>
+        <v>179</v>
+      </c>
+      <c r="C3127" s="8">
+        <f>SUM(C3108:C3126)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B862BD73-D72D-4B75-82F9-A7D18C97AF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3024EBE9-4E47-48DD-B92D-97410ED9CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="580">
   <si>
     <t>ToDo</t>
   </si>
@@ -1782,6 +1782,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>27.05.2022</t>
   </si>
 </sst>
 </file>
@@ -3051,10 +3054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3127"/>
+  <dimension ref="A1:G3148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3117" sqref="D3117"/>
+    <sheetView tabSelected="1" topLeftCell="A3125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3137" sqref="D3137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -39466,7 +39469,7 @@
         <v>4</v>
       </c>
       <c r="C3116" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3117" spans="1:3">
@@ -39477,7 +39480,7 @@
         <v>3</v>
       </c>
       <c r="C3117" s="37">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3118" spans="1:3">
@@ -39589,7 +39592,240 @@
       </c>
       <c r="C3127" s="8">
         <f>SUM(C3108:C3126)</f>
-        <v>4</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:3">
+      <c r="A3128" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3128" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3128" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:3">
+      <c r="A3129" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3129" s="37">
+        <v>10</v>
+      </c>
+      <c r="C3129" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:3">
+      <c r="A3130" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3130" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3130" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:3">
+      <c r="A3131" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3131" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3131" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:3">
+      <c r="A3132" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3132" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3132" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:3">
+      <c r="A3133" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3133" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3133" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:3">
+      <c r="A3134" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3134" s="37">
+        <v>2</v>
+      </c>
+      <c r="C3134" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:3">
+      <c r="A3135" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3135" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3135" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:3">
+      <c r="A3136" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3136" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3136" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:3">
+      <c r="A3137" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3137" s="37">
+        <v>2</v>
+      </c>
+      <c r="C3137" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:3">
+      <c r="A3138" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3138" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3138" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:3">
+      <c r="A3139" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3139" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3139" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:3">
+      <c r="A3140" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3140" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3140" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:3">
+      <c r="A3141" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3141" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3141" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:3">
+      <c r="A3142" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3142" s="37">
+        <v>5</v>
+      </c>
+      <c r="C3142" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:3">
+      <c r="A3143" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3143" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3143" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:3">
+      <c r="A3144" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3144" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3144" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:3">
+      <c r="A3145" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3145" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3145" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:3">
+      <c r="A3146" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3146" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3146" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:3">
+      <c r="A3147" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3147" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3147" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:3">
+      <c r="A3148" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="B3148" s="8">
+        <f>SUM(B3129:B3147)</f>
+        <v>173</v>
+      </c>
+      <c r="C3148" s="8">
+        <f>SUM(C3129:C3147)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3024EBE9-4E47-48DD-B92D-97410ED9CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8F84B6-C1A4-496A-95B3-3209E4199E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="585">
   <si>
     <t>ToDo</t>
   </si>
@@ -1785,13 +1785,28 @@
   </si>
   <si>
     <t>27.05.2022</t>
+  </si>
+  <si>
+    <t>28.05.2022</t>
+  </si>
+  <si>
+    <t>Insumo: Rule Based Productivity Score Finish</t>
+  </si>
+  <si>
+    <t>29.05.2022</t>
+  </si>
+  <si>
+    <t>30.05.2022</t>
+  </si>
+  <si>
+    <t>31.05.2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1826,8 +1841,18 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Shell Dlg 2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1912,8 +1937,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1973,12 +2004,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2040,6 +2086,13 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -3054,10 +3107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3148"/>
+  <dimension ref="A1:G3232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3137" sqref="D3137"/>
+    <sheetView tabSelected="1" topLeftCell="A3208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3231" sqref="D3231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -39669,7 +39722,7 @@
         <v>2</v>
       </c>
       <c r="C3134" s="37">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3135" spans="1:3">
@@ -39695,14 +39748,14 @@
       </c>
     </row>
     <row r="3137" spans="1:3">
-      <c r="A3137" s="37" t="s">
+      <c r="A3137" s="36" t="s">
         <v>408</v>
       </c>
-      <c r="B3137" s="37">
+      <c r="B3137" s="36">
         <v>2</v>
       </c>
-      <c r="C3137" s="37">
-        <v>1</v>
+      <c r="C3137" s="36">
+        <v>5</v>
       </c>
     </row>
     <row r="3138" spans="1:3">
@@ -39816,16 +39869,902 @@
       </c>
     </row>
     <row r="3148" spans="1:3">
-      <c r="A3148" s="40" t="s">
-        <v>578</v>
-      </c>
+      <c r="A3148" s="40"/>
       <c r="B3148" s="8">
         <f>SUM(B3129:B3147)</f>
         <v>173</v>
       </c>
       <c r="C3148" s="8">
         <f>SUM(C3129:C3147)</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:3">
+      <c r="A3149" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3149" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3149" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:3">
+      <c r="A3150" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3150" s="37">
+        <v>10</v>
+      </c>
+      <c r="C3150" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:3">
+      <c r="A3151" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3151" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3151" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:3">
+      <c r="A3152" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3152" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3152" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:3">
+      <c r="A3153" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3153" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3153" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:3">
+      <c r="A3154" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3154" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3154" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:3">
+      <c r="A3155" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3155" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3155" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:3">
+      <c r="A3156" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3156" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3156" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:3">
+      <c r="A3157" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3157" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3157" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:3">
+      <c r="A3158" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3158" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3158" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:3">
+      <c r="A3159" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3159" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3159" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:3">
+      <c r="A3160" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3160" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3160" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:3">
+      <c r="A3161" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3161" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3161" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:3">
+      <c r="A3162" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3162" s="37">
+        <v>5</v>
+      </c>
+      <c r="C3162" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:3">
+      <c r="A3163" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3163" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3163" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:3">
+      <c r="A3164" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3164" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3164" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:3">
+      <c r="A3165" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3165" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3165" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:3">
+      <c r="A3166" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3166" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3166" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:3">
+      <c r="A3167" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3167" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3167" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:3">
+      <c r="A3168" s="43"/>
+      <c r="B3168" s="43"/>
+      <c r="C3168" s="43"/>
+    </row>
+    <row r="3169" spans="1:3">
+      <c r="A3169" s="37"/>
+      <c r="B3169" s="8">
+        <f>SUM(B3150:B3167)</f>
+        <v>173</v>
+      </c>
+      <c r="C3169" s="8">
+        <f>SUM(C3150:C3167)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:3">
+      <c r="A3170" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B3170" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3170" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:3">
+      <c r="A3171" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3171" s="37">
+        <v>10</v>
+      </c>
+      <c r="C3171" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:3">
+      <c r="A3172" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3172" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3172" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:3">
+      <c r="A3173" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3173" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3173" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:3">
+      <c r="A3174" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3174" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3174" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:3">
+      <c r="A3175" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3175" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3175" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:3">
+      <c r="A3176" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3176" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3176" s="37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:3">
+      <c r="A3177" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3177" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3177" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:3">
+      <c r="A3178" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3178" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3178" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:3">
+      <c r="A3179" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3179" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3179" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:3">
+      <c r="A3180" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3180" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3180" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:3">
+      <c r="A3181" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3181" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3181" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:3">
+      <c r="A3182" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3182" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3182" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:3">
+      <c r="A3183" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3183" s="37">
+        <v>5</v>
+      </c>
+      <c r="C3183" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:3">
+      <c r="A3184" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3184" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3184" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:3">
+      <c r="A3185" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3185" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3185" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:3">
+      <c r="A3186" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3186" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3186" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:3">
+      <c r="A3187" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3187" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3187" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:3">
+      <c r="A3188" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3188" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3188" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:3">
+      <c r="A3189" s="43"/>
+      <c r="B3189" s="43"/>
+      <c r="C3189" s="43"/>
+    </row>
+    <row r="3190" spans="1:3">
+      <c r="A3190" s="37"/>
+      <c r="B3190" s="8">
+        <f>SUM(B3171:B3188)</f>
+        <v>173</v>
+      </c>
+      <c r="C3190" s="8">
+        <f>SUM(C3171:C3188)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:3">
+      <c r="A3191" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B3191" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3191" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:3">
+      <c r="A3192" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3192" s="37">
+        <v>10</v>
+      </c>
+      <c r="C3192" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:3">
+      <c r="A3193" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3193" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3193" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:3">
+      <c r="A3194" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3194" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3194" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:3">
+      <c r="A3195" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3195" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3195" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:3">
+      <c r="A3196" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3196" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3196" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:3">
+      <c r="A3197" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3197" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3197" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:3">
+      <c r="A3198" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3198" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3198" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:3">
+      <c r="A3199" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3199" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3199" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:3">
+      <c r="A3200" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3200" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3200" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:3">
+      <c r="A3201" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3201" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3201" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:3">
+      <c r="A3202" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3202" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3202" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:3">
+      <c r="A3203" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3203" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3203" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:3">
+      <c r="A3204" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3204" s="37">
+        <v>5</v>
+      </c>
+      <c r="C3204" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:3">
+      <c r="A3205" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3205" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3205" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:3">
+      <c r="A3206" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3206" s="36">
+        <v>4</v>
+      </c>
+      <c r="C3206" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:3">
+      <c r="A3207" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3207" s="38">
+        <v>2</v>
+      </c>
+      <c r="C3207" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:3">
+      <c r="A3208" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3208" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3208" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:3">
+      <c r="A3209" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3209" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3209" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:3">
+      <c r="A3210" s="43"/>
+      <c r="B3210" s="43"/>
+      <c r="C3210" s="43"/>
+    </row>
+    <row r="3211" spans="1:3">
+      <c r="A3211" s="37"/>
+      <c r="B3211" s="8">
+        <f>SUM(B3192:B3209)</f>
+        <v>173</v>
+      </c>
+      <c r="C3211" s="8">
+        <f>SUM(C3192:C3209)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:3">
+      <c r="A3212" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B3212" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3212" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:3">
+      <c r="A3213" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3213" s="37">
+        <v>10</v>
+      </c>
+      <c r="C3213" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:3">
+      <c r="A3214" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3214" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3214" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:3">
+      <c r="A3215" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3215" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3215" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:3">
+      <c r="A3216" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3216" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3216" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:3">
+      <c r="A3217" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3217" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3217" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:3">
+      <c r="A3218" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3218" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3218" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:3">
+      <c r="A3219" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3219" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3219" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:3">
+      <c r="A3220" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3220" s="37">
+        <v>12</v>
+      </c>
+      <c r="C3220" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:3">
+      <c r="A3221" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3221" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3221" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:3">
+      <c r="A3222" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3222" s="37">
+        <v>3</v>
+      </c>
+      <c r="C3222" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:3">
+      <c r="A3223" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3223" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3223" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:3">
+      <c r="A3224" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3224" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3224" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:3">
+      <c r="A3225" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3225" s="37">
+        <v>5</v>
+      </c>
+      <c r="C3225" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:3">
+      <c r="A3226" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3226" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3226" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:3">
+      <c r="A3227" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3227" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3227" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:3">
+      <c r="A3228" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3228" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3228" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:3">
+      <c r="A3229" s="39"/>
+      <c r="B3229" s="39"/>
+      <c r="C3229" s="37"/>
+    </row>
+    <row r="3230" spans="1:3">
+      <c r="A3230" s="37"/>
+      <c r="B3230" s="37"/>
+      <c r="C3230" s="37"/>
+    </row>
+    <row r="3231" spans="1:3">
+      <c r="A3231" s="43"/>
+      <c r="B3231" s="43"/>
+      <c r="C3231" s="43"/>
+    </row>
+    <row r="3232" spans="1:3">
+      <c r="A3232" s="37"/>
+      <c r="B3232" s="8">
+        <f>SUM(B3213:B3230)</f>
+        <v>167</v>
+      </c>
+      <c r="C3232" s="8">
+        <f>SUM(C3213:C3230)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -41231,15 +42170,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" s="30">
         <v>0.92519999742507897</v>
       </c>
@@ -41252,8 +42191,15 @@
       <c r="H1" s="35">
         <v>0.92624000900000003</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="41">
+        <v>0.92505999803543004</v>
+      </c>
+      <c r="J1" s="42">
+        <v>0.91743000149726905</v>
+      </c>
+      <c r="L1" s="42"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="30">
         <v>0.92518000602722195</v>
       </c>
@@ -41266,8 +42212,15 @@
       <c r="H2" s="35">
         <v>0.92519999100000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="41">
+        <v>0.92505000233650203</v>
+      </c>
+      <c r="J2" s="42">
+        <v>0.91850001215934796</v>
+      </c>
+      <c r="L2" s="42"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="30">
         <v>0.92517000436782804</v>
       </c>
@@ -41280,8 +42233,15 @@
       <c r="H3" s="35">
         <v>0.92429999699999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="41">
+        <v>0.92502999901771499</v>
+      </c>
+      <c r="J3" s="42">
+        <v>0.918530005216599</v>
+      </c>
+      <c r="L3" s="42"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="30">
         <v>0.92486999630928002</v>
       </c>
@@ -41298,8 +42258,15 @@
       <c r="H4" s="35">
         <v>0.924479991</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="41">
+        <v>0.92455999255180299</v>
+      </c>
+      <c r="J4" s="42">
+        <v>0.91855000853538504</v>
+      </c>
+      <c r="L4" s="42"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="30">
         <v>0.92418999671935997</v>
       </c>
@@ -41312,8 +42279,15 @@
       <c r="H5" s="35">
         <v>0.923850006</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="41">
+        <v>0.92452999949455195</v>
+      </c>
+      <c r="J5" s="42">
+        <v>0.91888999938964799</v>
+      </c>
+      <c r="L5" s="42"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="30">
         <v>0.92404999732971205</v>
       </c>
@@ -41326,8 +42300,15 @@
       <c r="H6" s="35">
         <v>0.92194999499999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="41">
+        <v>0.92439000606536803</v>
+      </c>
+      <c r="J6" s="42">
+        <v>0.919550001621246</v>
+      </c>
+      <c r="L6" s="42"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="30">
         <v>0.92292000055313095</v>
       </c>
@@ -41340,8 +42321,15 @@
       <c r="H7" s="35">
         <v>0.92182000900000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="41">
+        <v>0.92386000156402504</v>
+      </c>
+      <c r="J7" s="42">
+        <v>0.91955999732017502</v>
+      </c>
+      <c r="L7" s="42"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="30">
         <v>0.92286999821662896</v>
       </c>
@@ -41354,8 +42342,15 @@
       <c r="H8" s="35">
         <v>0.92486999599999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="41">
+        <v>0.92351000905036895</v>
+      </c>
+      <c r="J8" s="42">
+        <v>0.92045999169349701</v>
+      </c>
+      <c r="L8" s="42"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="30">
         <v>0.92277999520301801</v>
       </c>
@@ -41368,8 +42363,15 @@
       <c r="H9" s="35">
         <v>0.92285000699999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="41">
+        <v>0.92319000363349901</v>
+      </c>
+      <c r="J9" s="42">
+        <v>0.920929992198944</v>
+      </c>
+      <c r="L9" s="42"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="30">
         <v>0.92255999445915204</v>
       </c>
@@ -41382,24 +42384,33 @@
       <c r="H10" s="35">
         <v>0.92465999700000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="41">
+        <v>0.92250000834464996</v>
+      </c>
+      <c r="J10" s="42">
+        <v>0.92110999822616602</v>
+      </c>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="30">
         <v>0.92237000465393104</v>
       </c>
       <c r="B11" s="30">
         <v>0.55801829041753304</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="30">
         <v>0.92228000164031998</v>
       </c>
       <c r="B12" s="30">
         <v>7.1187612213445203E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="L12" s="42"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="30">
         <v>0.92226001024246196</v>
       </c>
@@ -41410,8 +42421,17 @@
         <f>AVERAGE(G1:G10)</f>
         <v>0.92402199983596778</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <f>AVERAGE(I1:I10)</f>
+        <v>0.92416800200939142</v>
+      </c>
+      <c r="J13">
+        <f>AVERAGE(J1:J10)</f>
+        <v>0.91935100078582777</v>
+      </c>
+      <c r="L13" s="42"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="30">
         <v>0.92218999266624502</v>
       </c>
@@ -41422,56 +42442,71 @@
         <f>_xlfn.STDEV.P(G1:G10)</f>
         <v>1.3515001521346914E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <f>_xlfn.STDEV.P(I1:I10)</f>
+        <v>8.3169150486573468E-4</v>
+      </c>
+      <c r="J14">
+        <f>_xlfn.STDEV.P(J1:J10)</f>
+        <v>1.1332692575577103E-3</v>
+      </c>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="30">
         <v>0.92217000722885101</v>
       </c>
       <c r="B15" s="30">
         <v>0.55244033312234897</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="L15" s="42"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="30">
         <v>0.92212999463081402</v>
       </c>
       <c r="B16" s="30">
         <v>0.44051171617859503</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="L16" s="42"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="30">
         <v>0.92207998633384702</v>
       </c>
       <c r="B17" s="30">
         <v>0.60406765669463403</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="30">
         <v>0.92203000783920297</v>
       </c>
       <c r="B18" s="30">
         <v>0.94301731645230302</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="L18" s="42"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="30">
         <v>0.92203000187873796</v>
       </c>
       <c r="B19" s="30">
         <v>0.21229149824246801</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="L19" s="42"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="30">
         <v>0.92200999259948702</v>
       </c>
       <c r="B20" s="30">
         <v>0.20426367129478301</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="L20" s="42"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="30">
         <v>0.92199000120162999</v>
       </c>
@@ -41479,7 +42514,7 @@
         <v>0.50884061267337899</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:12">
       <c r="A22" s="30">
         <v>0.92197000384330796</v>
       </c>
@@ -41487,7 +42522,7 @@
         <v>0.38931491911738397</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:12">
       <c r="A23" s="30">
         <v>0.92183000445365904</v>
       </c>
@@ -41495,7 +42530,7 @@
         <v>0.28973208632376202</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:12">
       <c r="A24" s="30">
         <v>0.92178000807762095</v>
       </c>
@@ -41503,7 +42538,7 @@
         <v>0.90858184975631295</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:12">
       <c r="A25" s="30">
         <v>0.92177000045776403</v>
       </c>
@@ -41511,7 +42546,7 @@
         <v>0.86336904770637701</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:12">
       <c r="A26" s="30">
         <v>0.92171999812126204</v>
       </c>
@@ -41519,7 +42554,7 @@
         <v>0.97772281529024696</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:12">
       <c r="A27" s="30">
         <v>0.92168999910354599</v>
       </c>
@@ -41527,7 +42562,7 @@
         <v>0.41485442547883999</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:12">
       <c r="A28" s="30">
         <v>0.92168999910354599</v>
       </c>
@@ -41535,7 +42570,7 @@
         <v>0.94643173274833503</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:12">
       <c r="A29" s="30">
         <v>0.92165000438690203</v>
       </c>
@@ -41543,7 +42578,7 @@
         <v>0.47027263767153998</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:12">
       <c r="A30" s="30">
         <v>0.92153000831604004</v>
       </c>
@@ -41551,7 +42586,7 @@
         <v>0.42956380818251599</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:12">
       <c r="A31" s="30">
         <v>0.92153000235557603</v>
       </c>
@@ -41559,7 +42594,7 @@
         <v>0.87123484986671695</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:12">
       <c r="A32" s="30">
         <v>0.92148000597953805</v>
       </c>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3599" uniqueCount="587">
   <si>
     <t xml:space="preserve">ToDo</t>
   </si>
@@ -1553,6 +1553,12 @@
   </si>
   <si>
     <t xml:space="preserve">31.05.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackshark: Experiment with Shabab’s method</t>
   </si>
   <si>
     <t xml:space="preserve">MNIST</t>
@@ -2233,7 +2239,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2517,11 +2523,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="3657647"/>
-        <c:axId val="74909540"/>
+        <c:axId val="15390881"/>
+        <c:axId val="50957978"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3657647"/>
+        <c:axId val="15390881"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2563,12 +2569,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74909540"/>
+        <c:crossAx val="50957978"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74909540"/>
+        <c:axId val="50957978"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,7 +2616,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3657647"/>
+        <c:crossAx val="15390881"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2669,11 +2675,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1546</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>303480</xdr:colOff>
+      <xdr:colOff>303120</xdr:colOff>
       <xdr:row>1547</xdr:row>
       <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
@@ -2684,8 +2690,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="283120920"/>
-          <a:ext cx="303480" cy="303480"/>
+          <a:off x="9692640" y="283121280"/>
+          <a:ext cx="303120" cy="303120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2709,11 +2715,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1558</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>303480</xdr:colOff>
+      <xdr:colOff>303120</xdr:colOff>
       <xdr:row>1559</xdr:row>
       <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
@@ -2724,8 +2730,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="285864120"/>
-          <a:ext cx="303480" cy="303480"/>
+          <a:off x="9692640" y="285864480"/>
+          <a:ext cx="303120" cy="303120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2758,9 +2764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>532080</xdr:colOff>
+      <xdr:colOff>531720</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2769,7 +2775,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4466520" y="1299240"/>
-        <a:ext cx="5628600" cy="2741760"/>
+        <a:ext cx="5628240" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2787,10 +2793,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3232"/>
+  <dimension ref="A1:G3253"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3227" activeCellId="0" sqref="D3227"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3240" activeCellId="0" sqref="D3240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40447,6 +40453,209 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3233" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3233" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3233" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3234" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3234" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3234" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3235" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3235" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3235" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3236" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3236" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3236" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3237" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3237" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3237" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3238" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3238" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3238" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3239" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B3239" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3239" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3240" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3240" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3240" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3241" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3241" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3241" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3242" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3242" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3242" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3243" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3243" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3243" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3244" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3244" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3244" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3245" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3245" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3245" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3246" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3246" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3246" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3247" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3247" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3247" s="8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3248" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3248" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3248" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3249" s="8"/>
+      <c r="B3249" s="8" t="n">
+        <f aca="false">SUM(B3234:B3248)</f>
+        <v>166</v>
+      </c>
+      <c r="C3249" s="8" t="n">
+        <f aca="false">SUM(C3234:C3248)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3250" s="8"/>
+      <c r="B3250" s="8"/>
+      <c r="C3250" s="8"/>
+    </row>
+    <row r="3251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3251" s="8"/>
+      <c r="B3251" s="8"/>
+      <c r="C3251" s="8"/>
+    </row>
+    <row r="3252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3252" s="26"/>
+      <c r="B3252" s="26"/>
+      <c r="C3252" s="26"/>
+    </row>
+    <row r="3253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -40479,20 +40688,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40608,13 +40817,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40920,38 +41129,38 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40962,7 +41171,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -40970,7 +41179,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>80</v>
@@ -40984,7 +41193,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -40992,7 +41201,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>80</v>
@@ -41006,7 +41215,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -41014,7 +41223,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>80</v>
@@ -41028,17 +41237,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>80</v>
@@ -41052,17 +41261,17 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>80</v>
@@ -41076,17 +41285,17 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>80</v>
@@ -41100,17 +41309,17 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>80</v>
@@ -41124,17 +41333,17 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>80</v>
@@ -41148,17 +41357,17 @@
         <v>5</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H29" s="30" t="n">
         <v>80</v>
@@ -41172,17 +41381,17 @@
         <v>5</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H30" s="30" t="n">
         <v>80</v>
@@ -41196,17 +41405,17 @@
         <v>5</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H31" s="30" t="n">
         <v>80</v>
@@ -41220,17 +41429,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H32" s="30" t="n">
         <v>80</v>
@@ -41244,17 +41453,17 @@
         <v>5</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H33" s="30" t="n">
         <v>80</v>
@@ -41268,17 +41477,17 @@
         <v>5</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H34" s="30" t="n">
         <v>80</v>
@@ -41292,17 +41501,17 @@
         <v>5</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E35" s="31"/>
       <c r="F35" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H35" s="31" t="n">
         <v>50</v>
@@ -41316,17 +41525,17 @@
         <v>5</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E36" s="31"/>
       <c r="F36" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H36" s="31" t="n">
         <v>50</v>
@@ -41340,17 +41549,17 @@
         <v>5</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H37" s="31" t="n">
         <v>50</v>
@@ -41364,20 +41573,20 @@
         <v>5</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41397,22 +41606,22 @@
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41885,12 +42094,12 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="n">
         <v>0.925199997425079</v>
       </c>
@@ -41909,9 +42118,12 @@
       <c r="J1" s="32" t="n">
         <v>0.917430001497269</v>
       </c>
+      <c r="K1" s="0" t="n">
+        <v>0.92603000998497</v>
+      </c>
       <c r="L1" s="32"/>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="n">
         <v>0.925180006027222</v>
       </c>
@@ -41930,9 +42142,12 @@
       <c r="J2" s="32" t="n">
         <v>0.918500012159348</v>
       </c>
+      <c r="K2" s="0" t="n">
+        <v>0.925950002670288</v>
+      </c>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="n">
         <v>0.925170004367828</v>
       </c>
@@ -41951,9 +42166,12 @@
       <c r="J3" s="32" t="n">
         <v>0.918530005216599</v>
       </c>
+      <c r="K3" s="0" t="n">
+        <v>0.925849997997284</v>
+      </c>
       <c r="L3" s="32"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="n">
         <v>0.92486999630928</v>
       </c>
@@ -41976,9 +42194,12 @@
       <c r="J4" s="32" t="n">
         <v>0.918550008535385</v>
       </c>
+      <c r="K4" s="0" t="n">
+        <v>0.925619995594025</v>
+      </c>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="n">
         <v>0.92418999671936</v>
       </c>
@@ -41997,9 +42218,12 @@
       <c r="J5" s="32" t="n">
         <v>0.918889999389648</v>
       </c>
+      <c r="K5" s="0" t="n">
+        <v>0.924140000343323</v>
+      </c>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="n">
         <v>0.924049997329712</v>
       </c>
@@ -42018,9 +42242,12 @@
       <c r="J6" s="32" t="n">
         <v>0.919550001621246</v>
       </c>
+      <c r="K6" s="0" t="n">
+        <v>0.923579996824264</v>
+      </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="32" t="n">
         <v>0.922920000553131</v>
       </c>
@@ -42039,9 +42266,12 @@
       <c r="J7" s="32" t="n">
         <v>0.919559997320175</v>
       </c>
+      <c r="K7" s="34" t="n">
+        <v>0.923860001564025</v>
+      </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="n">
         <v>0.922869998216629</v>
       </c>
@@ -42060,9 +42290,12 @@
       <c r="J8" s="32" t="n">
         <v>0.920459991693497</v>
       </c>
+      <c r="K8" s="0" t="n">
+        <v>0.923149991035462</v>
+      </c>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="32" t="n">
         <v>0.922779995203018</v>
       </c>
@@ -42081,9 +42314,12 @@
       <c r="J9" s="32" t="n">
         <v>0.920929992198944</v>
       </c>
+      <c r="K9" s="0" t="n">
+        <v>0.923019999265671</v>
+      </c>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="32" t="n">
         <v>0.922559994459152</v>
       </c>
@@ -42102,9 +42338,12 @@
       <c r="J10" s="32" t="n">
         <v>0.921109998226166</v>
       </c>
+      <c r="K10" s="34" t="n">
+        <v>0.92250000834465</v>
+      </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="32" t="n">
         <v>0.922370004653931</v>
       </c>
@@ -42122,7 +42361,7 @@
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="32" t="n">
         <v>0.922260010242462</v>
       </c>
@@ -42141,9 +42380,13 @@
         <f aca="false">AVERAGE(J1:J10)</f>
         <v>0.919351000785828</v>
       </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">AVERAGE(K1:K10)</f>
+        <v>0.924370000362396</v>
+      </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="32" t="n">
         <v>0.922189992666245</v>
       </c>
@@ -42161,6 +42404,10 @@
       <c r="J14" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(J1:J10)</f>
         <v>0.00113326925755771</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(K1:K10)</f>
+        <v>0.00129421097805285</v>
       </c>
       <c r="L14" s="32"/>
     </row>
@@ -42868,8 +43115,8 @@
   </sheetPr>
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42880,7 +43127,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B1" s="12" t="n">
         <v>329</v>
@@ -42888,7 +43135,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>379</v>
@@ -42896,7 +43143,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="37" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>399</v>
@@ -42904,7 +43151,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="38" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>388</v>
@@ -42912,7 +43159,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="37" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>50</v>
@@ -42920,7 +43167,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9</v>
@@ -42928,7 +43175,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>11</v>
@@ -42936,7 +43183,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3.5</v>
@@ -42944,7 +43191,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -42952,7 +43199,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -42960,7 +43207,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -42968,7 +43215,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -42976,7 +43223,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -42984,7 +43231,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
@@ -42992,7 +43239,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -43000,7 +43247,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -43008,7 +43255,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6.5</v>
@@ -43016,7 +43263,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>6.5</v>
@@ -43024,7 +43271,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7</v>
@@ -43032,17 +43279,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>35</v>
@@ -43050,7 +43297,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>
@@ -43058,7 +43305,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
@@ -43066,7 +43313,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6</v>
@@ -43074,7 +43321,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>6</v>
@@ -43082,7 +43329,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>15</v>
@@ -43090,7 +43337,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>35</v>
@@ -43098,7 +43345,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3599" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="588">
   <si>
     <t xml:space="preserve">ToDo</t>
   </si>
@@ -1559,6 +1559,9 @@
   </si>
   <si>
     <t xml:space="preserve">Blackshark: Experiment with Shabab’s method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06.2022</t>
   </si>
   <si>
     <t xml:space="preserve">MNIST</t>
@@ -2239,7 +2242,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2523,11 +2526,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="15390881"/>
-        <c:axId val="50957978"/>
+        <c:axId val="31371259"/>
+        <c:axId val="41004633"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="15390881"/>
+        <c:axId val="31371259"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2569,12 +2572,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50957978"/>
+        <c:crossAx val="41004633"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50957978"/>
+        <c:axId val="41004633"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2616,7 +2619,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15390881"/>
+        <c:crossAx val="31371259"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2793,10 +2796,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3253"/>
+  <dimension ref="A1:G3266"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3240" activeCellId="0" sqref="D3240"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3241" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3262" activeCellId="0" sqref="D3262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40641,21 +40644,192 @@
       </c>
     </row>
     <row r="3250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3250" s="8"/>
-      <c r="B3250" s="8"/>
-      <c r="C3250" s="8"/>
+      <c r="A3250" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3250" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3250" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3251" s="8"/>
-      <c r="B3251" s="8"/>
-      <c r="C3251" s="8"/>
+      <c r="A3251" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3251" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3251" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3252" s="26"/>
-      <c r="B3252" s="26"/>
-      <c r="C3252" s="26"/>
-    </row>
-    <row r="3253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A3252" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3252" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3252" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3253" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3253" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3253" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3254" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3254" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3254" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3255" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3255" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3255" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3256" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B3256" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3256" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3257" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3257" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3257" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3258" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3258" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3258" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3259" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3259" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3259" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3260" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3260" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3260" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3261" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3261" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3261" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3262" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3262" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3262" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3263" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3263" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3263" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3264" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3264" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3264" s="8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3265" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3265" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3265" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3266" s="8"/>
+      <c r="B3266" s="8" t="n">
+        <f aca="false">SUM(B3251:B3265)</f>
+        <v>166</v>
+      </c>
+      <c r="C3266" s="8" t="n">
+        <f aca="false">SUM(C3251:C3265)</f>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -40688,20 +40862,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40817,13 +40991,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41129,38 +41303,38 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41171,7 +41345,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -41179,7 +41353,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>80</v>
@@ -41193,7 +41367,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -41201,7 +41375,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>80</v>
@@ -41215,7 +41389,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -41223,7 +41397,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>80</v>
@@ -41237,17 +41411,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>80</v>
@@ -41261,17 +41435,17 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>80</v>
@@ -41285,17 +41459,17 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>80</v>
@@ -41309,17 +41483,17 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>80</v>
@@ -41333,17 +41507,17 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>535</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>80</v>
@@ -41357,17 +41531,17 @@
         <v>5</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H29" s="30" t="n">
         <v>80</v>
@@ -41381,17 +41555,17 @@
         <v>5</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H30" s="30" t="n">
         <v>80</v>
@@ -41405,17 +41579,17 @@
         <v>5</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H31" s="30" t="n">
         <v>80</v>
@@ -41429,17 +41603,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H32" s="30" t="n">
         <v>80</v>
@@ -41453,17 +41627,17 @@
         <v>5</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H33" s="30" t="n">
         <v>80</v>
@@ -41477,17 +41651,17 @@
         <v>5</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H34" s="30" t="n">
         <v>80</v>
@@ -41501,17 +41675,17 @@
         <v>5</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E35" s="31"/>
       <c r="F35" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H35" s="31" t="n">
         <v>50</v>
@@ -41525,17 +41699,17 @@
         <v>5</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E36" s="31"/>
       <c r="F36" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H36" s="31" t="n">
         <v>50</v>
@@ -41549,17 +41723,17 @@
         <v>5</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H37" s="31" t="n">
         <v>50</v>
@@ -41573,20 +41747,20 @@
         <v>5</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41606,22 +41780,22 @@
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42094,7 +42268,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43127,7 +43301,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B1" s="12" t="n">
         <v>329</v>
@@ -43135,7 +43309,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>379</v>
@@ -43143,7 +43317,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="37" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>399</v>
@@ -43151,7 +43325,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="38" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>388</v>
@@ -43159,7 +43333,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="37" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>50</v>
@@ -43167,7 +43341,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9</v>
@@ -43175,7 +43349,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>11</v>
@@ -43183,7 +43357,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3.5</v>
@@ -43191,7 +43365,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -43199,7 +43373,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -43207,7 +43381,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -43215,7 +43389,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -43223,7 +43397,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -43231,7 +43405,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
@@ -43239,7 +43413,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -43247,7 +43421,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -43255,7 +43429,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6.5</v>
@@ -43263,7 +43437,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>6.5</v>
@@ -43271,7 +43445,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7</v>
@@ -43279,17 +43453,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>35</v>
@@ -43297,7 +43471,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>
@@ -43305,7 +43479,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
@@ -43313,7 +43487,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6</v>
@@ -43321,7 +43495,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>6</v>
@@ -43329,7 +43503,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>15</v>
@@ -43337,7 +43511,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>35</v>
@@ -43345,7 +43519,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD0F682-D547-4CBC-96FC-8BC47770B133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9EC581-8C5C-4AC7-91DF-7CDFB1879306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4716" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="611">
   <si>
     <t>ToDo</t>
   </si>
@@ -1854,6 +1854,30 @@
   </si>
   <si>
     <t>9.06.2022</t>
+  </si>
+  <si>
+    <t>Phd: Devise threshold searching algorithm for multipath inference in CIGTs</t>
+  </si>
+  <si>
+    <t>10.06.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Create height landmarks</t>
+  </si>
+  <si>
+    <t>11-12.06.2022</t>
+  </si>
+  <si>
+    <t>13.06.2022</t>
+  </si>
+  <si>
+    <t>Phd: Read Homeworks</t>
+  </si>
+  <si>
+    <t>Insumo: Rule based productivity score deployment</t>
+  </si>
+  <si>
+    <t>14.06.2022</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +1927,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1976,6 +2000,12 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -2042,7 +2072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2106,6 +2136,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -3120,10 +3151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3393"/>
+  <dimension ref="A1:G3481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3377" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3388" sqref="A3388"/>
+    <sheetView tabSelected="1" topLeftCell="A3455" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3473" sqref="D3473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -42347,13 +42378,13 @@
     </row>
     <row r="3377" spans="1:3">
       <c r="A3377" s="8" t="s">
-        <v>426</v>
+        <v>603</v>
       </c>
       <c r="B3377" s="8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3377" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3378" spans="1:3">
@@ -42423,14 +42454,14 @@
       </c>
     </row>
     <row r="3384" spans="1:3">
-      <c r="A3384" s="8" t="s">
+      <c r="A3384" s="39" t="s">
         <v>598</v>
       </c>
-      <c r="B3384" s="8">
+      <c r="B3384" s="39">
         <v>5</v>
       </c>
-      <c r="C3384" s="8">
-        <v>2</v>
+      <c r="C3384" s="39">
+        <v>3</v>
       </c>
     </row>
     <row r="3385" spans="1:3">
@@ -42441,7 +42472,7 @@
         <v>12</v>
       </c>
       <c r="C3385" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3386" spans="1:3">
@@ -42507,11 +42538,901 @@
       <c r="A3393" s="26"/>
       <c r="B3393" s="8">
         <f>SUM(B3373:B3389)</f>
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C3393" s="8">
         <f>SUM(C3373:C3389)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:3">
+      <c r="A3394" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B3394" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3394" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:3">
+      <c r="A3395" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3395" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3395" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:3">
+      <c r="A3396" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3396" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3396" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3397" spans="1:3">
+      <c r="A3397" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3397" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3397" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:3">
+      <c r="A3398" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3398" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3398" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3399" spans="1:3">
+      <c r="A3399" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3399" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3399" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:3">
+      <c r="A3400" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3400" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3400" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:3">
+      <c r="A3401" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3401" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3401" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3402" spans="1:3">
+      <c r="A3402" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3402" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3402" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3403" spans="1:3">
+      <c r="A3403" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3403" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3403" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:3">
+      <c r="A3404" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3404" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3404" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3405" spans="1:3">
+      <c r="A3405" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3405" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3405" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:3">
+      <c r="A3406" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3406" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3406" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3407" spans="1:3">
+      <c r="A3407" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3407" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3407" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3408" spans="1:3">
+      <c r="A3408" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3408" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3408" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:3">
+      <c r="A3409" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3409" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3409" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:3">
+      <c r="A3410" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3410" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3410" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3411" spans="1:3">
+      <c r="A3411" s="26"/>
+      <c r="B3411" s="26"/>
+      <c r="C3411" s="26"/>
+    </row>
+    <row r="3412" spans="1:3">
+      <c r="A3412" s="26"/>
+      <c r="B3412" s="26"/>
+      <c r="C3412" s="26"/>
+    </row>
+    <row r="3413" spans="1:3">
+      <c r="A3413" s="26"/>
+      <c r="B3413" s="26"/>
+      <c r="C3413" s="26"/>
+    </row>
+    <row r="3414" spans="1:3">
+      <c r="A3414" s="26"/>
+      <c r="B3414" s="26"/>
+      <c r="C3414" s="26"/>
+    </row>
+    <row r="3415" spans="1:3">
+      <c r="A3415" s="26"/>
+      <c r="B3415" s="8">
+        <f>SUM(B3395:B3410)</f>
+        <v>182</v>
+      </c>
+      <c r="C3415" s="8">
+        <f>SUM(C3395:C3410)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:3">
+      <c r="A3416" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B3416" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3416" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:3">
+      <c r="A3417" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3417" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3417" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:3">
+      <c r="A3418" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3418" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3418" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:3">
+      <c r="A3419" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3419" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3419" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:3">
+      <c r="A3420" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3420" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3420" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:3">
+      <c r="A3421" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3421" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3421" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:3">
+      <c r="A3422" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3422" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3422" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:3">
+      <c r="A3423" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3423" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3423" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:3">
+      <c r="A3424" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3424" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3424" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:3">
+      <c r="A3425" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3425" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3425" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:3">
+      <c r="A3426" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3426" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3426" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:3">
+      <c r="A3427" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3427" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3427" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:3">
+      <c r="A3428" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3428" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3428" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:3">
+      <c r="A3429" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3429" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3429" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:3">
+      <c r="A3430" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3430" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3430" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:3">
+      <c r="A3431" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3431" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3431" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:3">
+      <c r="A3432" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3432" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3432" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:3">
+      <c r="A3433" s="26"/>
+      <c r="B3433" s="26"/>
+      <c r="C3433" s="26"/>
+    </row>
+    <row r="3434" spans="1:3">
+      <c r="A3434" s="26"/>
+      <c r="B3434" s="26"/>
+      <c r="C3434" s="26"/>
+    </row>
+    <row r="3435" spans="1:3">
+      <c r="A3435" s="26"/>
+      <c r="B3435" s="26"/>
+      <c r="C3435" s="26"/>
+    </row>
+    <row r="3436" spans="1:3">
+      <c r="A3436" s="26"/>
+      <c r="B3436" s="26"/>
+      <c r="C3436" s="26"/>
+    </row>
+    <row r="3437" spans="1:3">
+      <c r="A3437" s="26"/>
+      <c r="B3437" s="8">
+        <f>SUM(B3417:B3432)</f>
+        <v>182</v>
+      </c>
+      <c r="C3437" s="8">
+        <f>SUM(C3417:C3432)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:3">
+      <c r="A3438" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B3438" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3438" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:3">
+      <c r="A3439" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3439" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3439" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:3">
+      <c r="A3440" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3440" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3440" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:3">
+      <c r="A3441" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3441" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3441" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:3">
+      <c r="A3442" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3442" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3442" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:3">
+      <c r="A3443" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3443" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3443" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:3">
+      <c r="A3444" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3444" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3444" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:3">
+      <c r="A3445" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3445" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3445" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:3">
+      <c r="A3446" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3446" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3446" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:3">
+      <c r="A3447" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3447" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3447" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:3">
+      <c r="A3448" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3448" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3448" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:3">
+      <c r="A3449" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3449" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3449" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:3">
+      <c r="A3450" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3450" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3450" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:3">
+      <c r="A3451" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3451" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3451" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:3">
+      <c r="A3452" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3452" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3452" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:3">
+      <c r="A3453" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3453" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3453" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:3">
+      <c r="A3454" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3454" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3454" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:3">
+      <c r="A3455" s="41" t="s">
+        <v>608</v>
+      </c>
+      <c r="B3455" s="41">
         <v>2</v>
+      </c>
+      <c r="C3455" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:3">
+      <c r="A3456" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="B3456" s="26">
+        <v>3</v>
+      </c>
+      <c r="C3456" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:3">
+      <c r="A3457" s="26"/>
+      <c r="B3457" s="26"/>
+      <c r="C3457" s="26"/>
+    </row>
+    <row r="3458" spans="1:3">
+      <c r="A3458" s="26"/>
+      <c r="B3458" s="26"/>
+      <c r="C3458" s="26"/>
+    </row>
+    <row r="3459" spans="1:3">
+      <c r="A3459" s="26"/>
+      <c r="B3459" s="8">
+        <f>SUM(B3439:B3456)</f>
+        <v>179</v>
+      </c>
+      <c r="C3459" s="8">
+        <f>SUM(C3439:C3456)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:3">
+      <c r="A3460" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B3460" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3460" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:3">
+      <c r="A3461" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3461" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3461" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:3">
+      <c r="A3462" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3462" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3462" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:3">
+      <c r="A3463" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3463" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3463" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:3">
+      <c r="A3464" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3464" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3464" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:3">
+      <c r="A3465" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3465" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3465" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:3">
+      <c r="A3466" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3466" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3466" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:3">
+      <c r="A3467" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3467" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3467" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:3">
+      <c r="A3468" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3468" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3468" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:3">
+      <c r="A3469" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3469" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3469" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:3">
+      <c r="A3470" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3470" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3470" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:3">
+      <c r="A3471" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3471" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3471" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:3">
+      <c r="A3472" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3472" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3472" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:3">
+      <c r="A3473" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3473" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3473" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:3">
+      <c r="A3474" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3474" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3474" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:3">
+      <c r="A3475" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3475" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3475" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:3">
+      <c r="A3476" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3476" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3476" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:3">
+      <c r="A3477" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="B3477" s="26">
+        <v>3</v>
+      </c>
+      <c r="C3477" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:3">
+      <c r="A3478" s="26"/>
+      <c r="B3478" s="26"/>
+      <c r="C3478" s="26"/>
+    </row>
+    <row r="3479" spans="1:3">
+      <c r="A3479" s="26"/>
+      <c r="B3479" s="26"/>
+      <c r="C3479" s="26"/>
+    </row>
+    <row r="3480" spans="1:3">
+      <c r="A3480" s="26"/>
+      <c r="B3480" s="26"/>
+      <c r="C3480" s="26"/>
+    </row>
+    <row r="3481" spans="1:3">
+      <c r="A3481" s="26"/>
+      <c r="B3481" s="8">
+        <f>SUM(B3461:B3478)</f>
+        <v>177</v>
+      </c>
+      <c r="C3481" s="8">
+        <f>SUM(C3461:C3478)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9EC581-8C5C-4AC7-91DF-7CDFB1879306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F472E440-7344-4CC6-8192-2C47E869163E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="616">
   <si>
     <t>ToDo</t>
   </si>
@@ -1878,6 +1878,21 @@
   </si>
   <si>
     <t>14.06.2022</t>
+  </si>
+  <si>
+    <t>15.06.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Clean height data</t>
+  </si>
+  <si>
+    <t>16.06.2022</t>
+  </si>
+  <si>
+    <t>Phd: Write Progress Report</t>
+  </si>
+  <si>
+    <t>17.06.2022</t>
   </si>
 </sst>
 </file>
@@ -3151,10 +3166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3481"/>
+  <dimension ref="A1:G3547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3455" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3473" sqref="D3473"/>
+    <sheetView tabSelected="1" topLeftCell="A3524" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3530" sqref="D3530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -43230,7 +43245,7 @@
         <v>4</v>
       </c>
       <c r="C3461" s="8">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3462" spans="1:3">
@@ -43274,7 +43289,7 @@
         <v>12</v>
       </c>
       <c r="C3465" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3466" spans="1:3">
@@ -43351,7 +43366,7 @@
         <v>4</v>
       </c>
       <c r="C3472" s="8">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3473" spans="1:3">
@@ -43406,7 +43421,7 @@
         <v>3</v>
       </c>
       <c r="C3477" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3478" spans="1:3">
@@ -43432,7 +43447,685 @@
       </c>
       <c r="C3481" s="8">
         <f>SUM(C3461:C3478)</f>
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:3">
+      <c r="A3482" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B3482" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3482" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:3">
+      <c r="A3483" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3483" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3483" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:3">
+      <c r="A3484" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3484" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3484" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:3">
+      <c r="A3485" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3485" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3485" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:3">
+      <c r="A3486" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3486" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3486" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:3">
+      <c r="A3487" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3487" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3487" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:3">
+      <c r="A3488" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3488" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3488" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:3">
+      <c r="A3489" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3489" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3489" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:3">
+      <c r="A3490" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3490" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3490" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:3">
+      <c r="A3491" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3491" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3491" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:3">
+      <c r="A3492" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3492" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3492" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:3">
+      <c r="A3493" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3493" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3493" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:3">
+      <c r="A3494" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3494" s="8">
+        <v>16</v>
+      </c>
+      <c r="C3494" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:3">
+      <c r="A3495" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3495" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3495" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:3">
+      <c r="A3496" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3496" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3496" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:3">
+      <c r="A3497" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3497" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3497" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:3">
+      <c r="A3498" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3498" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3498" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:3">
+      <c r="A3499" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="B3499" s="26">
+        <v>3</v>
+      </c>
+      <c r="C3499" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:3">
+      <c r="A3500" s="26"/>
+      <c r="B3500" s="26"/>
+      <c r="C3500" s="26"/>
+    </row>
+    <row r="3501" spans="1:3">
+      <c r="A3501" s="26"/>
+      <c r="B3501" s="26"/>
+      <c r="C3501" s="26"/>
+    </row>
+    <row r="3502" spans="1:3">
+      <c r="A3502" s="26"/>
+      <c r="B3502" s="26"/>
+      <c r="C3502" s="26"/>
+    </row>
+    <row r="3503" spans="1:3">
+      <c r="A3503" s="26"/>
+      <c r="B3503" s="8">
+        <f>SUM(B3483:B3500)</f>
+        <v>189</v>
+      </c>
+      <c r="C3503" s="8">
+        <f>SUM(C3483:C3500)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:3">
+      <c r="A3504" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B3504" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3504" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:3">
+      <c r="A3505" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3505" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3505" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:3">
+      <c r="A3506" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3506" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3506" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:3">
+      <c r="A3507" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3507" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3507" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:3">
+      <c r="A3508" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3508" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3508" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:3">
+      <c r="A3509" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3509" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3509" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:3">
+      <c r="A3510" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3510" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3510" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:3">
+      <c r="A3511" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3511" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3511" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:3">
+      <c r="A3512" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3512" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3512" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:3">
+      <c r="A3513" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3513" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3513" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:3">
+      <c r="A3514" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3514" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3514" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:3">
+      <c r="A3515" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3515" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3515" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:3">
+      <c r="A3516" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3516" s="8">
+        <v>16</v>
+      </c>
+      <c r="C3516" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:3">
+      <c r="A3517" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3517" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3517" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:3">
+      <c r="A3518" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3518" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3518" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:3">
+      <c r="A3519" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3519" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3519" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:3">
+      <c r="A3520" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3520" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3520" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:3">
+      <c r="A3521" s="41" t="s">
+        <v>609</v>
+      </c>
+      <c r="B3521" s="41">
+        <v>3</v>
+      </c>
+      <c r="C3521" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:3">
+      <c r="A3522" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3522" s="26">
+        <v>4</v>
+      </c>
+      <c r="C3522" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:3">
+      <c r="A3523" s="26"/>
+      <c r="B3523" s="26"/>
+      <c r="C3523" s="26"/>
+    </row>
+    <row r="3524" spans="1:3">
+      <c r="A3524" s="26"/>
+      <c r="B3524" s="26"/>
+      <c r="C3524" s="26"/>
+    </row>
+    <row r="3525" spans="1:3">
+      <c r="A3525" s="26"/>
+      <c r="B3525" s="8">
+        <f>SUM(B3505:B3522)</f>
+        <v>193</v>
+      </c>
+      <c r="C3525" s="8">
+        <f>SUM(C3505:C3522)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:3">
+      <c r="A3526" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B3526" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3526" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:3">
+      <c r="A3527" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3527" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3527" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:3">
+      <c r="A3528" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3528" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3528" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:3">
+      <c r="A3529" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3529" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3529" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:3">
+      <c r="A3530" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3530" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3530" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:3">
+      <c r="A3531" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3531" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3531" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:3">
+      <c r="A3532" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3532" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3532" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:3">
+      <c r="A3533" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3533" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3533" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:3">
+      <c r="A3534" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3534" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3534" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:3">
+      <c r="A3535" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3535" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3535" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:3">
+      <c r="A3536" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3536" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3536" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:3">
+      <c r="A3537" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3537" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3537" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:3">
+      <c r="A3538" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3538" s="8">
+        <v>16</v>
+      </c>
+      <c r="C3538" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:3">
+      <c r="A3539" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3539" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3539" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:3">
+      <c r="A3540" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3540" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3540" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:3">
+      <c r="A3541" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3541" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3541" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:3">
+      <c r="A3542" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3542" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3542" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:3">
+      <c r="A3543" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3543" s="26">
+        <v>4</v>
+      </c>
+      <c r="C3543" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:3">
+      <c r="A3544" s="26"/>
+      <c r="B3544" s="26"/>
+      <c r="C3544" s="26"/>
+    </row>
+    <row r="3545" spans="1:3">
+      <c r="A3545" s="26"/>
+      <c r="B3545" s="26"/>
+      <c r="C3545" s="26"/>
+    </row>
+    <row r="3546" spans="1:3">
+      <c r="A3546" s="26"/>
+      <c r="B3546" s="26"/>
+      <c r="C3546" s="26"/>
+    </row>
+    <row r="3547" spans="1:3">
+      <c r="A3547" s="26"/>
+      <c r="B3547" s="8">
+        <f>SUM(B3527:B3543)</f>
+        <v>184</v>
+      </c>
+      <c r="C3547" s="8">
+        <f>SUM(C3527:C3543)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F472E440-7344-4CC6-8192-2C47E869163E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A3FE29-553D-463E-B971-B72648C2AC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Sayfa4" sheetId="4" r:id="rId4"/>
     <sheet name="Sayfa5" sheetId="5" r:id="rId5"/>
     <sheet name="Sayfa6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sayfa7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8173" uniqueCount="637">
   <si>
     <t>ToDo</t>
   </si>
@@ -1893,13 +1894,76 @@
   </si>
   <si>
     <t>17.06.2022</t>
+  </si>
+  <si>
+    <t>18.06.2022</t>
+  </si>
+  <si>
+    <t>19-20.06.2022</t>
+  </si>
+  <si>
+    <t>Phd: Prepare Progress Presentation</t>
+  </si>
+  <si>
+    <t>Phd: Error in Gumbel Softmax derivation</t>
+  </si>
+  <si>
+    <t>21.06.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Sprint Preparation</t>
+  </si>
+  <si>
+    <t>23.06.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Collect image data</t>
+  </si>
+  <si>
+    <t>Insumo: Multiprocessing in productivity score</t>
+  </si>
+  <si>
+    <t>24.06.2022</t>
+  </si>
+  <si>
+    <t>26.06.2022</t>
+  </si>
+  <si>
+    <t>27.06.2022</t>
+  </si>
+  <si>
+    <t>28.06.2022</t>
+  </si>
+  <si>
+    <t>29.06.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Multiprocess workaround for nimue problem</t>
+  </si>
+  <si>
+    <t>30.06.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Binning of height values</t>
+  </si>
+  <si>
+    <t>1.07.2022</t>
+  </si>
+  <si>
+    <t>3.07.2022</t>
+  </si>
+  <si>
+    <t>MT: HB Onboarding</t>
+  </si>
+  <si>
+    <t>Blackshark: Datapreprocessing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1941,8 +2005,15 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2021,6 +2092,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -2087,7 +2170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2152,6 +2235,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -3166,10 +3252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3547"/>
+  <dimension ref="A1:G3812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3524" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3530" sqref="D3530"/>
+    <sheetView tabSelected="1" topLeftCell="A3789" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3799" sqref="D3799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -44126,6 +44212,2768 @@
       <c r="C3547" s="8">
         <f>SUM(C3527:C3543)</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:3">
+      <c r="A3548" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B3548" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3548" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:3">
+      <c r="A3549" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3549" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3549" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:3">
+      <c r="A3550" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3550" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3550" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:3">
+      <c r="A3551" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3551" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3551" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:3">
+      <c r="A3552" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3552" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3552" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:3">
+      <c r="A3553" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3553" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3553" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:3">
+      <c r="A3554" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3554" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3554" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:3">
+      <c r="A3555" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3555" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3555" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:3">
+      <c r="A3556" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3556" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3556" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:3">
+      <c r="A3557" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3557" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3557" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:3">
+      <c r="A3558" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3558" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3558" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:3">
+      <c r="A3559" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3559" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3559" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:3">
+      <c r="A3560" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3560" s="8">
+        <v>16</v>
+      </c>
+      <c r="C3560" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:3">
+      <c r="A3561" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3561" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3561" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:3">
+      <c r="A3562" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3562" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3562" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:3">
+      <c r="A3563" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3563" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3563" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:3">
+      <c r="A3564" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3564" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3564" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:3">
+      <c r="A3565" s="41" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3565" s="41">
+        <v>4</v>
+      </c>
+      <c r="C3565" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:3">
+      <c r="A3566" s="26"/>
+      <c r="B3566" s="26"/>
+      <c r="C3566" s="26"/>
+    </row>
+    <row r="3567" spans="1:3">
+      <c r="A3567" s="26"/>
+      <c r="B3567" s="26"/>
+      <c r="C3567" s="26"/>
+    </row>
+    <row r="3568" spans="1:3">
+      <c r="A3568" s="26"/>
+      <c r="B3568" s="26"/>
+      <c r="C3568" s="26"/>
+    </row>
+    <row r="3569" spans="1:3">
+      <c r="A3569" s="26"/>
+      <c r="B3569" s="8">
+        <f>SUM(B3549:B3565)</f>
+        <v>184</v>
+      </c>
+      <c r="C3569" s="8">
+        <f>SUM(C3549:C3565)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:3">
+      <c r="A3570" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3570" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3570" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:3">
+      <c r="A3571" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3571" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3571" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:3">
+      <c r="A3572" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3572" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3572" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:3">
+      <c r="A3573" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3573" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3573" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:3">
+      <c r="A3574" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3574" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3574" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:3">
+      <c r="A3575" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3575" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3575" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:3">
+      <c r="A3576" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3576" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3576" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:3">
+      <c r="A3577" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3577" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3577" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:3">
+      <c r="A3578" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3578" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3578" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:3">
+      <c r="A3579" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3579" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3579" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:3">
+      <c r="A3580" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3580" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3580" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:3">
+      <c r="A3581" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3581" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3581" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:3">
+      <c r="A3582" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3582" s="8">
+        <v>16</v>
+      </c>
+      <c r="C3582" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:3">
+      <c r="A3583" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3583" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3583" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:3">
+      <c r="A3584" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3584" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3584" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:3">
+      <c r="A3585" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3585" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3585" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:3">
+      <c r="A3586" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3586" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3586" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:3">
+      <c r="A3587" s="41" t="s">
+        <v>618</v>
+      </c>
+      <c r="B3587" s="41">
+        <v>6</v>
+      </c>
+      <c r="C3587" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:3">
+      <c r="A3588" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3588" s="26">
+        <v>3</v>
+      </c>
+      <c r="C3588" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:3">
+      <c r="A3589" s="26"/>
+      <c r="B3589" s="26"/>
+      <c r="C3589" s="26"/>
+    </row>
+    <row r="3590" spans="1:3">
+      <c r="A3590" s="26"/>
+      <c r="B3590" s="26"/>
+      <c r="C3590" s="26"/>
+    </row>
+    <row r="3591" spans="1:3">
+      <c r="A3591" s="26"/>
+      <c r="B3591" s="8">
+        <f>SUM(B3571:B3588)</f>
+        <v>189</v>
+      </c>
+      <c r="C3591" s="8">
+        <f>SUM(C3571:C3588)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:3">
+      <c r="A3592" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B3592" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3592" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:3">
+      <c r="A3593" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3593" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3593" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:3">
+      <c r="A3594" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3594" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3594" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:3">
+      <c r="A3595" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3595" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3595" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:3">
+      <c r="A3596" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3596" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3596" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:3">
+      <c r="A3597" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3597" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3597" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:3">
+      <c r="A3598" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3598" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3598" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:3">
+      <c r="A3599" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3599" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3599" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:3">
+      <c r="A3600" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3600" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3600" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:3">
+      <c r="A3601" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3601" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3601" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:3">
+      <c r="A3602" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3602" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3602" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:3">
+      <c r="A3603" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3603" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3603" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:3">
+      <c r="A3604" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3604" s="39">
+        <v>8</v>
+      </c>
+      <c r="C3604" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:3">
+      <c r="A3605" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3605" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3605" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:3">
+      <c r="A3606" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3606" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3606" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:3">
+      <c r="A3607" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3607" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3607" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:3">
+      <c r="A3608" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3608" s="26">
+        <v>6</v>
+      </c>
+      <c r="C3608" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:3">
+      <c r="A3609" s="41" t="s">
+        <v>621</v>
+      </c>
+      <c r="B3609" s="41">
+        <v>3</v>
+      </c>
+      <c r="C3609" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:3">
+      <c r="A3610" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3610" s="26">
+        <v>2</v>
+      </c>
+      <c r="C3610" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:3">
+      <c r="A3611" s="26"/>
+      <c r="B3611" s="26"/>
+      <c r="C3611" s="26"/>
+    </row>
+    <row r="3612" spans="1:3">
+      <c r="A3612" s="26"/>
+      <c r="B3612" s="26"/>
+      <c r="C3612" s="26"/>
+    </row>
+    <row r="3613" spans="1:3">
+      <c r="A3613" s="26"/>
+      <c r="B3613" s="8">
+        <f>SUM(B3593:B3610)</f>
+        <v>177</v>
+      </c>
+      <c r="C3613" s="8">
+        <f>SUM(C3593:C3610)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:3">
+      <c r="A3614" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B3614" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3614" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:3">
+      <c r="A3615" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3615" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3615" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:3">
+      <c r="A3616" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3616" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3616" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:3">
+      <c r="A3617" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3617" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3617" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:3">
+      <c r="A3618" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3618" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3618" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:3">
+      <c r="A3619" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3619" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3619" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:3">
+      <c r="A3620" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3620" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3620" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:3">
+      <c r="A3621" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3621" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3621" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:3">
+      <c r="A3622" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3622" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3622" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:3">
+      <c r="A3623" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3623" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3623" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:3">
+      <c r="A3624" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3624" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3624" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:3">
+      <c r="A3625" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3625" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3625" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:3">
+      <c r="A3626" s="43" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3626" s="43">
+        <v>8</v>
+      </c>
+      <c r="C3626" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:3">
+      <c r="A3627" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3627" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3627" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:3">
+      <c r="A3628" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3628" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3628" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:3">
+      <c r="A3629" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3629" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3629" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:3">
+      <c r="A3630" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3630" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3630" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:3">
+      <c r="A3631" s="42" t="s">
+        <v>624</v>
+      </c>
+      <c r="B3631" s="42">
+        <v>4</v>
+      </c>
+      <c r="C3631" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:3">
+      <c r="A3632" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3632" s="42">
+        <v>2</v>
+      </c>
+      <c r="C3632" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:3">
+      <c r="A3633" s="26"/>
+      <c r="B3633" s="26"/>
+      <c r="C3633" s="26"/>
+    </row>
+    <row r="3634" spans="1:3">
+      <c r="A3634" s="26"/>
+      <c r="B3634" s="26"/>
+      <c r="C3634" s="26"/>
+    </row>
+    <row r="3635" spans="1:3">
+      <c r="A3635" s="26"/>
+      <c r="B3635" s="8">
+        <f>SUM(B3615:B3632)</f>
+        <v>178</v>
+      </c>
+      <c r="C3635" s="8">
+        <f>SUM(C3615:C3632)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:3">
+      <c r="A3636" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B3636" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3636" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:3">
+      <c r="A3637" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3637" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3637" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:3">
+      <c r="A3638" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3638" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3638" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:3">
+      <c r="A3639" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3639" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3639" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:3">
+      <c r="A3640" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3640" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3640" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:3">
+      <c r="A3641" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3641" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3641" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:3">
+      <c r="A3642" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3642" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3642" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:3">
+      <c r="A3643" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3643" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3643" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:3">
+      <c r="A3644" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3644" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3644" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:3">
+      <c r="A3645" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3645" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3645" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:3">
+      <c r="A3646" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3646" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3646" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:3">
+      <c r="A3647" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3647" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3647" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:3">
+      <c r="A3648" s="43" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3648" s="43">
+        <v>8</v>
+      </c>
+      <c r="C3648" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:3">
+      <c r="A3649" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3649" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3649" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:3">
+      <c r="A3650" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3650" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3650" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:3">
+      <c r="A3651" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3651" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3651" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3652" spans="1:3">
+      <c r="A3652" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3652" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3652" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3653" spans="1:3">
+      <c r="A3653" s="42" t="s">
+        <v>624</v>
+      </c>
+      <c r="B3653" s="42">
+        <v>4</v>
+      </c>
+      <c r="C3653" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3654" spans="1:3">
+      <c r="A3654" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3654" s="42">
+        <v>2</v>
+      </c>
+      <c r="C3654" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:3">
+      <c r="A3655" s="26"/>
+      <c r="B3655" s="26"/>
+      <c r="C3655" s="26"/>
+    </row>
+    <row r="3656" spans="1:3">
+      <c r="A3656" s="26"/>
+      <c r="B3656" s="26"/>
+      <c r="C3656" s="26"/>
+    </row>
+    <row r="3657" spans="1:3">
+      <c r="A3657" s="26"/>
+      <c r="B3657" s="8">
+        <f>SUM(B3637:B3654)</f>
+        <v>178</v>
+      </c>
+      <c r="C3657" s="8">
+        <f>SUM(C3637:C3654)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:3">
+      <c r="A3658" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B3658" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3658" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:3">
+      <c r="A3659" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3659" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3659" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:3">
+      <c r="A3660" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3660" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3660" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:3">
+      <c r="A3661" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3661" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3661" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3662" spans="1:3">
+      <c r="A3662" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3662" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3662" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3663" spans="1:3">
+      <c r="A3663" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3663" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3663" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:3">
+      <c r="A3664" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3664" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3664" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3665" spans="1:3">
+      <c r="A3665" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3665" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3665" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3666" spans="1:3">
+      <c r="A3666" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3666" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3666" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3667" spans="1:3">
+      <c r="A3667" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3667" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3667" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3668" spans="1:3">
+      <c r="A3668" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3668" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3668" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:3">
+      <c r="A3669" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3669" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3669" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3670" spans="1:3">
+      <c r="A3670" s="43" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3670" s="43">
+        <v>8</v>
+      </c>
+      <c r="C3670" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3671" spans="1:3">
+      <c r="A3671" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3671" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3671" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3672" spans="1:3">
+      <c r="A3672" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3672" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3672" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3673" spans="1:3">
+      <c r="A3673" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3673" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3673" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3674" spans="1:3">
+      <c r="A3674" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3674" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3674" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3675" spans="1:3">
+      <c r="A3675" s="42" t="s">
+        <v>624</v>
+      </c>
+      <c r="B3675" s="42">
+        <v>4</v>
+      </c>
+      <c r="C3675" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3676" spans="1:3">
+      <c r="A3676" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3676" s="42">
+        <v>2</v>
+      </c>
+      <c r="C3676" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3677" spans="1:3">
+      <c r="A3677" s="26"/>
+      <c r="B3677" s="26"/>
+      <c r="C3677" s="26"/>
+    </row>
+    <row r="3678" spans="1:3">
+      <c r="A3678" s="26"/>
+      <c r="B3678" s="26"/>
+      <c r="C3678" s="26"/>
+    </row>
+    <row r="3679" spans="1:3">
+      <c r="A3679" s="26"/>
+      <c r="B3679" s="8">
+        <f>SUM(B3659:B3676)</f>
+        <v>178</v>
+      </c>
+      <c r="C3679" s="8">
+        <f>SUM(C3659:C3676)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3680" spans="1:3">
+      <c r="A3680" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B3680" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3680" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3681" spans="1:3">
+      <c r="A3681" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3681" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3681" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3682" spans="1:3">
+      <c r="A3682" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3682" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3682" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3683" spans="1:3">
+      <c r="A3683" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3683" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3683" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3684" spans="1:3">
+      <c r="A3684" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3684" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3684" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3685" spans="1:3">
+      <c r="A3685" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3685" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3685" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3686" spans="1:3">
+      <c r="A3686" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3686" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3686" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3687" spans="1:3">
+      <c r="A3687" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3687" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3687" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3688" spans="1:3">
+      <c r="A3688" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3688" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3688" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3689" spans="1:3">
+      <c r="A3689" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3689" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3689" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3690" spans="1:3">
+      <c r="A3690" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3690" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3690" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3691" spans="1:3">
+      <c r="A3691" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3691" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3691" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3692" spans="1:3">
+      <c r="A3692" s="43" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3692" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3692" s="43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3693" spans="1:3">
+      <c r="A3693" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3693" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3693" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3694" spans="1:3">
+      <c r="A3694" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3694" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3694" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3695" spans="1:3">
+      <c r="A3695" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3695" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3695" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3696" spans="1:3">
+      <c r="A3696" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3696" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3696" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3697" spans="1:3">
+      <c r="A3697" s="42" t="s">
+        <v>624</v>
+      </c>
+      <c r="B3697" s="42">
+        <v>4</v>
+      </c>
+      <c r="C3697" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3698" spans="1:3">
+      <c r="A3698" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3698" s="42">
+        <v>2</v>
+      </c>
+      <c r="C3698" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3699" spans="1:3">
+      <c r="A3699" s="26"/>
+      <c r="B3699" s="26"/>
+      <c r="C3699" s="26"/>
+    </row>
+    <row r="3700" spans="1:3">
+      <c r="A3700" s="26"/>
+      <c r="B3700" s="26"/>
+      <c r="C3700" s="26"/>
+    </row>
+    <row r="3701" spans="1:3">
+      <c r="A3701" s="26"/>
+      <c r="B3701" s="8">
+        <f>SUM(B3681:B3698)</f>
+        <v>182</v>
+      </c>
+      <c r="C3701" s="8">
+        <f>SUM(C3681:C3698)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3702" spans="1:3">
+      <c r="A3702" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B3702" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3702" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3703" spans="1:3">
+      <c r="A3703" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3703" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3703" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3704" spans="1:3">
+      <c r="A3704" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3704" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3704" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3705" spans="1:3">
+      <c r="A3705" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3705" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3705" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3706" spans="1:3">
+      <c r="A3706" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3706" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3706" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3707" spans="1:3">
+      <c r="A3707" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3707" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3707" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3708" spans="1:3">
+      <c r="A3708" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3708" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3708" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3709" spans="1:3">
+      <c r="A3709" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3709" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3709" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3710" spans="1:3">
+      <c r="A3710" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3710" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3710" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3711" spans="1:3">
+      <c r="A3711" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3711" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3711" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3712" spans="1:3">
+      <c r="A3712" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3712" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3712" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3713" spans="1:3">
+      <c r="A3713" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3713" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3713" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3714" spans="1:3">
+      <c r="A3714" s="43" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3714" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3714" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3715" spans="1:3">
+      <c r="A3715" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3715" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3715" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3716" spans="1:3">
+      <c r="A3716" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3716" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3716" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3717" spans="1:3">
+      <c r="A3717" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3717" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3717" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3718" spans="1:3">
+      <c r="A3718" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3718" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3718" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3719" spans="1:3">
+      <c r="A3719" s="42" t="s">
+        <v>624</v>
+      </c>
+      <c r="B3719" s="42">
+        <v>4</v>
+      </c>
+      <c r="C3719" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3720" spans="1:3">
+      <c r="A3720" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3720" s="42">
+        <v>2</v>
+      </c>
+      <c r="C3720" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3721" spans="1:3">
+      <c r="A3721" s="26"/>
+      <c r="B3721" s="26"/>
+      <c r="C3721" s="26"/>
+    </row>
+    <row r="3722" spans="1:3">
+      <c r="A3722" s="26"/>
+      <c r="B3722" s="26"/>
+      <c r="C3722" s="26"/>
+    </row>
+    <row r="3723" spans="1:3">
+      <c r="A3723" s="26"/>
+      <c r="B3723" s="8">
+        <f>SUM(B3703:B3720)</f>
+        <v>174</v>
+      </c>
+      <c r="C3723" s="8">
+        <f>SUM(C3703:C3720)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3724" spans="1:3">
+      <c r="A3724" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B3724" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3724" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3725" spans="1:3">
+      <c r="A3725" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3725" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3725" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3726" spans="1:3">
+      <c r="A3726" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3726" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3726" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3727" spans="1:3">
+      <c r="A3727" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3727" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3727" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3728" spans="1:3">
+      <c r="A3728" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3728" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3728" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3729" spans="1:3">
+      <c r="A3729" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3729" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3729" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3730" spans="1:3">
+      <c r="A3730" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3730" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3730" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3731" spans="1:3">
+      <c r="A3731" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3731" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3731" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3732" spans="1:3">
+      <c r="A3732" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3732" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3732" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3733" spans="1:3">
+      <c r="A3733" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3733" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3733" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3734" spans="1:3">
+      <c r="A3734" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3734" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3734" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3735" spans="1:3">
+      <c r="A3735" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3735" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3735" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3736" spans="1:3">
+      <c r="A3736" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="B3736" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3736" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3737" spans="1:3">
+      <c r="A3737" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3737" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3737" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3738" spans="1:3">
+      <c r="A3738" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3738" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3738" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3739" spans="1:3">
+      <c r="A3739" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3739" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3739" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3740" spans="1:3">
+      <c r="A3740" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3740" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3740" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3741" spans="1:3">
+      <c r="A3741" s="41" t="s">
+        <v>624</v>
+      </c>
+      <c r="B3741" s="41">
+        <v>4</v>
+      </c>
+      <c r="C3741" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3742" spans="1:3">
+      <c r="A3742" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3742" s="42">
+        <v>2</v>
+      </c>
+      <c r="C3742" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3743" spans="1:3">
+      <c r="A3743" s="26"/>
+      <c r="B3743" s="26"/>
+      <c r="C3743" s="26"/>
+    </row>
+    <row r="3744" spans="1:3">
+      <c r="A3744" s="26"/>
+      <c r="B3744" s="26"/>
+      <c r="C3744" s="26"/>
+    </row>
+    <row r="3745" spans="1:3">
+      <c r="A3745" s="26"/>
+      <c r="B3745" s="8">
+        <f>SUM(B3725:B3742)</f>
+        <v>174</v>
+      </c>
+      <c r="C3745" s="8">
+        <f>SUM(C3725:C3742)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3746" spans="1:3">
+      <c r="A3746" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B3746" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3746" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3747" spans="1:3">
+      <c r="A3747" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3747" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3747" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3748" spans="1:3">
+      <c r="A3748" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3748" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3748" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3749" spans="1:3">
+      <c r="A3749" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3749" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3749" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3750" spans="1:3">
+      <c r="A3750" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3750" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3750" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3751" spans="1:3">
+      <c r="A3751" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3751" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3751" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3752" spans="1:3">
+      <c r="A3752" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3752" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3752" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3753" spans="1:3">
+      <c r="A3753" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3753" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3753" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3754" spans="1:3">
+      <c r="A3754" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3754" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3754" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3755" spans="1:3">
+      <c r="A3755" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3755" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3755" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3756" spans="1:3">
+      <c r="A3756" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3756" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3756" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3757" spans="1:3">
+      <c r="A3757" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3757" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3757" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3758" spans="1:3">
+      <c r="A3758" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="B3758" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3758" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3759" spans="1:3">
+      <c r="A3759" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3759" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3759" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3760" spans="1:3">
+      <c r="A3760" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3760" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3760" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3761" spans="1:3">
+      <c r="A3761" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3761" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3761" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3762" spans="1:3">
+      <c r="A3762" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3762" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3762" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3763" spans="1:3">
+      <c r="A3763" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3763" s="42">
+        <v>2</v>
+      </c>
+      <c r="C3763" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3764" spans="1:3">
+      <c r="A3764" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="B3764" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3764" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3765" spans="1:3">
+      <c r="A3765" s="26"/>
+      <c r="B3765" s="26"/>
+      <c r="C3765" s="26"/>
+    </row>
+    <row r="3766" spans="1:3">
+      <c r="A3766" s="26"/>
+      <c r="B3766" s="26"/>
+      <c r="C3766" s="26"/>
+    </row>
+    <row r="3767" spans="1:3">
+      <c r="A3767" s="26"/>
+      <c r="B3767" s="8">
+        <f>SUM(B3747:B3764)</f>
+        <v>176</v>
+      </c>
+      <c r="C3767" s="8">
+        <f>SUM(C3747:C3764)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3768" spans="1:3">
+      <c r="A3768" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3768" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3768" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3769" spans="1:3">
+      <c r="A3769" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3769" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3769" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3770" spans="1:3">
+      <c r="A3770" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3770" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3770" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3771" spans="1:3">
+      <c r="A3771" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3771" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3771" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3772" spans="1:3">
+      <c r="A3772" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3772" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3772" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3773" spans="1:3">
+      <c r="A3773" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3773" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3773" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3774" spans="1:3">
+      <c r="A3774" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3774" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3774" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3775" spans="1:3">
+      <c r="A3775" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3775" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3775" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3776" spans="1:3">
+      <c r="A3776" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3776" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3776" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3777" spans="1:4">
+      <c r="A3777" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3777" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3777" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3778" spans="1:4">
+      <c r="A3778" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3778" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3778" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3779" spans="1:4">
+      <c r="A3779" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3779" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3779" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3780" spans="1:4">
+      <c r="A3780" s="39" t="s">
+        <v>630</v>
+      </c>
+      <c r="B3780" s="39">
+        <v>4</v>
+      </c>
+      <c r="C3780" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3781" spans="1:4">
+      <c r="A3781" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3781" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3781" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3782" spans="1:4">
+      <c r="A3782" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3782" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3782" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3783" spans="1:4">
+      <c r="A3783" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3783" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3783" s="43">
+        <v>0</v>
+      </c>
+      <c r="D3783" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3784" spans="1:4">
+      <c r="A3784" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3784" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3784" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3785" spans="1:4">
+      <c r="A3785" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3785" s="42">
+        <v>2</v>
+      </c>
+      <c r="C3785" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3786" spans="1:4">
+      <c r="A3786" s="41" t="s">
+        <v>632</v>
+      </c>
+      <c r="B3786" s="41">
+        <v>6</v>
+      </c>
+      <c r="C3786" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3787" spans="1:4">
+      <c r="A3787" s="26"/>
+      <c r="B3787" s="26"/>
+      <c r="C3787" s="26"/>
+    </row>
+    <row r="3788" spans="1:4">
+      <c r="A3788" s="26"/>
+      <c r="B3788" s="26"/>
+      <c r="C3788" s="26"/>
+    </row>
+    <row r="3789" spans="1:4">
+      <c r="A3789" s="26"/>
+      <c r="B3789" s="8">
+        <f>SUM(B3769:B3786)</f>
+        <v>176</v>
+      </c>
+      <c r="C3789" s="8">
+        <f>SUM(C3769:C3786)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3790" spans="1:4">
+      <c r="A3790" s="26"/>
+      <c r="B3790" s="8"/>
+      <c r="C3790" s="8"/>
+    </row>
+    <row r="3791" spans="1:4">
+      <c r="A3791" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B3791" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3791" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3792" spans="1:4">
+      <c r="A3792" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3792" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3792" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3793" spans="1:3">
+      <c r="A3793" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3793" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3793" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3794" spans="1:3">
+      <c r="A3794" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3794" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3794" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3795" spans="1:3">
+      <c r="A3795" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3795" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3795" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3796" spans="1:3">
+      <c r="A3796" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3796" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3796" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3797" spans="1:3">
+      <c r="A3797" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3797" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3797" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3798" spans="1:3">
+      <c r="A3798" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3798" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3798" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3799" spans="1:3">
+      <c r="A3799" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3799" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3799" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3800" spans="1:3">
+      <c r="A3800" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3800" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3800" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3801" spans="1:3">
+      <c r="A3801" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3801" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3801" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3802" spans="1:3">
+      <c r="A3802" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3802" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3802" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3803" spans="1:3">
+      <c r="A3803" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="B3803" s="43">
+        <v>8</v>
+      </c>
+      <c r="C3803" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3804" spans="1:3">
+      <c r="A3804" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3804" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3804" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3805" spans="1:3">
+      <c r="A3805" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3805" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3805" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3806" spans="1:3">
+      <c r="A3806" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3806" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3806" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3807" spans="1:3">
+      <c r="A3807" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3807" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3807" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3808" spans="1:3">
+      <c r="A3808" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3808" s="42">
+        <v>2</v>
+      </c>
+      <c r="C3808" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3809" spans="1:3">
+      <c r="A3809" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="B3809" s="42">
+        <v>4</v>
+      </c>
+      <c r="C3809" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3810" spans="1:3">
+      <c r="A3810" s="26"/>
+      <c r="B3810" s="26"/>
+      <c r="C3810" s="26"/>
+    </row>
+    <row r="3811" spans="1:3">
+      <c r="A3811" s="26"/>
+      <c r="B3811" s="26"/>
+      <c r="C3811" s="26"/>
+    </row>
+    <row r="3812" spans="1:3">
+      <c r="A3812" s="26"/>
+      <c r="B3812" s="8">
+        <f>SUM(B3792:B3809)</f>
+        <v>178</v>
+      </c>
+      <c r="C3812" s="8">
+        <f>SUM(C3792:C3809)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -46801,4 +49649,191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DB8CE9-2875-406E-A30B-DDE12D2E3328}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1">
+        <v>0.92560999989509596</v>
+      </c>
+      <c r="G1" s="26">
+        <v>2018400270</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0.92429999709129296</v>
+      </c>
+      <c r="G2" s="26">
+        <v>2015401015</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>0.92410000562667804</v>
+      </c>
+      <c r="G3" s="26">
+        <v>2018400285</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="44">
+        <v>90</v>
+      </c>
+      <c r="J3" s="44">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>0.92320999503135703</v>
+      </c>
+      <c r="G4" s="26">
+        <v>2017400054</v>
+      </c>
+      <c r="H4" s="26">
+        <v>100</v>
+      </c>
+      <c r="I4" s="26">
+        <v>95</v>
+      </c>
+      <c r="J4" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>0.92441999912261996</v>
+      </c>
+      <c r="G5" s="26">
+        <v>2017400051</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26">
+        <v>90</v>
+      </c>
+      <c r="J5" s="26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>0.92372999787330601</v>
+      </c>
+      <c r="G6" s="26">
+        <v>2017400021</v>
+      </c>
+      <c r="H6" s="26">
+        <v>85</v>
+      </c>
+      <c r="I6" s="44">
+        <v>90</v>
+      </c>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>0.92311000227928197</v>
+      </c>
+      <c r="G7" s="26">
+        <v>2017400048</v>
+      </c>
+      <c r="H7" s="26">
+        <v>100</v>
+      </c>
+      <c r="I7" s="26">
+        <v>90</v>
+      </c>
+      <c r="J7" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>0.923000007867813</v>
+      </c>
+      <c r="G8" s="26">
+        <v>2017400081</v>
+      </c>
+      <c r="H8" s="26">
+        <v>95</v>
+      </c>
+      <c r="I8" s="26">
+        <v>90</v>
+      </c>
+      <c r="J8" s="26">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0.92265999913215602</v>
+      </c>
+      <c r="G9" s="26">
+        <v>2019400255</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0.92256999611854595</v>
+      </c>
+      <c r="G10" s="26">
+        <v>2017400060</v>
+      </c>
+      <c r="H10" s="26">
+        <v>100</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="G11" s="26">
+        <v>2018400048</v>
+      </c>
+      <c r="H11" s="26">
+        <v>100</v>
+      </c>
+      <c r="I11" s="26">
+        <v>90</v>
+      </c>
+      <c r="J11" s="26">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="E16">
+        <v>7650000</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17">
+        <v>1775</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A3FE29-553D-463E-B971-B72648C2AC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F72F346-2862-4A47-9746-D714727DA969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8173" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="638">
   <si>
     <t>ToDo</t>
   </si>
@@ -1957,6 +1957,9 @@
   </si>
   <si>
     <t>Blackshark: Datapreprocessing</t>
+  </si>
+  <si>
+    <t>4.07.2022</t>
   </si>
 </sst>
 </file>
@@ -3252,10 +3255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3812"/>
+  <dimension ref="A1:G3834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3789" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3799" sqref="D3799"/>
+    <sheetView tabSelected="1" topLeftCell="A3810" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3814" sqref="C3814:C3831"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -46974,6 +46977,236 @@
       <c r="C3812" s="8">
         <f>SUM(C3792:C3809)</f>
         <v>6</v>
+      </c>
+    </row>
+    <row r="3813" spans="1:3">
+      <c r="A3813" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B3813" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3813" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:3">
+      <c r="A3814" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3814" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3814" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:3">
+      <c r="A3815" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3815" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3815" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:3">
+      <c r="A3816" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3816" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3816" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:3">
+      <c r="A3817" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3817" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3817" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:3">
+      <c r="A3818" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3818" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3818" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:3">
+      <c r="A3819" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3819" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3819" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:3">
+      <c r="A3820" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3820" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3820" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:3">
+      <c r="A3821" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3821" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3821" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:3">
+      <c r="A3822" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3822" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3822" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:3">
+      <c r="A3823" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3823" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3823" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:3">
+      <c r="A3824" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3824" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3824" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:3">
+      <c r="A3825" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="B3825" s="43">
+        <v>8</v>
+      </c>
+      <c r="C3825" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:3">
+      <c r="A3826" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3826" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3826" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:3">
+      <c r="A3827" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3827" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3827" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:3">
+      <c r="A3828" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3828" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3828" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:3">
+      <c r="A3829" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3829" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3829" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:3">
+      <c r="A3830" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3830" s="42">
+        <v>2</v>
+      </c>
+      <c r="C3830" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:3">
+      <c r="A3831" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="B3831" s="42">
+        <v>4</v>
+      </c>
+      <c r="C3831" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:3">
+      <c r="A3832" s="26"/>
+      <c r="B3832" s="26"/>
+      <c r="C3832" s="26"/>
+    </row>
+    <row r="3833" spans="1:3">
+      <c r="A3833" s="26"/>
+      <c r="B3833" s="26"/>
+      <c r="C3833" s="26"/>
+    </row>
+    <row r="3834" spans="1:3">
+      <c r="A3834" s="26"/>
+      <c r="B3834" s="8">
+        <f>SUM(B3814:B3831)</f>
+        <v>178</v>
+      </c>
+      <c r="C3834" s="8">
+        <f>SUM(C3814:C3831)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F72F346-2862-4A47-9746-D714727DA969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC02A8C-88EE-431E-A9BB-D35216928CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4716" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -3257,8 +3257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3810" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3814" sqref="C3814:C3831"/>
+    <sheetView tabSelected="1" topLeftCell="A3816" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3818" sqref="C3818"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -47042,7 +47042,7 @@
         <v>6</v>
       </c>
       <c r="C3818" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3819" spans="1:3">
@@ -47206,7 +47206,7 @@
       </c>
       <c r="C3834" s="8">
         <f>SUM(C3814:C3831)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC02A8C-88EE-431E-A9BB-D35216928CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9919BF-CEA8-46FE-94C6-4C972475D347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4716" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4181" uniqueCount="640">
   <si>
     <t>ToDo</t>
   </si>
@@ -1960,6 +1960,12 @@
   </si>
   <si>
     <t>4.07.2022</t>
+  </si>
+  <si>
+    <t>Phd: MAC calculation</t>
+  </si>
+  <si>
+    <t>5.07.2022</t>
   </si>
 </sst>
 </file>
@@ -3255,10 +3261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3834"/>
+  <dimension ref="A1:G3856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3816" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3818" sqref="C3818"/>
+    <sheetView tabSelected="1" topLeftCell="A3830" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3843" sqref="D3843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -47042,7 +47048,7 @@
         <v>6</v>
       </c>
       <c r="C3818" s="43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3819" spans="1:3">
@@ -47124,7 +47130,7 @@
     </row>
     <row r="3826" spans="1:3">
       <c r="A3826" s="43" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B3826" s="43">
         <v>4</v>
@@ -47189,9 +47195,15 @@
       </c>
     </row>
     <row r="3832" spans="1:3">
-      <c r="A3832" s="26"/>
-      <c r="B3832" s="26"/>
-      <c r="C3832" s="26"/>
+      <c r="A3832" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="B3832" s="26">
+        <v>4</v>
+      </c>
+      <c r="C3832" s="26">
+        <v>3</v>
+      </c>
     </row>
     <row r="3833" spans="1:3">
       <c r="A3833" s="26"/>
@@ -47201,11 +47213,241 @@
     <row r="3834" spans="1:3">
       <c r="A3834" s="26"/>
       <c r="B3834" s="8">
-        <f>SUM(B3814:B3831)</f>
+        <f>SUM(B3814:B3832)</f>
+        <v>182</v>
+      </c>
+      <c r="C3834" s="8">
+        <f>SUM(C3814:C3832)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:3">
+      <c r="A3835" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B3835" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3835" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:3">
+      <c r="A3836" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3836" s="43">
+        <v>4</v>
+      </c>
+      <c r="C3836" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:3">
+      <c r="A3837" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3837" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3837" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:3">
+      <c r="A3838" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3838" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3838" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:3">
+      <c r="A3839" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3839" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3839" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:3">
+      <c r="A3840" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3840" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3840" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:3">
+      <c r="A3841" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3841" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3841" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:3">
+      <c r="A3842" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3842" s="43">
+        <v>12</v>
+      </c>
+      <c r="C3842" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:3">
+      <c r="A3843" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3843" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3843" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:3">
+      <c r="A3844" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3844" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3844" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:3">
+      <c r="A3845" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3845" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3845" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:3">
+      <c r="A3846" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3846" s="43">
+        <v>24</v>
+      </c>
+      <c r="C3846" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:3">
+      <c r="A3847" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="B3847" s="43">
+        <v>8</v>
+      </c>
+      <c r="C3847" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:3">
+      <c r="A3848" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3848" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3848" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:3">
+      <c r="A3849" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3849" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3849" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:3">
+      <c r="A3850" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3850" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3850" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:3">
+      <c r="A3851" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3851" s="42">
+        <v>2</v>
+      </c>
+      <c r="C3851" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:3">
+      <c r="A3852" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="B3852" s="42">
+        <v>4</v>
+      </c>
+      <c r="C3852" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:3">
+      <c r="A3853" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="B3853" s="26">
+        <v>4</v>
+      </c>
+      <c r="C3853" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:3">
+      <c r="A3854" s="26"/>
+      <c r="B3854" s="26"/>
+      <c r="C3854" s="26"/>
+    </row>
+    <row r="3855" spans="1:3">
+      <c r="A3855" s="26"/>
+      <c r="B3855" s="26"/>
+      <c r="C3855" s="26"/>
+    </row>
+    <row r="3856" spans="1:3">
+      <c r="A3856" s="26"/>
+      <c r="B3856" s="8">
+        <f>SUM(B3836:B3853)</f>
         <v>178</v>
       </c>
-      <c r="C3834" s="8">
-        <f>SUM(C3814:C3831)</f>
+      <c r="C3856" s="8">
+        <f>SUM(C3836:C3853)</f>
         <v>2</v>
       </c>
     </row>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -2420,7 +2420,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2704,11 +2704,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="63447067"/>
-        <c:axId val="45638594"/>
+        <c:axId val="64743869"/>
+        <c:axId val="54002845"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63447067"/>
+        <c:axId val="64743869"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,12 +2750,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45638594"/>
+        <c:crossAx val="54002845"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45638594"/>
+        <c:axId val="54002845"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2797,7 +2797,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63447067"/>
+        <c:crossAx val="64743869"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2977,7 +2977,7 @@
   <dimension ref="A1:G3878"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3854" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3867" activeCellId="0" sqref="D3867"/>
+      <selection pane="topLeft" activeCell="D3863" activeCellId="0" sqref="D3863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47227,7 +47227,7 @@
         <v>6</v>
       </c>
       <c r="C3862" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47379,7 +47379,7 @@
       </c>
       <c r="C3878" s="8" t="n">
         <f aca="false">SUM(C3858:C3875)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -2423,7 +2423,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2707,11 +2707,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="84583532"/>
-        <c:axId val="5578804"/>
+        <c:axId val="84595823"/>
+        <c:axId val="85538079"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84583532"/>
+        <c:axId val="84595823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,12 +2753,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5578804"/>
+        <c:crossAx val="85538079"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="5578804"/>
+        <c:axId val="85538079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2800,7 +2800,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84583532"/>
+        <c:crossAx val="84595823"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2980,7 +2980,7 @@
   <dimension ref="A1:G3900"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3873" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3882" activeCellId="0" sqref="D3882"/>
+      <selection pane="topLeft" activeCell="D3888" activeCellId="0" sqref="D3888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47466,7 +47466,7 @@
         <v>6</v>
       </c>
       <c r="C3884" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3885" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47624,7 +47624,7 @@
       </c>
       <c r="C3900" s="8" t="n">
         <f aca="false">SUM(C3880:C3898)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -2423,7 +2423,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2707,11 +2707,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="84595823"/>
-        <c:axId val="85538079"/>
+        <c:axId val="20778044"/>
+        <c:axId val="87581586"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84595823"/>
+        <c:axId val="20778044"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,12 +2753,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85538079"/>
+        <c:crossAx val="87581586"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85538079"/>
+        <c:axId val="87581586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2800,7 +2800,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84595823"/>
+        <c:crossAx val="20778044"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2980,7 +2980,7 @@
   <dimension ref="A1:G3900"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3873" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3888" activeCellId="0" sqref="D3888"/>
+      <selection pane="topLeft" activeCell="D3886" activeCellId="0" sqref="D3886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47466,7 +47466,7 @@
         <v>6</v>
       </c>
       <c r="C3884" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3885" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47624,7 +47624,7 @@
       </c>
       <c r="C3900" s="8" t="n">
         <f aca="false">SUM(C3880:C3898)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -2423,7 +2423,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2707,11 +2707,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="20778044"/>
-        <c:axId val="87581586"/>
+        <c:axId val="39952165"/>
+        <c:axId val="72180977"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20778044"/>
+        <c:axId val="39952165"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,12 +2753,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87581586"/>
+        <c:crossAx val="72180977"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87581586"/>
+        <c:axId val="72180977"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2800,7 +2800,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20778044"/>
+        <c:crossAx val="39952165"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2980,7 +2980,7 @@
   <dimension ref="A1:G3900"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3873" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3886" activeCellId="0" sqref="D3886"/>
+      <selection pane="topLeft" activeCell="D3890" activeCellId="0" sqref="D3890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47466,7 +47466,7 @@
         <v>6</v>
       </c>
       <c r="C3884" s="8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3885" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47624,7 +47624,7 @@
       </c>
       <c r="C3900" s="8" t="n">
         <f aca="false">SUM(C3880:C3898)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4223" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4243" uniqueCount="645">
   <si>
     <t xml:space="preserve">ToDo</t>
   </si>
@@ -1728,6 +1728,12 @@
   </si>
   <si>
     <t xml:space="preserve">7.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phd: Devise threshold searching algorithm for multipath inference in CIGTs – Brute Force</t>
   </si>
   <si>
     <t xml:space="preserve">MNIST</t>
@@ -2423,7 +2429,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2707,11 +2713,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="39952165"/>
-        <c:axId val="72180977"/>
+        <c:axId val="70139000"/>
+        <c:axId val="46854443"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39952165"/>
+        <c:axId val="70139000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,12 +2759,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72180977"/>
+        <c:crossAx val="46854443"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72180977"/>
+        <c:axId val="46854443"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2800,7 +2806,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39952165"/>
+        <c:crossAx val="70139000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2859,13 +2865,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1546</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>302760</xdr:colOff>
       <xdr:row>1547</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2874,7 +2880,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="283121280"/>
+          <a:off x="9691920" y="283121640"/>
           <a:ext cx="302760" cy="302760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2899,13 +2905,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1558</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>302760</xdr:colOff>
       <xdr:row>1559</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2914,7 +2920,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="285864480"/>
+          <a:off x="9691920" y="285864840"/>
           <a:ext cx="302760" cy="302760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2977,10 +2983,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3900"/>
+  <dimension ref="A1:G3922"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3873" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3890" activeCellId="0" sqref="D3890"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3897" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3906" activeCellId="0" sqref="C3906"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47466,7 +47472,7 @@
         <v>6</v>
       </c>
       <c r="C3884" s="8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3885" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47624,7 +47630,231 @@
       </c>
       <c r="C3900" s="8" t="n">
         <f aca="false">SUM(C3880:C3898)</f>
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3901" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B3901" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3901" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3902" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3902" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3902" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3903" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3903" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3903" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3904" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3904" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3904" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3905" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3905" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3905" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3906" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3906" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3906" s="8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3907" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3907" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3907" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3908" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3908" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3908" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3909" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3909" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3909" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3910" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3910" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3910" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3911" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3911" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3911" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3912" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3912" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3912" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3913" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3913" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3913" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3914" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3914" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3914" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3915" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3915" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3915" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3916" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B3916" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3916" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3917" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="B3917" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3917" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3918" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3918" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3918" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3919" s="8"/>
+      <c r="B3919" s="8"/>
+      <c r="C3919" s="8"/>
+    </row>
+    <row r="3920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3920" s="26"/>
+      <c r="B3920" s="26"/>
+      <c r="C3920" s="26"/>
+    </row>
+    <row r="3921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3921" s="8"/>
+      <c r="B3921" s="8"/>
+      <c r="C3921" s="8"/>
+    </row>
+    <row r="3922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3922" s="26"/>
+      <c r="B3922" s="8" t="n">
+        <f aca="false">SUM(B3902:B3920)</f>
+        <v>178</v>
+      </c>
+      <c r="C3922" s="8" t="n">
+        <f aca="false">SUM(C3902:C3920)</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -47659,20 +47889,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47788,13 +48018,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48100,38 +48330,38 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48142,7 +48372,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -48150,7 +48380,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>80</v>
@@ -48164,7 +48394,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -48172,7 +48402,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>80</v>
@@ -48186,7 +48416,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -48194,7 +48424,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>80</v>
@@ -48208,17 +48438,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>80</v>
@@ -48232,17 +48462,17 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>80</v>
@@ -48256,17 +48486,17 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>80</v>
@@ -48280,17 +48510,17 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>80</v>
@@ -48304,17 +48534,17 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>80</v>
@@ -48328,17 +48558,17 @@
         <v>5</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H29" s="31" t="n">
         <v>80</v>
@@ -48352,17 +48582,17 @@
         <v>5</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E30" s="31"/>
       <c r="F30" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H30" s="31" t="n">
         <v>80</v>
@@ -48376,17 +48606,17 @@
         <v>5</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H31" s="31" t="n">
         <v>80</v>
@@ -48400,17 +48630,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H32" s="31" t="n">
         <v>80</v>
@@ -48424,17 +48654,17 @@
         <v>5</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H33" s="31" t="n">
         <v>80</v>
@@ -48448,17 +48678,17 @@
         <v>5</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H34" s="31" t="n">
         <v>80</v>
@@ -48472,17 +48702,17 @@
         <v>5</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H35" s="32" t="n">
         <v>50</v>
@@ -48496,17 +48726,17 @@
         <v>5</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H36" s="32" t="n">
         <v>50</v>
@@ -48520,17 +48750,17 @@
         <v>5</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H37" s="32" t="n">
         <v>50</v>
@@ -48544,20 +48774,20 @@
         <v>5</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48577,22 +48807,22 @@
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50098,7 +50328,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B1" s="12" t="n">
         <v>329</v>
@@ -50106,7 +50336,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>379</v>
@@ -50114,7 +50344,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>399</v>
@@ -50122,7 +50352,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="39" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>388</v>
@@ -50130,7 +50360,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>50</v>
@@ -50138,7 +50368,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9</v>
@@ -50146,7 +50376,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>11</v>
@@ -50154,7 +50384,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3.5</v>
@@ -50162,7 +50392,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -50170,7 +50400,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -50178,7 +50408,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -50186,7 +50416,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -50194,7 +50424,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -50202,7 +50432,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
@@ -50210,7 +50440,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -50218,7 +50448,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -50226,7 +50456,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6.5</v>
@@ -50234,7 +50464,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>6.5</v>
@@ -50242,7 +50472,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7</v>
@@ -50250,17 +50480,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>35</v>
@@ -50268,7 +50498,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>
@@ -50276,7 +50506,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
@@ -50284,7 +50514,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6</v>
@@ -50292,7 +50522,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>6</v>
@@ -50300,7 +50530,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>15</v>
@@ -50308,7 +50538,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>35</v>
@@ -50316,7 +50546,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -2429,7 +2429,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2713,11 +2713,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="70139000"/>
-        <c:axId val="46854443"/>
+        <c:axId val="36617374"/>
+        <c:axId val="89934763"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70139000"/>
+        <c:axId val="36617374"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2759,12 +2759,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46854443"/>
+        <c:crossAx val="89934763"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46854443"/>
+        <c:axId val="89934763"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2806,7 +2806,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70139000"/>
+        <c:crossAx val="36617374"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2869,9 +2869,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>302760</xdr:colOff>
+      <xdr:colOff>302400</xdr:colOff>
       <xdr:row>1547</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2880,8 +2880,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="283121640"/>
-          <a:ext cx="302760" cy="302760"/>
+          <a:off x="9692640" y="283121640"/>
+          <a:ext cx="302400" cy="302400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2909,9 +2909,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>302760</xdr:colOff>
+      <xdr:colOff>302400</xdr:colOff>
       <xdr:row>1559</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2920,8 +2920,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="285864840"/>
-          <a:ext cx="302760" cy="302760"/>
+          <a:off x="9692640" y="285864840"/>
+          <a:ext cx="302400" cy="302400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2954,9 +2954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>531360</xdr:colOff>
+      <xdr:colOff>531000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2965,7 +2965,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4466520" y="1299240"/>
-        <a:ext cx="5627880" cy="2741040"/>
+        <a:ext cx="5627520" cy="2740680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2986,7 +2986,7 @@
   <dimension ref="A1:G3922"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3897" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3906" activeCellId="0" sqref="C3906"/>
+      <selection pane="topLeft" activeCell="D3908" activeCellId="0" sqref="D3908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47696,7 +47696,7 @@
         <v>8</v>
       </c>
       <c r="C3906" s="8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47854,7 +47854,7 @@
       </c>
       <c r="C3922" s="8" t="n">
         <f aca="false">SUM(C3902:C3920)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -50588,7 +50588,7 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.45"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4283" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4304" uniqueCount="648">
   <si>
     <t xml:space="preserve">ToDo</t>
   </si>
@@ -1737,6 +1737,12 @@
   </si>
   <si>
     <t xml:space="preserve">11.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackshark: Reformat the training data</t>
   </si>
   <si>
     <t xml:space="preserve">MNIST</t>
@@ -2432,7 +2438,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2716,11 +2722,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="78803399"/>
-        <c:axId val="48477257"/>
+        <c:axId val="31749770"/>
+        <c:axId val="61820648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78803399"/>
+        <c:axId val="31749770"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,12 +2768,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48477257"/>
+        <c:crossAx val="61820648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48477257"/>
+        <c:axId val="61820648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,7 +2815,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78803399"/>
+        <c:crossAx val="31749770"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2872,9 +2878,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>302040</xdr:colOff>
       <xdr:row>1547</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2883,8 +2889,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="283121280"/>
-          <a:ext cx="302400" cy="302400"/>
+          <a:off x="9692640" y="283121280"/>
+          <a:ext cx="302040" cy="302040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2912,9 +2918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>302040</xdr:colOff>
       <xdr:row>1559</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2923,8 +2929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="285864480"/>
-          <a:ext cx="302400" cy="302400"/>
+          <a:off x="9692640" y="285864480"/>
+          <a:ext cx="302040" cy="302040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2957,9 +2963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
+      <xdr:colOff>530640</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2968,7 +2974,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4466520" y="1299240"/>
-        <a:ext cx="5627520" cy="2740680"/>
+        <a:ext cx="5627160" cy="2740320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2986,10 +2992,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3966"/>
+  <dimension ref="A1:G3988"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3939" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3957" activeCellId="0" sqref="D3957"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3957" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3962" activeCellId="0" sqref="A3962"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48305,6 +48311,236 @@
       </c>
       <c r="C3966" s="8" t="n">
         <f aca="false">SUM(C3946:C3964)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3967" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3967" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3967" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3968" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3968" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3968" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3969" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3969" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3969" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3970" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3970" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3970" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3971" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3971" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3971" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3972" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="B3972" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3972" s="8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3973" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3973" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3973" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3974" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3974" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3974" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3975" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3975" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3975" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3976" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3976" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3976" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3977" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3977" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3977" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3978" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3978" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3978" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3979" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3979" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3979" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3980" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3980" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3980" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3981" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3981" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3981" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3982" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B3982" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3982" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3983" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="B3983" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3983" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3984" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3984" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3984" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3985" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3985" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3985" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3986" s="26"/>
+      <c r="B3986" s="26"/>
+      <c r="C3986" s="26"/>
+    </row>
+    <row r="3987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3987" s="8"/>
+      <c r="B3987" s="8"/>
+      <c r="C3987" s="8"/>
+    </row>
+    <row r="3988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3988" s="26"/>
+      <c r="B3988" s="8" t="n">
+        <f aca="false">SUM(B3968:B3986)</f>
+        <v>178</v>
+      </c>
+      <c r="C3988" s="8" t="n">
+        <f aca="false">SUM(C3968:C3986)</f>
         <v>11</v>
       </c>
     </row>
@@ -48340,20 +48576,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48469,13 +48705,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48781,38 +49017,38 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48823,7 +49059,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -48831,7 +49067,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>80</v>
@@ -48845,7 +49081,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -48853,7 +49089,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>80</v>
@@ -48867,7 +49103,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -48875,7 +49111,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>80</v>
@@ -48889,17 +49125,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>80</v>
@@ -48913,17 +49149,17 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>80</v>
@@ -48937,17 +49173,17 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>80</v>
@@ -48961,17 +49197,17 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>80</v>
@@ -48985,17 +49221,17 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>80</v>
@@ -49009,17 +49245,17 @@
         <v>5</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H29" s="31" t="n">
         <v>80</v>
@@ -49033,17 +49269,17 @@
         <v>5</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E30" s="31"/>
       <c r="F30" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H30" s="31" t="n">
         <v>80</v>
@@ -49057,17 +49293,17 @@
         <v>5</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H31" s="31" t="n">
         <v>80</v>
@@ -49081,17 +49317,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H32" s="31" t="n">
         <v>80</v>
@@ -49105,17 +49341,17 @@
         <v>5</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H33" s="31" t="n">
         <v>80</v>
@@ -49129,17 +49365,17 @@
         <v>5</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H34" s="31" t="n">
         <v>80</v>
@@ -49153,17 +49389,17 @@
         <v>5</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H35" s="32" t="n">
         <v>50</v>
@@ -49177,17 +49413,17 @@
         <v>5</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H36" s="32" t="n">
         <v>50</v>
@@ -49201,17 +49437,17 @@
         <v>5</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H37" s="32" t="n">
         <v>50</v>
@@ -49225,20 +49461,20 @@
         <v>5</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49258,22 +49494,22 @@
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50779,7 +51015,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B1" s="12" t="n">
         <v>329</v>
@@ -50787,7 +51023,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>379</v>
@@ -50795,7 +51031,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>399</v>
@@ -50803,7 +51039,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="39" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>388</v>
@@ -50811,7 +51047,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>50</v>
@@ -50819,7 +51055,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9</v>
@@ -50827,7 +51063,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>11</v>
@@ -50835,7 +51071,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3.5</v>
@@ -50843,7 +51079,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -50851,7 +51087,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -50859,7 +51095,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -50867,7 +51103,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -50875,7 +51111,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -50883,7 +51119,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
@@ -50891,7 +51127,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -50899,7 +51135,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -50907,7 +51143,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6.5</v>
@@ -50915,7 +51151,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>6.5</v>
@@ -50923,7 +51159,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7</v>
@@ -50931,17 +51167,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>35</v>
@@ -50949,7 +51185,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>
@@ -50957,7 +51193,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
@@ -50965,7 +51201,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6</v>
@@ -50973,7 +51209,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>6</v>
@@ -50981,7 +51217,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>15</v>
@@ -50989,7 +51225,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>35</v>
@@ -50997,7 +51233,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4304" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4325" uniqueCount="649">
   <si>
     <t xml:space="preserve">ToDo</t>
   </si>
@@ -1743,6 +1743,9 @@
   </si>
   <si>
     <t xml:space="preserve">Blackshark: Reformat the training data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.07.2022</t>
   </si>
   <si>
     <t xml:space="preserve">MNIST</t>
@@ -2438,7 +2441,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2722,11 +2725,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="31749770"/>
-        <c:axId val="61820648"/>
+        <c:axId val="45198420"/>
+        <c:axId val="79111902"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31749770"/>
+        <c:axId val="45198420"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2768,12 +2771,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61820648"/>
+        <c:crossAx val="79111902"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61820648"/>
+        <c:axId val="79111902"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2815,7 +2818,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31749770"/>
+        <c:crossAx val="45198420"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2874,11 +2877,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1546</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>302040</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>1547</xdr:row>
       <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
@@ -2889,8 +2892,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9692640" y="283121280"/>
-          <a:ext cx="302040" cy="302040"/>
+          <a:off x="9692640" y="283121640"/>
+          <a:ext cx="301680" cy="301680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2914,11 +2917,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1558</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>302040</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>1559</xdr:row>
       <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
@@ -2929,8 +2932,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9692640" y="285864480"/>
-          <a:ext cx="302040" cy="302040"/>
+          <a:off x="9692640" y="285864840"/>
+          <a:ext cx="301680" cy="301680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2963,9 +2966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>530640</xdr:colOff>
+      <xdr:colOff>530280</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2974,7 +2977,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4466520" y="1299240"/>
-        <a:ext cx="5627160" cy="2740320"/>
+        <a:ext cx="5626800" cy="2739960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2992,10 +2995,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3988"/>
+  <dimension ref="A1:G4010"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3957" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3962" activeCellId="0" sqref="A3962"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3978" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4002" activeCellId="0" sqref="D4002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48520,7 +48523,7 @@
         <v>2</v>
       </c>
       <c r="C3985" s="8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48541,6 +48544,236 @@
       </c>
       <c r="C3988" s="8" t="n">
         <f aca="false">SUM(C3968:C3986)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3989" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3989" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3989" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3990" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3990" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3990" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3991" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3991" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3991" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3992" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3992" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3992" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3993" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3993" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3993" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3994" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="B3994" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3994" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3995" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3995" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3995" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3996" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3996" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3996" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3997" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3997" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3997" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3998" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3998" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3998" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3999" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3999" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3999" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4000" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4000" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4000" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4001" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4001" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4001" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4002" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4002" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4002" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4003" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4003" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4003" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4004" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4004" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4004" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4005" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4005" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4005" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4006" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4006" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4006" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4007" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B4007" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4007" s="8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4008" s="26"/>
+      <c r="B4008" s="26"/>
+      <c r="C4008" s="26"/>
+    </row>
+    <row r="4009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4009" s="8"/>
+      <c r="B4009" s="8"/>
+      <c r="C4009" s="8"/>
+    </row>
+    <row r="4010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4010" s="26"/>
+      <c r="B4010" s="8" t="n">
+        <f aca="false">SUM(B3990:B4008)</f>
+        <v>180</v>
+      </c>
+      <c r="C4010" s="8" t="n">
+        <f aca="false">SUM(C3990:C4008)</f>
         <v>11</v>
       </c>
     </row>
@@ -48576,20 +48809,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48705,13 +48938,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49017,38 +49250,38 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49059,7 +49292,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -49067,7 +49300,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>80</v>
@@ -49081,7 +49314,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -49089,7 +49322,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>80</v>
@@ -49103,7 +49336,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -49111,7 +49344,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>80</v>
@@ -49125,17 +49358,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>80</v>
@@ -49149,17 +49382,17 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>80</v>
@@ -49173,17 +49406,17 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>80</v>
@@ -49197,17 +49430,17 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>80</v>
@@ -49221,17 +49454,17 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>597</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>596</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>80</v>
@@ -49245,17 +49478,17 @@
         <v>5</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H29" s="31" t="n">
         <v>80</v>
@@ -49269,17 +49502,17 @@
         <v>5</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E30" s="31"/>
       <c r="F30" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H30" s="31" t="n">
         <v>80</v>
@@ -49293,17 +49526,17 @@
         <v>5</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H31" s="31" t="n">
         <v>80</v>
@@ -49317,17 +49550,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H32" s="31" t="n">
         <v>80</v>
@@ -49341,17 +49574,17 @@
         <v>5</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H33" s="31" t="n">
         <v>80</v>
@@ -49365,17 +49598,17 @@
         <v>5</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H34" s="31" t="n">
         <v>80</v>
@@ -49389,17 +49622,17 @@
         <v>5</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H35" s="32" t="n">
         <v>50</v>
@@ -49413,17 +49646,17 @@
         <v>5</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H36" s="32" t="n">
         <v>50</v>
@@ -49437,17 +49670,17 @@
         <v>5</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H37" s="32" t="n">
         <v>50</v>
@@ -49461,20 +49694,20 @@
         <v>5</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49494,22 +49727,22 @@
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51015,7 +51248,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B1" s="12" t="n">
         <v>329</v>
@@ -51023,7 +51256,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>379</v>
@@ -51031,7 +51264,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>399</v>
@@ -51039,7 +51272,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="39" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>388</v>
@@ -51047,7 +51280,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>50</v>
@@ -51055,7 +51288,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9</v>
@@ -51063,7 +51296,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>11</v>
@@ -51071,7 +51304,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3.5</v>
@@ -51079,7 +51312,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -51087,7 +51320,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -51095,7 +51328,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -51103,7 +51336,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -51111,7 +51344,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -51119,7 +51352,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
@@ -51127,7 +51360,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -51135,7 +51368,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -51143,7 +51376,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6.5</v>
@@ -51151,7 +51384,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>6.5</v>
@@ -51159,7 +51392,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7</v>
@@ -51167,17 +51400,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>35</v>
@@ -51185,7 +51418,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>
@@ -51193,7 +51426,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
@@ -51201,7 +51434,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6</v>
@@ -51209,7 +51442,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>6</v>
@@ -51217,7 +51450,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>15</v>
@@ -51225,7 +51458,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>35</v>
@@ -51233,7 +51466,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -2441,7 +2441,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2725,11 +2725,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="45198420"/>
-        <c:axId val="79111902"/>
+        <c:axId val="26684301"/>
+        <c:axId val="48646147"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45198420"/>
+        <c:axId val="26684301"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2771,12 +2771,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79111902"/>
+        <c:crossAx val="48646147"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79111902"/>
+        <c:axId val="48646147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2818,7 +2818,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45198420"/>
+        <c:crossAx val="26684301"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2998,7 +2998,7 @@
   <dimension ref="A1:G4010"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3978" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4002" activeCellId="0" sqref="D4002"/>
+      <selection pane="topLeft" activeCell="D3992" activeCellId="0" sqref="D3992"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48746,14 +48746,14 @@
       </c>
     </row>
     <row r="4007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4007" s="8" t="s">
+      <c r="A4007" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="B4007" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4007" s="8" t="n">
-        <v>11</v>
+      <c r="B4007" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4007" s="23" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48774,7 +48774,7 @@
       </c>
       <c r="C4010" s="8" t="n">
         <f aca="false">SUM(C3990:C4008)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -2441,7 +2441,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2725,11 +2725,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="26684301"/>
-        <c:axId val="48646147"/>
+        <c:axId val="35989701"/>
+        <c:axId val="26176564"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26684301"/>
+        <c:axId val="35989701"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2771,12 +2771,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48646147"/>
+        <c:crossAx val="26176564"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48646147"/>
+        <c:axId val="26176564"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2818,7 +2818,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26684301"/>
+        <c:crossAx val="35989701"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2998,7 +2998,7 @@
   <dimension ref="A1:G4010"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3978" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3992" activeCellId="0" sqref="D3992"/>
+      <selection pane="topLeft" activeCell="A3996" activeCellId="0" sqref="A3996"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4325" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4348" uniqueCount="654">
   <si>
     <t xml:space="preserve">ToDo</t>
   </si>
@@ -1746,6 +1746,21 @@
   </si>
   <si>
     <t xml:space="preserve">13.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phd: Cross Entropy Method Understanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackshark: Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phd: Implementation of efficient interval based entropy threshold search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phd: Implementation of Cross Entropy Optimization for multiple path inference</t>
   </si>
   <si>
     <t xml:space="preserve">MNIST</t>
@@ -2441,7 +2456,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2725,11 +2740,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="35989701"/>
-        <c:axId val="26176564"/>
+        <c:axId val="49543921"/>
+        <c:axId val="84360532"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35989701"/>
+        <c:axId val="49543921"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2771,12 +2786,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26176564"/>
+        <c:crossAx val="84360532"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26176564"/>
+        <c:axId val="84360532"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2818,7 +2833,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35989701"/>
+        <c:crossAx val="49543921"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2881,9 +2896,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>301320</xdr:colOff>
       <xdr:row>1547</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2893,7 +2908,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9692640" y="283121640"/>
-          <a:ext cx="301680" cy="301680"/>
+          <a:ext cx="301320" cy="301320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2921,9 +2936,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>301320</xdr:colOff>
       <xdr:row>1559</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2933,7 +2948,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9692640" y="285864840"/>
-          <a:ext cx="301680" cy="301680"/>
+          <a:ext cx="301320" cy="301320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2966,9 +2981,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>530280</xdr:colOff>
+      <xdr:colOff>529920</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2977,7 +2992,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4466520" y="1299240"/>
-        <a:ext cx="5626800" cy="2739960"/>
+        <a:ext cx="5626440" cy="2739600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2995,10 +3010,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4010"/>
+  <dimension ref="A1:G4032"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3978" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3996" activeCellId="0" sqref="A3996"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4007" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4023" activeCellId="0" sqref="D4023"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48566,7 +48581,7 @@
         <v>4</v>
       </c>
       <c r="C3990" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48773,8 +48788,249 @@
         <v>180</v>
       </c>
       <c r="C4010" s="8" t="n">
-        <f aca="false">SUM(C3990:C4008)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4011" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B4011" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4011" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4012" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B4012" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4012" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4013" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4013" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4013" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4014" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4014" s="8" t="n">
         <v>12</v>
+      </c>
+      <c r="C4014" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4015" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4015" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4015" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4016" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="B4016" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4016" s="27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4017" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4017" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4017" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4018" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4018" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4018" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4019" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4019" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4019" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4020" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4020" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4020" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4021" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4021" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4021" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4022" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4022" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4022" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4023" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4023" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4023" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4024" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4024" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4024" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4025" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4025" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4025" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4026" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4026" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4026" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4027" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4027" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4027" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4028" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4028" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4028" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4029" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4029" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4029" s="8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4030" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B4030" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4030" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4031" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4031" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4031" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4032" s="8"/>
+      <c r="B4032" s="8" t="n">
+        <f aca="false">SUM(B4012:B4030)</f>
+        <v>192</v>
+      </c>
+      <c r="C4032" s="8" t="n">
+        <f aca="false">SUM(C4012:C4029)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -48809,20 +49065,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48938,13 +49194,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49250,38 +49506,38 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49292,7 +49548,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -49300,7 +49556,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>80</v>
@@ -49314,7 +49570,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -49322,7 +49578,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>80</v>
@@ -49336,7 +49592,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -49344,7 +49600,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>80</v>
@@ -49358,17 +49614,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>80</v>
@@ -49382,17 +49638,17 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>80</v>
@@ -49406,17 +49662,17 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>80</v>
@@ -49430,17 +49686,17 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>80</v>
@@ -49454,17 +49710,17 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>80</v>
@@ -49478,17 +49734,17 @@
         <v>5</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H29" s="31" t="n">
         <v>80</v>
@@ -49502,17 +49758,17 @@
         <v>5</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="E30" s="31"/>
       <c r="F30" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H30" s="31" t="n">
         <v>80</v>
@@ -49526,17 +49782,17 @@
         <v>5</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H31" s="31" t="n">
         <v>80</v>
@@ -49550,17 +49806,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H32" s="31" t="n">
         <v>80</v>
@@ -49574,17 +49830,17 @@
         <v>5</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="H33" s="31" t="n">
         <v>80</v>
@@ -49598,17 +49854,17 @@
         <v>5</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H34" s="31" t="n">
         <v>80</v>
@@ -49622,17 +49878,17 @@
         <v>5</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H35" s="32" t="n">
         <v>50</v>
@@ -49646,17 +49902,17 @@
         <v>5</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H36" s="32" t="n">
         <v>50</v>
@@ -49670,17 +49926,17 @@
         <v>5</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H37" s="32" t="n">
         <v>50</v>
@@ -49694,20 +49950,20 @@
         <v>5</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49727,22 +49983,22 @@
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51248,7 +51504,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B1" s="12" t="n">
         <v>329</v>
@@ -51256,7 +51512,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>379</v>
@@ -51264,7 +51520,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>399</v>
@@ -51272,7 +51528,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="39" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>388</v>
@@ -51280,7 +51536,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>50</v>
@@ -51288,7 +51544,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9</v>
@@ -51296,7 +51552,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>11</v>
@@ -51304,7 +51560,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3.5</v>
@@ -51312,7 +51568,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -51320,7 +51576,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -51328,7 +51584,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -51336,7 +51592,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -51344,7 +51600,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -51352,7 +51608,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
@@ -51360,7 +51616,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -51368,7 +51624,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -51376,7 +51632,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6.5</v>
@@ -51384,7 +51640,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>6.5</v>
@@ -51392,7 +51648,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7</v>
@@ -51400,17 +51656,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>35</v>
@@ -51418,7 +51674,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>
@@ -51426,7 +51682,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
@@ -51434,7 +51690,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6</v>
@@ -51442,7 +51698,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>6</v>
@@ -51450,7 +51706,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>15</v>
@@ -51458,7 +51714,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>35</v>
@@ -51466,7 +51722,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4348" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4371" uniqueCount="656">
   <si>
     <t xml:space="preserve">ToDo</t>
   </si>
@@ -1761,6 +1761,12 @@
   </si>
   <si>
     <t xml:space="preserve">Phd: Implementation of Cross Entropy Optimization for multiple path inference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT: HB 1</t>
   </si>
   <si>
     <t xml:space="preserve">MNIST</t>
@@ -2456,7 +2462,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2740,11 +2746,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="49543921"/>
-        <c:axId val="84360532"/>
+        <c:axId val="34225709"/>
+        <c:axId val="87434052"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49543921"/>
+        <c:axId val="34225709"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,12 +2792,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84360532"/>
+        <c:crossAx val="87434052"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84360532"/>
+        <c:axId val="87434052"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,7 +2839,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49543921"/>
+        <c:crossAx val="34225709"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2892,13 +2898,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1546</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>301320</xdr:colOff>
       <xdr:row>1547</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2907,7 +2913,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9692640" y="283121640"/>
+          <a:off x="9692640" y="283122000"/>
           <a:ext cx="301320" cy="301320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2932,13 +2938,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1558</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>301320</xdr:colOff>
       <xdr:row>1559</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2947,7 +2953,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9692640" y="285864840"/>
+          <a:off x="9692640" y="285865200"/>
           <a:ext cx="301320" cy="301320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3010,10 +3016,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4032"/>
+  <dimension ref="A1:G4054"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4007" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4023" activeCellId="0" sqref="D4023"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4022" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4047" activeCellId="0" sqref="D4047"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49031,6 +49037,248 @@
       <c r="C4032" s="8" t="n">
         <f aca="false">SUM(C4012:C4029)</f>
         <v>16</v>
+      </c>
+    </row>
+    <row r="4033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4033" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B4033" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4033" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4034" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B4034" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4034" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4035" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4035" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4035" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4036" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4036" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4036" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4037" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4037" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4037" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4038" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4038" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4038" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4039" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4039" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4039" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4040" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4040" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4040" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4041" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4041" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4041" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4042" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4042" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4042" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4043" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4043" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4043" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4044" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4044" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4044" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4045" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4045" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4045" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4046" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4046" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4046" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4047" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4047" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4047" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4048" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4048" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4048" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4049" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4049" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4049" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4050" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4050" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4050" s="8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4051" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B4051" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4051" s="8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4052" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4052" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4052" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4053" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B4053" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4053" s="8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4054" s="8"/>
+      <c r="B4054" s="8" t="n">
+        <f aca="false">SUM(B4034:B4052)</f>
+        <v>192</v>
+      </c>
+      <c r="C4054" s="8" t="n">
+        <f aca="false">SUM(C4034:C4053)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -49065,20 +49313,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49194,13 +49442,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49506,38 +49754,38 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49548,7 +49796,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -49556,7 +49804,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>80</v>
@@ -49570,7 +49818,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -49578,7 +49826,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>80</v>
@@ -49592,7 +49840,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -49600,7 +49848,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>80</v>
@@ -49614,17 +49862,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>80</v>
@@ -49638,17 +49886,17 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>80</v>
@@ -49662,17 +49910,17 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>80</v>
@@ -49686,17 +49934,17 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>80</v>
@@ -49710,17 +49958,17 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>80</v>
@@ -49734,17 +49982,17 @@
         <v>5</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H29" s="31" t="n">
         <v>80</v>
@@ -49758,17 +50006,17 @@
         <v>5</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E30" s="31"/>
       <c r="F30" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H30" s="31" t="n">
         <v>80</v>
@@ -49782,17 +50030,17 @@
         <v>5</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H31" s="31" t="n">
         <v>80</v>
@@ -49806,17 +50054,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H32" s="31" t="n">
         <v>80</v>
@@ -49830,17 +50078,17 @@
         <v>5</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H33" s="31" t="n">
         <v>80</v>
@@ -49854,17 +50102,17 @@
         <v>5</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H34" s="31" t="n">
         <v>80</v>
@@ -49878,17 +50126,17 @@
         <v>5</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H35" s="32" t="n">
         <v>50</v>
@@ -49902,17 +50150,17 @@
         <v>5</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H36" s="32" t="n">
         <v>50</v>
@@ -49926,17 +50174,17 @@
         <v>5</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H37" s="32" t="n">
         <v>50</v>
@@ -49950,20 +50198,20 @@
         <v>5</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49983,22 +50231,22 @@
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51504,7 +51752,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B1" s="12" t="n">
         <v>329</v>
@@ -51512,7 +51760,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>379</v>
@@ -51520,7 +51768,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>399</v>
@@ -51528,7 +51776,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="39" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>388</v>
@@ -51536,7 +51784,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>50</v>
@@ -51544,7 +51792,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9</v>
@@ -51552,7 +51800,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>11</v>
@@ -51560,7 +51808,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3.5</v>
@@ -51568,7 +51816,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -51576,7 +51824,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -51584,7 +51832,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -51592,7 +51840,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -51600,7 +51848,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -51608,7 +51856,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
@@ -51616,7 +51864,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -51624,7 +51872,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -51632,7 +51880,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6.5</v>
@@ -51640,7 +51888,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>6.5</v>
@@ -51648,7 +51896,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7</v>
@@ -51656,17 +51904,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>35</v>
@@ -51674,7 +51922,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>
@@ -51682,7 +51930,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
@@ -51690,7 +51938,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6</v>
@@ -51698,7 +51946,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>6</v>
@@ -51706,7 +51954,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>15</v>
@@ -51714,7 +51962,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>35</v>
@@ -51722,7 +51970,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4371" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4440" uniqueCount="660">
   <si>
     <t xml:space="preserve">ToDo</t>
   </si>
@@ -1767,6 +1767,18 @@
   </si>
   <si>
     <t xml:space="preserve">MT: HB 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackshark: Get class statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.07.2022</t>
   </si>
   <si>
     <t xml:space="preserve">MNIST</t>
@@ -2224,7 +2236,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2338,6 +2350,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2462,7 +2478,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2746,11 +2762,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34225709"/>
-        <c:axId val="87434052"/>
+        <c:axId val="67506788"/>
+        <c:axId val="98162149"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34225709"/>
+        <c:axId val="67506788"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,12 +2808,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87434052"/>
+        <c:crossAx val="98162149"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87434052"/>
+        <c:axId val="98162149"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,7 +2855,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34225709"/>
+        <c:crossAx val="67506788"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3016,10 +3032,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4054"/>
+  <dimension ref="A1:G4124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4022" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4047" activeCellId="0" sqref="D4047"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4094" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4118" activeCellId="0" sqref="D4118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49279,6 +49295,739 @@
       <c r="C4054" s="8" t="n">
         <f aca="false">SUM(C4034:C4053)</f>
         <v>8</v>
+      </c>
+    </row>
+    <row r="4055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4055" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B4055" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4055" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4056" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B4056" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4056" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4057" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4057" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4057" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4058" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4058" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4058" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4059" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4059" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4059" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4060" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4060" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4060" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4061" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4061" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4061" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4062" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4062" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4062" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4063" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4063" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4063" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4064" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4064" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4064" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4065" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4065" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4065" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4066" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4066" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4066" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4067" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4067" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4067" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4068" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4068" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4068" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4069" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4069" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4069" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4070" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4070" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4070" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4071" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4071" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4071" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4072" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4072" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4072" s="8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4073" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B4073" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4073" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4074" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4074" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4074" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4075" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B4075" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4075" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4076" s="8"/>
+      <c r="B4076" s="8" t="n">
+        <f aca="false">SUM(B4056:B4074)</f>
+        <v>192</v>
+      </c>
+      <c r="C4076" s="8" t="n">
+        <f aca="false">SUM(C4056:C4075)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4077" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B4077" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4077" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4078" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="B4078" s="27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4078" s="27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4079" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4079" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4079" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4080" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4080" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4080" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4081" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4081" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4081" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4082" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4082" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4082" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4083" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4083" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4083" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4083" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4084" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4084" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4084" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4084" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4085" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4085" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4085" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4085" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4086" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4086" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4086" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4087" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4087" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4087" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4088" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4088" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4088" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4089" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4089" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4089" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4089" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4090" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4090" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4090" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4090" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4091" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4091" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4091" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4091" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4092" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4092" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4092" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4092" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4093" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4093" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4093" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4093" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4094" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4094" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4094" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4094" s="8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4095" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4095" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B4095" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4095" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4096" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4096" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4096" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4097" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4097" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B4097" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4097" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4098" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4098" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="B4098" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4098" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4099" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4100" s="8" t="n">
+        <f aca="false">SUM(B4078:B4098)</f>
+        <v>197</v>
+      </c>
+      <c r="C4100" s="8" t="n">
+        <f aca="false">SUM(C4078:C4099)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4101" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B4101" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4101" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4102" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4102" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4102" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4103" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4103" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4103" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4104" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4104" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4104" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4105" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4105" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4105" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4106" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4106" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4106" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4107" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4107" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4107" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4108" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4108" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4108" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4109" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4109" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4109" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4110" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4110" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4110" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4111" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4111" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4111" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4112" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4112" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4112" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4113" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4113" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4113" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4114" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4114" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4114" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4115" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4115" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4115" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4116" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4116" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4116" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4117" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4117" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4117" s="8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4118" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B4118" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4118" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4119" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4119" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4119" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4120" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B4120" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4120" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4121" s="8"/>
+      <c r="C4121" s="8"/>
+    </row>
+    <row r="4122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4122" s="8"/>
+    </row>
+    <row r="4123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4124" s="8" t="n">
+        <f aca="false">SUM(B4102:B4122)</f>
+        <v>191</v>
+      </c>
+      <c r="C4124" s="8" t="n">
+        <f aca="false">SUM(C4102:C4123)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -49313,20 +50062,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49442,13 +50191,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49470,7 +50219,7 @@
       <c r="F2" s="0" t="n">
         <v>0.76408</v>
       </c>
-      <c r="G2" s="29" t="n">
+      <c r="G2" s="30" t="n">
         <f aca="false">AVERAGE(B2:F2)</f>
         <v>0.7616216</v>
       </c>
@@ -49489,7 +50238,7 @@
       <c r="L2" s="0" t="n">
         <v>0.66654</v>
       </c>
-      <c r="M2" s="29" t="n">
+      <c r="M2" s="30" t="n">
         <f aca="false">AVERAGE(H2:L2)</f>
         <v>0.6862616</v>
       </c>
@@ -49513,7 +50262,7 @@
       <c r="F3" s="0" t="n">
         <v>0.776702</v>
       </c>
-      <c r="G3" s="29" t="n">
+      <c r="G3" s="30" t="n">
         <f aca="false">AVERAGE(B3:F3)</f>
         <v>0.7426384</v>
       </c>
@@ -49532,7 +50281,7 @@
       <c r="L3" s="0" t="n">
         <v>0.66972</v>
       </c>
-      <c r="M3" s="29" t="n">
+      <c r="M3" s="30" t="n">
         <f aca="false">AVERAGE(H3:L3)</f>
         <v>0.677413</v>
       </c>
@@ -49556,7 +50305,7 @@
       <c r="F4" s="0" t="n">
         <v>0.741717</v>
       </c>
-      <c r="G4" s="29" t="n">
+      <c r="G4" s="30" t="n">
         <f aca="false">AVERAGE(B4:F4)</f>
         <v>0.75833</v>
       </c>
@@ -49575,7 +50324,7 @@
       <c r="L4" s="0" t="n">
         <v>0.657704</v>
       </c>
-      <c r="M4" s="29" t="n">
+      <c r="M4" s="30" t="n">
         <f aca="false">AVERAGE(H4:L4)</f>
         <v>0.6819708</v>
       </c>
@@ -49599,7 +50348,7 @@
       <c r="F5" s="0" t="n">
         <v>0.721602</v>
       </c>
-      <c r="G5" s="29" t="n">
+      <c r="G5" s="30" t="n">
         <f aca="false">AVERAGE(B5:F5)</f>
         <v>0.7215576</v>
       </c>
@@ -49618,7 +50367,7 @@
       <c r="L5" s="0" t="n">
         <v>0.666334</v>
       </c>
-      <c r="M5" s="29" t="n">
+      <c r="M5" s="30" t="n">
         <f aca="false">AVERAGE(H5:L5)</f>
         <v>0.6739488</v>
       </c>
@@ -49642,7 +50391,7 @@
       <c r="F6" s="0" t="n">
         <v>0.719101</v>
       </c>
-      <c r="G6" s="29" t="n">
+      <c r="G6" s="30" t="n">
         <f aca="false">AVERAGE(B6:F6)</f>
         <v>0.715004</v>
       </c>
@@ -49661,7 +50410,7 @@
       <c r="L6" s="0" t="n">
         <v>0.647573</v>
       </c>
-      <c r="M6" s="29" t="n">
+      <c r="M6" s="30" t="n">
         <f aca="false">AVERAGE(H6:L6)</f>
         <v>0.6635798</v>
       </c>
@@ -49685,7 +50434,7 @@
       <c r="F7" s="0" t="n">
         <v>0.648574</v>
       </c>
-      <c r="G7" s="29" t="n">
+      <c r="G7" s="30" t="n">
         <f aca="false">AVERAGE(B7:F7)</f>
         <v>0.6513602</v>
       </c>
@@ -49704,7 +50453,7 @@
       <c r="L7" s="0" t="n">
         <v>0.600646</v>
       </c>
-      <c r="M7" s="29" t="n">
+      <c r="M7" s="30" t="n">
         <f aca="false">AVERAGE(H7:L7)</f>
         <v>0.6185266</v>
       </c>
@@ -49728,7 +50477,7 @@
       <c r="F8" s="0" t="n">
         <v>0.396365</v>
       </c>
-      <c r="G8" s="29" t="n">
+      <c r="G8" s="30" t="n">
         <f aca="false">AVERAGE(B8:F8)</f>
         <v>0.3252398</v>
       </c>
@@ -49747,45 +50496,45 @@
       <c r="L8" s="0" t="n">
         <v>0.340757</v>
       </c>
-      <c r="M8" s="29" t="n">
+      <c r="M8" s="30" t="n">
         <f aca="false">AVERAGE(H8:L8)</f>
         <v>0.3066124</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49795,8 +50544,8 @@
       <c r="B21" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>595</v>
+      <c r="C21" s="31" t="s">
+        <v>599</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -49804,7 +50553,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>80</v>
@@ -49818,7 +50567,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -49826,7 +50575,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>80</v>
@@ -49840,7 +50589,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -49848,7 +50597,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>80</v>
@@ -49862,17 +50611,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>80</v>
@@ -49886,17 +50635,17 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>80</v>
@@ -49910,17 +50659,17 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>80</v>
@@ -49934,17 +50683,17 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>80</v>
@@ -49958,271 +50707,271 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="31" t="n">
+      <c r="A29" s="32" t="n">
         <v>500</v>
       </c>
-      <c r="B29" s="31" t="n">
+      <c r="B29" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>603</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>606</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>596</v>
-      </c>
-      <c r="H29" s="31" t="n">
+      <c r="C29" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>610</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="H29" s="32" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="31" t="n">
+      <c r="A30" s="32" t="n">
         <v>400</v>
       </c>
-      <c r="B30" s="31" t="n">
+      <c r="B30" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>607</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>608</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>596</v>
-      </c>
-      <c r="H30" s="31" t="n">
+      <c r="C30" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>612</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="H30" s="32" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="31" t="n">
+      <c r="A31" s="32" t="n">
         <v>300</v>
       </c>
-      <c r="B31" s="31" t="n">
+      <c r="B31" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="C31" s="31" t="s">
-        <v>609</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>610</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>596</v>
-      </c>
-      <c r="H31" s="31" t="n">
+      <c r="C31" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="H31" s="32" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="31" t="n">
+      <c r="A32" s="32" t="n">
         <v>350</v>
       </c>
-      <c r="B32" s="31" t="n">
+      <c r="B32" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="C32" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>612</v>
-      </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>596</v>
-      </c>
-      <c r="H32" s="31" t="n">
+      <c r="C32" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="H32" s="32" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="31" t="n">
+      <c r="A33" s="32" t="n">
         <v>500</v>
       </c>
-      <c r="B33" s="31" t="n">
+      <c r="B33" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="C33" s="31" t="s">
-        <v>613</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>614</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>615</v>
-      </c>
-      <c r="H33" s="31" t="n">
+      <c r="C33" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>619</v>
+      </c>
+      <c r="H33" s="32" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="31" t="n">
+      <c r="A34" s="32" t="n">
         <v>200</v>
       </c>
-      <c r="B34" s="31" t="n">
+      <c r="B34" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>616</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>617</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>596</v>
-      </c>
-      <c r="H34" s="31" t="n">
+      <c r="C34" s="32" t="s">
+        <v>620</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="H34" s="32" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="32" t="n">
+      <c r="A35" s="33" t="n">
         <v>200</v>
       </c>
-      <c r="B35" s="32" t="n">
+      <c r="B35" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>618</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>619</v>
-      </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>596</v>
-      </c>
-      <c r="H35" s="32" t="n">
+      <c r="C35" s="33" t="s">
+        <v>622</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>623</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>600</v>
+      </c>
+      <c r="H35" s="33" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="32" t="n">
+      <c r="A36" s="33" t="n">
         <v>300</v>
       </c>
-      <c r="B36" s="32" t="n">
+      <c r="B36" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="C36" s="32" t="s">
-        <v>620</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>596</v>
-      </c>
-      <c r="H36" s="32" t="n">
+      <c r="C36" s="33" t="s">
+        <v>624</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>625</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>600</v>
+      </c>
+      <c r="H36" s="33" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="32" t="n">
+      <c r="A37" s="33" t="n">
         <v>500</v>
       </c>
-      <c r="B37" s="32" t="n">
+      <c r="B37" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="C37" s="32" t="s">
-        <v>622</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>623</v>
-      </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>596</v>
-      </c>
-      <c r="H37" s="32" t="n">
+      <c r="C37" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>600</v>
+      </c>
+      <c r="H37" s="33" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="32" t="n">
+      <c r="A38" s="33" t="n">
         <v>200</v>
       </c>
-      <c r="B38" s="32" t="n">
+      <c r="B38" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="C38" s="32" t="s">
-        <v>624</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>625</v>
-      </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>596</v>
-      </c>
-      <c r="H38" s="32" t="s">
-        <v>626</v>
+      <c r="C38" s="33" t="s">
+        <v>628</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>600</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -50231,22 +50980,22 @@
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50373,330 +51122,330 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="n">
+      <c r="A1" s="34" t="n">
         <v>0.920300006866455</v>
       </c>
-      <c r="B1" s="33" t="n">
+      <c r="B1" s="34" t="n">
         <v>0.920300006866455</v>
       </c>
-      <c r="C1" s="33" t="n">
+      <c r="C1" s="34" t="n">
         <v>0.918099999427795</v>
       </c>
-      <c r="D1" s="33" t="n">
+      <c r="D1" s="34" t="n">
         <v>0.919099986553192</v>
       </c>
-      <c r="E1" s="33" t="n">
+      <c r="E1" s="34" t="n">
         <v>0.925199997425079</v>
       </c>
-      <c r="F1" s="33" t="n">
+      <c r="F1" s="34" t="n">
         <v>0.925199997425079</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="n">
+      <c r="A2" s="34" t="n">
         <v>0.921500027179718</v>
       </c>
-      <c r="B2" s="33" t="n">
+      <c r="B2" s="34" t="n">
         <v>0.921500027179718</v>
       </c>
-      <c r="C2" s="33" t="n">
+      <c r="C2" s="34" t="n">
         <v>0.919200003147125</v>
       </c>
-      <c r="D2" s="33" t="n">
+      <c r="D2" s="34" t="n">
         <v>0.918099999427795</v>
       </c>
-      <c r="E2" s="33" t="n">
+      <c r="E2" s="34" t="n">
         <v>0.925180006027222</v>
       </c>
-      <c r="F2" s="33" t="n">
+      <c r="F2" s="34" t="n">
         <v>0.925180006027222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="n">
+      <c r="A3" s="34" t="n">
         <v>0.920700013637543</v>
       </c>
-      <c r="B3" s="33" t="n">
+      <c r="B3" s="34" t="n">
         <v>0.920700013637543</v>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="34" t="n">
         <v>0.916499972343445</v>
       </c>
-      <c r="D3" s="33" t="n">
+      <c r="D3" s="34" t="n">
         <v>0.919200003147125</v>
       </c>
-      <c r="E3" s="33" t="n">
+      <c r="E3" s="34" t="n">
         <v>0.925170004367828</v>
       </c>
-      <c r="F3" s="33" t="n">
+      <c r="F3" s="34" t="n">
         <v>0.925170004367828</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="n">
+      <c r="A4" s="34" t="n">
         <v>0.922100007534027</v>
       </c>
-      <c r="B4" s="33" t="n">
+      <c r="B4" s="34" t="n">
         <v>0.922100007534027</v>
       </c>
-      <c r="C4" s="33" t="n">
+      <c r="C4" s="34" t="n">
         <v>0.919000029563904</v>
       </c>
-      <c r="D4" s="33" t="n">
+      <c r="D4" s="34" t="n">
         <v>0.916499972343445</v>
       </c>
-      <c r="E4" s="33" t="n">
+      <c r="E4" s="34" t="n">
         <v>0.924049997329712</v>
       </c>
-      <c r="F4" s="33" t="n">
+      <c r="F4" s="34" t="n">
         <v>0.92418999671936</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="n">
+      <c r="A5" s="34" t="n">
         <v>0.920799970626831</v>
       </c>
-      <c r="B5" s="33" t="n">
+      <c r="B5" s="34" t="n">
         <v>0.920799970626831</v>
       </c>
-      <c r="C5" s="33" t="n">
+      <c r="C5" s="34" t="n">
         <v>0.919399976730347</v>
       </c>
-      <c r="D5" s="33" t="n">
+      <c r="D5" s="34" t="n">
         <v>0.919000029563904</v>
       </c>
-      <c r="E5" s="33" t="n">
+      <c r="E5" s="34" t="n">
         <v>0.922869998216629</v>
       </c>
-      <c r="F5" s="33" t="n">
+      <c r="F5" s="34" t="n">
         <v>0.924049997329712</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="n">
+      <c r="A6" s="34" t="n">
         <v>0.920899987220764</v>
       </c>
-      <c r="B6" s="33" t="n">
+      <c r="B6" s="34" t="n">
         <v>0.920899987220764</v>
       </c>
-      <c r="C6" s="33" t="n">
+      <c r="C6" s="34" t="n">
         <v>0.917999982833862</v>
       </c>
-      <c r="D6" s="33" t="n">
+      <c r="D6" s="34" t="n">
         <v>0.919399976730347</v>
       </c>
-      <c r="E6" s="33" t="n">
+      <c r="E6" s="34" t="n">
         <v>0.922370004653931</v>
       </c>
-      <c r="F6" s="33" t="n">
+      <c r="F6" s="34" t="n">
         <v>0.922869998216629</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="n">
+      <c r="A7" s="34" t="n">
         <v>0.921700000762939</v>
       </c>
-      <c r="B7" s="33" t="n">
+      <c r="B7" s="34" t="n">
         <v>0.921700000762939</v>
       </c>
-      <c r="C7" s="33" t="n">
+      <c r="C7" s="34" t="n">
         <v>0.91949999332428</v>
       </c>
-      <c r="D7" s="33" t="n">
+      <c r="D7" s="34" t="n">
         <v>0.917999982833862</v>
       </c>
-      <c r="E7" s="33" t="n">
+      <c r="E7" s="34" t="n">
         <v>0.92228000164032</v>
       </c>
-      <c r="F7" s="33" t="n">
+      <c r="F7" s="34" t="n">
         <v>0.92228000164032</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="n">
+      <c r="A8" s="34" t="n">
         <v>0.92059999704361</v>
       </c>
-      <c r="B8" s="33" t="n">
+      <c r="B8" s="34" t="n">
         <v>0.92059999704361</v>
       </c>
-      <c r="C8" s="33" t="n">
+      <c r="C8" s="34" t="n">
         <v>0.919000029563904</v>
       </c>
-      <c r="D8" s="33" t="n">
+      <c r="D8" s="34" t="n">
         <v>0.91949999332428</v>
       </c>
-      <c r="E8" s="33" t="n">
+      <c r="E8" s="34" t="n">
         <v>0.922260010242462</v>
       </c>
-      <c r="F8" s="33" t="n">
+      <c r="F8" s="34" t="n">
         <v>0.922129994630814</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="n">
+      <c r="A9" s="34" t="n">
         <v>0.921999990940094</v>
       </c>
-      <c r="B9" s="33" t="n">
+      <c r="B9" s="34" t="n">
         <v>0.921999990940094</v>
       </c>
-      <c r="C9" s="33" t="n">
+      <c r="C9" s="34" t="n">
         <v>0.92110002040863</v>
       </c>
-      <c r="D9" s="33" t="n">
+      <c r="D9" s="34" t="n">
         <v>0.919000029563904</v>
       </c>
-      <c r="E9" s="33" t="n">
+      <c r="E9" s="34" t="n">
         <v>0.922129994630814</v>
       </c>
-      <c r="F9" s="33" t="n">
+      <c r="F9" s="34" t="n">
         <v>0.922030007839203</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="n">
+      <c r="A10" s="34" t="n">
         <v>0.921800017356873</v>
       </c>
-      <c r="B10" s="33" t="n">
+      <c r="B10" s="34" t="n">
         <v>0.921800017356873</v>
       </c>
-      <c r="C10" s="33" t="n">
+      <c r="C10" s="34" t="n">
         <v>0.920499980449677</v>
       </c>
-      <c r="D10" s="33" t="n">
+      <c r="D10" s="34" t="n">
         <v>0.92110002040863</v>
       </c>
-      <c r="E10" s="33" t="n">
+      <c r="E10" s="34" t="n">
         <v>0.922079986333847</v>
       </c>
-      <c r="F10" s="33" t="n">
+      <c r="F10" s="34" t="n">
         <v>0.921830004453659</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="33" t="n">
+      <c r="B11" s="34" t="n">
         <v>0.921400010585785</v>
       </c>
-      <c r="C11" s="33" t="n">
+      <c r="C11" s="34" t="n">
         <v>0.920499980449677</v>
       </c>
-      <c r="D11" s="33" t="n">
+      <c r="D11" s="34" t="n">
         <v>0.920499980449677</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="33" t="n">
+      <c r="C12" s="34" t="n">
         <v>0.921400010585785</v>
       </c>
-      <c r="D12" s="33" t="n">
+      <c r="D12" s="34" t="n">
         <v>0.920499980449677</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="33" t="n">
+      <c r="C13" s="34" t="n">
         <v>0.921199977397919</v>
       </c>
-      <c r="D13" s="33" t="n">
+      <c r="D13" s="34" t="n">
         <v>0.921400010585785</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="33" t="n">
+      <c r="C14" s="34" t="n">
         <v>0.920199990272522</v>
       </c>
-      <c r="D14" s="33" t="n">
+      <c r="D14" s="34" t="n">
         <v>0.921199977397919</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="33" t="n">
+      <c r="C15" s="34" t="n">
         <v>0.920300006866455</v>
       </c>
-      <c r="D15" s="33" t="n">
+      <c r="D15" s="34" t="n">
         <v>0.920199990272522</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="33" t="n">
+      <c r="C16" s="34" t="n">
         <v>0.921500027179718</v>
       </c>
-      <c r="D16" s="33" t="n">
+      <c r="D16" s="34" t="n">
         <v>0.920300006866455</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="33" t="n">
+      <c r="C17" s="34" t="n">
         <v>0.920700013637543</v>
       </c>
-      <c r="D17" s="33" t="n">
+      <c r="D17" s="34" t="n">
         <v>0.921500027179718</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="33" t="n">
+      <c r="C18" s="34" t="n">
         <v>0.922100007534027</v>
       </c>
-      <c r="D18" s="33" t="n">
+      <c r="D18" s="34" t="n">
         <v>0.920700013637543</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="33" t="n">
+      <c r="C19" s="34" t="n">
         <v>0.920799970626831</v>
       </c>
-      <c r="D19" s="33" t="n">
+      <c r="D19" s="34" t="n">
         <v>0.922100007534027</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="33" t="n">
+      <c r="C20" s="34" t="n">
         <v>0.920899987220764</v>
       </c>
-      <c r="D20" s="33" t="n">
+      <c r="D20" s="34" t="n">
         <v>0.920799970626831</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="33" t="n">
+      <c r="C21" s="34" t="n">
         <v>0.921700000762939</v>
       </c>
-      <c r="D21" s="33" t="n">
+      <c r="D21" s="34" t="n">
         <v>0.920899987220764</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="33" t="n">
+      <c r="C22" s="34" t="n">
         <v>0.92059999704361</v>
       </c>
-      <c r="D22" s="33" t="n">
+      <c r="D22" s="34" t="n">
         <v>0.921700000762939</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="33" t="n">
+      <c r="C23" s="34" t="n">
         <v>0.921999990940094</v>
       </c>
-      <c r="D23" s="33" t="n">
+      <c r="D23" s="34" t="n">
         <v>0.92059999704361</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="33" t="n">
+      <c r="C24" s="34" t="n">
         <v>0.921800017356873</v>
       </c>
-      <c r="D24" s="33" t="n">
+      <c r="D24" s="34" t="n">
         <v>0.921999990940094</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="33" t="n">
+      <c r="C25" s="34" t="n">
         <v>0.921400010585785</v>
       </c>
-      <c r="D25" s="33" t="n">
+      <c r="D25" s="34" t="n">
         <v>0.921800017356873</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="33" t="n">
+      <c r="D26" s="34" t="n">
         <v>0.921400010585785</v>
       </c>
     </row>
@@ -50725,272 +51474,272 @@
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="n">
+      <c r="A1" s="34" t="n">
         <v>0.925199997425079</v>
       </c>
-      <c r="B1" s="33" t="n">
+      <c r="B1" s="34" t="n">
         <v>0.689226237620826</v>
       </c>
       <c r="G1" s="0" t="n">
         <v>0.926240009069443</v>
       </c>
-      <c r="H1" s="34" t="n">
+      <c r="H1" s="35" t="n">
         <v>0.926240009</v>
       </c>
-      <c r="I1" s="35" t="n">
+      <c r="I1" s="36" t="n">
         <v>0.92505999803543</v>
       </c>
-      <c r="J1" s="33" t="n">
+      <c r="J1" s="34" t="n">
         <v>0.917430001497269</v>
       </c>
       <c r="K1" s="0" t="n">
         <v>0.92603000998497</v>
       </c>
-      <c r="L1" s="33"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="n">
+      <c r="A2" s="34" t="n">
         <v>0.925180006027222</v>
       </c>
-      <c r="B2" s="33" t="n">
+      <c r="B2" s="34" t="n">
         <v>0.759448330211714</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0.925199991464615</v>
       </c>
-      <c r="H2" s="34" t="n">
+      <c r="H2" s="35" t="n">
         <v>0.925199991</v>
       </c>
-      <c r="I2" s="35" t="n">
+      <c r="I2" s="36" t="n">
         <v>0.925050002336502</v>
       </c>
-      <c r="J2" s="33" t="n">
+      <c r="J2" s="34" t="n">
         <v>0.918500012159348</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>0.925950002670288</v>
       </c>
-      <c r="L2" s="33"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="n">
+      <c r="A3" s="34" t="n">
         <v>0.925170004367828</v>
       </c>
-      <c r="B3" s="33" t="n">
+      <c r="B3" s="34" t="n">
         <v>0.70375937279585</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>0.924299997091293</v>
       </c>
-      <c r="H3" s="34" t="n">
+      <c r="H3" s="35" t="n">
         <v>0.924299997</v>
       </c>
-      <c r="I3" s="35" t="n">
+      <c r="I3" s="36" t="n">
         <v>0.925029999017715</v>
       </c>
-      <c r="J3" s="33" t="n">
+      <c r="J3" s="34" t="n">
         <v>0.918530005216599</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>0.925849997997284</v>
       </c>
-      <c r="L3" s="33"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="n">
+      <c r="A4" s="34" t="n">
         <v>0.92486999630928</v>
       </c>
-      <c r="B4" s="33" t="n">
+      <c r="B4" s="34" t="n">
         <v>0.498186765182081</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">CORREL(A1:A99,B1:B99)</f>
         <v>0.302806128521188</v>
       </c>
-      <c r="G4" s="36" t="n">
+      <c r="G4" s="37" t="n">
         <v>0.924479991197586</v>
       </c>
-      <c r="H4" s="34" t="n">
+      <c r="H4" s="35" t="n">
         <v>0.924479991</v>
       </c>
-      <c r="I4" s="35" t="n">
+      <c r="I4" s="36" t="n">
         <v>0.924559992551803</v>
       </c>
-      <c r="J4" s="33" t="n">
+      <c r="J4" s="34" t="n">
         <v>0.918550008535385</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>0.925619995594025</v>
       </c>
-      <c r="L4" s="33"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="n">
+      <c r="A5" s="34" t="n">
         <v>0.92418999671936</v>
       </c>
-      <c r="B5" s="33" t="n">
+      <c r="B5" s="34" t="n">
         <v>0.122700715408658</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0.923850005865097</v>
       </c>
-      <c r="H5" s="34" t="n">
+      <c r="H5" s="35" t="n">
         <v>0.923850006</v>
       </c>
-      <c r="I5" s="35" t="n">
+      <c r="I5" s="36" t="n">
         <v>0.924529999494552</v>
       </c>
-      <c r="J5" s="33" t="n">
+      <c r="J5" s="34" t="n">
         <v>0.918889999389648</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>0.924140000343323</v>
       </c>
-      <c r="L5" s="33"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="n">
+      <c r="A6" s="34" t="n">
         <v>0.924049997329712</v>
       </c>
-      <c r="B6" s="33" t="n">
+      <c r="B6" s="34" t="n">
         <v>0.393284059622942</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0.921949994564056</v>
       </c>
-      <c r="H6" s="34" t="n">
+      <c r="H6" s="35" t="n">
         <v>0.921949995</v>
       </c>
-      <c r="I6" s="35" t="n">
+      <c r="I6" s="36" t="n">
         <v>0.924390006065368</v>
       </c>
-      <c r="J6" s="33" t="n">
+      <c r="J6" s="34" t="n">
         <v>0.919550001621246</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>0.923579996824264</v>
       </c>
-      <c r="L6" s="33"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="n">
+      <c r="A7" s="34" t="n">
         <v>0.922920000553131</v>
       </c>
-      <c r="B7" s="33" t="n">
+      <c r="B7" s="34" t="n">
         <v>0.931725444673377</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0.92182000875473</v>
       </c>
-      <c r="H7" s="34" t="n">
+      <c r="H7" s="35" t="n">
         <v>0.921820009</v>
       </c>
-      <c r="I7" s="35" t="n">
+      <c r="I7" s="36" t="n">
         <v>0.923860001564025</v>
       </c>
-      <c r="J7" s="33" t="n">
+      <c r="J7" s="34" t="n">
         <v>0.919559997320175</v>
       </c>
-      <c r="K7" s="35" t="n">
+      <c r="K7" s="36" t="n">
         <v>0.923860001564025</v>
       </c>
-      <c r="L7" s="33"/>
+      <c r="L7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="n">
+      <c r="A8" s="34" t="n">
         <v>0.922869998216629</v>
       </c>
-      <c r="B8" s="33" t="n">
+      <c r="B8" s="34" t="n">
         <v>0.357795993118804</v>
       </c>
-      <c r="G8" s="37" t="n">
+      <c r="G8" s="38" t="n">
         <v>0.92486999630928</v>
       </c>
-      <c r="H8" s="34" t="n">
+      <c r="H8" s="35" t="n">
         <v>0.924869996</v>
       </c>
-      <c r="I8" s="35" t="n">
+      <c r="I8" s="36" t="n">
         <v>0.923510009050369</v>
       </c>
-      <c r="J8" s="33" t="n">
+      <c r="J8" s="34" t="n">
         <v>0.920459991693497</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>0.923149991035462</v>
       </c>
-      <c r="L8" s="33"/>
+      <c r="L8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="n">
+      <c r="A9" s="34" t="n">
         <v>0.922779995203018</v>
       </c>
-      <c r="B9" s="33" t="n">
+      <c r="B9" s="34" t="n">
         <v>0.621950930227216</v>
       </c>
-      <c r="G9" s="37" t="n">
+      <c r="G9" s="38" t="n">
         <v>0.922850006818771</v>
       </c>
-      <c r="H9" s="34" t="n">
+      <c r="H9" s="35" t="n">
         <v>0.922850007</v>
       </c>
-      <c r="I9" s="35" t="n">
+      <c r="I9" s="36" t="n">
         <v>0.923190003633499</v>
       </c>
-      <c r="J9" s="33" t="n">
+      <c r="J9" s="34" t="n">
         <v>0.920929992198944</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>0.923019999265671</v>
       </c>
-      <c r="L9" s="33"/>
+      <c r="L9" s="34"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="n">
+      <c r="A10" s="34" t="n">
         <v>0.922559994459152</v>
       </c>
-      <c r="B10" s="33" t="n">
+      <c r="B10" s="34" t="n">
         <v>0.291092306012191</v>
       </c>
-      <c r="G10" s="36" t="n">
+      <c r="G10" s="37" t="n">
         <v>0.924659997224808</v>
       </c>
-      <c r="H10" s="34" t="n">
+      <c r="H10" s="35" t="n">
         <v>0.924659997</v>
       </c>
-      <c r="I10" s="35" t="n">
+      <c r="I10" s="36" t="n">
         <v>0.92250000834465</v>
       </c>
-      <c r="J10" s="33" t="n">
+      <c r="J10" s="34" t="n">
         <v>0.921109998226166</v>
       </c>
-      <c r="K10" s="35" t="n">
+      <c r="K10" s="36" t="n">
         <v>0.92250000834465</v>
       </c>
-      <c r="L10" s="33"/>
+      <c r="L10" s="34"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="n">
+      <c r="A11" s="34" t="n">
         <v>0.922370004653931</v>
       </c>
-      <c r="B11" s="33" t="n">
+      <c r="B11" s="34" t="n">
         <v>0.558018290417533</v>
       </c>
-      <c r="L11" s="33"/>
+      <c r="L11" s="34"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="n">
+      <c r="A12" s="34" t="n">
         <v>0.92228000164032</v>
       </c>
-      <c r="B12" s="33" t="n">
+      <c r="B12" s="34" t="n">
         <v>0.0711876122134452</v>
       </c>
-      <c r="L12" s="33"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="n">
+      <c r="A13" s="34" t="n">
         <v>0.922260010242462</v>
       </c>
-      <c r="B13" s="33" t="n">
+      <c r="B13" s="34" t="n">
         <v>0.415237510565102</v>
       </c>
       <c r="G13" s="0" t="n">
@@ -51009,13 +51758,13 @@
         <f aca="false">AVERAGE(K1:K10)</f>
         <v>0.924370000362396</v>
       </c>
-      <c r="L13" s="33"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33" t="n">
+      <c r="A14" s="34" t="n">
         <v>0.922189992666245</v>
       </c>
-      <c r="B14" s="33" t="n">
+      <c r="B14" s="34" t="n">
         <v>0.758202557707118</v>
       </c>
       <c r="G14" s="0" t="n">
@@ -51034,691 +51783,691 @@
         <f aca="false">_xlfn.STDEV.P(K1:K10)</f>
         <v>0.00129421097805283</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="n">
+      <c r="A15" s="34" t="n">
         <v>0.922170007228851</v>
       </c>
-      <c r="B15" s="33" t="n">
+      <c r="B15" s="34" t="n">
         <v>0.552440333122349</v>
       </c>
-      <c r="L15" s="33"/>
+      <c r="L15" s="34"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33" t="n">
+      <c r="A16" s="34" t="n">
         <v>0.922129994630814</v>
       </c>
-      <c r="B16" s="33" t="n">
+      <c r="B16" s="34" t="n">
         <v>0.440511716178595</v>
       </c>
-      <c r="L16" s="33"/>
+      <c r="L16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="n">
+      <c r="A17" s="34" t="n">
         <v>0.922079986333847</v>
       </c>
-      <c r="B17" s="33" t="n">
+      <c r="B17" s="34" t="n">
         <v>0.604067656694634</v>
       </c>
-      <c r="L17" s="33"/>
+      <c r="L17" s="34"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="n">
+      <c r="A18" s="34" t="n">
         <v>0.922030007839203</v>
       </c>
-      <c r="B18" s="33" t="n">
+      <c r="B18" s="34" t="n">
         <v>0.943017316452303</v>
       </c>
-      <c r="L18" s="33"/>
+      <c r="L18" s="34"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="n">
+      <c r="A19" s="34" t="n">
         <v>0.922030001878738</v>
       </c>
-      <c r="B19" s="33" t="n">
+      <c r="B19" s="34" t="n">
         <v>0.212291498242468</v>
       </c>
-      <c r="L19" s="33"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="n">
+      <c r="A20" s="34" t="n">
         <v>0.922009992599487</v>
       </c>
-      <c r="B20" s="33" t="n">
+      <c r="B20" s="34" t="n">
         <v>0.204263671294783</v>
       </c>
-      <c r="L20" s="33"/>
+      <c r="L20" s="34"/>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33" t="n">
+      <c r="A21" s="34" t="n">
         <v>0.92199000120163</v>
       </c>
-      <c r="B21" s="33" t="n">
+      <c r="B21" s="34" t="n">
         <v>0.508840612673379</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="n">
+      <c r="A22" s="34" t="n">
         <v>0.921970003843308</v>
       </c>
-      <c r="B22" s="33" t="n">
+      <c r="B22" s="34" t="n">
         <v>0.389314919117384</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="n">
+      <c r="A23" s="34" t="n">
         <v>0.921830004453659</v>
       </c>
-      <c r="B23" s="33" t="n">
+      <c r="B23" s="34" t="n">
         <v>0.289732086323762</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="n">
+      <c r="A24" s="34" t="n">
         <v>0.921780008077621</v>
       </c>
-      <c r="B24" s="33" t="n">
+      <c r="B24" s="34" t="n">
         <v>0.908581849756313</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="33" t="n">
+      <c r="A25" s="34" t="n">
         <v>0.921770000457764</v>
       </c>
-      <c r="B25" s="33" t="n">
+      <c r="B25" s="34" t="n">
         <v>0.863369047706377</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="33" t="n">
+      <c r="A26" s="34" t="n">
         <v>0.921719998121262</v>
       </c>
-      <c r="B26" s="33" t="n">
+      <c r="B26" s="34" t="n">
         <v>0.977722815290247</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="33" t="n">
+      <c r="A27" s="34" t="n">
         <v>0.921689999103546</v>
       </c>
-      <c r="B27" s="33" t="n">
+      <c r="B27" s="34" t="n">
         <v>0.41485442547884</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="33" t="n">
+      <c r="A28" s="34" t="n">
         <v>0.921689999103546</v>
       </c>
-      <c r="B28" s="33" t="n">
+      <c r="B28" s="34" t="n">
         <v>0.946431732748335</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33" t="n">
+      <c r="A29" s="34" t="n">
         <v>0.921650004386902</v>
       </c>
-      <c r="B29" s="33" t="n">
+      <c r="B29" s="34" t="n">
         <v>0.47027263767154</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="33" t="n">
+      <c r="A30" s="34" t="n">
         <v>0.92153000831604</v>
       </c>
-      <c r="B30" s="33" t="n">
+      <c r="B30" s="34" t="n">
         <v>0.429563808182516</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="33" t="n">
+      <c r="A31" s="34" t="n">
         <v>0.921530002355576</v>
       </c>
-      <c r="B31" s="33" t="n">
+      <c r="B31" s="34" t="n">
         <v>0.871234849866717</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="33" t="n">
+      <c r="A32" s="34" t="n">
         <v>0.921480005979538</v>
       </c>
-      <c r="B32" s="33" t="n">
+      <c r="B32" s="34" t="n">
         <v>0.824150069112431</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="33" t="n">
+      <c r="A33" s="34" t="n">
         <v>0.921459990739822</v>
       </c>
-      <c r="B33" s="33" t="n">
+      <c r="B33" s="34" t="n">
         <v>0.340405196499202</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="33" t="n">
+      <c r="A34" s="34" t="n">
         <v>0.921390002965927</v>
       </c>
-      <c r="B34" s="33" t="n">
+      <c r="B34" s="34" t="n">
         <v>0.658660118629236</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="33" t="n">
+      <c r="A35" s="34" t="n">
         <v>0.921350002288818</v>
       </c>
-      <c r="B35" s="33" t="n">
+      <c r="B35" s="34" t="n">
         <v>0.711929300012106</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="33" t="n">
+      <c r="A36" s="34" t="n">
         <v>0.921280002593994</v>
       </c>
-      <c r="B36" s="33" t="n">
+      <c r="B36" s="34" t="n">
         <v>0.772417283764685</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="33" t="n">
+      <c r="A37" s="34" t="n">
         <v>0.921269994974136</v>
       </c>
-      <c r="B37" s="33" t="n">
+      <c r="B37" s="34" t="n">
         <v>0.958243997475106</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="33" t="n">
+      <c r="A38" s="34" t="n">
         <v>0.921219992637634</v>
       </c>
-      <c r="B38" s="33" t="n">
+      <c r="B38" s="34" t="n">
         <v>0.587549008860037</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="33" t="n">
+      <c r="A39" s="34" t="n">
         <v>0.921179991960526</v>
       </c>
-      <c r="B39" s="33" t="n">
+      <c r="B39" s="34" t="n">
         <v>0.862460567547195</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="33" t="n">
+      <c r="A40" s="34" t="n">
         <v>0.921070003509522</v>
       </c>
-      <c r="B40" s="33" t="n">
+      <c r="B40" s="34" t="n">
         <v>0.851190653827071</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="33" t="n">
+      <c r="A41" s="34" t="n">
         <v>0.921060001850128</v>
       </c>
-      <c r="B41" s="33" t="n">
+      <c r="B41" s="34" t="n">
         <v>0.0310600372669659</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="33" t="n">
+      <c r="A42" s="34" t="n">
         <v>0.921050000190735</v>
       </c>
-      <c r="B42" s="33" t="n">
+      <c r="B42" s="34" t="n">
         <v>0.991789350286124</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="33" t="n">
+      <c r="A43" s="34" t="n">
         <v>0.920839995145798</v>
       </c>
-      <c r="B43" s="33" t="n">
+      <c r="B43" s="34" t="n">
         <v>0.772168215151033</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="33" t="n">
+      <c r="A44" s="34" t="n">
         <v>0.920839995145798</v>
       </c>
-      <c r="B44" s="33" t="n">
+      <c r="B44" s="34" t="n">
         <v>0.663138206093095</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="33" t="n">
+      <c r="A45" s="34" t="n">
         <v>0.920770007371902</v>
       </c>
-      <c r="B45" s="33" t="n">
+      <c r="B45" s="34" t="n">
         <v>0.179085359315699</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="33" t="n">
+      <c r="A46" s="34" t="n">
         <v>0.920739990472794</v>
       </c>
-      <c r="B46" s="33" t="n">
+      <c r="B46" s="34" t="n">
         <v>0.735194055143487</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="33" t="n">
+      <c r="A47" s="34" t="n">
         <v>0.920699989795685</v>
       </c>
-      <c r="B47" s="33" t="n">
+      <c r="B47" s="34" t="n">
         <v>0.29662302055405</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="33" t="n">
+      <c r="A48" s="34" t="n">
         <v>0.920600003004074</v>
       </c>
-      <c r="B48" s="33" t="n">
+      <c r="B48" s="34" t="n">
         <v>0.499117794200465</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="33" t="n">
+      <c r="A49" s="34" t="n">
         <v>0.92059999704361</v>
       </c>
-      <c r="B49" s="33" t="n">
+      <c r="B49" s="34" t="n">
         <v>0.919017707247567</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="33" t="n">
+      <c r="A50" s="34" t="n">
         <v>0.92056999206543</v>
       </c>
-      <c r="B50" s="33" t="n">
+      <c r="B50" s="34" t="n">
         <v>0.224947327748071</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="33" t="n">
+      <c r="A51" s="34" t="n">
         <v>0.920450001955032</v>
       </c>
-      <c r="B51" s="33" t="n">
+      <c r="B51" s="34" t="n">
         <v>0.144002197063334</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="33" t="n">
+      <c r="A52" s="34" t="n">
         <v>0.920410001277924</v>
       </c>
-      <c r="B52" s="33" t="n">
+      <c r="B52" s="34" t="n">
         <v>0.416771420359989</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="33" t="n">
+      <c r="A53" s="34" t="n">
         <v>0.920370006561279</v>
       </c>
-      <c r="B53" s="33" t="n">
+      <c r="B53" s="34" t="n">
         <v>0.253758332985949</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="33" t="n">
+      <c r="A54" s="34" t="n">
         <v>0.920360004901886</v>
       </c>
-      <c r="B54" s="33" t="n">
+      <c r="B54" s="34" t="n">
         <v>0.854527764247315</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="33" t="n">
+      <c r="A55" s="34" t="n">
         <v>0.920320004224777</v>
       </c>
-      <c r="B55" s="33" t="n">
+      <c r="B55" s="34" t="n">
         <v>0.382374326316908</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="33" t="n">
+      <c r="A56" s="34" t="n">
         <v>0.920269995927811</v>
       </c>
-      <c r="B56" s="33" t="n">
+      <c r="B56" s="34" t="n">
         <v>0.444637442161634</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="33" t="n">
+      <c r="A57" s="34" t="n">
         <v>0.920229995250702</v>
       </c>
-      <c r="B57" s="33" t="n">
+      <c r="B57" s="34" t="n">
         <v>0.0495876359713456</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="33" t="n">
+      <c r="A58" s="34" t="n">
         <v>0.920169997215271</v>
       </c>
-      <c r="B58" s="33" t="n">
+      <c r="B58" s="34" t="n">
         <v>0.729789437091303</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="33" t="n">
+      <c r="A59" s="34" t="n">
         <v>0.920160001516342</v>
       </c>
-      <c r="B59" s="33" t="n">
+      <c r="B59" s="34" t="n">
         <v>0.570456436463906</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="33" t="n">
+      <c r="A60" s="34" t="n">
         <v>0.920139998197556</v>
       </c>
-      <c r="B60" s="33" t="n">
+      <c r="B60" s="34" t="n">
         <v>0.567608822181462</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="33" t="n">
+      <c r="A61" s="34" t="n">
         <v>0.920080006122589</v>
       </c>
-      <c r="B61" s="33" t="n">
+      <c r="B61" s="34" t="n">
         <v>0.749636226459127</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="33" t="n">
+      <c r="A62" s="34" t="n">
         <v>0.920019990205765</v>
       </c>
-      <c r="B62" s="33" t="n">
+      <c r="B62" s="34" t="n">
         <v>0.305976579725453</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="33" t="n">
+      <c r="A63" s="34" t="n">
         <v>0.919879996776581</v>
       </c>
-      <c r="B63" s="33" t="n">
+      <c r="B63" s="34" t="n">
         <v>0.270047974499248</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="33" t="n">
+      <c r="A64" s="34" t="n">
         <v>0.919869995117188</v>
       </c>
-      <c r="B64" s="33" t="n">
+      <c r="B64" s="34" t="n">
         <v>0.0666186567420512</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="33" t="n">
+      <c r="A65" s="34" t="n">
         <v>0.91985998749733</v>
       </c>
-      <c r="B65" s="33" t="n">
+      <c r="B65" s="34" t="n">
         <v>0.890602793863513</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="33" t="n">
+      <c r="A66" s="34" t="n">
         <v>0.919849997758865</v>
       </c>
-      <c r="B66" s="33" t="n">
+      <c r="B66" s="34" t="n">
         <v>0.560573602758042</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="33" t="n">
+      <c r="A67" s="34" t="n">
         <v>0.919800001382828</v>
       </c>
-      <c r="B67" s="33" t="n">
+      <c r="B67" s="34" t="n">
         <v>0.458812585284579</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="33" t="n">
+      <c r="A68" s="34" t="n">
         <v>0.91975000500679</v>
       </c>
-      <c r="B68" s="33" t="n">
+      <c r="B68" s="34" t="n">
         <v>0.0868475427401287</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="33" t="n">
+      <c r="A69" s="34" t="n">
         <v>0.919709986448288</v>
       </c>
-      <c r="B69" s="33" t="n">
+      <c r="B69" s="34" t="n">
         <v>0.473457623652334</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="33" t="n">
+      <c r="A70" s="34" t="n">
         <v>0.919660001993179</v>
       </c>
-      <c r="B70" s="33" t="n">
+      <c r="B70" s="34" t="n">
         <v>0.364101993989455</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="33" t="n">
+      <c r="A71" s="34" t="n">
         <v>0.919630002975464</v>
       </c>
-      <c r="B71" s="33" t="n">
+      <c r="B71" s="34" t="n">
         <v>0.470267855875265</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="33" t="n">
+      <c r="A72" s="34" t="n">
         <v>0.919609999656677</v>
       </c>
-      <c r="B72" s="33" t="n">
+      <c r="B72" s="34" t="n">
         <v>0.0719456929140632</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="33" t="n">
+      <c r="A73" s="34" t="n">
         <v>0.919540005922318</v>
       </c>
-      <c r="B73" s="33" t="n">
+      <c r="B73" s="34" t="n">
         <v>0.728780747531945</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="33" t="n">
+      <c r="A74" s="34" t="n">
         <v>0.91949000954628</v>
       </c>
-      <c r="B74" s="33" t="n">
+      <c r="B74" s="34" t="n">
         <v>0.727022401853617</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="33" t="n">
+      <c r="A75" s="34" t="n">
         <v>0.919380003213882</v>
       </c>
-      <c r="B75" s="33" t="n">
+      <c r="B75" s="34" t="n">
         <v>0.344554908450396</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="33" t="n">
+      <c r="A76" s="34" t="n">
         <v>0.91923999786377</v>
       </c>
-      <c r="B76" s="33" t="n">
+      <c r="B76" s="34" t="n">
         <v>0.733052420683937</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="33" t="n">
+      <c r="A77" s="34" t="n">
         <v>0.919230002164841</v>
       </c>
-      <c r="B77" s="33" t="n">
+      <c r="B77" s="34" t="n">
         <v>0.0292630368206612</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="33" t="n">
+      <c r="A78" s="34" t="n">
         <v>0.91920000910759</v>
       </c>
-      <c r="B78" s="33" t="n">
+      <c r="B78" s="34" t="n">
         <v>0.415590708143547</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="33" t="n">
+      <c r="A79" s="34" t="n">
         <v>0.918999987840652</v>
       </c>
-      <c r="B79" s="33" t="n">
+      <c r="B79" s="34" t="n">
         <v>0.127453137879888</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="33" t="n">
+      <c r="A80" s="34" t="n">
         <v>0.91888000369072</v>
       </c>
-      <c r="B80" s="33" t="n">
+      <c r="B80" s="34" t="n">
         <v>0.708124931036949</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="33" t="n">
+      <c r="A81" s="34" t="n">
         <v>0.918820005655289</v>
       </c>
-      <c r="B81" s="33" t="n">
+      <c r="B81" s="34" t="n">
         <v>0.138477865934983</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="33" t="n">
+      <c r="A82" s="34" t="n">
         <v>0.918589997291565</v>
       </c>
-      <c r="B82" s="33" t="n">
+      <c r="B82" s="34" t="n">
         <v>0.415840888542269</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="33" t="n">
+      <c r="A83" s="34" t="n">
         <v>0.918510001897812</v>
       </c>
-      <c r="B83" s="33" t="n">
+      <c r="B83" s="34" t="n">
         <v>0.0593213735911918</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="33" t="n">
+      <c r="A84" s="34" t="n">
         <v>0.918480002880096</v>
       </c>
-      <c r="B84" s="33" t="n">
+      <c r="B84" s="34" t="n">
         <v>0.419575820960162</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="33" t="n">
+      <c r="A85" s="34" t="n">
         <v>0.918420004844666</v>
       </c>
-      <c r="B85" s="33" t="n">
+      <c r="B85" s="34" t="n">
         <v>0.376412912447634</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="33" t="n">
+      <c r="A86" s="34" t="n">
         <v>0.918159991502762</v>
       </c>
-      <c r="B86" s="33" t="n">
+      <c r="B86" s="34" t="n">
         <v>0.277991644451844</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="33" t="n">
+      <c r="A87" s="34" t="n">
         <v>0.918119996786118</v>
       </c>
-      <c r="B87" s="33" t="n">
+      <c r="B87" s="34" t="n">
         <v>0.341041761199428</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="33" t="n">
+      <c r="A88" s="34" t="n">
         <v>0.91797000169754</v>
       </c>
-      <c r="B88" s="33" t="n">
+      <c r="B88" s="34" t="n">
         <v>0.763253987306651</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="33" t="n">
+      <c r="A89" s="34" t="n">
         <v>0.917690002918243</v>
       </c>
-      <c r="B89" s="33" t="n">
+      <c r="B89" s="34" t="n">
         <v>0.594522862741885</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="33" t="n">
+      <c r="A90" s="34" t="n">
         <v>0.917650008201599</v>
       </c>
-      <c r="B90" s="33" t="n">
+      <c r="B90" s="34" t="n">
         <v>0.102147437141411</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="33" t="n">
+      <c r="A91" s="34" t="n">
         <v>0.917430001497269</v>
       </c>
-      <c r="B91" s="33" t="n">
+      <c r="B91" s="34" t="n">
         <v>0.627479076896135</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="33" t="n">
+      <c r="A92" s="34" t="n">
         <v>0.917299997806549</v>
       </c>
-      <c r="B92" s="33" t="n">
+      <c r="B92" s="34" t="n">
         <v>0.05101870803193</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="33" t="n">
+      <c r="A93" s="34" t="n">
         <v>0.916839998960495</v>
       </c>
-      <c r="B93" s="33" t="n">
+      <c r="B93" s="34" t="n">
         <v>0.190334413701278</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="33" t="n">
+      <c r="A94" s="34" t="n">
         <v>0.916750001907349</v>
       </c>
-      <c r="B94" s="33" t="n">
+      <c r="B94" s="34" t="n">
         <v>0.567647291724316</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="33" t="n">
+      <c r="A95" s="34" t="n">
         <v>0.916650003194809</v>
       </c>
-      <c r="B95" s="33" t="n">
+      <c r="B95" s="34" t="n">
         <v>0.827843218499773</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="33" t="n">
+      <c r="A96" s="34" t="n">
         <v>0.916570007801056</v>
       </c>
-      <c r="B96" s="33" t="n">
+      <c r="B96" s="34" t="n">
         <v>0.39270210686258</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="33" t="n">
+      <c r="A97" s="34" t="n">
         <v>0.916160011291504</v>
       </c>
-      <c r="B97" s="33" t="n">
+      <c r="B97" s="34" t="n">
         <v>0.03662991232342</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="33" t="n">
+      <c r="A98" s="34" t="n">
         <v>0.915870004892349</v>
       </c>
-      <c r="B98" s="33" t="n">
+      <c r="B98" s="34" t="n">
         <v>0.146754299443897</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="33" t="n">
+      <c r="A99" s="34" t="n">
         <v>0.915139997005463</v>
       </c>
-      <c r="B99" s="33" t="n">
+      <c r="B99" s="34" t="n">
         <v>0.0146525045566509</v>
       </c>
     </row>
@@ -51752,39 +52501,39 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B1" s="12" t="n">
         <v>329</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
-        <v>632</v>
+      <c r="A2" s="39" t="s">
+        <v>636</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>379</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
-        <v>633</v>
+      <c r="A3" s="39" t="s">
+        <v>637</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>399</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>634</v>
+      <c r="A4" s="40" t="s">
+        <v>638</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>388</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
-        <v>635</v>
+      <c r="A5" s="39" t="s">
+        <v>639</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>50</v>
@@ -51792,7 +52541,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9</v>
@@ -51800,7 +52549,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>11</v>
@@ -51808,7 +52557,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3.5</v>
@@ -51816,7 +52565,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -51824,7 +52573,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -51832,7 +52581,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -51840,7 +52589,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -51848,7 +52597,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -51856,7 +52605,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
@@ -51864,7 +52613,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -51872,7 +52621,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -51880,7 +52629,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6.5</v>
@@ -51888,7 +52637,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>6.5</v>
@@ -51896,7 +52645,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7</v>
@@ -51904,17 +52653,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>35</v>
@@ -51922,7 +52671,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>
@@ -51930,7 +52679,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
@@ -51938,7 +52687,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6</v>
@@ -51946,7 +52695,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>6</v>
@@ -51954,7 +52703,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>15</v>
@@ -51962,7 +52711,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>35</v>
@@ -51970,7 +52719,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52048,10 +52797,10 @@
         <v>2018400285</v>
       </c>
       <c r="H3" s="26"/>
-      <c r="I3" s="40" t="n">
+      <c r="I3" s="41" t="n">
         <v>90</v>
       </c>
-      <c r="J3" s="40" t="n">
+      <c r="J3" s="41" t="n">
         <v>85</v>
       </c>
     </row>
@@ -52097,7 +52846,7 @@
       <c r="H6" s="26" t="n">
         <v>85</v>
       </c>
-      <c r="I6" s="40" t="n">
+      <c r="I6" s="41" t="n">
         <v>90</v>
       </c>
       <c r="J6" s="26"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4440" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4463" uniqueCount="663">
   <si>
     <t xml:space="preserve">ToDo</t>
   </si>
@@ -1779,6 +1779,15 @@
   </si>
   <si>
     <t xml:space="preserve">19.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackshark: Fix pretrained model loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phd: Implement Probability Threshold based multiple path inference</t>
   </si>
   <si>
     <t xml:space="preserve">MNIST</t>
@@ -2478,7 +2487,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart93.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2762,11 +2771,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67506788"/>
-        <c:axId val="98162149"/>
+        <c:axId val="15962858"/>
+        <c:axId val="38253093"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67506788"/>
+        <c:axId val="15962858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2808,12 +2817,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98162149"/>
+        <c:crossAx val="38253093"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98162149"/>
+        <c:axId val="38253093"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2855,7 +2864,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67506788"/>
+        <c:crossAx val="15962858"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3032,10 +3041,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4124"/>
+  <dimension ref="A1:G4148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4094" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4118" activeCellId="0" sqref="D4118"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4121" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4142" activeCellId="0" sqref="D4142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50028,6 +50037,251 @@
       <c r="C4124" s="8" t="n">
         <f aca="false">SUM(C4102:C4123)</f>
         <v>4</v>
+      </c>
+    </row>
+    <row r="4125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4125" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B4125" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4125" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4126" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4126" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4126" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4127" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4127" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4127" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4128" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4128" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4128" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4129" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4129" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4129" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4130" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4130" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4130" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4131" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4131" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4131" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4132" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4132" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4132" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4133" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4133" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4133" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4134" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4134" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4134" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4135" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4135" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4135" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4136" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4136" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4136" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4137" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4137" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4137" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4138" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4138" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4138" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4139" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B4139" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4139" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4140" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4140" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4140" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4141" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4141" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4141" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4142" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B4142" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4142" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4143" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4143" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4143" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4144" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B4144" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4144" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4145" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B4145" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4145" s="8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4146" s="8"/>
+    </row>
+    <row r="4147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4148" s="8" t="n">
+        <f aca="false">SUM(B4126:B4146)</f>
+        <v>187</v>
+      </c>
+      <c r="C4148" s="8" t="n">
+        <f aca="false">SUM(C4126:C4147)</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -50062,20 +50316,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50191,13 +50445,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50503,38 +50757,38 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50545,7 +50799,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -50553,7 +50807,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>80</v>
@@ -50567,7 +50821,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -50575,7 +50829,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>80</v>
@@ -50589,7 +50843,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -50597,7 +50851,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>80</v>
@@ -50611,17 +50865,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>80</v>
@@ -50635,17 +50889,17 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>80</v>
@@ -50659,17 +50913,17 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>80</v>
@@ -50683,17 +50937,17 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>80</v>
@@ -50707,17 +50961,17 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>80</v>
@@ -50731,17 +50985,17 @@
         <v>5</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H29" s="32" t="n">
         <v>80</v>
@@ -50755,17 +51009,17 @@
         <v>5</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H30" s="32" t="n">
         <v>80</v>
@@ -50779,17 +51033,17 @@
         <v>5</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H31" s="32" t="n">
         <v>80</v>
@@ -50803,17 +51057,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H32" s="32" t="n">
         <v>80</v>
@@ -50827,17 +51081,17 @@
         <v>5</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="H33" s="32" t="n">
         <v>80</v>
@@ -50851,17 +51105,17 @@
         <v>5</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="32" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H34" s="32" t="n">
         <v>80</v>
@@ -50875,17 +51129,17 @@
         <v>5</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="33" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H35" s="33" t="n">
         <v>50</v>
@@ -50899,17 +51153,17 @@
         <v>5</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="33" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H36" s="33" t="n">
         <v>50</v>
@@ -50923,17 +51177,17 @@
         <v>5</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H37" s="33" t="n">
         <v>50</v>
@@ -50947,20 +51201,20 @@
         <v>5</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E38" s="33"/>
       <c r="F38" s="33" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50980,22 +51234,22 @@
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52501,7 +52755,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B1" s="12" t="n">
         <v>329</v>
@@ -52509,7 +52763,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="39" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>379</v>
@@ -52517,7 +52771,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>399</v>
@@ -52525,7 +52779,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="40" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>388</v>
@@ -52533,7 +52787,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="39" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>50</v>
@@ -52541,7 +52795,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9</v>
@@ -52549,7 +52803,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>11</v>
@@ -52557,7 +52811,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3.5</v>
@@ -52565,7 +52819,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -52573,7 +52827,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -52581,7 +52835,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -52589,7 +52843,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -52597,7 +52851,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -52605,7 +52859,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
@@ -52613,7 +52867,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -52621,7 +52875,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -52629,7 +52883,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6.5</v>
@@ -52637,7 +52891,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>6.5</v>
@@ -52645,7 +52899,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7</v>
@@ -52653,17 +52907,17 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>35</v>
@@ -52671,7 +52925,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>
@@ -52679,7 +52933,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
@@ -52687,7 +52941,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6</v>
@@ -52695,7 +52949,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>6</v>
@@ -52703,7 +52957,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>15</v>
@@ -52711,7 +52965,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>35</v>
@@ -52719,7 +52973,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -2487,7 +2487,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart95.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2771,11 +2771,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="15962858"/>
-        <c:axId val="38253093"/>
+        <c:axId val="5141513"/>
+        <c:axId val="43119030"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="15962858"/>
+        <c:axId val="5141513"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2817,12 +2817,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38253093"/>
+        <c:crossAx val="43119030"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="38253093"/>
+        <c:axId val="43119030"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,7 +2864,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15962858"/>
+        <c:crossAx val="5141513"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3044,7 +3044,7 @@
   <dimension ref="A1:G4148"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4121" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4142" activeCellId="0" sqref="D4142"/>
+      <selection pane="topLeft" activeCell="D4141" activeCellId="0" sqref="D4141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50260,14 +50260,14 @@
       </c>
     </row>
     <row r="4145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4145" s="8" t="s">
+      <c r="A4145" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="B4145" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4145" s="8" t="n">
-        <v>10</v>
+      <c r="B4145" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4145" s="27" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="4146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50281,7 +50281,7 @@
       </c>
       <c r="C4148" s="8" t="n">
         <f aca="false">SUM(C4126:C4147)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B77AFD4-6313-4B0F-A59C-E2534E1C0DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E2C7B0-6680-4040-B37C-1AE8A833715A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4559" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="677">
   <si>
     <t>ToDo</t>
   </si>
@@ -2071,6 +2071,12 @@
   </si>
   <si>
     <t>MT: Hepsiburada Data Loading</t>
+  </si>
+  <si>
+    <t>25.07.2022</t>
+  </si>
+  <si>
+    <t>26.07.2022</t>
   </si>
 </sst>
 </file>
@@ -3374,10 +3380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4240"/>
+  <dimension ref="A1:G4286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4222" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4234" sqref="D4234"/>
+    <sheetView tabSelected="1" topLeftCell="A4262" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D4283" sqref="D4283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -51618,6 +51624,512 @@
       <c r="C4240" s="34">
         <f>SUM(C4219:C4239)</f>
         <v>12</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:3">
+      <c r="A4241" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="B4241" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4241" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:3">
+      <c r="A4242" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4242" s="32">
+        <v>24</v>
+      </c>
+      <c r="C4242" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:3">
+      <c r="A4243" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4243" s="32">
+        <v>12</v>
+      </c>
+      <c r="C4243" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:3">
+      <c r="A4244" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4244" s="32">
+        <v>6</v>
+      </c>
+      <c r="C4244" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:3">
+      <c r="A4245" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4245" s="32">
+        <v>24</v>
+      </c>
+      <c r="C4245" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:3">
+      <c r="A4246" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4246" s="32">
+        <v>12</v>
+      </c>
+      <c r="C4246" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:3">
+      <c r="A4247" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4247" s="32">
+        <v>3</v>
+      </c>
+      <c r="C4247" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:3">
+      <c r="A4248" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4248" s="32">
+        <v>3</v>
+      </c>
+      <c r="C4248" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:3">
+      <c r="A4249" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4249" s="32">
+        <v>24</v>
+      </c>
+      <c r="C4249" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:3">
+      <c r="A4250" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4250" s="32">
+        <v>24</v>
+      </c>
+      <c r="C4250" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:3">
+      <c r="A4251" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4251" s="32">
+        <v>6</v>
+      </c>
+      <c r="C4251" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:3">
+      <c r="A4252" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4252" s="32">
+        <v>6</v>
+      </c>
+      <c r="C4252" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:3">
+      <c r="A4253" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4253" s="32">
+        <v>6</v>
+      </c>
+      <c r="C4253" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:3">
+      <c r="A4254" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4254" s="32">
+        <v>2</v>
+      </c>
+      <c r="C4254" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:3">
+      <c r="A4255" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4255" s="32">
+        <v>4</v>
+      </c>
+      <c r="C4255" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:3">
+      <c r="A4256" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="B4256" s="32">
+        <v>6</v>
+      </c>
+      <c r="C4256" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:3">
+      <c r="A4257" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4257" s="32">
+        <v>6</v>
+      </c>
+      <c r="C4257" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:3">
+      <c r="A4258" s="49" t="s">
+        <v>674</v>
+      </c>
+      <c r="B4258" s="49">
+        <v>5</v>
+      </c>
+      <c r="C4258" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:3">
+      <c r="A4259" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="B4259" s="32">
+        <v>6</v>
+      </c>
+      <c r="C4259" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:3">
+      <c r="A4260" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="B4260" s="34">
+        <v>4</v>
+      </c>
+      <c r="C4260" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:3">
+      <c r="A4261" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="B4261" s="34">
+        <v>2</v>
+      </c>
+      <c r="C4261" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:3">
+      <c r="A4262" s="32" t="s">
+        <v>672</v>
+      </c>
+      <c r="B4262" s="34">
+        <v>4</v>
+      </c>
+      <c r="C4262" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:3">
+      <c r="A4263" s="34"/>
+      <c r="B4263" s="34">
+        <f>SUM(B4242:B4262)</f>
+        <v>189</v>
+      </c>
+      <c r="C4263" s="34">
+        <f>SUM(C4242:C4262)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:3">
+      <c r="A4264" s="30" t="s">
+        <v>676</v>
+      </c>
+      <c r="B4264" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4264" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:3">
+      <c r="A4265" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4265" s="32">
+        <v>24</v>
+      </c>
+      <c r="C4265" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:3">
+      <c r="A4266" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4266" s="32">
+        <v>12</v>
+      </c>
+      <c r="C4266" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:3">
+      <c r="A4267" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4267" s="32">
+        <v>6</v>
+      </c>
+      <c r="C4267" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:3">
+      <c r="A4268" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4268" s="32">
+        <v>24</v>
+      </c>
+      <c r="C4268" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:3">
+      <c r="A4269" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4269" s="32">
+        <v>12</v>
+      </c>
+      <c r="C4269" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:3">
+      <c r="A4270" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4270" s="32">
+        <v>3</v>
+      </c>
+      <c r="C4270" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:3">
+      <c r="A4271" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4271" s="32">
+        <v>3</v>
+      </c>
+      <c r="C4271" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:3">
+      <c r="A4272" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4272" s="32">
+        <v>24</v>
+      </c>
+      <c r="C4272" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:3">
+      <c r="A4273" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4273" s="32">
+        <v>24</v>
+      </c>
+      <c r="C4273" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:3">
+      <c r="A4274" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4274" s="32">
+        <v>6</v>
+      </c>
+      <c r="C4274" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:3">
+      <c r="A4275" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4275" s="32">
+        <v>6</v>
+      </c>
+      <c r="C4275" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:3">
+      <c r="A4276" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4276" s="32">
+        <v>6</v>
+      </c>
+      <c r="C4276" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:3">
+      <c r="A4277" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4277" s="32">
+        <v>2</v>
+      </c>
+      <c r="C4277" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:3">
+      <c r="A4278" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4278" s="32">
+        <v>4</v>
+      </c>
+      <c r="C4278" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:3">
+      <c r="A4279" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="B4279" s="32">
+        <v>6</v>
+      </c>
+      <c r="C4279" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:3">
+      <c r="A4280" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4280" s="32">
+        <v>6</v>
+      </c>
+      <c r="C4280" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:3">
+      <c r="A4281" s="49" t="s">
+        <v>674</v>
+      </c>
+      <c r="B4281" s="49">
+        <v>5</v>
+      </c>
+      <c r="C4281" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:3">
+      <c r="A4282" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="B4282" s="32">
+        <v>6</v>
+      </c>
+      <c r="C4282" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:3">
+      <c r="A4283" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="B4283" s="34">
+        <v>4</v>
+      </c>
+      <c r="C4283" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:3">
+      <c r="A4284" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="B4284" s="34">
+        <v>2</v>
+      </c>
+      <c r="C4284" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:3">
+      <c r="A4285" s="32" t="s">
+        <v>672</v>
+      </c>
+      <c r="B4285" s="34">
+        <v>4</v>
+      </c>
+      <c r="C4285" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:3">
+      <c r="A4286" s="34"/>
+      <c r="B4286" s="34">
+        <f>SUM(B4265:B4285)</f>
+        <v>189</v>
+      </c>
+      <c r="C4286" s="34">
+        <f>SUM(C4265:C4285)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983AE018-933A-4498-B33B-4EC29B842A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A42C0E8-BB74-4280-BDA4-B61A74A2544B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="1368" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4675" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="685">
   <si>
     <t>ToDo</t>
   </si>
@@ -2098,6 +2098,9 @@
   </si>
   <si>
     <t>https://www.ikea.com/at/de/p/groenlid-4er-sofa-mit-recamiere-ljungen-hellgruen-s59408846/#content</t>
+  </si>
+  <si>
+    <t>29.07.2022</t>
   </si>
 </sst>
 </file>
@@ -3383,10 +3386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4355"/>
+  <dimension ref="A1:G4378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4341" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B4347" sqref="B4347"/>
+    <sheetView tabSelected="1" topLeftCell="A4369" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B4374" sqref="B4374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -52858,6 +52861,247 @@
       <c r="C4355" s="39">
         <f>SUM(C4334:C4353)</f>
         <v>12</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:3">
+      <c r="A4356" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="B4356" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4356" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:3">
+      <c r="A4357" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4357" s="39">
+        <v>24</v>
+      </c>
+      <c r="C4357" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:3">
+      <c r="A4358" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4358" s="39">
+        <v>12</v>
+      </c>
+      <c r="C4358" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:3">
+      <c r="A4359" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4359" s="39">
+        <v>6</v>
+      </c>
+      <c r="C4359" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:3">
+      <c r="A4360" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4360" s="39">
+        <v>24</v>
+      </c>
+      <c r="C4360" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:3">
+      <c r="A4361" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4361" s="39">
+        <v>12</v>
+      </c>
+      <c r="C4361" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:3">
+      <c r="A4362" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4362" s="39">
+        <v>3</v>
+      </c>
+      <c r="C4362" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:3">
+      <c r="A4363" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4363" s="39">
+        <v>3</v>
+      </c>
+      <c r="C4363" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:3">
+      <c r="A4364" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4364" s="39">
+        <v>24</v>
+      </c>
+      <c r="C4364" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:3">
+      <c r="A4365" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4365" s="39">
+        <v>24</v>
+      </c>
+      <c r="C4365" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:3">
+      <c r="A4366" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4366" s="39">
+        <v>6</v>
+      </c>
+      <c r="C4366" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:3">
+      <c r="A4367" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4367" s="39">
+        <v>2</v>
+      </c>
+      <c r="C4367" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:3">
+      <c r="A4368" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4368" s="39">
+        <v>6</v>
+      </c>
+      <c r="C4368" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:3">
+      <c r="A4369" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4369" s="39">
+        <v>2</v>
+      </c>
+      <c r="C4369" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:3">
+      <c r="A4370" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4370" s="39">
+        <v>4</v>
+      </c>
+      <c r="C4370" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:3">
+      <c r="A4371" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="B4371" s="39">
+        <v>4</v>
+      </c>
+      <c r="C4371" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:3">
+      <c r="A4372" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4372" s="39">
+        <v>6</v>
+      </c>
+      <c r="C4372" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:3">
+      <c r="A4373" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4373" s="39">
+        <v>8</v>
+      </c>
+      <c r="C4373" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:3">
+      <c r="A4374" s="39" t="s">
+        <v>604</v>
+      </c>
+      <c r="B4374" s="39">
+        <v>4</v>
+      </c>
+      <c r="C4374" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:3">
+      <c r="A4375" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="B4375" s="39">
+        <v>4</v>
+      </c>
+      <c r="C4375" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:3">
+      <c r="A4376" s="34"/>
+      <c r="B4376" s="34"/>
+      <c r="C4376" s="34"/>
+    </row>
+    <row r="4377" spans="1:3">
+      <c r="A4377" s="39"/>
+      <c r="B4377" s="39"/>
+      <c r="C4377" s="39"/>
+    </row>
+    <row r="4378" spans="1:3">
+      <c r="A4378" s="39"/>
+      <c r="B4378" s="39">
+        <f>SUM(B4357:B4376)</f>
+        <v>178</v>
+      </c>
+      <c r="C4378" s="39">
+        <f>SUM(C4357:C4376)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -2589,7 +2589,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2873,11 +2873,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="32560148"/>
-        <c:axId val="98322518"/>
+        <c:axId val="15638666"/>
+        <c:axId val="284496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32560148"/>
+        <c:axId val="15638666"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2919,12 +2919,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98322518"/>
+        <c:crossAx val="284496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98322518"/>
+        <c:axId val="284496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2966,7 +2966,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32560148"/>
+        <c:crossAx val="15638666"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3146,7 +3146,7 @@
   <dimension ref="A1:G4378"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4356" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4370" activeCellId="0" sqref="C4370"/>
+      <selection pane="topLeft" activeCell="D4371" activeCellId="0" sqref="D4371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -52786,14 +52786,14 @@
       </c>
     </row>
     <row r="4371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4371" s="39" t="s">
+      <c r="A4371" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="B4371" s="39" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4371" s="39" t="n">
-        <v>7</v>
+      <c r="B4371" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4371" s="36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52804,7 +52804,7 @@
         <v>6</v>
       </c>
       <c r="C4372" s="39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52858,7 +52858,7 @@
       </c>
       <c r="C4378" s="39" t="n">
         <f aca="false">SUM(C4357:C4376)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="689">
   <si>
     <t xml:space="preserve">ToDo</t>
   </si>
@@ -1854,6 +1854,18 @@
   </si>
   <si>
     <t xml:space="preserve">29.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insumo: Sql queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackshark: Training Loop</t>
   </si>
   <si>
     <t xml:space="preserve">MNIST</t>
@@ -2589,7 +2601,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2873,11 +2885,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="15638666"/>
-        <c:axId val="284496"/>
+        <c:axId val="40566863"/>
+        <c:axId val="76838282"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="15638666"/>
+        <c:axId val="40566863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2919,12 +2931,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284496"/>
+        <c:crossAx val="76838282"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284496"/>
+        <c:axId val="76838282"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2966,7 +2978,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15638666"/>
+        <c:crossAx val="40566863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3143,10 +3155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4378"/>
+  <dimension ref="A1:G4425"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4356" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4371" activeCellId="0" sqref="D4371"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4394" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4417" activeCellId="0" sqref="D4417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -52859,6 +52871,476 @@
       <c r="C4378" s="39" t="n">
         <f aca="false">SUM(C4357:C4376)</f>
         <v>11</v>
+      </c>
+    </row>
+    <row r="4380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4380" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="B4380" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4380" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4381" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4381" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4381" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4382" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4382" s="39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4382" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4383" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4383" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4383" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4384" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4384" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4384" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4385" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4385" s="39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4385" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4386" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4386" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4386" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4387" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4387" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4387" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4388" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4388" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4388" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4389" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4389" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4389" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4390" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4390" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4390" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4391" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4391" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4391" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4392" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4392" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4392" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4393" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4393" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4393" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4394" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4394" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4394" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4395" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4395" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4395" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4396" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4396" s="39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4396" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4397" s="36" t="s">
+        <v>604</v>
+      </c>
+      <c r="B4397" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4397" s="36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4398" s="36" t="s">
+        <v>605</v>
+      </c>
+      <c r="B4398" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4398" s="36" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4399" s="36" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4399" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4399" s="36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4400" s="34"/>
+      <c r="B4400" s="34"/>
+      <c r="C4400" s="34"/>
+    </row>
+    <row r="4401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4401" s="39"/>
+      <c r="B4401" s="39"/>
+      <c r="C4401" s="39"/>
+    </row>
+    <row r="4402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4402" s="39"/>
+      <c r="B4402" s="39" t="n">
+        <f aca="false">SUM(B4381:B4400)</f>
+        <v>176</v>
+      </c>
+      <c r="C4402" s="39" t="n">
+        <f aca="false">SUM(C4381:C4400)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4403" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="B4403" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4403" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4404" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4404" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4404" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4405" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4405" s="39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4405" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4406" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4406" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4406" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4407" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4407" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4407" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4408" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4408" s="39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4408" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4409" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4409" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4409" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4410" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4410" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4410" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4411" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4411" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4411" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4412" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4412" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4412" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4413" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4413" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4413" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4414" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4414" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4414" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4415" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4415" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4415" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4416" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4416" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4416" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4417" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4417" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4417" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4418" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4418" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4418" s="39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4419" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4419" s="39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4419" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4420" s="34" t="s">
+        <v>610</v>
+      </c>
+      <c r="B4420" s="34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4420" s="34" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4421" s="34"/>
+      <c r="B4421" s="34"/>
+      <c r="C4421" s="34"/>
+    </row>
+    <row r="4422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4422" s="34"/>
+      <c r="B4422" s="34"/>
+      <c r="C4422" s="34"/>
+    </row>
+    <row r="4423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4423" s="34"/>
+      <c r="B4423" s="34"/>
+      <c r="C4423" s="34"/>
+    </row>
+    <row r="4424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4424" s="39"/>
+      <c r="B4424" s="39"/>
+      <c r="C4424" s="39"/>
+    </row>
+    <row r="4425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4425" s="39"/>
+      <c r="B4425" s="39" t="n">
+        <f aca="false">SUM(B4404:B4423)</f>
+        <v>172</v>
+      </c>
+      <c r="C4425" s="39" t="n">
+        <f aca="false">SUM(C4404:C4423)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -52894,20 +53376,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53025,13 +53507,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53337,38 +53819,38 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53379,7 +53861,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -53387,7 +53869,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>80</v>
@@ -53401,7 +53883,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -53409,7 +53891,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>80</v>
@@ -53423,7 +53905,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -53431,7 +53913,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>80</v>
@@ -53445,17 +53927,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>80</v>
@@ -53469,17 +53951,17 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>80</v>
@@ -53493,17 +53975,17 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>80</v>
@@ -53517,17 +53999,17 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>80</v>
@@ -53541,17 +54023,17 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>80</v>
@@ -53565,17 +54047,17 @@
         <v>5</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H29" s="41" t="n">
         <v>80</v>
@@ -53589,17 +54071,17 @@
         <v>5</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H30" s="41" t="n">
         <v>80</v>
@@ -53613,17 +54095,17 @@
         <v>5</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H31" s="41" t="n">
         <v>80</v>
@@ -53637,17 +54119,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H32" s="41" t="n">
         <v>80</v>
@@ -53661,17 +54143,17 @@
         <v>5</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="H33" s="41" t="n">
         <v>80</v>
@@ -53685,17 +54167,17 @@
         <v>5</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="E34" s="41"/>
       <c r="F34" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H34" s="41" t="n">
         <v>80</v>
@@ -53709,17 +54191,17 @@
         <v>5</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="E35" s="42"/>
       <c r="F35" s="42" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H35" s="42" t="n">
         <v>50</v>
@@ -53733,17 +54215,17 @@
         <v>5</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E36" s="42"/>
       <c r="F36" s="42" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H36" s="42" t="n">
         <v>50</v>
@@ -53757,17 +54239,17 @@
         <v>5</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E37" s="42"/>
       <c r="F37" s="42" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H37" s="42" t="n">
         <v>50</v>
@@ -53781,20 +54263,20 @@
         <v>5</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="E38" s="42"/>
       <c r="F38" s="42" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H38" s="42" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53814,22 +54296,22 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55340,7 +55822,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B1" s="12" t="n">
         <v>329</v>
@@ -55348,7 +55830,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="48" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>379</v>
@@ -55356,7 +55838,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="48" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>399</v>
@@ -55364,7 +55846,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>388</v>
@@ -55372,7 +55854,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="48" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>50</v>
@@ -55380,7 +55862,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9</v>
@@ -55388,7 +55870,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>11</v>
@@ -55396,7 +55878,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3.5</v>
@@ -55404,7 +55886,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -55412,7 +55894,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -55420,7 +55902,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -55428,7 +55910,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -55436,7 +55918,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -55444,7 +55926,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
@@ -55452,7 +55934,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -55460,7 +55942,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -55468,7 +55950,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6.5</v>
@@ -55476,7 +55958,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>6.5</v>
@@ -55484,7 +55966,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7</v>
@@ -55492,17 +55974,17 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>35</v>
@@ -55510,7 +55992,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>
@@ -55518,7 +56000,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
@@ -55526,7 +56008,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6</v>
@@ -55534,7 +56016,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>6</v>
@@ -55542,7 +56024,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>15</v>
@@ -55550,7 +56032,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>35</v>
@@ -55558,7 +56040,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -2601,7 +2601,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2885,11 +2885,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="40566863"/>
-        <c:axId val="76838282"/>
+        <c:axId val="7933172"/>
+        <c:axId val="42059707"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40566863"/>
+        <c:axId val="7933172"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2931,12 +2931,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76838282"/>
+        <c:crossAx val="42059707"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76838282"/>
+        <c:axId val="42059707"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,7 +2978,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40566863"/>
+        <c:crossAx val="7933172"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3158,7 +3158,7 @@
   <dimension ref="A1:G4425"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4394" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4417" activeCellId="0" sqref="D4417"/>
+      <selection pane="topLeft" activeCell="D4413" activeCellId="0" sqref="D4413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -53287,7 +53287,7 @@
         <v>6</v>
       </c>
       <c r="C4418" s="39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53340,7 +53340,7 @@
       </c>
       <c r="C4425" s="39" t="n">
         <f aca="false">SUM(C4404:C4423)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4759" uniqueCount="691">
   <si>
     <t xml:space="preserve">ToDo</t>
   </si>
@@ -1856,16 +1856,22 @@
     <t xml:space="preserve">29.07.2022</t>
   </si>
   <si>
+    <t xml:space="preserve">1.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insumo: Sql queries</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.08.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Insumo: Sql queries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08.2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blackshark: Training Loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackshark: Repair Pixel Model</t>
   </si>
   <si>
     <t xml:space="preserve">MNIST</t>
@@ -2601,7 +2607,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2885,11 +2891,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="7933172"/>
-        <c:axId val="42059707"/>
+        <c:axId val="62042642"/>
+        <c:axId val="55438423"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7933172"/>
+        <c:axId val="62042642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2931,12 +2937,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42059707"/>
+        <c:crossAx val="55438423"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42059707"/>
+        <c:axId val="55438423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,7 +2984,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7933172"/>
+        <c:crossAx val="62042642"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3155,10 +3161,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4425"/>
+  <dimension ref="A1:G4449"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4394" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4413" activeCellId="0" sqref="D4413"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4418" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4442" activeCellId="0" sqref="D4442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -53341,6 +53347,235 @@
       <c r="C4425" s="39" t="n">
         <f aca="false">SUM(C4404:C4423)</f>
         <v>18</v>
+      </c>
+    </row>
+    <row r="4427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4427" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="B4427" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4427" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4428" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4428" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4428" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4429" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4429" s="39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4429" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4430" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4430" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4430" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4431" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4431" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4431" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4432" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4432" s="39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4432" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4433" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4433" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4433" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4434" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4434" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4434" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4435" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4435" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4435" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4436" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4436" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4436" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4437" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4437" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4437" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4438" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4438" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4438" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4439" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4439" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4439" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4440" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4440" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4440" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4441" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4441" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4441" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4442" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4442" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4442" s="39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4443" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4443" s="39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4443" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4444" s="34" t="s">
+        <v>612</v>
+      </c>
+      <c r="B4444" s="34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4444" s="34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4445" s="34"/>
+      <c r="B4445" s="34"/>
+      <c r="C4445" s="34"/>
+    </row>
+    <row r="4446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4446" s="34"/>
+      <c r="B4446" s="34"/>
+      <c r="C4446" s="34"/>
+    </row>
+    <row r="4447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4447" s="34"/>
+      <c r="B4447" s="34"/>
+      <c r="C4447" s="34"/>
+    </row>
+    <row r="4448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4448" s="39"/>
+      <c r="B4448" s="39"/>
+      <c r="C4448" s="39"/>
+    </row>
+    <row r="4449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4449" s="39"/>
+      <c r="B4449" s="39" t="n">
+        <f aca="false">SUM(B4428:B4447)</f>
+        <v>172</v>
+      </c>
+      <c r="C4449" s="39" t="n">
+        <f aca="false">SUM(C4428:C4447)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -53376,20 +53611,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53507,13 +53742,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53819,38 +54054,38 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53861,7 +54096,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -53869,7 +54104,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>80</v>
@@ -53883,7 +54118,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -53891,7 +54126,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>80</v>
@@ -53905,7 +54140,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -53913,7 +54148,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>80</v>
@@ -53927,17 +54162,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>80</v>
@@ -53951,17 +54186,17 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>80</v>
@@ -53975,17 +54210,17 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>80</v>
@@ -53999,17 +54234,17 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>80</v>
@@ -54023,17 +54258,17 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>80</v>
@@ -54047,17 +54282,17 @@
         <v>5</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H29" s="41" t="n">
         <v>80</v>
@@ -54071,17 +54306,17 @@
         <v>5</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H30" s="41" t="n">
         <v>80</v>
@@ -54095,17 +54330,17 @@
         <v>5</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H31" s="41" t="n">
         <v>80</v>
@@ -54119,17 +54354,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H32" s="41" t="n">
         <v>80</v>
@@ -54143,17 +54378,17 @@
         <v>5</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H33" s="41" t="n">
         <v>80</v>
@@ -54167,17 +54402,17 @@
         <v>5</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E34" s="41"/>
       <c r="F34" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H34" s="41" t="n">
         <v>80</v>
@@ -54191,17 +54426,17 @@
         <v>5</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E35" s="42"/>
       <c r="F35" s="42" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H35" s="42" t="n">
         <v>50</v>
@@ -54215,17 +54450,17 @@
         <v>5</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E36" s="42"/>
       <c r="F36" s="42" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H36" s="42" t="n">
         <v>50</v>
@@ -54239,17 +54474,17 @@
         <v>5</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E37" s="42"/>
       <c r="F37" s="42" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H37" s="42" t="n">
         <v>50</v>
@@ -54263,20 +54498,20 @@
         <v>5</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E38" s="42"/>
       <c r="F38" s="42" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H38" s="42" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54296,22 +54531,22 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55822,7 +56057,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B1" s="12" t="n">
         <v>329</v>
@@ -55830,7 +56065,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="48" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>379</v>
@@ -55838,7 +56073,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="48" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>399</v>
@@ -55846,7 +56081,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>388</v>
@@ -55854,7 +56089,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="48" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>50</v>
@@ -55862,7 +56097,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9</v>
@@ -55870,7 +56105,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>11</v>
@@ -55878,7 +56113,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3.5</v>
@@ -55886,7 +56121,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -55894,7 +56129,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -55902,7 +56137,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -55910,7 +56145,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -55918,7 +56153,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -55926,7 +56161,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
@@ -55934,7 +56169,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -55942,7 +56177,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -55950,7 +56185,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6.5</v>
@@ -55958,7 +56193,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>6.5</v>
@@ -55966,7 +56201,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7</v>
@@ -55974,17 +56209,17 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>35</v>
@@ -55992,7 +56227,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>
@@ -56000,7 +56235,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
@@ -56008,7 +56243,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6</v>
@@ -56016,7 +56251,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>6</v>
@@ -56024,7 +56259,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>15</v>
@@ -56032,7 +56267,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>35</v>
@@ -56040,7 +56275,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4759" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4780" uniqueCount="693">
   <si>
     <t xml:space="preserve">ToDo</t>
   </si>
@@ -1872,6 +1872,12 @@
   </si>
   <si>
     <t xml:space="preserve">Blackshark: Repair Pixel Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackshark: Proper evaluation and logging and checkpoint recording</t>
   </si>
   <si>
     <t xml:space="preserve">MNIST</t>
@@ -2124,6 +2130,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2157,23 +2164,27 @@
       <color rgb="FF000000"/>
       <name val="MS Shell Dlg 2"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9.8"/>
       <color rgb="FFA9B7C6"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9.8"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -2181,12 +2192,14 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2607,7 +2620,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2891,11 +2904,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62042642"/>
-        <c:axId val="55438423"/>
+        <c:axId val="30719816"/>
+        <c:axId val="90300189"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62042642"/>
+        <c:axId val="30719816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2937,12 +2950,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55438423"/>
+        <c:crossAx val="90300189"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55438423"/>
+        <c:axId val="90300189"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,7 +2997,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62042642"/>
+        <c:crossAx val="30719816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3047,9 +3060,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>300960</xdr:colOff>
+      <xdr:colOff>300600</xdr:colOff>
       <xdr:row>1607</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3058,8 +3071,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="283122720"/>
-          <a:ext cx="300960" cy="300960"/>
+          <a:off x="9691200" y="283122720"/>
+          <a:ext cx="300600" cy="300600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3087,9 +3100,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>300960</xdr:colOff>
+      <xdr:colOff>300600</xdr:colOff>
       <xdr:row>1622</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3098,8 +3111,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691920" y="285865920"/>
-          <a:ext cx="300960" cy="300960"/>
+          <a:off x="9691200" y="285865920"/>
+          <a:ext cx="300600" cy="300600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3132,9 +3145,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>529560</xdr:colOff>
+      <xdr:colOff>529200</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3142,8 +3155,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4466520" y="1299240"/>
-        <a:ext cx="5626080" cy="2739240"/>
+        <a:off x="4465800" y="1299240"/>
+        <a:ext cx="5621400" cy="2738880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3161,13 +3174,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4449"/>
+  <dimension ref="A1:G4473"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4418" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4442" activeCellId="0" sqref="D4442"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4449" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4471" activeCellId="0" sqref="D4471"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="91.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.55"/>
@@ -53541,10 +53554,10 @@
         <v>612</v>
       </c>
       <c r="B4444" s="34" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C4444" s="34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53571,11 +53584,246 @@
       <c r="A4449" s="39"/>
       <c r="B4449" s="39" t="n">
         <f aca="false">SUM(B4428:B4447)</f>
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C4449" s="39" t="n">
         <f aca="false">SUM(C4428:C4447)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4451" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="B4451" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4451" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4452" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4452" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4452" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4453" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4453" s="39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4453" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4454" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4454" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4454" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4455" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4455" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4455" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4456" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4456" s="39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4456" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4457" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4457" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4457" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4458" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4458" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4458" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4459" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4459" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4459" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4460" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4460" s="39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4460" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4461" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4461" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4461" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4462" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4462" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4462" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4463" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4463" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4463" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4464" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4464" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4464" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4465" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4465" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4465" s="39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4466" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4466" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4466" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4467" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4467" s="39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4467" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4468" s="34" t="s">
+        <v>612</v>
+      </c>
+      <c r="B4468" s="34" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4468" s="34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4469" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="B4469" s="34" t="n">
         <v>5</v>
+      </c>
+      <c r="C4469" s="34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4470" s="34"/>
+      <c r="B4470" s="34"/>
+      <c r="C4470" s="34"/>
+    </row>
+    <row r="4471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4471" s="34"/>
+      <c r="B4471" s="34"/>
+      <c r="C4471" s="34"/>
+    </row>
+    <row r="4472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4472" s="39"/>
+      <c r="B4472" s="39"/>
+      <c r="C4472" s="39"/>
+    </row>
+    <row r="4473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4473" s="39"/>
+      <c r="B4473" s="39" t="n">
+        <f aca="false">SUM(B4452:B4471)</f>
+        <v>187</v>
+      </c>
+      <c r="C4473" s="39" t="n">
+        <f aca="false">SUM(C4452:C4471)</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -53601,7 +53849,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13"/>
@@ -53611,20 +53859,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53727,7 +53975,7 @@
       <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.89"/>
@@ -53742,13 +53990,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54054,38 +54302,38 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54096,7 +54344,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -54104,7 +54352,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>80</v>
@@ -54118,7 +54366,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -54126,7 +54374,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>80</v>
@@ -54140,7 +54388,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -54148,7 +54396,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>80</v>
@@ -54162,17 +54410,17 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>80</v>
@@ -54186,17 +54434,17 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>80</v>
@@ -54210,17 +54458,17 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>80</v>
@@ -54234,17 +54482,17 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>80</v>
@@ -54258,17 +54506,17 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>80</v>
@@ -54282,17 +54530,17 @@
         <v>5</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H29" s="41" t="n">
         <v>80</v>
@@ -54306,17 +54554,17 @@
         <v>5</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H30" s="41" t="n">
         <v>80</v>
@@ -54330,17 +54578,17 @@
         <v>5</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H31" s="41" t="n">
         <v>80</v>
@@ -54354,17 +54602,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H32" s="41" t="n">
         <v>80</v>
@@ -54378,17 +54626,17 @@
         <v>5</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H33" s="41" t="n">
         <v>80</v>
@@ -54402,17 +54650,17 @@
         <v>5</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E34" s="41"/>
       <c r="F34" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H34" s="41" t="n">
         <v>80</v>
@@ -54426,17 +54674,17 @@
         <v>5</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E35" s="42"/>
       <c r="F35" s="42" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H35" s="42" t="n">
         <v>50</v>
@@ -54450,17 +54698,17 @@
         <v>5</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E36" s="42"/>
       <c r="F36" s="42" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H36" s="42" t="n">
         <v>50</v>
@@ -54474,17 +54722,17 @@
         <v>5</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E37" s="42"/>
       <c r="F37" s="42" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H37" s="42" t="n">
         <v>50</v>
@@ -54498,20 +54746,20 @@
         <v>5</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E38" s="42"/>
       <c r="F38" s="42" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H38" s="42" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54531,22 +54779,22 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54667,7 +54915,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="2" style="0" width="8.55"/>
@@ -55023,7 +55271,7 @@
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="8.55"/>
   </cols>
@@ -56048,7 +56296,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.11"/>
@@ -56057,7 +56305,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B1" s="12" t="n">
         <v>329</v>
@@ -56065,7 +56313,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="48" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>379</v>
@@ -56073,7 +56321,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="48" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>399</v>
@@ -56081,7 +56329,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>388</v>
@@ -56089,7 +56337,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="48" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>50</v>
@@ -56097,7 +56345,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9</v>
@@ -56105,7 +56353,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>11</v>
@@ -56113,7 +56361,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3.5</v>
@@ -56121,7 +56369,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -56129,7 +56377,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -56137,7 +56385,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -56145,7 +56393,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -56153,7 +56401,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -56161,7 +56409,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
@@ -56169,7 +56417,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -56177,7 +56425,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -56185,7 +56433,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6.5</v>
@@ -56193,7 +56441,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>6.5</v>
@@ -56201,7 +56449,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7</v>
@@ -56209,17 +56457,17 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>35</v>
@@ -56227,7 +56475,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>
@@ -56235,7 +56483,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
@@ -56243,7 +56491,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6</v>
@@ -56251,7 +56499,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>6</v>
@@ -56259,7 +56507,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>15</v>
@@ -56267,7 +56515,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>35</v>
@@ -56275,7 +56523,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56317,7 +56565,7 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.55"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBD66B2-01A4-4F69-83DA-4745A58A1616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0249972-E02B-4E3E-915C-F0FBB5091C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3456,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4491" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4512" sqref="D4512"/>
+    <sheetView tabSelected="1" topLeftCell="A4500" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D4511" sqref="D4511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -54521,7 +54521,7 @@
         <v>6</v>
       </c>
       <c r="C4511" s="26">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4512" spans="1:3">
@@ -54543,7 +54543,7 @@
         <v>16</v>
       </c>
       <c r="C4513" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4514" spans="1:3">
@@ -54580,7 +54580,7 @@
       </c>
       <c r="C4518" s="26">
         <f>SUM(C4496:C4517)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0249972-E02B-4E3E-915C-F0FBB5091C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF912A3-CC37-48EC-8677-CD78674BEB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4843" uniqueCount="697">
   <si>
     <t>ToDo</t>
   </si>
@@ -2134,6 +2134,9 @@
   </si>
   <si>
     <t>5.08.2022</t>
+  </si>
+  <si>
+    <t>6.08.2022</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2186,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2265,6 +2268,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2362,7 +2371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2440,6 +2449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -3454,10 +3464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4518"/>
+  <dimension ref="A1:G4542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4500" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4511" sqref="D4511"/>
+    <sheetView tabSelected="1" topLeftCell="A4519" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D4536" sqref="D4536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -54521,7 +54531,7 @@
         <v>6</v>
       </c>
       <c r="C4511" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4512" spans="1:3">
@@ -54580,7 +54590,236 @@
       </c>
       <c r="C4518" s="26">
         <f>SUM(C4496:C4517)</f>
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4520" spans="1:3">
+      <c r="A4520" s="53" t="s">
+        <v>696</v>
+      </c>
+      <c r="B4520" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4520" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4521" spans="1:3">
+      <c r="A4521" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4521" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4521" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4522" spans="1:3">
+      <c r="A4522" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4522" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4522" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4523" spans="1:3">
+      <c r="A4523" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4523" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4523" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4524" spans="1:3">
+      <c r="A4524" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4524" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4524" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4525" spans="1:3">
+      <c r="A4525" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4525" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4525" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4526" spans="1:3">
+      <c r="A4526" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4526" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4526" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4527" spans="1:3">
+      <c r="A4527" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4527" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4527" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4528" spans="1:3">
+      <c r="A4528" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4528" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4528" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4529" spans="1:3">
+      <c r="A4529" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4529" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4529" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4530" spans="1:3">
+      <c r="A4530" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4530" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4530" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4531" spans="1:3">
+      <c r="A4531" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4531" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4531" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4532" spans="1:3">
+      <c r="A4532" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4532" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4532" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4533" spans="1:3">
+      <c r="A4533" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4533" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4533" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4534" spans="1:3">
+      <c r="A4534" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4534" s="26">
+        <v>4</v>
+      </c>
+      <c r="C4534" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4535" spans="1:3">
+      <c r="A4535" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4535" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4535" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4536" spans="1:3">
+      <c r="A4536" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4536" s="26">
+        <v>8</v>
+      </c>
+      <c r="C4536" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4537" spans="1:3">
+      <c r="A4537" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="B4537" s="26">
+        <v>16</v>
+      </c>
+      <c r="C4537" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4538" spans="1:3">
+      <c r="A4538" s="55"/>
+      <c r="B4538" s="55"/>
+      <c r="C4538" s="55"/>
+    </row>
+    <row r="4539" spans="1:3">
+      <c r="A4539" s="26"/>
+      <c r="B4539" s="26"/>
+      <c r="C4539" s="26"/>
+    </row>
+    <row r="4540" spans="1:3">
+      <c r="A4540" s="26"/>
+      <c r="B4540" s="26"/>
+      <c r="C4540" s="26"/>
+    </row>
+    <row r="4541" spans="1:3">
+      <c r="A4541" s="26"/>
+      <c r="B4541" s="26"/>
+      <c r="C4541" s="26"/>
+    </row>
+    <row r="4542" spans="1:3">
+      <c r="A4542" s="26"/>
+      <c r="B4542" s="26">
+        <f>SUM(B4520:B4541)</f>
+        <v>182</v>
+      </c>
+      <c r="C4542" s="26">
+        <f>SUM(C4520:C4541)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF912A3-CC37-48EC-8677-CD78674BEB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C093FCF9-4398-4BFC-BB05-CEFE18C66718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4843" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4883" uniqueCount="700">
   <si>
     <t>ToDo</t>
   </si>
@@ -2137,6 +2137,15 @@
   </si>
   <si>
     <t>6.08.2022</t>
+  </si>
+  <si>
+    <t>7.08.2022</t>
+  </si>
+  <si>
+    <t>Phd: Implementation of Cross Entropy Optimization for multiple path inference - Multiprocess</t>
+  </si>
+  <si>
+    <t>8.08.2022</t>
   </si>
 </sst>
 </file>
@@ -3464,10 +3473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4542"/>
+  <dimension ref="A1:G4588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4519" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4536" sqref="D4536"/>
+    <sheetView tabSelected="1" topLeftCell="A4567" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D4581" sqref="D4581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -54820,6 +54829,463 @@
       <c r="C4542" s="26">
         <f>SUM(C4520:C4541)</f>
         <v>7</v>
+      </c>
+    </row>
+    <row r="4543" spans="1:3">
+      <c r="A4543" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="B4543" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4543" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4544" spans="1:3">
+      <c r="A4544" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4544" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4544" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4545" spans="1:3">
+      <c r="A4545" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4545" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4545" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4546" spans="1:3">
+      <c r="A4546" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4546" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4546" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4547" spans="1:3">
+      <c r="A4547" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4547" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4547" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4548" spans="1:3">
+      <c r="A4548" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4548" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4548" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4549" spans="1:3">
+      <c r="A4549" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4549" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4549" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4550" spans="1:3">
+      <c r="A4550" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4550" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4550" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4551" spans="1:3">
+      <c r="A4551" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4551" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4551" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4552" spans="1:3">
+      <c r="A4552" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4552" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4552" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4553" spans="1:3">
+      <c r="A4553" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4553" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4553" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4554" spans="1:3">
+      <c r="A4554" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4554" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4554" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4555" spans="1:3">
+      <c r="A4555" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4555" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4555" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4556" spans="1:3">
+      <c r="A4556" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4556" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4556" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4557" spans="1:3">
+      <c r="A4557" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4557" s="26">
+        <v>4</v>
+      </c>
+      <c r="C4557" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4558" spans="1:3">
+      <c r="A4558" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="B4558" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4558" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4559" spans="1:3">
+      <c r="A4559" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4559" s="26">
+        <v>8</v>
+      </c>
+      <c r="C4559" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4560" spans="1:3">
+      <c r="A4560" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="B4560" s="26">
+        <v>16</v>
+      </c>
+      <c r="C4560" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4561" spans="1:3">
+      <c r="A4561" s="55"/>
+      <c r="B4561" s="55"/>
+      <c r="C4561" s="55"/>
+    </row>
+    <row r="4562" spans="1:3">
+      <c r="A4562" s="26"/>
+      <c r="B4562" s="26"/>
+      <c r="C4562" s="26"/>
+    </row>
+    <row r="4563" spans="1:3">
+      <c r="A4563" s="26"/>
+      <c r="B4563" s="26"/>
+      <c r="C4563" s="26"/>
+    </row>
+    <row r="4564" spans="1:3">
+      <c r="A4564" s="26"/>
+      <c r="B4564" s="26"/>
+      <c r="C4564" s="26"/>
+    </row>
+    <row r="4565" spans="1:3">
+      <c r="A4565" s="26"/>
+      <c r="B4565" s="26">
+        <f>SUM(B4543:B4564)</f>
+        <v>182</v>
+      </c>
+      <c r="C4565" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4566" spans="1:3">
+      <c r="A4566" s="53" t="s">
+        <v>699</v>
+      </c>
+      <c r="B4566" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4566" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4567" spans="1:3">
+      <c r="A4567" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4567" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4567" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4568" spans="1:3">
+      <c r="A4568" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4568" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4568" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4569" spans="1:3">
+      <c r="A4569" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4569" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4569" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4570" spans="1:3">
+      <c r="A4570" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4570" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4570" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4571" spans="1:3">
+      <c r="A4571" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4571" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4571" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4572" spans="1:3">
+      <c r="A4572" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4572" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4572" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4573" spans="1:3">
+      <c r="A4573" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4573" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4573" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4574" spans="1:3">
+      <c r="A4574" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4574" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4574" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4575" spans="1:3">
+      <c r="A4575" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4575" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4575" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4576" spans="1:3">
+      <c r="A4576" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4576" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4576" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4577" spans="1:3">
+      <c r="A4577" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4577" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4577" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4578" spans="1:3">
+      <c r="A4578" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4578" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4578" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4579" spans="1:3">
+      <c r="A4579" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4579" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4579" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4580" spans="1:3">
+      <c r="A4580" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4580" s="26">
+        <v>4</v>
+      </c>
+      <c r="C4580" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4581" spans="1:3">
+      <c r="A4581" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="B4581" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4581" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4582" spans="1:3">
+      <c r="A4582" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4582" s="26">
+        <v>8</v>
+      </c>
+      <c r="C4582" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4583" spans="1:3">
+      <c r="A4583" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="B4583" s="26">
+        <v>16</v>
+      </c>
+      <c r="C4583" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4584" spans="1:3">
+      <c r="A4584" s="55"/>
+      <c r="B4584" s="55"/>
+      <c r="C4584" s="55"/>
+    </row>
+    <row r="4585" spans="1:3">
+      <c r="A4585" s="26"/>
+      <c r="B4585" s="26"/>
+      <c r="C4585" s="26"/>
+    </row>
+    <row r="4586" spans="1:3">
+      <c r="A4586" s="26"/>
+      <c r="B4586" s="26"/>
+      <c r="C4586" s="26"/>
+    </row>
+    <row r="4587" spans="1:3">
+      <c r="A4587" s="26"/>
+      <c r="B4587" s="26"/>
+      <c r="C4587" s="26"/>
+    </row>
+    <row r="4588" spans="1:3">
+      <c r="A4588" s="26"/>
+      <c r="B4588" s="26">
+        <f>SUM(B4566:B4587)</f>
+        <v>182</v>
+      </c>
+      <c r="C4588" s="26">
+        <f>SUM(C4566:C4587)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C093FCF9-4398-4BFC-BB05-CEFE18C66718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C665330-D842-4421-8AD7-334266479C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="1368" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -3475,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4567" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4581" sqref="D4581"/>
+    <sheetView tabSelected="1" topLeftCell="A4579" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B4586" sqref="B4586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -55232,7 +55232,7 @@
         <v>6</v>
       </c>
       <c r="C4581" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4582" spans="1:3">
@@ -55285,7 +55285,7 @@
       </c>
       <c r="C4588" s="26">
         <f>SUM(C4566:C4587)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C665330-D842-4421-8AD7-334266479C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18C931D-8B97-451E-81A6-C1A2980FC8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="1368" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4883" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4903" uniqueCount="702">
   <si>
     <t>ToDo</t>
   </si>
@@ -2146,6 +2146,12 @@
   </si>
   <si>
     <t>8.08.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Multichannel FFT</t>
+  </si>
+  <si>
+    <t>9.08.2022</t>
   </si>
 </sst>
 </file>
@@ -3473,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4588"/>
+  <dimension ref="A1:G4611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4579" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B4586" sqref="B4586"/>
+    <sheetView tabSelected="1" topLeftCell="A4593" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A4602" sqref="A4602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -55232,7 +55238,7 @@
         <v>6</v>
       </c>
       <c r="C4581" s="26">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4582" spans="1:3">
@@ -55248,13 +55254,13 @@
     </row>
     <row r="4583" spans="1:3">
       <c r="A4583" s="26" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="B4583" s="26">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C4583" s="26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4584" spans="1:3">
@@ -55281,11 +55287,240 @@
       <c r="A4588" s="26"/>
       <c r="B4588" s="26">
         <f>SUM(B4566:B4587)</f>
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C4588" s="26">
         <f>SUM(C4566:C4587)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4589" spans="1:3">
+      <c r="A4589" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="B4589" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4589" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4590" spans="1:3">
+      <c r="A4590" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4590" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4590" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4591" spans="1:3">
+      <c r="A4591" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4591" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4591" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4592" spans="1:3">
+      <c r="A4592" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4592" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4592" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4593" spans="1:3">
+      <c r="A4593" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4593" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4593" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4594" spans="1:3">
+      <c r="A4594" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4594" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4594" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4595" spans="1:3">
+      <c r="A4595" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4595" s="26">
         <v>3</v>
+      </c>
+      <c r="C4595" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4596" spans="1:3">
+      <c r="A4596" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4596" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4596" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4597" spans="1:3">
+      <c r="A4597" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4597" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4597" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4598" spans="1:3">
+      <c r="A4598" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4598" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4598" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4599" spans="1:3">
+      <c r="A4599" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4599" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4599" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4600" spans="1:3">
+      <c r="A4600" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4600" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4600" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4601" spans="1:3">
+      <c r="A4601" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4601" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4601" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4602" spans="1:3">
+      <c r="A4602" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4602" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4602" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4603" spans="1:3">
+      <c r="A4603" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4603" s="26">
+        <v>4</v>
+      </c>
+      <c r="C4603" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4604" spans="1:3">
+      <c r="A4604" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="B4604" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4604" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4605" spans="1:3">
+      <c r="A4605" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4605" s="26">
+        <v>8</v>
+      </c>
+      <c r="C4605" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4606" spans="1:3">
+      <c r="A4606" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="B4606" s="26">
+        <v>4</v>
+      </c>
+      <c r="C4606" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4607" spans="1:3">
+      <c r="A4607" s="55"/>
+      <c r="B4607" s="55"/>
+      <c r="C4607" s="55"/>
+    </row>
+    <row r="4608" spans="1:3">
+      <c r="A4608" s="26"/>
+      <c r="B4608" s="26"/>
+      <c r="C4608" s="26"/>
+    </row>
+    <row r="4609" spans="1:3">
+      <c r="A4609" s="26"/>
+      <c r="B4609" s="26"/>
+      <c r="C4609" s="26"/>
+    </row>
+    <row r="4610" spans="1:3">
+      <c r="A4610" s="26"/>
+      <c r="B4610" s="26"/>
+      <c r="C4610" s="26"/>
+    </row>
+    <row r="4611" spans="1:3">
+      <c r="A4611" s="26"/>
+      <c r="B4611" s="26">
+        <f>SUM(B4589:B4610)</f>
+        <v>170</v>
+      </c>
+      <c r="C4611" s="26">
+        <f>SUM(C4589:C4610)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18C931D-8B97-451E-81A6-C1A2980FC8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F58639-7D79-4E8E-8990-9AAABD0CFE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="1368" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4903" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4904" uniqueCount="703">
   <si>
     <t>ToDo</t>
   </si>
@@ -2152,6 +2152,9 @@
   </si>
   <si>
     <t>9.08.2022</t>
+  </si>
+  <si>
+    <t>Phd: Sigmoid-Normal Distribution</t>
   </si>
 </sst>
 </file>
@@ -3481,8 +3484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4593" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A4602" sqref="A4602"/>
+    <sheetView tabSelected="1" topLeftCell="A4602" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C4604" sqref="C4604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -55460,14 +55463,14 @@
       </c>
     </row>
     <row r="4604" spans="1:3">
-      <c r="A4604" s="26" t="s">
+      <c r="A4604" s="54" t="s">
         <v>698</v>
       </c>
-      <c r="B4604" s="26">
-        <v>6</v>
-      </c>
-      <c r="C4604" s="26">
-        <v>1</v>
+      <c r="B4604" s="54">
+        <v>6</v>
+      </c>
+      <c r="C4604" s="54">
+        <v>10</v>
       </c>
     </row>
     <row r="4605" spans="1:3">
@@ -55478,7 +55481,7 @@
         <v>8</v>
       </c>
       <c r="C4605" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4606" spans="1:3">
@@ -55493,9 +55496,15 @@
       </c>
     </row>
     <row r="4607" spans="1:3">
-      <c r="A4607" s="55"/>
-      <c r="B4607" s="55"/>
-      <c r="C4607" s="55"/>
+      <c r="A4607" s="55" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4607" s="55">
+        <v>6</v>
+      </c>
+      <c r="C4607" s="55">
+        <v>3</v>
+      </c>
     </row>
     <row r="4608" spans="1:3">
       <c r="A4608" s="26"/>
@@ -55516,11 +55525,11 @@
       <c r="A4611" s="26"/>
       <c r="B4611" s="26">
         <f>SUM(B4589:B4610)</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C4611" s="26">
         <f>SUM(C4589:C4610)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F58639-7D79-4E8E-8990-9AAABD0CFE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A718E8D-A0E6-4CBE-8E20-AFD766E7CCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="1368" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4904" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5063" uniqueCount="721">
   <si>
     <t>ToDo</t>
   </si>
@@ -2155,6 +2155,60 @@
   </si>
   <si>
     <t>Phd: Sigmoid-Normal Distribution</t>
+  </si>
+  <si>
+    <t>10.08.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Hotspot Generation Refactoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>11.08.2022</t>
+  </si>
+  <si>
+    <t>12.08.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Integrate multichannel FFT conv into training</t>
+  </si>
+  <si>
+    <t>Blackshark: SSH into office computer</t>
+  </si>
+  <si>
+    <t>13.08.2022</t>
+  </si>
+  <si>
+    <t>Insumo: Onboarding features</t>
+  </si>
+  <si>
+    <t>Insumo: Gather Rule Based Productivity Features</t>
+  </si>
+  <si>
+    <t>14.08.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Prepare rest of the training iteration - Start segmentation training</t>
+  </si>
+  <si>
+    <t>Blackshark: Prepare data processing for bounding box based method</t>
+  </si>
+  <si>
+    <t>MT: Data downloader</t>
+  </si>
+  <si>
+    <t>Blackshark: Evaluation metrics</t>
+  </si>
+  <si>
+    <t>15.08.2022</t>
+  </si>
+  <si>
+    <t>MT: Set up DB, connect it via sqlachemy</t>
+  </si>
+  <si>
+    <t>16.08.2022</t>
   </si>
 </sst>
 </file>
@@ -3482,10 +3536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4611"/>
+  <dimension ref="A1:G4785"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4602" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C4604" sqref="C4604"/>
+    <sheetView tabSelected="1" topLeftCell="A4758" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D4772" sqref="D4772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -55503,7 +55557,7 @@
         <v>6</v>
       </c>
       <c r="C4607" s="55">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4608" spans="1:3">
@@ -55529,7 +55583,1761 @@
       </c>
       <c r="C4611" s="26">
         <f>SUM(C4589:C4610)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4612" spans="1:3">
+      <c r="A4612" s="53" t="s">
+        <v>703</v>
+      </c>
+      <c r="B4612" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4612" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4613" spans="1:3">
+      <c r="A4613" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4613" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4613" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4614" spans="1:3">
+      <c r="A4614" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4614" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4614" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4615" spans="1:3">
+      <c r="A4615" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4615" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4615" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4616" spans="1:3">
+      <c r="A4616" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4616" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4616" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4617" spans="1:3">
+      <c r="A4617" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4617" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4617" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4618" spans="1:3">
+      <c r="A4618" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4618" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4618" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4619" spans="1:3">
+      <c r="A4619" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4619" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4619" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4620" spans="1:3">
+      <c r="A4620" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4620" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4620" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4621" spans="1:3">
+      <c r="A4621" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4621" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4621" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4622" spans="1:3">
+      <c r="A4622" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4622" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4622" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4623" spans="1:3">
+      <c r="A4623" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4623" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4623" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4624" spans="1:3">
+      <c r="A4624" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4624" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4624" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4625" spans="1:4">
+      <c r="A4625" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4625" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4625" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4626" spans="1:4">
+      <c r="A4626" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4626" s="26">
+        <v>4</v>
+      </c>
+      <c r="C4626" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4627" spans="1:4">
+      <c r="A4627" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4627" s="26">
+        <v>8</v>
+      </c>
+      <c r="C4627" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4628" spans="1:4">
+      <c r="A4628" s="54" t="s">
+        <v>700</v>
+      </c>
+      <c r="B4628" s="54">
+        <v>4</v>
+      </c>
+      <c r="C4628" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4629" spans="1:4">
+      <c r="A4629" s="55" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4629" s="55">
+        <v>6</v>
+      </c>
+      <c r="C4629" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4629" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4630" spans="1:4">
+      <c r="A4630" s="55" t="s">
+        <v>704</v>
+      </c>
+      <c r="B4630" s="55">
+        <v>6</v>
+      </c>
+      <c r="C4630" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4631" spans="1:4">
+      <c r="A4631" s="26"/>
+      <c r="B4631" s="26"/>
+      <c r="C4631" s="26"/>
+    </row>
+    <row r="4632" spans="1:4">
+      <c r="A4632" s="26"/>
+      <c r="B4632" s="26"/>
+      <c r="C4632" s="26"/>
+    </row>
+    <row r="4633" spans="1:4">
+      <c r="A4633" s="26"/>
+      <c r="B4633" s="26"/>
+      <c r="C4633" s="26"/>
+    </row>
+    <row r="4634" spans="1:4">
+      <c r="A4634" s="26"/>
+      <c r="B4634" s="26">
+        <f>SUM(B4612:B4633)</f>
+        <v>176</v>
+      </c>
+      <c r="C4634" s="26">
+        <f>SUM(C4612:C4633)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4636" spans="1:4">
+      <c r="A4636" s="53" t="s">
+        <v>706</v>
+      </c>
+      <c r="B4636" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4636" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4637" spans="1:4">
+      <c r="A4637" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4637" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4637" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4638" spans="1:4">
+      <c r="A4638" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4638" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4638" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4639" spans="1:4">
+      <c r="A4639" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4639" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4639" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4640" spans="1:4">
+      <c r="A4640" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4640" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4640" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4641" spans="1:3">
+      <c r="A4641" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4641" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4641" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4642" spans="1:3">
+      <c r="A4642" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4642" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4642" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4643" spans="1:3">
+      <c r="A4643" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4643" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4643" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4644" spans="1:3">
+      <c r="A4644" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4644" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4644" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4645" spans="1:3">
+      <c r="A4645" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4645" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4645" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4646" spans="1:3">
+      <c r="A4646" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4646" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4646" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4647" spans="1:3">
+      <c r="A4647" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4647" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4647" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4648" spans="1:3">
+      <c r="A4648" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4648" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4648" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4649" spans="1:3">
+      <c r="A4649" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4649" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4649" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4650" spans="1:3">
+      <c r="A4650" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4650" s="26">
+        <v>4</v>
+      </c>
+      <c r="C4650" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4651" spans="1:3">
+      <c r="A4651" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4651" s="26">
+        <v>8</v>
+      </c>
+      <c r="C4651" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4652" spans="1:3">
+      <c r="A4652" s="55" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4652" s="55">
+        <v>6</v>
+      </c>
+      <c r="C4652" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4653" spans="1:3">
+      <c r="A4653" s="55" t="s">
+        <v>704</v>
+      </c>
+      <c r="B4653" s="55">
+        <v>6</v>
+      </c>
+      <c r="C4653" s="26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4654" spans="1:3">
+      <c r="A4654" s="55"/>
+      <c r="B4654" s="55"/>
+      <c r="C4654" s="55"/>
+    </row>
+    <row r="4655" spans="1:3">
+      <c r="A4655" s="26"/>
+      <c r="B4655" s="26"/>
+      <c r="C4655" s="26"/>
+    </row>
+    <row r="4656" spans="1:3">
+      <c r="A4656" s="26"/>
+      <c r="B4656" s="26"/>
+      <c r="C4656" s="26"/>
+    </row>
+    <row r="4657" spans="1:3">
+      <c r="A4657" s="26"/>
+      <c r="B4657" s="26"/>
+      <c r="C4657" s="26"/>
+    </row>
+    <row r="4658" spans="1:3">
+      <c r="A4658" s="26"/>
+      <c r="B4658" s="26">
+        <f>SUM(B4636:B4657)</f>
+        <v>172</v>
+      </c>
+      <c r="C4658" s="26">
+        <f>SUM(C4636:C4657)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4660" spans="1:3">
+      <c r="A4660" s="53" t="s">
+        <v>707</v>
+      </c>
+      <c r="B4660" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4660" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4661" spans="1:3">
+      <c r="A4661" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4661" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4661" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4662" spans="1:3">
+      <c r="A4662" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4662" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4662" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4663" spans="1:3">
+      <c r="A4663" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4663" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4663" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4664" spans="1:3">
+      <c r="A4664" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4664" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4664" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4665" spans="1:3">
+      <c r="A4665" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4665" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4665" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4666" spans="1:3">
+      <c r="A4666" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4666" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4666" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4667" spans="1:3">
+      <c r="A4667" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4667" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4667" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4668" spans="1:3">
+      <c r="A4668" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4668" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4668" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4669" spans="1:3">
+      <c r="A4669" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4669" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4669" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4670" spans="1:3">
+      <c r="A4670" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4670" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4670" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4671" spans="1:3">
+      <c r="A4671" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4671" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4671" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4672" spans="1:3">
+      <c r="A4672" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4672" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4672" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4673" spans="1:3">
+      <c r="A4673" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4673" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4673" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4674" spans="1:3">
+      <c r="A4674" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4674" s="26">
+        <v>4</v>
+      </c>
+      <c r="C4674" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4675" spans="1:3">
+      <c r="A4675" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4675" s="26">
+        <v>8</v>
+      </c>
+      <c r="C4675" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4676" spans="1:3">
+      <c r="A4676" s="55" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4676" s="55">
+        <v>6</v>
+      </c>
+      <c r="C4676" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4677" spans="1:3">
+      <c r="A4677" s="54" t="s">
+        <v>704</v>
+      </c>
+      <c r="B4677" s="54">
+        <v>6</v>
+      </c>
+      <c r="C4677" s="54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4678" spans="1:3">
+      <c r="A4678" s="55" t="s">
+        <v>708</v>
+      </c>
+      <c r="B4678" s="55">
+        <v>6</v>
+      </c>
+      <c r="C4678" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4679" spans="1:3">
+      <c r="A4679" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="B4679" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4679" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4680" spans="1:3">
+      <c r="A4680" s="26"/>
+      <c r="B4680" s="26"/>
+      <c r="C4680" s="26"/>
+    </row>
+    <row r="4681" spans="1:3">
+      <c r="A4681" s="26"/>
+      <c r="B4681" s="26"/>
+      <c r="C4681" s="26"/>
+    </row>
+    <row r="4682" spans="1:3">
+      <c r="A4682" s="26"/>
+      <c r="B4682" s="26">
+        <f>SUM(B4660:B4681)</f>
+        <v>180</v>
+      </c>
+      <c r="C4682" s="26">
+        <f>SUM(C4660:C4681)</f>
         <v>14</v>
+      </c>
+    </row>
+    <row r="4684" spans="1:3">
+      <c r="A4684" s="53" t="s">
+        <v>710</v>
+      </c>
+      <c r="B4684" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4684" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4685" spans="1:3">
+      <c r="A4685" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4685" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4685" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4686" spans="1:3">
+      <c r="A4686" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4686" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4686" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4687" spans="1:3">
+      <c r="A4687" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4687" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4687" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4688" spans="1:3">
+      <c r="A4688" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4688" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4688" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4689" spans="1:3">
+      <c r="A4689" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4689" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4689" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4690" spans="1:3">
+      <c r="A4690" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4690" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4690" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4691" spans="1:3">
+      <c r="A4691" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4691" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4691" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4692" spans="1:3">
+      <c r="A4692" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4692" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4692" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4693" spans="1:3">
+      <c r="A4693" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4693" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4693" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4694" spans="1:3">
+      <c r="A4694" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4694" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4694" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4695" spans="1:3">
+      <c r="A4695" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4695" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4695" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4696" spans="1:3">
+      <c r="A4696" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4696" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4696" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4697" spans="1:3">
+      <c r="A4697" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4697" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4697" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4698" spans="1:3">
+      <c r="A4698" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4698" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4698" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4699" spans="1:3">
+      <c r="A4699" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4699" s="26">
+        <v>8</v>
+      </c>
+      <c r="C4699" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4700" spans="1:3">
+      <c r="A4700" s="55" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4700" s="55">
+        <v>6</v>
+      </c>
+      <c r="C4700" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4701" spans="1:3">
+      <c r="A4701" s="54" t="s">
+        <v>708</v>
+      </c>
+      <c r="B4701" s="54">
+        <v>6</v>
+      </c>
+      <c r="C4701" s="54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4702" spans="1:3">
+      <c r="A4702" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="B4702" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4702" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4703" spans="1:3">
+      <c r="A4703" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="B4703" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4703" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4704" spans="1:3">
+      <c r="A4704" s="26"/>
+      <c r="B4704" s="26"/>
+      <c r="C4704" s="26"/>
+    </row>
+    <row r="4705" spans="1:3">
+      <c r="A4705" s="26"/>
+      <c r="B4705" s="26"/>
+      <c r="C4705" s="26"/>
+    </row>
+    <row r="4706" spans="1:3">
+      <c r="A4706" s="26"/>
+      <c r="B4706" s="26">
+        <f>SUM(B4684:B4705)</f>
+        <v>182</v>
+      </c>
+      <c r="C4706" s="26">
+        <f>SUM(C4684:C4705)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4707" spans="1:3">
+      <c r="A4707" s="53" t="s">
+        <v>713</v>
+      </c>
+      <c r="B4707" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4707" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4708" spans="1:3">
+      <c r="A4708" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4708" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4708" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4709" spans="1:3">
+      <c r="A4709" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4709" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4709" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4710" spans="1:3">
+      <c r="A4710" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4710" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4710" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4711" spans="1:3">
+      <c r="A4711" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4711" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4711" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4712" spans="1:3">
+      <c r="A4712" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4712" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4712" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4713" spans="1:3">
+      <c r="A4713" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4713" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4713" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4714" spans="1:3">
+      <c r="A4714" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4714" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4714" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4715" spans="1:3">
+      <c r="A4715" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4715" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4715" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4716" spans="1:3">
+      <c r="A4716" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4716" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4716" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4717" spans="1:3">
+      <c r="A4717" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4717" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4717" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4718" spans="1:3">
+      <c r="A4718" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4718" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4718" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4719" spans="1:3">
+      <c r="A4719" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4719" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4719" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4720" spans="1:3">
+      <c r="A4720" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4720" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4720" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4721" spans="1:3">
+      <c r="A4721" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4721" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4721" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4722" spans="1:3">
+      <c r="A4722" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="B4722" s="26">
+        <v>8</v>
+      </c>
+      <c r="C4722" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4723" spans="1:3">
+      <c r="A4723" s="55" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4723" s="55">
+        <v>6</v>
+      </c>
+      <c r="C4723" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4724" spans="1:3">
+      <c r="A4724" s="55" t="s">
+        <v>714</v>
+      </c>
+      <c r="B4724" s="55">
+        <v>4</v>
+      </c>
+      <c r="C4724" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4725" spans="1:3">
+      <c r="A4725" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="B4725" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4725" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4726" spans="1:3">
+      <c r="A4726" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="B4726" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4726" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4727" spans="1:3">
+      <c r="A4727" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4727" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4727" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4728" spans="1:3">
+      <c r="A4728" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4728" s="26">
+        <v>4</v>
+      </c>
+      <c r="C4728" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4729" spans="1:3">
+      <c r="A4729" s="26"/>
+      <c r="B4729" s="26">
+        <f>SUM(B4707:B4728)</f>
+        <v>192</v>
+      </c>
+      <c r="C4729" s="26">
+        <f>SUM(C4707:C4728)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4731" spans="1:3">
+      <c r="A4731" s="53" t="s">
+        <v>718</v>
+      </c>
+      <c r="B4731" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4731" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4732" spans="1:3">
+      <c r="A4732" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4732" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4732" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4733" spans="1:3">
+      <c r="A4733" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4733" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4733" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4734" spans="1:3">
+      <c r="A4734" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4734" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4734" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4735" spans="1:3">
+      <c r="A4735" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4735" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4735" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4736" spans="1:3">
+      <c r="A4736" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4736" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4736" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4737" spans="1:3">
+      <c r="A4737" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4737" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4737" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4738" spans="1:3">
+      <c r="A4738" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4738" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4738" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4739" spans="1:3">
+      <c r="A4739" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4739" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4739" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4740" spans="1:3">
+      <c r="A4740" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4740" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4740" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4741" spans="1:3">
+      <c r="A4741" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4741" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4741" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4742" spans="1:3">
+      <c r="A4742" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4742" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4742" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4743" spans="1:3">
+      <c r="A4743" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4743" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4743" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4744" spans="1:3">
+      <c r="A4744" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4744" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4744" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4745" spans="1:3">
+      <c r="A4745" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4745" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4745" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4746" spans="1:3">
+      <c r="A4746" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="B4746" s="26">
+        <v>16</v>
+      </c>
+      <c r="C4746" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4747" spans="1:3">
+      <c r="A4747" s="55" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4747" s="55">
+        <v>6</v>
+      </c>
+      <c r="C4747" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4748" spans="1:3">
+      <c r="A4748" s="55" t="s">
+        <v>714</v>
+      </c>
+      <c r="B4748" s="55">
+        <v>4</v>
+      </c>
+      <c r="C4748" s="26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4749" spans="1:3">
+      <c r="A4749" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="B4749" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4749" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4750" spans="1:3">
+      <c r="A4750" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="B4750" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4750" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4751" spans="1:3">
+      <c r="A4751" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4751" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4751" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4752" spans="1:3">
+      <c r="A4752" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4752" s="26">
+        <v>4</v>
+      </c>
+      <c r="C4752" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4753" spans="1:3">
+      <c r="A4753" s="54" t="s">
+        <v>719</v>
+      </c>
+      <c r="B4753" s="54">
+        <v>2</v>
+      </c>
+      <c r="C4753" s="54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4754" spans="1:3">
+      <c r="A4754" s="26"/>
+      <c r="B4754" s="26"/>
+      <c r="C4754" s="26"/>
+    </row>
+    <row r="4755" spans="1:3">
+      <c r="A4755" s="26"/>
+      <c r="B4755" s="26"/>
+      <c r="C4755" s="26"/>
+    </row>
+    <row r="4756" spans="1:3">
+      <c r="A4756" s="26"/>
+      <c r="B4756" s="26"/>
+      <c r="C4756" s="26"/>
+    </row>
+    <row r="4757" spans="1:3">
+      <c r="A4757" s="26"/>
+      <c r="B4757" s="26">
+        <f>SUM(B4732:B4756)</f>
+        <v>202</v>
+      </c>
+      <c r="C4757" s="26">
+        <f>SUM(C4732:C4756)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4759" spans="1:3">
+      <c r="A4759" s="53" t="s">
+        <v>720</v>
+      </c>
+      <c r="B4759" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4759" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4760" spans="1:3">
+      <c r="A4760" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4760" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4760" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4761" spans="1:3">
+      <c r="A4761" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4761" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4761" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4762" spans="1:3">
+      <c r="A4762" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4762" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4762" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4763" spans="1:3">
+      <c r="A4763" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4763" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4763" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4764" spans="1:3">
+      <c r="A4764" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4764" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4764" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4765" spans="1:3">
+      <c r="A4765" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4765" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4765" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4766" spans="1:3">
+      <c r="A4766" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4766" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4766" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4767" spans="1:3">
+      <c r="A4767" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4767" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4767" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4768" spans="1:3">
+      <c r="A4768" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4768" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4768" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4769" spans="1:3">
+      <c r="A4769" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4769" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4769" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4770" spans="1:3">
+      <c r="A4770" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4770" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4770" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4771" spans="1:3">
+      <c r="A4771" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4771" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4771" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4772" spans="1:3">
+      <c r="A4772" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4772" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4772" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4773" spans="1:3">
+      <c r="A4773" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4773" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4773" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4774" spans="1:3">
+      <c r="A4774" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="B4774" s="26">
+        <v>16</v>
+      </c>
+      <c r="C4774" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4775" spans="1:3">
+      <c r="A4775" s="55" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4775" s="55">
+        <v>6</v>
+      </c>
+      <c r="C4775" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4776" spans="1:3">
+      <c r="A4776" s="55" t="s">
+        <v>714</v>
+      </c>
+      <c r="B4776" s="55">
+        <v>4</v>
+      </c>
+      <c r="C4776" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4777" spans="1:3">
+      <c r="A4777" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="B4777" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4777" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4778" spans="1:3">
+      <c r="A4778" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="B4778" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4778" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4779" spans="1:3">
+      <c r="A4779" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4779" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4779" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4780" spans="1:3">
+      <c r="A4780" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4780" s="26">
+        <v>4</v>
+      </c>
+      <c r="C4780" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4781" spans="1:3">
+      <c r="A4781" s="55"/>
+      <c r="B4781" s="55"/>
+      <c r="C4781" s="55"/>
+    </row>
+    <row r="4782" spans="1:3">
+      <c r="A4782" s="55"/>
+      <c r="B4782" s="55"/>
+      <c r="C4782" s="55"/>
+    </row>
+    <row r="4783" spans="1:3">
+      <c r="A4783" s="55"/>
+      <c r="B4783" s="55"/>
+      <c r="C4783" s="55"/>
+    </row>
+    <row r="4784" spans="1:3">
+      <c r="A4784" s="26"/>
+      <c r="B4784" s="26"/>
+      <c r="C4784" s="26"/>
+    </row>
+    <row r="4785" spans="1:3">
+      <c r="A4785" s="26"/>
+      <c r="B4785" s="26">
+        <f>SUM(B4760:B4784)</f>
+        <v>200</v>
+      </c>
+      <c r="C4785" s="26">
+        <f>SUM(C4760:C4784)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A718E8D-A0E6-4CBE-8E20-AFD766E7CCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC33B2A-F3FC-41B6-965E-7DA987FCDEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5063" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5115" uniqueCount="727">
   <si>
     <t>ToDo</t>
   </si>
@@ -2209,13 +2209,31 @@
   </si>
   <si>
     <t>16.08.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Cropping Preprocess Algorithm Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </t>
+  </si>
+  <si>
+    <t>17.08.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Profile training loop</t>
+  </si>
+  <si>
+    <t>18.08.2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2254,6 +2272,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2443,7 +2475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2522,6 +2554,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -3536,10 +3571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4785"/>
+  <dimension ref="A1:G4839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4758" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4772" sqref="D4772"/>
+    <sheetView tabSelected="1" topLeftCell="A4813" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D4826" sqref="D4826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3547,7 +3582,8 @@
     <col min="1" max="1" width="91.88671875" customWidth="1"/>
     <col min="2" max="3" width="8.5546875" customWidth="1"/>
     <col min="4" max="4" width="73.21875" customWidth="1"/>
-    <col min="5" max="64" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="56" customWidth="1"/>
+    <col min="6" max="64" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9843,7 +9879,7 @@
       <c r="D535" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E535" s="8">
+      <c r="E535" s="57">
         <v>4</v>
       </c>
       <c r="F535" s="8">
@@ -57177,7 +57213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4769" spans="1:3">
+    <row r="4769" spans="1:4">
       <c r="A4769" s="26" t="s">
         <v>518</v>
       </c>
@@ -57188,7 +57224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4770" spans="1:3">
+    <row r="4770" spans="1:4">
       <c r="A4770" s="26" t="s">
         <v>519</v>
       </c>
@@ -57199,7 +57235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4771" spans="1:3">
+    <row r="4771" spans="1:4">
       <c r="A4771" s="26" t="s">
         <v>520</v>
       </c>
@@ -57210,7 +57246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4772" spans="1:3">
+    <row r="4772" spans="1:4">
       <c r="A4772" s="26" t="s">
         <v>541</v>
       </c>
@@ -57221,7 +57257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4773" spans="1:3">
+    <row r="4773" spans="1:4">
       <c r="A4773" s="26" t="s">
         <v>711</v>
       </c>
@@ -57231,8 +57267,11 @@
       <c r="C4773" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="4774" spans="1:3">
+      <c r="D4773" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="4774" spans="1:4">
       <c r="A4774" s="26" t="s">
         <v>716</v>
       </c>
@@ -57242,8 +57281,11 @@
       <c r="C4774" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="4775" spans="1:3">
+      <c r="D4774" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="4775" spans="1:4">
       <c r="A4775" s="55" t="s">
         <v>702</v>
       </c>
@@ -57251,21 +57293,21 @@
         <v>6</v>
       </c>
       <c r="C4775" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4776" spans="1:3">
-      <c r="A4776" s="55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4776" spans="1:4">
+      <c r="A4776" s="54" t="s">
         <v>714</v>
       </c>
-      <c r="B4776" s="55">
-        <v>4</v>
-      </c>
-      <c r="C4776" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4777" spans="1:3">
+      <c r="B4776" s="54">
+        <v>4</v>
+      </c>
+      <c r="C4776" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4777" spans="1:4">
       <c r="A4777" s="26" t="s">
         <v>709</v>
       </c>
@@ -57276,7 +57318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4778" spans="1:3">
+    <row r="4778" spans="1:4">
       <c r="A4778" s="26" t="s">
         <v>712</v>
       </c>
@@ -57287,7 +57329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4779" spans="1:3">
+    <row r="4779" spans="1:4">
       <c r="A4779" s="26" t="s">
         <v>715</v>
       </c>
@@ -57298,7 +57340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4780" spans="1:3">
+    <row r="4780" spans="1:4">
       <c r="A4780" s="26" t="s">
         <v>717</v>
       </c>
@@ -57309,22 +57351,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4781" spans="1:3">
-      <c r="A4781" s="55"/>
-      <c r="B4781" s="55"/>
-      <c r="C4781" s="55"/>
-    </row>
-    <row r="4782" spans="1:3">
+    <row r="4781" spans="1:4">
+      <c r="A4781" s="55" t="s">
+        <v>721</v>
+      </c>
+      <c r="B4781" s="55">
+        <v>8</v>
+      </c>
+      <c r="C4781" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4782" spans="1:4">
       <c r="A4782" s="55"/>
       <c r="B4782" s="55"/>
       <c r="C4782" s="55"/>
     </row>
-    <row r="4783" spans="1:3">
+    <row r="4783" spans="1:4">
       <c r="A4783" s="55"/>
       <c r="B4783" s="55"/>
       <c r="C4783" s="55"/>
     </row>
-    <row r="4784" spans="1:3">
+    <row r="4784" spans="1:4">
       <c r="A4784" s="26"/>
       <c r="B4784" s="26"/>
       <c r="C4784" s="26"/>
@@ -57333,17 +57381,569 @@
       <c r="A4785" s="26"/>
       <c r="B4785" s="26">
         <f>SUM(B4760:B4784)</f>
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C4785" s="26">
         <f>SUM(C4760:C4784)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4786" spans="1:3">
+      <c r="A4786" s="53" t="s">
+        <v>724</v>
+      </c>
+      <c r="B4786" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4786" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4787" spans="1:3">
+      <c r="A4787" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4787" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4787" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4788" spans="1:3">
+      <c r="A4788" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4788" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4788" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4789" spans="1:3">
+      <c r="A4789" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4789" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4789" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4790" spans="1:3">
+      <c r="A4790" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4790" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4790" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4791" spans="1:3">
+      <c r="A4791" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4791" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4791" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4792" spans="1:3">
+      <c r="A4792" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4792" s="26">
         <v>3</v>
+      </c>
+      <c r="C4792" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4793" spans="1:3">
+      <c r="A4793" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4793" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4793" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4794" spans="1:3">
+      <c r="A4794" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4794" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4794" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4795" spans="1:3">
+      <c r="A4795" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4795" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4795" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4796" spans="1:3">
+      <c r="A4796" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4796" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4796" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4797" spans="1:3">
+      <c r="A4797" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4797" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4797" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4798" spans="1:3">
+      <c r="A4798" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4798" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4798" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4799" spans="1:3">
+      <c r="A4799" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4799" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4799" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4800" spans="1:3">
+      <c r="A4800" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4800" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4800" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4801" spans="1:3">
+      <c r="A4801" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="B4801" s="26">
+        <v>16</v>
+      </c>
+      <c r="C4801" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4802" spans="1:3">
+      <c r="A4802" s="55" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4802" s="55">
+        <v>6</v>
+      </c>
+      <c r="C4802" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4803" spans="1:3">
+      <c r="A4803" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="B4803" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4803" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4804" spans="1:3">
+      <c r="A4804" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="B4804" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4804" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4805" spans="1:3">
+      <c r="A4805" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4805" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4805" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4806" spans="1:3">
+      <c r="A4806" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4806" s="26">
+        <v>4</v>
+      </c>
+      <c r="C4806" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4807" spans="1:3">
+      <c r="A4807" s="55" t="s">
+        <v>721</v>
+      </c>
+      <c r="B4807" s="55">
+        <v>8</v>
+      </c>
+      <c r="C4807" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4808" spans="1:3">
+      <c r="A4808" s="54" t="s">
+        <v>725</v>
+      </c>
+      <c r="B4808" s="54">
+        <v>2</v>
+      </c>
+      <c r="C4808" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4809" spans="1:3">
+      <c r="A4809" s="55"/>
+      <c r="B4809" s="55"/>
+      <c r="C4809" s="55"/>
+    </row>
+    <row r="4810" spans="1:3">
+      <c r="A4810" s="55"/>
+      <c r="B4810" s="55"/>
+      <c r="C4810" s="55"/>
+    </row>
+    <row r="4811" spans="1:3">
+      <c r="A4811" s="26"/>
+      <c r="B4811" s="26"/>
+      <c r="C4811" s="26"/>
+    </row>
+    <row r="4812" spans="1:3">
+      <c r="A4812" s="26"/>
+      <c r="B4812" s="26">
+        <f>SUM(B4787:B4811)</f>
+        <v>206</v>
+      </c>
+      <c r="C4812" s="26">
+        <f>SUM(C4787:C4811)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4813" spans="1:3">
+      <c r="A4813" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="B4813" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4813" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4814" spans="1:3">
+      <c r="A4814" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4814" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4814" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4815" spans="1:3">
+      <c r="A4815" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4815" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4815" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4816" spans="1:3">
+      <c r="A4816" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4816" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4816" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4817" spans="1:3">
+      <c r="A4817" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4817" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4817" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4818" spans="1:3">
+      <c r="A4818" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4818" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4818" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4819" spans="1:3">
+      <c r="A4819" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4819" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4819" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4820" spans="1:3">
+      <c r="A4820" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4820" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4820" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4821" spans="1:3">
+      <c r="A4821" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4821" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4821" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4822" spans="1:3">
+      <c r="A4822" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4822" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4822" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4823" spans="1:3">
+      <c r="A4823" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4823" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4823" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4824" spans="1:3">
+      <c r="A4824" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4824" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4824" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4825" spans="1:3">
+      <c r="A4825" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4825" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4825" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4826" spans="1:3">
+      <c r="A4826" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4826" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4826" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4827" spans="1:3">
+      <c r="A4827" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4827" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4827" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4828" spans="1:3">
+      <c r="A4828" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="B4828" s="26">
+        <v>16</v>
+      </c>
+      <c r="C4828" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4829" spans="1:3">
+      <c r="A4829" s="55" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4829" s="55">
+        <v>6</v>
+      </c>
+      <c r="C4829" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4830" spans="1:3">
+      <c r="A4830" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="B4830" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4830" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4831" spans="1:3">
+      <c r="A4831" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="B4831" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4831" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4832" spans="1:3">
+      <c r="A4832" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4832" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4832" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4833" spans="1:3">
+      <c r="A4833" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4833" s="26">
+        <v>4</v>
+      </c>
+      <c r="C4833" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4834" spans="1:3">
+      <c r="A4834" s="55" t="s">
+        <v>721</v>
+      </c>
+      <c r="B4834" s="55">
+        <v>8</v>
+      </c>
+      <c r="C4834" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4835" spans="1:3">
+      <c r="A4835" s="58"/>
+      <c r="B4835" s="58"/>
+      <c r="C4835" s="58"/>
+    </row>
+    <row r="4836" spans="1:3">
+      <c r="A4836" s="55"/>
+      <c r="B4836" s="55"/>
+      <c r="C4836" s="55"/>
+    </row>
+    <row r="4837" spans="1:3">
+      <c r="A4837" s="55"/>
+      <c r="B4837" s="55"/>
+      <c r="C4837" s="55"/>
+    </row>
+    <row r="4838" spans="1:3">
+      <c r="A4838" s="26"/>
+      <c r="B4838" s="26"/>
+      <c r="C4838" s="26"/>
+    </row>
+    <row r="4839" spans="1:3">
+      <c r="A4839" s="26"/>
+      <c r="B4839" s="26">
+        <f>SUM(B4814:B4838)</f>
+        <v>204</v>
+      </c>
+      <c r="C4839" s="26">
+        <f>SUM(C4814:C4838)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC33B2A-F3FC-41B6-965E-7DA987FCDEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60EEC37-0D24-4479-969A-AB764381F3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5115" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5162" uniqueCount="738">
   <si>
     <t>ToDo</t>
   </si>
@@ -2227,13 +2227,46 @@
   </si>
   <si>
     <t>18.08.2022</t>
+  </si>
+  <si>
+    <t>19.08.2022</t>
+  </si>
+  <si>
+    <t>MT: Fix sql query</t>
+  </si>
+  <si>
+    <t>MT: Data downloader - MT: Fix sql query - product_images_table.download_status must be checked.</t>
+  </si>
+  <si>
+    <t>Phd: Sigmoid-GMM</t>
+  </si>
+  <si>
+    <t>Phd: Refactor CE Optimization, start experiments</t>
+  </si>
+  <si>
+    <t>MT: Analyze data statistics, get most common N classes.</t>
+  </si>
+  <si>
+    <t>MT: Model implementation in pytorch</t>
+  </si>
+  <si>
+    <t>Blackshark: Refactor Blackshark: Refactor datapreprocessing, pack it into a single class with a single table</t>
+  </si>
+  <si>
+    <t>MT: Flask image service</t>
+  </si>
+  <si>
+    <t>20-21.08.2022</t>
+  </si>
+  <si>
+    <t>Insumo: Create target variables for ML based productivity score estimation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2286,6 +2319,11 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2475,7 +2513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2557,6 +2595,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -3571,10 +3611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4839"/>
+  <dimension ref="A1:G4892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4813" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4826" sqref="D4826"/>
+    <sheetView tabSelected="1" topLeftCell="A4867" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D4881" sqref="D4881"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -57840,7 +57880,7 @@
         <v>16</v>
       </c>
       <c r="C4828" s="26">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4829" spans="1:3">
@@ -57851,7 +57891,7 @@
         <v>6</v>
       </c>
       <c r="C4829" s="26">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4830" spans="1:3">
@@ -57899,14 +57939,14 @@
       </c>
     </row>
     <row r="4834" spans="1:3">
-      <c r="A4834" s="55" t="s">
+      <c r="A4834" s="54" t="s">
         <v>721</v>
       </c>
-      <c r="B4834" s="55">
+      <c r="B4834" s="54">
         <v>8</v>
       </c>
-      <c r="C4834" s="26">
-        <v>0</v>
+      <c r="C4834" s="54">
+        <v>5</v>
       </c>
     </row>
     <row r="4835" spans="1:3">
@@ -57937,7 +57977,528 @@
       </c>
       <c r="C4839" s="26">
         <f>SUM(C4814:C4838)</f>
-        <v>1</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4841" spans="1:3">
+      <c r="A4841" s="53" t="s">
+        <v>727</v>
+      </c>
+      <c r="B4841" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4841" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4842" spans="1:3">
+      <c r="A4842" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4842" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4842" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4843" spans="1:3">
+      <c r="A4843" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4843" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4843" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4844" spans="1:3">
+      <c r="A4844" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4844" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4844" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4845" spans="1:3">
+      <c r="A4845" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4845" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4845" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4846" spans="1:3">
+      <c r="A4846" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4846" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4846" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4847" spans="1:3">
+      <c r="A4847" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4847" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4847" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4848" spans="1:3">
+      <c r="A4848" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4848" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4848" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4849" spans="1:3">
+      <c r="A4849" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4849" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4849" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4850" spans="1:3">
+      <c r="A4850" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4850" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4850" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4851" spans="1:3">
+      <c r="A4851" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4851" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4851" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4852" spans="1:3">
+      <c r="A4852" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4852" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4852" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4853" spans="1:3">
+      <c r="A4853" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4853" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4853" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4854" spans="1:3">
+      <c r="A4854" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4854" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4854" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4855" spans="1:3">
+      <c r="A4855" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4855" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4855" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4856" spans="1:3">
+      <c r="A4856" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="B4856" s="54">
+        <v>16</v>
+      </c>
+      <c r="C4856" s="54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4857" spans="1:3">
+      <c r="A4857" s="55" t="s">
+        <v>730</v>
+      </c>
+      <c r="B4857" s="55">
+        <v>12</v>
+      </c>
+      <c r="C4857" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4858" spans="1:3">
+      <c r="A4858" s="54" t="s">
+        <v>709</v>
+      </c>
+      <c r="B4858" s="54">
+        <v>2</v>
+      </c>
+      <c r="C4858" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4859" spans="1:3">
+      <c r="A4859" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="B4859" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4859" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4860" spans="1:3">
+      <c r="A4860" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4860" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4860" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4861" spans="1:3">
+      <c r="A4861" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4861" s="26">
+        <v>4</v>
+      </c>
+      <c r="C4861" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4862" spans="1:3">
+      <c r="A4862" s="55" t="s">
+        <v>728</v>
+      </c>
+      <c r="B4862" s="55"/>
+      <c r="C4862" s="26"/>
+    </row>
+    <row r="4863" spans="1:3">
+      <c r="A4863" s="58"/>
+      <c r="B4863" s="58"/>
+      <c r="C4863" s="58"/>
+    </row>
+    <row r="4864" spans="1:3">
+      <c r="A4864" s="55"/>
+      <c r="B4864" s="55"/>
+      <c r="C4864" s="55"/>
+    </row>
+    <row r="4865" spans="1:3">
+      <c r="A4865" s="55"/>
+      <c r="B4865" s="55"/>
+      <c r="C4865" s="55"/>
+    </row>
+    <row r="4866" spans="1:3">
+      <c r="A4866" s="26"/>
+      <c r="B4866" s="26"/>
+      <c r="C4866" s="26"/>
+    </row>
+    <row r="4867" spans="1:3">
+      <c r="A4867" s="26"/>
+      <c r="B4867" s="26">
+        <f>SUM(B4842:B4866)</f>
+        <v>202</v>
+      </c>
+      <c r="C4867" s="26">
+        <f>SUM(C4842:C4866)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4869" spans="1:3">
+      <c r="A4869" s="53" t="s">
+        <v>736</v>
+      </c>
+      <c r="B4869" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4869" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4870" spans="1:3">
+      <c r="A4870" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4870" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4870" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4871" spans="1:3">
+      <c r="A4871" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4871" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4871" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4872" spans="1:3">
+      <c r="A4872" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4872" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4872" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4873" spans="1:3">
+      <c r="A4873" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4873" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4873" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4874" spans="1:3">
+      <c r="A4874" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4874" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4874" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4875" spans="1:3">
+      <c r="A4875" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4875" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4875" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4876" spans="1:3">
+      <c r="A4876" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4876" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4876" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4877" spans="1:3">
+      <c r="A4877" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4877" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4877" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4878" spans="1:3">
+      <c r="A4878" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4878" s="60">
+        <v>24</v>
+      </c>
+      <c r="C4878" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4879" spans="1:3">
+      <c r="A4879" s="60" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4879" s="60">
+        <v>2</v>
+      </c>
+      <c r="C4879" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4880" spans="1:3">
+      <c r="A4880" s="60" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4880" s="60">
+        <v>2</v>
+      </c>
+      <c r="C4880" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4881" spans="1:3">
+      <c r="A4881" s="60" t="s">
+        <v>732</v>
+      </c>
+      <c r="B4881" s="60">
+        <v>4</v>
+      </c>
+      <c r="C4881" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4882" spans="1:3">
+      <c r="A4882" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="B4882" s="59">
+        <v>8</v>
+      </c>
+      <c r="C4882" s="60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4883" spans="1:3">
+      <c r="A4883" s="60" t="s">
+        <v>737</v>
+      </c>
+      <c r="B4883" s="60">
+        <v>4</v>
+      </c>
+      <c r="C4883" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4884" spans="1:3">
+      <c r="A4884" s="60" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4884" s="60">
+        <v>12</v>
+      </c>
+      <c r="C4884" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4885" spans="1:3">
+      <c r="A4885" s="60" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4885" s="60">
+        <v>4</v>
+      </c>
+      <c r="C4885" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4886" spans="1:3">
+      <c r="A4886" s="60" t="s">
+        <v>731</v>
+      </c>
+      <c r="B4886" s="60">
+        <v>8</v>
+      </c>
+      <c r="C4886" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4887" spans="1:3">
+      <c r="A4887" s="59" t="s">
+        <v>733</v>
+      </c>
+      <c r="B4887" s="59">
+        <v>8</v>
+      </c>
+      <c r="C4887" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4888" spans="1:3">
+      <c r="A4888" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="B4888" s="59">
+        <v>6</v>
+      </c>
+      <c r="C4888" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4889" spans="1:3">
+      <c r="A4889" s="59" t="s">
+        <v>735</v>
+      </c>
+      <c r="B4889" s="59">
+        <v>6</v>
+      </c>
+      <c r="C4889" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4890" spans="1:3">
+      <c r="A4890" s="59"/>
+      <c r="B4890" s="59"/>
+      <c r="C4890" s="59"/>
+    </row>
+    <row r="4891" spans="1:3">
+      <c r="A4891" s="60"/>
+      <c r="B4891" s="60"/>
+      <c r="C4891" s="60"/>
+    </row>
+    <row r="4892" spans="1:3">
+      <c r="A4892" s="60"/>
+      <c r="B4892" s="60">
+        <f>SUM(B4870:B4891)</f>
+        <v>196</v>
+      </c>
+      <c r="C4892" s="60">
+        <f>SUM(C4870:C4891)</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60EEC37-0D24-4479-969A-AB764381F3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54615EBE-9C2C-45D5-B1C9-47C538B2ACBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,7 +2513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2595,6 +2595,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -3614,7 +3615,7 @@
   <dimension ref="A1:G4892"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4867" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4881" sqref="D4881"/>
+      <selection activeCell="D4886" sqref="D4886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -58349,46 +58350,46 @@
       </c>
     </row>
     <row r="4878" spans="1:3">
-      <c r="A4878" s="60" t="s">
+      <c r="A4878" s="61" t="s">
         <v>451</v>
       </c>
-      <c r="B4878" s="60">
+      <c r="B4878" s="61">
         <v>24</v>
       </c>
-      <c r="C4878" s="60">
+      <c r="C4878" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="4879" spans="1:3">
-      <c r="A4879" s="60" t="s">
+      <c r="A4879" s="61" t="s">
         <v>541</v>
       </c>
-      <c r="B4879" s="60">
+      <c r="B4879" s="61">
         <v>2</v>
       </c>
-      <c r="C4879" s="60">
+      <c r="C4879" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="4880" spans="1:3">
-      <c r="A4880" s="60" t="s">
+      <c r="A4880" s="61" t="s">
         <v>711</v>
       </c>
-      <c r="B4880" s="60">
+      <c r="B4880" s="61">
         <v>2</v>
       </c>
-      <c r="C4880" s="60">
+      <c r="C4880" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="4881" spans="1:3">
-      <c r="A4881" s="60" t="s">
+      <c r="A4881" s="61" t="s">
         <v>732</v>
       </c>
-      <c r="B4881" s="60">
-        <v>4</v>
-      </c>
-      <c r="C4881" s="60">
+      <c r="B4881" s="61">
+        <v>4</v>
+      </c>
+      <c r="C4881" s="61">
         <v>0</v>
       </c>
     </row>
@@ -58399,106 +58400,106 @@
       <c r="B4882" s="59">
         <v>8</v>
       </c>
-      <c r="C4882" s="60">
+      <c r="C4882" s="59">
         <v>10</v>
       </c>
     </row>
     <row r="4883" spans="1:3">
-      <c r="A4883" s="60" t="s">
+      <c r="A4883" s="61" t="s">
         <v>737</v>
       </c>
-      <c r="B4883" s="60">
-        <v>4</v>
-      </c>
-      <c r="C4883" s="60">
+      <c r="B4883" s="61">
+        <v>4</v>
+      </c>
+      <c r="C4883" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="4884" spans="1:3">
-      <c r="A4884" s="60" t="s">
+      <c r="A4884" s="61" t="s">
         <v>715</v>
       </c>
-      <c r="B4884" s="60">
+      <c r="B4884" s="61">
         <v>12</v>
       </c>
-      <c r="C4884" s="60">
+      <c r="C4884" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="4885" spans="1:3">
-      <c r="A4885" s="60" t="s">
+      <c r="A4885" s="61" t="s">
         <v>717</v>
       </c>
-      <c r="B4885" s="60">
-        <v>4</v>
-      </c>
-      <c r="C4885" s="60">
+      <c r="B4885" s="61">
+        <v>4</v>
+      </c>
+      <c r="C4885" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="4886" spans="1:3">
-      <c r="A4886" s="60" t="s">
+      <c r="A4886" s="61" t="s">
         <v>731</v>
       </c>
-      <c r="B4886" s="60">
+      <c r="B4886" s="61">
         <v>8</v>
       </c>
-      <c r="C4886" s="60">
-        <v>0</v>
+      <c r="C4886" s="61">
+        <v>2</v>
       </c>
     </row>
     <row r="4887" spans="1:3">
-      <c r="A4887" s="59" t="s">
+      <c r="A4887" s="60" t="s">
         <v>733</v>
       </c>
-      <c r="B4887" s="59">
+      <c r="B4887" s="60">
         <v>8</v>
       </c>
-      <c r="C4887" s="60">
+      <c r="C4887" s="61">
         <v>2</v>
       </c>
     </row>
     <row r="4888" spans="1:3">
-      <c r="A4888" s="59" t="s">
+      <c r="A4888" s="60" t="s">
         <v>734</v>
       </c>
-      <c r="B4888" s="59">
-        <v>6</v>
-      </c>
-      <c r="C4888" s="59">
+      <c r="B4888" s="60">
+        <v>6</v>
+      </c>
+      <c r="C4888" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="4889" spans="1:3">
-      <c r="A4889" s="59" t="s">
+      <c r="A4889" s="60" t="s">
         <v>735</v>
       </c>
-      <c r="B4889" s="59">
-        <v>6</v>
-      </c>
-      <c r="C4889" s="59">
+      <c r="B4889" s="60">
+        <v>6</v>
+      </c>
+      <c r="C4889" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="4890" spans="1:3">
-      <c r="A4890" s="59"/>
-      <c r="B4890" s="59"/>
-      <c r="C4890" s="59"/>
+      <c r="A4890" s="60"/>
+      <c r="B4890" s="60"/>
+      <c r="C4890" s="60"/>
     </row>
     <row r="4891" spans="1:3">
-      <c r="A4891" s="60"/>
-      <c r="B4891" s="60"/>
-      <c r="C4891" s="60"/>
+      <c r="A4891" s="61"/>
+      <c r="B4891" s="61"/>
+      <c r="C4891" s="61"/>
     </row>
     <row r="4892" spans="1:3">
-      <c r="A4892" s="60"/>
-      <c r="B4892" s="60">
+      <c r="A4892" s="61"/>
+      <c r="B4892" s="61">
         <f>SUM(B4870:B4891)</f>
         <v>196</v>
       </c>
-      <c r="C4892" s="60">
+      <c r="C4892" s="61">
         <f>SUM(C4870:C4891)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54615EBE-9C2C-45D5-B1C9-47C538B2ACBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92C09ED-3FEB-42DA-9B18-F40FFCC43EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5162" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5184" uniqueCount="739">
   <si>
     <t>ToDo</t>
   </si>
@@ -2260,6 +2260,9 @@
   </si>
   <si>
     <t>Insumo: Create target variables for ML based productivity score estimation</t>
+  </si>
+  <si>
+    <t>22.08.2022</t>
   </si>
 </sst>
 </file>
@@ -3612,10 +3615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4892"/>
+  <dimension ref="A1:G4916"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4867" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4886" sqref="D4886"/>
+    <sheetView tabSelected="1" topLeftCell="A4891" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D4904" sqref="D4904"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -58445,7 +58448,7 @@
         <v>8</v>
       </c>
       <c r="C4886" s="61">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4887" spans="1:3">
@@ -58499,7 +58502,253 @@
       </c>
       <c r="C4892" s="61">
         <f>SUM(C4870:C4891)</f>
-        <v>14</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4893" spans="1:3">
+      <c r="A4893" s="53" t="s">
+        <v>738</v>
+      </c>
+      <c r="B4893" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4893" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4894" spans="1:3">
+      <c r="A4894" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4894" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4894" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4895" spans="1:3">
+      <c r="A4895" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4895" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4895" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4896" spans="1:3">
+      <c r="A4896" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4896" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4896" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4897" spans="1:3">
+      <c r="A4897" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4897" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4897" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4898" spans="1:3">
+      <c r="A4898" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4898" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4898" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4899" spans="1:3">
+      <c r="A4899" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4899" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4899" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4900" spans="1:3">
+      <c r="A4900" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4900" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4900" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4901" spans="1:3">
+      <c r="A4901" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4901" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4901" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4902" spans="1:3">
+      <c r="A4902" s="61" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4902" s="61">
+        <v>24</v>
+      </c>
+      <c r="C4902" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4903" spans="1:3">
+      <c r="A4903" s="61" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4903" s="61">
+        <v>2</v>
+      </c>
+      <c r="C4903" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4904" spans="1:3">
+      <c r="A4904" s="61" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4904" s="61">
+        <v>2</v>
+      </c>
+      <c r="C4904" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4905" spans="1:3">
+      <c r="A4905" s="61" t="s">
+        <v>732</v>
+      </c>
+      <c r="B4905" s="61">
+        <v>4</v>
+      </c>
+      <c r="C4905" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4906" spans="1:3">
+      <c r="A4906" s="61" t="s">
+        <v>737</v>
+      </c>
+      <c r="B4906" s="61">
+        <v>4</v>
+      </c>
+      <c r="C4906" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4907" spans="1:3">
+      <c r="A4907" s="61" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4907" s="61">
+        <v>12</v>
+      </c>
+      <c r="C4907" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4908" spans="1:3">
+      <c r="A4908" s="61" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4908" s="61">
+        <v>4</v>
+      </c>
+      <c r="C4908" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4909" spans="1:3">
+      <c r="A4909" s="61" t="s">
+        <v>731</v>
+      </c>
+      <c r="B4909" s="61">
+        <v>8</v>
+      </c>
+      <c r="C4909" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4910" spans="1:3">
+      <c r="A4910" s="60" t="s">
+        <v>733</v>
+      </c>
+      <c r="B4910" s="60">
+        <v>8</v>
+      </c>
+      <c r="C4910" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4911" spans="1:3">
+      <c r="A4911" s="60" t="s">
+        <v>734</v>
+      </c>
+      <c r="B4911" s="60">
+        <v>6</v>
+      </c>
+      <c r="C4911" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4912" spans="1:3">
+      <c r="A4912" s="60" t="s">
+        <v>735</v>
+      </c>
+      <c r="B4912" s="60">
+        <v>6</v>
+      </c>
+      <c r="C4912" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4913" spans="1:3">
+      <c r="A4913" s="60"/>
+      <c r="B4913" s="60"/>
+      <c r="C4913" s="60"/>
+    </row>
+    <row r="4914" spans="1:3">
+      <c r="A4914" s="60"/>
+      <c r="B4914" s="60"/>
+      <c r="C4914" s="60"/>
+    </row>
+    <row r="4915" spans="1:3">
+      <c r="A4915" s="61"/>
+      <c r="B4915" s="61"/>
+      <c r="C4915" s="61"/>
+    </row>
+    <row r="4916" spans="1:3">
+      <c r="A4916" s="61"/>
+      <c r="B4916" s="61">
+        <f>SUM(B4894:B4915)</f>
+        <v>188</v>
+      </c>
+      <c r="C4916" s="61">
+        <f>SUM(C4894:C4915)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92C09ED-3FEB-42DA-9B18-F40FFCC43EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5835B217-8F9E-472A-9E80-9D15F0F5EDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3618,7 +3618,7 @@
   <dimension ref="A1:G4916"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4891" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4904" sqref="D4904"/>
+      <selection activeCell="D4910" sqref="D4910"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -58711,7 +58711,7 @@
         <v>6</v>
       </c>
       <c r="C4911" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4912" spans="1:3">
@@ -58748,7 +58748,7 @@
       </c>
       <c r="C4916" s="61">
         <f>SUM(C4894:C4915)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5835B217-8F9E-472A-9E80-9D15F0F5EDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409BE5AD-1FD7-4D99-B7DC-C32AF06599B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5184" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5207" uniqueCount="741">
   <si>
     <t>ToDo</t>
   </si>
@@ -2263,6 +2263,12 @@
   </si>
   <si>
     <t>22.08.2022</t>
+  </si>
+  <si>
+    <t>23.08.2022</t>
+  </si>
+  <si>
+    <t>MT: Set up data machine</t>
   </si>
 </sst>
 </file>
@@ -3615,10 +3621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4916"/>
+  <dimension ref="A1:G4941"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4891" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4910" sqref="D4910"/>
+    <sheetView tabSelected="1" topLeftCell="A4920" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D4936" sqref="D4936"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -58711,7 +58717,7 @@
         <v>6</v>
       </c>
       <c r="C4911" s="26">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4912" spans="1:3">
@@ -58748,7 +58754,259 @@
       </c>
       <c r="C4916" s="61">
         <f>SUM(C4894:C4915)</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4918" spans="1:3">
+      <c r="A4918" s="53" t="s">
+        <v>739</v>
+      </c>
+      <c r="B4918" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4918" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4919" spans="1:3">
+      <c r="A4919" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4919" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4919" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4920" spans="1:3">
+      <c r="A4920" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4920" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4920" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4921" spans="1:3">
+      <c r="A4921" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4921" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4921" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4922" spans="1:3">
+      <c r="A4922" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4922" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4922" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4923" spans="1:3">
+      <c r="A4923" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4923" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4923" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4924" spans="1:3">
+      <c r="A4924" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4924" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4924" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4925" spans="1:3">
+      <c r="A4925" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4925" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4925" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4926" spans="1:3">
+      <c r="A4926" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4926" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4926" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4927" spans="1:3">
+      <c r="A4927" s="61" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4927" s="61">
+        <v>24</v>
+      </c>
+      <c r="C4927" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4928" spans="1:3">
+      <c r="A4928" s="61" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4928" s="61">
+        <v>2</v>
+      </c>
+      <c r="C4928" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4929" spans="1:3">
+      <c r="A4929" s="61" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4929" s="61">
+        <v>2</v>
+      </c>
+      <c r="C4929" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4930" spans="1:3">
+      <c r="A4930" s="61" t="s">
+        <v>732</v>
+      </c>
+      <c r="B4930" s="61">
+        <v>4</v>
+      </c>
+      <c r="C4930" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4931" spans="1:3">
+      <c r="A4931" s="61" t="s">
+        <v>737</v>
+      </c>
+      <c r="B4931" s="61">
+        <v>4</v>
+      </c>
+      <c r="C4931" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4932" spans="1:3">
+      <c r="A4932" s="61" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4932" s="61">
+        <v>12</v>
+      </c>
+      <c r="C4932" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4933" spans="1:3">
+      <c r="A4933" s="61" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4933" s="61">
+        <v>4</v>
+      </c>
+      <c r="C4933" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4934" spans="1:3">
+      <c r="A4934" s="61" t="s">
+        <v>731</v>
+      </c>
+      <c r="B4934" s="61">
+        <v>8</v>
+      </c>
+      <c r="C4934" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4935" spans="1:3">
+      <c r="A4935" s="60" t="s">
+        <v>733</v>
+      </c>
+      <c r="B4935" s="60">
+        <v>8</v>
+      </c>
+      <c r="C4935" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4936" spans="1:3">
+      <c r="A4936" s="60" t="s">
+        <v>734</v>
+      </c>
+      <c r="B4936" s="60">
+        <v>6</v>
+      </c>
+      <c r="C4936" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4937" spans="1:3">
+      <c r="A4937" s="60" t="s">
+        <v>735</v>
+      </c>
+      <c r="B4937" s="60">
+        <v>6</v>
+      </c>
+      <c r="C4937" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4938" spans="1:3">
+      <c r="A4938" s="60" t="s">
+        <v>740</v>
+      </c>
+      <c r="B4938" s="60">
+        <v>4</v>
+      </c>
+      <c r="C4938" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4939" spans="1:3">
+      <c r="A4939" s="60"/>
+      <c r="B4939" s="60"/>
+      <c r="C4939" s="60"/>
+    </row>
+    <row r="4940" spans="1:3">
+      <c r="A4940" s="61"/>
+      <c r="B4940" s="61"/>
+      <c r="C4940" s="61"/>
+    </row>
+    <row r="4941" spans="1:3">
+      <c r="A4941" s="61"/>
+      <c r="B4941" s="61">
+        <f>SUM(B4919:B4940)</f>
+        <v>192</v>
+      </c>
+      <c r="C4941" s="61">
+        <f>SUM(C4919:C4940)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409BE5AD-1FD7-4D99-B7DC-C32AF06599B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA7B830-41CD-4350-AF48-23AF0E71035A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3624,7 +3624,7 @@
   <dimension ref="A1:G4941"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4920" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4936" sqref="D4936"/>
+      <selection activeCell="D4934" sqref="D4934"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -58941,7 +58941,7 @@
         <v>8</v>
       </c>
       <c r="C4934" s="26">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4935" spans="1:3">
@@ -58956,14 +58956,14 @@
       </c>
     </row>
     <row r="4936" spans="1:3">
-      <c r="A4936" s="60" t="s">
+      <c r="A4936" s="59" t="s">
         <v>734</v>
       </c>
-      <c r="B4936" s="60">
-        <v>6</v>
-      </c>
-      <c r="C4936" s="26">
-        <v>5</v>
+      <c r="B4936" s="59">
+        <v>6</v>
+      </c>
+      <c r="C4936" s="54">
+        <v>13</v>
       </c>
     </row>
     <row r="4937" spans="1:3">
@@ -58974,7 +58974,7 @@
         <v>6</v>
       </c>
       <c r="C4937" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4938" spans="1:3">
@@ -59006,7 +59006,7 @@
       </c>
       <c r="C4941" s="61">
         <f>SUM(C4919:C4940)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA7B830-41CD-4350-AF48-23AF0E71035A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961B8B6C-9D5A-4C97-9046-9A707EDCA964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5207" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5254" uniqueCount="747">
   <si>
     <t>ToDo</t>
   </si>
@@ -2269,6 +2269,24 @@
   </si>
   <si>
     <t>MT: Set up data machine</t>
+  </si>
+  <si>
+    <t>24.08.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Integrate new sampling</t>
+  </si>
+  <si>
+    <t>MT: Split into training - validation</t>
+  </si>
+  <si>
+    <t>MT: Consuner - Producer for data gathering</t>
+  </si>
+  <si>
+    <t>Phd: Assess default routing accuracy</t>
+  </si>
+  <si>
+    <t>25.08.2022</t>
   </si>
 </sst>
 </file>
@@ -3621,10 +3639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4941"/>
+  <dimension ref="A1:G4990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4920" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4934" sqref="D4934"/>
+    <sheetView tabSelected="1" topLeftCell="A4965" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D4983" sqref="D4983"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -58978,13 +58996,13 @@
       </c>
     </row>
     <row r="4938" spans="1:3">
-      <c r="A4938" s="60" t="s">
+      <c r="A4938" s="59" t="s">
         <v>740</v>
       </c>
-      <c r="B4938" s="60">
-        <v>4</v>
-      </c>
-      <c r="C4938" s="60">
+      <c r="B4938" s="59">
+        <v>4</v>
+      </c>
+      <c r="C4938" s="59">
         <v>3</v>
       </c>
     </row>
@@ -59007,6 +59025,516 @@
       <c r="C4941" s="61">
         <f>SUM(C4919:C4940)</f>
         <v>22</v>
+      </c>
+    </row>
+    <row r="4942" spans="1:3">
+      <c r="A4942" s="53" t="s">
+        <v>741</v>
+      </c>
+      <c r="B4942" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4942" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4943" spans="1:3">
+      <c r="A4943" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4943" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4943" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4944" spans="1:3">
+      <c r="A4944" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4944" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4944" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4945" spans="1:3">
+      <c r="A4945" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4945" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4945" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4946" spans="1:3">
+      <c r="A4946" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4946" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4946" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4947" spans="1:3">
+      <c r="A4947" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4947" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4947" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4948" spans="1:3">
+      <c r="A4948" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4948" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4948" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4949" spans="1:3">
+      <c r="A4949" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4949" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4949" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4950" spans="1:3">
+      <c r="A4950" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4950" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4950" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4951" spans="1:3">
+      <c r="A4951" s="61" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4951" s="61">
+        <v>24</v>
+      </c>
+      <c r="C4951" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4952" spans="1:3">
+      <c r="A4952" s="61" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4952" s="61">
+        <v>2</v>
+      </c>
+      <c r="C4952" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4953" spans="1:3">
+      <c r="A4953" s="61" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4953" s="61">
+        <v>2</v>
+      </c>
+      <c r="C4953" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4954" spans="1:3">
+      <c r="A4954" s="61" t="s">
+        <v>732</v>
+      </c>
+      <c r="B4954" s="61">
+        <v>4</v>
+      </c>
+      <c r="C4954" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4955" spans="1:3">
+      <c r="A4955" s="61" t="s">
+        <v>737</v>
+      </c>
+      <c r="B4955" s="61">
+        <v>4</v>
+      </c>
+      <c r="C4955" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4956" spans="1:3">
+      <c r="A4956" s="61" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4956" s="61">
+        <v>12</v>
+      </c>
+      <c r="C4956" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4957" spans="1:3">
+      <c r="A4957" s="61" t="s">
+        <v>742</v>
+      </c>
+      <c r="B4957" s="61">
+        <v>4</v>
+      </c>
+      <c r="C4957" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4958" spans="1:3">
+      <c r="A4958" s="61" t="s">
+        <v>731</v>
+      </c>
+      <c r="B4958" s="61">
+        <v>8</v>
+      </c>
+      <c r="C4958" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4959" spans="1:3">
+      <c r="A4959" s="60" t="s">
+        <v>733</v>
+      </c>
+      <c r="B4959" s="60">
+        <v>8</v>
+      </c>
+      <c r="C4959" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4960" spans="1:3">
+      <c r="A4960" s="60" t="s">
+        <v>735</v>
+      </c>
+      <c r="B4960" s="60">
+        <v>6</v>
+      </c>
+      <c r="C4960" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4961" spans="1:3">
+      <c r="A4961" s="59" t="s">
+        <v>743</v>
+      </c>
+      <c r="B4961" s="59">
+        <v>4</v>
+      </c>
+      <c r="C4961" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4962" spans="1:3">
+      <c r="A4962" s="60" t="s">
+        <v>744</v>
+      </c>
+      <c r="B4962" s="60">
+        <v>6</v>
+      </c>
+      <c r="C4962" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4963" spans="1:3">
+      <c r="A4963" s="60" t="s">
+        <v>745</v>
+      </c>
+      <c r="B4963" s="60">
+        <v>3</v>
+      </c>
+      <c r="C4963" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4964" spans="1:3">
+      <c r="A4964" s="61"/>
+      <c r="B4964" s="61"/>
+      <c r="C4964" s="61"/>
+    </row>
+    <row r="4965" spans="1:3">
+      <c r="A4965" s="61"/>
+      <c r="B4965" s="61">
+        <f>SUM(B4943:B4964)</f>
+        <v>195</v>
+      </c>
+      <c r="C4965" s="61">
+        <f>SUM(C4943:C4964)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4967" spans="1:3">
+      <c r="A4967" s="53" t="s">
+        <v>746</v>
+      </c>
+      <c r="B4967" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4967" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4968" spans="1:3">
+      <c r="A4968" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4968" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4968" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4969" spans="1:3">
+      <c r="A4969" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4969" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4969" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4970" spans="1:3">
+      <c r="A4970" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4970" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4970" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4971" spans="1:3">
+      <c r="A4971" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4971" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4971" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4972" spans="1:3">
+      <c r="A4972" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4972" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4972" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4973" spans="1:3">
+      <c r="A4973" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4973" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4973" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4974" spans="1:3">
+      <c r="A4974" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4974" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4974" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4975" spans="1:3">
+      <c r="A4975" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4975" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4975" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4976" spans="1:3">
+      <c r="A4976" s="61" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4976" s="61">
+        <v>24</v>
+      </c>
+      <c r="C4976" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4977" spans="1:3">
+      <c r="A4977" s="61" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4977" s="61">
+        <v>2</v>
+      </c>
+      <c r="C4977" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4978" spans="1:3">
+      <c r="A4978" s="61" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4978" s="61">
+        <v>2</v>
+      </c>
+      <c r="C4978" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4979" spans="1:3">
+      <c r="A4979" s="61" t="s">
+        <v>732</v>
+      </c>
+      <c r="B4979" s="61">
+        <v>4</v>
+      </c>
+      <c r="C4979" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4980" spans="1:3">
+      <c r="A4980" s="61" t="s">
+        <v>737</v>
+      </c>
+      <c r="B4980" s="61">
+        <v>4</v>
+      </c>
+      <c r="C4980" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4981" spans="1:3">
+      <c r="A4981" s="61" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4981" s="61">
+        <v>12</v>
+      </c>
+      <c r="C4981" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4982" spans="1:3">
+      <c r="A4982" s="61" t="s">
+        <v>742</v>
+      </c>
+      <c r="B4982" s="61">
+        <v>4</v>
+      </c>
+      <c r="C4982" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4983" spans="1:3">
+      <c r="A4983" s="61" t="s">
+        <v>731</v>
+      </c>
+      <c r="B4983" s="61">
+        <v>8</v>
+      </c>
+      <c r="C4983" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4984" spans="1:3">
+      <c r="A4984" s="60" t="s">
+        <v>733</v>
+      </c>
+      <c r="B4984" s="60">
+        <v>8</v>
+      </c>
+      <c r="C4984" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4985" spans="1:3">
+      <c r="A4985" s="60" t="s">
+        <v>735</v>
+      </c>
+      <c r="B4985" s="60">
+        <v>6</v>
+      </c>
+      <c r="C4985" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4986" spans="1:3">
+      <c r="A4986" s="60" t="s">
+        <v>744</v>
+      </c>
+      <c r="B4986" s="60">
+        <v>6</v>
+      </c>
+      <c r="C4986" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4987" spans="1:3">
+      <c r="A4987" s="60" t="s">
+        <v>745</v>
+      </c>
+      <c r="B4987" s="60">
+        <v>3</v>
+      </c>
+      <c r="C4987" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4988" spans="1:3">
+      <c r="A4988" s="60"/>
+      <c r="B4988" s="60"/>
+      <c r="C4988" s="26"/>
+    </row>
+    <row r="4989" spans="1:3">
+      <c r="A4989" s="61"/>
+      <c r="B4989" s="61"/>
+      <c r="C4989" s="61"/>
+    </row>
+    <row r="4990" spans="1:3">
+      <c r="A4990" s="61"/>
+      <c r="B4990" s="61">
+        <f>SUM(B4968:B4989)</f>
+        <v>191</v>
+      </c>
+      <c r="C4990" s="61">
+        <f>SUM(C4968:C4989)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961B8B6C-9D5A-4C97-9046-9A707EDCA964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C729F-04E3-423C-9171-CE0488F3F2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3642,7 +3642,7 @@
   <dimension ref="A1:G4990"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4965" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4983" sqref="D4983"/>
+      <selection activeCell="D4978" sqref="D4978"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -59458,7 +59458,7 @@
         <v>4</v>
       </c>
       <c r="C4982" s="26">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4983" spans="1:3">
@@ -59469,7 +59469,7 @@
         <v>8</v>
       </c>
       <c r="C4983" s="26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4984" spans="1:3">
@@ -59534,7 +59534,7 @@
       </c>
       <c r="C4990" s="61">
         <f>SUM(C4968:C4989)</f>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C729F-04E3-423C-9171-CE0488F3F2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7393CF-8E11-44B8-BF5A-E198F958D97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5254" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5279" uniqueCount="749">
   <si>
     <t>ToDo</t>
   </si>
@@ -2287,6 +2287,12 @@
   </si>
   <si>
     <t>25.08.2022</t>
+  </si>
+  <si>
+    <t>Phd: Serialize MultipathCombinationInfo objects</t>
+  </si>
+  <si>
+    <t>26.08.2022</t>
   </si>
 </sst>
 </file>
@@ -3639,10 +3645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4990"/>
+  <dimension ref="A1:G5015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4965" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D4978" sqref="D4978"/>
+    <sheetView tabSelected="1" topLeftCell="A4992" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D5006" sqref="D5006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -59469,7 +59475,7 @@
         <v>8</v>
       </c>
       <c r="C4983" s="26">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4984" spans="1:3">
@@ -59484,13 +59490,13 @@
       </c>
     </row>
     <row r="4985" spans="1:3">
-      <c r="A4985" s="60" t="s">
+      <c r="A4985" s="59" t="s">
         <v>735</v>
       </c>
-      <c r="B4985" s="60">
-        <v>6</v>
-      </c>
-      <c r="C4985" s="26">
+      <c r="B4985" s="59">
+        <v>6</v>
+      </c>
+      <c r="C4985" s="54">
         <v>8</v>
       </c>
     </row>
@@ -59506,20 +59512,26 @@
       </c>
     </row>
     <row r="4987" spans="1:3">
-      <c r="A4987" s="60" t="s">
+      <c r="A4987" s="59" t="s">
         <v>745</v>
       </c>
-      <c r="B4987" s="60">
+      <c r="B4987" s="59">
         <v>3</v>
       </c>
-      <c r="C4987" s="26">
+      <c r="C4987" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="4988" spans="1:3">
-      <c r="A4988" s="60"/>
-      <c r="B4988" s="60"/>
-      <c r="C4988" s="26"/>
+      <c r="A4988" s="60" t="s">
+        <v>747</v>
+      </c>
+      <c r="B4988" s="60">
+        <v>2</v>
+      </c>
+      <c r="C4988" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="4989" spans="1:3">
       <c r="A4989" s="61"/>
@@ -59530,11 +59542,265 @@
       <c r="A4990" s="61"/>
       <c r="B4990" s="61">
         <f>SUM(B4968:B4989)</f>
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C4990" s="61">
         <f>SUM(C4968:C4989)</f>
-        <v>20</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4992" spans="1:3">
+      <c r="A4992" s="53" t="s">
+        <v>748</v>
+      </c>
+      <c r="B4992" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4992" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4993" spans="1:3">
+      <c r="A4993" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4993" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4993" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4994" spans="1:3">
+      <c r="A4994" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4994" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4994" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4995" spans="1:3">
+      <c r="A4995" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4995" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4995" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4996" spans="1:3">
+      <c r="A4996" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4996" s="26">
+        <v>24</v>
+      </c>
+      <c r="C4996" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4997" spans="1:3">
+      <c r="A4997" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4997" s="26">
+        <v>12</v>
+      </c>
+      <c r="C4997" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4998" spans="1:3">
+      <c r="A4998" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4998" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4998" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4999" spans="1:3">
+      <c r="A4999" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4999" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4999" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5000" spans="1:3">
+      <c r="A5000" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5000" s="26">
+        <v>24</v>
+      </c>
+      <c r="C5000" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5001" spans="1:3">
+      <c r="A5001" s="61" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5001" s="61">
+        <v>24</v>
+      </c>
+      <c r="C5001" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5002" spans="1:3">
+      <c r="A5002" s="61" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5002" s="61">
+        <v>2</v>
+      </c>
+      <c r="C5002" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5003" spans="1:3">
+      <c r="A5003" s="61" t="s">
+        <v>711</v>
+      </c>
+      <c r="B5003" s="61">
+        <v>2</v>
+      </c>
+      <c r="C5003" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5004" spans="1:3">
+      <c r="A5004" s="61" t="s">
+        <v>732</v>
+      </c>
+      <c r="B5004" s="61">
+        <v>4</v>
+      </c>
+      <c r="C5004" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5005" spans="1:3">
+      <c r="A5005" s="61" t="s">
+        <v>737</v>
+      </c>
+      <c r="B5005" s="61">
+        <v>4</v>
+      </c>
+      <c r="C5005" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5006" spans="1:3">
+      <c r="A5006" s="61" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5006" s="61">
+        <v>12</v>
+      </c>
+      <c r="C5006" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5007" spans="1:3">
+      <c r="A5007" s="61" t="s">
+        <v>742</v>
+      </c>
+      <c r="B5007" s="61">
+        <v>4</v>
+      </c>
+      <c r="C5007" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5008" spans="1:3">
+      <c r="A5008" s="61" t="s">
+        <v>731</v>
+      </c>
+      <c r="B5008" s="61">
+        <v>8</v>
+      </c>
+      <c r="C5008" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5009" spans="1:3">
+      <c r="A5009" s="60" t="s">
+        <v>733</v>
+      </c>
+      <c r="B5009" s="60">
+        <v>8</v>
+      </c>
+      <c r="C5009" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5010" spans="1:3">
+      <c r="A5010" s="60" t="s">
+        <v>744</v>
+      </c>
+      <c r="B5010" s="60">
+        <v>6</v>
+      </c>
+      <c r="C5010" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5011" spans="1:3">
+      <c r="A5011" s="60" t="s">
+        <v>744</v>
+      </c>
+      <c r="B5011" s="60">
+        <v>6</v>
+      </c>
+      <c r="C5011" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5012" spans="1:3">
+      <c r="A5012" s="59" t="s">
+        <v>747</v>
+      </c>
+      <c r="B5012" s="59">
+        <v>2</v>
+      </c>
+      <c r="C5012" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5013" spans="1:3">
+      <c r="A5013" s="60"/>
+      <c r="B5013" s="60"/>
+      <c r="C5013" s="26"/>
+    </row>
+    <row r="5014" spans="1:3">
+      <c r="A5014" s="61"/>
+      <c r="B5014" s="61"/>
+      <c r="C5014" s="61" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5015" spans="1:3">
+      <c r="A5015" s="61"/>
+      <c r="B5015" s="61">
+        <f>SUM(B4993:B5014)</f>
+        <v>190</v>
+      </c>
+      <c r="C5015" s="61">
+        <f>SUM(C4993:C5014)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7393CF-8E11-44B8-BF5A-E198F958D97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651C191A-C52B-4691-B7EF-B8BCA24C86E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3648,7 +3648,7 @@
   <dimension ref="A1:G5015"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4992" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5006" sqref="D5006"/>
+      <selection activeCell="D5007" sqref="D5007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -59733,7 +59733,7 @@
         <v>8</v>
       </c>
       <c r="C5008" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5009" spans="1:3">
@@ -59800,7 +59800,7 @@
       </c>
       <c r="C5015" s="61">
         <f>SUM(C4993:C5014)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work2\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651C191A-C52B-4691-B7EF-B8BCA24C86E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C401D15-A959-4F02-9EB4-4E07B880AE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3648,7 +3648,7 @@
   <dimension ref="A1:G5015"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4992" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5007" sqref="D5007"/>
+      <selection activeCell="D5006" sqref="D5006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -59733,7 +59733,7 @@
         <v>8</v>
       </c>
       <c r="C5008" s="26">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5009" spans="1:3">
@@ -59800,7 +59800,7 @@
       </c>
       <c r="C5015" s="61">
         <f>SUM(C4993:C5014)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F2584C-4DDC-4A7F-A1EA-E864EA5EDECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84E0521-1263-4FF1-9E80-3DC68F3C1C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3679,8 +3679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5136" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5150" sqref="D5150"/>
+    <sheetView tabSelected="1" topLeftCell="A5139" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D5147" sqref="D5147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -61238,7 +61238,7 @@
         <v>8</v>
       </c>
       <c r="C5151" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5152" spans="1:3">
@@ -61264,14 +61264,14 @@
       </c>
     </row>
     <row r="5154" spans="1:3">
-      <c r="A5154" s="53" t="s">
+      <c r="A5154" s="52" t="s">
         <v>751</v>
       </c>
-      <c r="B5154" s="53">
+      <c r="B5154" s="52">
         <v>5</v>
       </c>
-      <c r="C5154" s="5">
-        <v>3</v>
+      <c r="C5154" s="47">
+        <v>6</v>
       </c>
     </row>
     <row r="5155" spans="1:3">
@@ -61282,7 +61282,7 @@
         <v>8</v>
       </c>
       <c r="C5155" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5156" spans="1:3">
@@ -61314,7 +61314,7 @@
       </c>
       <c r="C5159" s="53">
         <f>SUM(C5137:C5158)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510AE4FF-D54A-4053-AF4F-CDE4D114F935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037B4E90-E5DF-4BFF-8087-A66020C10DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3682,8 +3682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5158" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5174" sqref="D5174"/>
+    <sheetView tabSelected="1" topLeftCell="A5161" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B5173" sqref="B5173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -61493,7 +61493,7 @@
         <v>8</v>
       </c>
       <c r="C5175" s="5">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5176" spans="1:3">
@@ -61508,14 +61508,14 @@
       </c>
     </row>
     <row r="5177" spans="1:3">
-      <c r="A5177" s="53" t="s">
+      <c r="A5177" s="52" t="s">
         <v>750</v>
       </c>
-      <c r="B5177" s="53">
-        <v>6</v>
-      </c>
-      <c r="C5177" s="5">
-        <v>0</v>
+      <c r="B5177" s="52">
+        <v>6</v>
+      </c>
+      <c r="C5177" s="47">
+        <v>12</v>
       </c>
     </row>
     <row r="5178" spans="1:3">
@@ -61567,7 +61567,7 @@
       </c>
       <c r="C5183" s="53">
         <f>SUM(C5161:C5182)</f>
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037B4E90-E5DF-4BFF-8087-A66020C10DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27F8909-4376-40CB-93AF-16510A1D70D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5434" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5455" uniqueCount="764">
   <si>
     <t>ToDo</t>
   </si>
@@ -2335,6 +2335,9 @@
   </si>
   <si>
     <t>05.09.2022</t>
+  </si>
+  <si>
+    <t>06.09.2022</t>
   </si>
 </sst>
 </file>
@@ -3680,10 +3683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5183"/>
+  <dimension ref="A1:G5207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5161" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B5173" sqref="B5173"/>
+    <sheetView tabSelected="1" topLeftCell="A5181" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D5199" sqref="D5199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -61493,7 +61496,7 @@
         <v>8</v>
       </c>
       <c r="C5175" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5176" spans="1:3">
@@ -61567,7 +61570,247 @@
       </c>
       <c r="C5183" s="53">
         <f>SUM(C5161:C5182)</f>
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5184" spans="1:3">
+      <c r="A5184" s="46" t="s">
+        <v>763</v>
+      </c>
+      <c r="B5184" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5184" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5185" spans="1:3">
+      <c r="A5185" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5185" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5185" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5186" spans="1:3">
+      <c r="A5186" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5186" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5186" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5187" spans="1:3">
+      <c r="A5187" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B5187" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5187" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5188" spans="1:3">
+      <c r="A5188" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5188" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5188" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5189" spans="1:3">
+      <c r="A5189" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5189" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5189" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5190" spans="1:3">
+      <c r="A5190" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5190" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5190" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5191" spans="1:3">
+      <c r="A5191" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5191" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5191" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5192" spans="1:3">
+      <c r="A5192" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5192" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5192" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5193" spans="1:3">
+      <c r="A5193" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5193" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5193" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5194" spans="1:3">
+      <c r="A5194" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5194" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5194" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5195" spans="1:3">
+      <c r="A5195" s="54" t="s">
+        <v>711</v>
+      </c>
+      <c r="B5195" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5195" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5196" spans="1:3">
+      <c r="A5196" s="54" t="s">
+        <v>732</v>
+      </c>
+      <c r="B5196" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5196" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5197" spans="1:3">
+      <c r="A5197" s="54" t="s">
+        <v>737</v>
+      </c>
+      <c r="B5197" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5197" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5198" spans="1:3">
+      <c r="A5198" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5198" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5198" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5199" spans="1:3">
+      <c r="A5199" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="B5199" s="54">
+        <v>8</v>
+      </c>
+      <c r="C5199" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5200" spans="1:3">
+      <c r="A5200" s="53" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5200" s="53">
+        <v>8</v>
+      </c>
+      <c r="C5200" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5201" spans="1:3">
+      <c r="A5201" s="53" t="s">
+        <v>759</v>
+      </c>
+      <c r="B5201" s="53">
+        <v>8</v>
+      </c>
+      <c r="C5201" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5202" spans="1:3">
+      <c r="A5202" s="53" t="s">
+        <v>760</v>
+      </c>
+      <c r="B5202" s="53">
+        <v>4</v>
+      </c>
+      <c r="C5202" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5203" spans="1:3">
+      <c r="A5203" s="53"/>
+      <c r="B5203" s="53"/>
+      <c r="C5203" s="5"/>
+    </row>
+    <row r="5204" spans="1:3">
+      <c r="A5204" s="5"/>
+      <c r="B5204" s="5"/>
+      <c r="C5204" s="5"/>
+    </row>
+    <row r="5205" spans="1:3">
+      <c r="A5205" s="53"/>
+      <c r="B5205" s="53"/>
+      <c r="C5205" s="5"/>
+    </row>
+    <row r="5206" spans="1:3">
+      <c r="A5206" s="53"/>
+      <c r="B5206" s="53"/>
+      <c r="C5206" s="5"/>
+    </row>
+    <row r="5207" spans="1:3">
+      <c r="A5207" s="53"/>
+      <c r="B5207" s="53">
+        <f>SUM(B5185:B5206)</f>
+        <v>184</v>
+      </c>
+      <c r="C5207" s="53">
+        <f>SUM(C5185:C5206)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27F8909-4376-40CB-93AF-16510A1D70D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2044081-B022-40A1-8449-C53ADAB851C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3686,7 +3686,7 @@
   <dimension ref="A1:G5207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5181" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5199" sqref="D5199"/>
+      <selection activeCell="D5198" sqref="D5198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -61746,7 +61746,7 @@
         <v>8</v>
       </c>
       <c r="C5199" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5200" spans="1:3">
@@ -61810,7 +61810,7 @@
       </c>
       <c r="C5207" s="53">
         <f>SUM(C5185:C5206)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2044081-B022-40A1-8449-C53ADAB851C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4326B3-BBAB-4C0D-B5D9-CA6424864671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5455" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5458" uniqueCount="767">
   <si>
     <t>ToDo</t>
   </si>
@@ -2338,6 +2338,15 @@
   </si>
   <si>
     <t>06.09.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Flyte Workshop</t>
+  </si>
+  <si>
+    <t>Blackshark: Integrate metadata</t>
+  </si>
+  <si>
+    <t>Phd: Prepare SQL queries for experiment results</t>
   </si>
 </sst>
 </file>
@@ -3686,7 +3695,7 @@
   <dimension ref="A1:G5207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5181" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5198" sqref="D5198"/>
+      <selection activeCell="D5204" sqref="D5204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -61746,7 +61755,7 @@
         <v>8</v>
       </c>
       <c r="C5199" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5200" spans="1:3">
@@ -61768,7 +61777,7 @@
         <v>8</v>
       </c>
       <c r="C5201" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5202" spans="1:3">
@@ -61783,19 +61792,37 @@
       </c>
     </row>
     <row r="5203" spans="1:3">
-      <c r="A5203" s="53"/>
-      <c r="B5203" s="53"/>
-      <c r="C5203" s="5"/>
+      <c r="A5203" s="53" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5203" s="53">
+        <v>16</v>
+      </c>
+      <c r="C5203" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5204" spans="1:3">
-      <c r="A5204" s="5"/>
-      <c r="B5204" s="5"/>
-      <c r="C5204" s="5"/>
+      <c r="A5204" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5204" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5204" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5205" spans="1:3">
-      <c r="A5205" s="53"/>
-      <c r="B5205" s="53"/>
-      <c r="C5205" s="5"/>
+      <c r="A5205" s="53" t="s">
+        <v>766</v>
+      </c>
+      <c r="B5205" s="53">
+        <v>4</v>
+      </c>
+      <c r="C5205" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5206" spans="1:3">
       <c r="A5206" s="53"/>
@@ -61806,11 +61833,11 @@
       <c r="A5207" s="53"/>
       <c r="B5207" s="53">
         <f>SUM(B5185:B5206)</f>
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="C5207" s="53">
         <f>SUM(C5185:C5206)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4326B3-BBAB-4C0D-B5D9-CA6424864671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528C9B83-8D99-41D4-BF9B-1DA841492C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5458" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5537" uniqueCount="775">
   <si>
     <t>ToDo</t>
   </si>
@@ -2347,6 +2347,30 @@
   </si>
   <si>
     <t>Phd: Prepare SQL queries for experiment results</t>
+  </si>
+  <si>
+    <t>07.09.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Segformer Improvements</t>
+  </si>
+  <si>
+    <t>08.09.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Integrate Ganesh Error Metric</t>
+  </si>
+  <si>
+    <t>Blackshark: General</t>
+  </si>
+  <si>
+    <t>09.09.2022</t>
+  </si>
+  <si>
+    <t>Insumo: Sql pair programming</t>
+  </si>
+  <si>
+    <t>10.09.2022</t>
   </si>
 </sst>
 </file>
@@ -3692,10 +3716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5207"/>
+  <dimension ref="A1:G5304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5181" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5204" sqref="D5204"/>
+    <sheetView tabSelected="1" topLeftCell="A5281" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A5288" sqref="A5288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -61606,10 +61630,10 @@
     </row>
     <row r="5186" spans="1:3">
       <c r="A5186" s="5" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="B5186" s="5">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C5186" s="5">
         <v>0</v>
@@ -61617,10 +61641,10 @@
     </row>
     <row r="5187" spans="1:3">
       <c r="A5187" s="5" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="B5187" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5187" s="5">
         <v>0</v>
@@ -61628,54 +61652,54 @@
     </row>
     <row r="5188" spans="1:3">
       <c r="A5188" s="5" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="B5188" s="5">
         <v>24</v>
       </c>
       <c r="C5188" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5189" spans="1:3">
-      <c r="A5189" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B5189" s="5">
-        <v>12</v>
+      <c r="A5189" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5189" s="54">
+        <v>24</v>
       </c>
       <c r="C5189" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5190" spans="1:3">
-      <c r="A5190" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B5190" s="5">
-        <v>3</v>
+      <c r="A5190" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5190" s="54">
+        <v>2</v>
       </c>
       <c r="C5190" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5191" spans="1:3">
-      <c r="A5191" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="B5191" s="5">
-        <v>3</v>
+      <c r="A5191" s="54" t="s">
+        <v>711</v>
+      </c>
+      <c r="B5191" s="54">
+        <v>2</v>
       </c>
       <c r="C5191" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5192" spans="1:3">
-      <c r="A5192" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B5192" s="5">
-        <v>24</v>
+      <c r="A5192" s="54" t="s">
+        <v>732</v>
+      </c>
+      <c r="B5192" s="54">
+        <v>4</v>
       </c>
       <c r="C5192" s="5">
         <v>0</v>
@@ -61683,10 +61707,10 @@
     </row>
     <row r="5193" spans="1:3">
       <c r="A5193" s="54" t="s">
-        <v>451</v>
+        <v>737</v>
       </c>
       <c r="B5193" s="54">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C5193" s="5">
         <v>0</v>
@@ -61694,10 +61718,10 @@
     </row>
     <row r="5194" spans="1:3">
       <c r="A5194" s="54" t="s">
-        <v>541</v>
+        <v>715</v>
       </c>
       <c r="B5194" s="54">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C5194" s="5">
         <v>0</v>
@@ -61705,124 +61729,100 @@
     </row>
     <row r="5195" spans="1:3">
       <c r="A5195" s="54" t="s">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="B5195" s="54">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C5195" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5196" spans="1:3">
-      <c r="A5196" s="54" t="s">
-        <v>732</v>
-      </c>
-      <c r="B5196" s="54">
-        <v>4</v>
+      <c r="A5196" s="53" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5196" s="53">
+        <v>8</v>
       </c>
       <c r="C5196" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5197" spans="1:3">
-      <c r="A5197" s="54" t="s">
-        <v>737</v>
-      </c>
-      <c r="B5197" s="54">
-        <v>4</v>
+      <c r="A5197" s="53" t="s">
+        <v>759</v>
+      </c>
+      <c r="B5197" s="53">
+        <v>8</v>
       </c>
       <c r="C5197" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5198" spans="1:3">
-      <c r="A5198" s="54" t="s">
-        <v>715</v>
-      </c>
-      <c r="B5198" s="54">
-        <v>12</v>
+      <c r="A5198" s="53" t="s">
+        <v>760</v>
+      </c>
+      <c r="B5198" s="53">
+        <v>4</v>
       </c>
       <c r="C5198" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5199" spans="1:3">
-      <c r="A5199" s="54" t="s">
-        <v>731</v>
-      </c>
-      <c r="B5199" s="54">
+      <c r="A5199" s="53" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5199" s="53">
+        <v>16</v>
+      </c>
+      <c r="C5199" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5200" spans="1:3">
+      <c r="A5200" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5200" s="5">
         <v>8</v>
       </c>
-      <c r="C5199" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5200" spans="1:3">
-      <c r="A5200" s="53" t="s">
-        <v>755</v>
-      </c>
-      <c r="B5200" s="53">
-        <v>8</v>
-      </c>
       <c r="C5200" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5201" spans="1:3">
       <c r="A5201" s="53" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="B5201" s="53">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5201" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5202" spans="1:3">
-      <c r="A5202" s="53" t="s">
-        <v>760</v>
-      </c>
-      <c r="B5202" s="53">
-        <v>4</v>
-      </c>
-      <c r="C5202" s="5">
-        <v>0</v>
-      </c>
+      <c r="A5202" s="5"/>
+      <c r="B5202" s="5"/>
+      <c r="C5202" s="5"/>
     </row>
     <row r="5203" spans="1:3">
-      <c r="A5203" s="53" t="s">
-        <v>764</v>
-      </c>
-      <c r="B5203" s="53">
-        <v>16</v>
-      </c>
-      <c r="C5203" s="5">
-        <v>0</v>
-      </c>
+      <c r="A5203" s="5"/>
+      <c r="B5203" s="5"/>
+      <c r="C5203" s="5"/>
     </row>
     <row r="5204" spans="1:3">
-      <c r="A5204" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="B5204" s="5">
-        <v>8</v>
-      </c>
-      <c r="C5204" s="5">
-        <v>0</v>
-      </c>
+      <c r="A5204" s="5"/>
+      <c r="B5204" s="5"/>
+      <c r="C5204" s="5"/>
     </row>
     <row r="5205" spans="1:3">
-      <c r="A5205" s="53" t="s">
-        <v>766</v>
-      </c>
-      <c r="B5205" s="53">
-        <v>4</v>
-      </c>
-      <c r="C5205" s="5">
-        <v>0</v>
-      </c>
+      <c r="A5205" s="5"/>
+      <c r="B5205" s="5"/>
+      <c r="C5205" s="5"/>
     </row>
     <row r="5206" spans="1:3">
       <c r="A5206" s="53"/>
@@ -61833,11 +61833,965 @@
       <c r="A5207" s="53"/>
       <c r="B5207" s="53">
         <f>SUM(B5185:B5206)</f>
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C5207" s="53">
         <f>SUM(C5185:C5206)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5208" spans="1:3">
+      <c r="A5208" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="B5208" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5208" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5209" spans="1:3">
+      <c r="A5209" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5209" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5209" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5210" spans="1:3">
+      <c r="A5210" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5210" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5210" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5211" spans="1:3">
+      <c r="A5211" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5211" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5211" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5212" spans="1:3">
+      <c r="A5212" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5212" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5212" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5213" spans="1:3">
+      <c r="A5213" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5213" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5213" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5214" spans="1:3">
+      <c r="A5214" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5214" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5214" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5215" spans="1:3">
+      <c r="A5215" s="54" t="s">
+        <v>711</v>
+      </c>
+      <c r="B5215" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5215" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5216" spans="1:3">
+      <c r="A5216" s="54" t="s">
+        <v>732</v>
+      </c>
+      <c r="B5216" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5216" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5217" spans="1:3">
+      <c r="A5217" s="54" t="s">
+        <v>737</v>
+      </c>
+      <c r="B5217" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5217" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5218" spans="1:3">
+      <c r="A5218" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5218" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5218" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5219" spans="1:3">
+      <c r="A5219" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="B5219" s="54">
+        <v>8</v>
+      </c>
+      <c r="C5219" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5220" spans="1:3">
+      <c r="A5220" s="53" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5220" s="53">
+        <v>8</v>
+      </c>
+      <c r="C5220" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5221" spans="1:3">
+      <c r="A5221" s="52" t="s">
+        <v>759</v>
+      </c>
+      <c r="B5221" s="52">
+        <v>8</v>
+      </c>
+      <c r="C5221" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5222" spans="1:3">
+      <c r="A5222" s="53" t="s">
+        <v>760</v>
+      </c>
+      <c r="B5222" s="53">
+        <v>4</v>
+      </c>
+      <c r="C5222" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5223" spans="1:3">
+      <c r="A5223" s="53" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5223" s="53">
+        <v>16</v>
+      </c>
+      <c r="C5223" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5224" spans="1:3">
+      <c r="A5224" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5224" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5224" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5225" spans="1:3">
+      <c r="A5225" s="53" t="s">
+        <v>766</v>
+      </c>
+      <c r="B5225" s="53">
+        <v>4</v>
+      </c>
+      <c r="C5225" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5226" spans="1:3">
+      <c r="A5226" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B5226" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5226" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5227" spans="1:3">
+      <c r="A5227" s="5"/>
+      <c r="B5227" s="5"/>
+      <c r="C5227" s="5"/>
+    </row>
+    <row r="5228" spans="1:3">
+      <c r="A5228" s="5"/>
+      <c r="B5228" s="5"/>
+      <c r="C5228" s="5"/>
+    </row>
+    <row r="5229" spans="1:3">
+      <c r="A5229" s="5"/>
+      <c r="B5229" s="5"/>
+      <c r="C5229" s="5"/>
+    </row>
+    <row r="5230" spans="1:3">
+      <c r="A5230" s="53"/>
+      <c r="B5230" s="53"/>
+      <c r="C5230" s="5"/>
+    </row>
+    <row r="5231" spans="1:3">
+      <c r="A5231" s="53"/>
+      <c r="B5231" s="53">
+        <f>SUM(B5209:B5230)</f>
+        <v>200</v>
+      </c>
+      <c r="C5231" s="53">
+        <f>SUM(C5209:C5230)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5232" spans="1:3">
+      <c r="A5232" s="46" t="s">
+        <v>769</v>
+      </c>
+      <c r="B5232" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5232" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5233" spans="1:3">
+      <c r="A5233" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5233" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5233" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5234" spans="1:3">
+      <c r="A5234" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5234" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5234" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5235" spans="1:3">
+      <c r="A5235" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5235" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5235" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5236" spans="1:3">
+      <c r="A5236" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5236" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5236" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5237" spans="1:3">
+      <c r="A5237" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5237" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5237" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5238" spans="1:3">
+      <c r="A5238" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5238" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5238" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5239" spans="1:3">
+      <c r="A5239" s="54" t="s">
+        <v>711</v>
+      </c>
+      <c r="B5239" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5239" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5240" spans="1:3">
+      <c r="A5240" s="54" t="s">
+        <v>732</v>
+      </c>
+      <c r="B5240" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5240" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5241" spans="1:3">
+      <c r="A5241" s="54" t="s">
+        <v>737</v>
+      </c>
+      <c r="B5241" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5241" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5242" spans="1:3">
+      <c r="A5242" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5242" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5242" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5243" spans="1:3">
+      <c r="A5243" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="B5243" s="54">
+        <v>8</v>
+      </c>
+      <c r="C5243" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5244" spans="1:3">
+      <c r="A5244" s="53" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5244" s="53">
+        <v>8</v>
+      </c>
+      <c r="C5244" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5245" spans="1:3">
+      <c r="A5245" s="52" t="s">
+        <v>760</v>
+      </c>
+      <c r="B5245" s="52">
+        <v>4</v>
+      </c>
+      <c r="C5245" s="47">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5246" spans="1:3">
+      <c r="A5246" s="53" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5246" s="53">
+        <v>16</v>
+      </c>
+      <c r="C5246" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5247" spans="1:3">
+      <c r="A5247" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5247" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5247" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5248" spans="1:3">
+      <c r="A5248" s="53" t="s">
+        <v>766</v>
+      </c>
+      <c r="B5248" s="53">
+        <v>4</v>
+      </c>
+      <c r="C5248" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5249" spans="1:3">
+      <c r="A5249" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5249" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5249" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5250" spans="1:3">
+      <c r="A5250" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B5250" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5250" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5251" spans="1:3">
+      <c r="A5251" s="5"/>
+      <c r="B5251" s="5"/>
+      <c r="C5251" s="5"/>
+    </row>
+    <row r="5252" spans="1:3">
+      <c r="A5252" s="5"/>
+      <c r="B5252" s="5"/>
+      <c r="C5252" s="5"/>
+    </row>
+    <row r="5253" spans="1:3">
+      <c r="A5253" s="5"/>
+      <c r="B5253" s="5"/>
+      <c r="C5253" s="5"/>
+    </row>
+    <row r="5254" spans="1:3">
+      <c r="A5254" s="53"/>
+      <c r="B5254" s="53"/>
+      <c r="C5254" s="5"/>
+    </row>
+    <row r="5255" spans="1:3">
+      <c r="A5255" s="53"/>
+      <c r="B5255" s="53">
+        <f>SUM(B5233:B5254)</f>
+        <v>197</v>
+      </c>
+      <c r="C5255" s="53">
+        <f>SUM(C5233:C5254)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5257" spans="1:3">
+      <c r="A5257" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="B5257" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5257" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5258" spans="1:3">
+      <c r="A5258" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5258" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5258" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5259" spans="1:3">
+      <c r="A5259" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5259" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5259" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5260" spans="1:3">
+      <c r="A5260" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5260" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5260" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5261" spans="1:3">
+      <c r="A5261" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5261" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5261" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5262" spans="1:3">
+      <c r="A5262" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5262" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5262" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5263" spans="1:3">
+      <c r="A5263" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5263" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5263" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5264" spans="1:3">
+      <c r="A5264" s="54" t="s">
+        <v>711</v>
+      </c>
+      <c r="B5264" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5264" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5265" spans="1:3">
+      <c r="A5265" s="54" t="s">
+        <v>732</v>
+      </c>
+      <c r="B5265" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5265" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5266" spans="1:3">
+      <c r="A5266" s="54" t="s">
+        <v>737</v>
+      </c>
+      <c r="B5266" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5266" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5267" spans="1:3">
+      <c r="A5267" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5267" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5267" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5268" spans="1:3">
+      <c r="A5268" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="B5268" s="54">
+        <v>8</v>
+      </c>
+      <c r="C5268" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5269" spans="1:3">
+      <c r="A5269" s="53" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5269" s="53">
+        <v>16</v>
+      </c>
+      <c r="C5269" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5270" spans="1:3">
+      <c r="A5270" s="53" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5270" s="53">
+        <v>16</v>
+      </c>
+      <c r="C5270" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5271" spans="1:3">
+      <c r="A5271" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5271" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5271" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5272" spans="1:3">
+      <c r="A5272" s="53" t="s">
+        <v>766</v>
+      </c>
+      <c r="B5272" s="53">
+        <v>4</v>
+      </c>
+      <c r="C5272" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5273" spans="1:3">
+      <c r="A5273" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5273" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5273" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5274" spans="1:3">
+      <c r="A5274" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B5274" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5274" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5275" spans="1:3">
+      <c r="A5275" s="47" t="s">
+        <v>773</v>
+      </c>
+      <c r="B5275" s="47">
+        <v>2</v>
+      </c>
+      <c r="C5275" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5276" spans="1:3">
+      <c r="A5276" s="5"/>
+      <c r="B5276" s="5"/>
+      <c r="C5276" s="5"/>
+    </row>
+    <row r="5277" spans="1:3">
+      <c r="A5277" s="5"/>
+      <c r="B5277" s="5"/>
+      <c r="C5277" s="5"/>
+    </row>
+    <row r="5278" spans="1:3">
+      <c r="A5278" s="5"/>
+      <c r="B5278" s="5"/>
+      <c r="C5278" s="5"/>
+    </row>
+    <row r="5279" spans="1:3">
+      <c r="A5279" s="53"/>
+      <c r="B5279" s="53"/>
+      <c r="C5279" s="5"/>
+    </row>
+    <row r="5280" spans="1:3">
+      <c r="A5280" s="53"/>
+      <c r="B5280" s="53">
+        <f>SUM(B5258:B5279)</f>
+        <v>203</v>
+      </c>
+      <c r="C5280" s="53">
+        <f>SUM(C5258:C5279)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5281" spans="1:3">
+      <c r="A5281" s="46" t="s">
+        <v>774</v>
+      </c>
+      <c r="B5281" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5281" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5282" spans="1:3">
+      <c r="A5282" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5282" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5282" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5283" spans="1:3">
+      <c r="A5283" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5283" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5283" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5284" spans="1:3">
+      <c r="A5284" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5284" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5284" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5285" spans="1:3">
+      <c r="A5285" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5285" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5285" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5286" spans="1:3">
+      <c r="A5286" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5286" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5286" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5287" spans="1:3">
+      <c r="A5287" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5287" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5287" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5288" spans="1:3">
+      <c r="A5288" s="54" t="s">
+        <v>711</v>
+      </c>
+      <c r="B5288" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5288" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5289" spans="1:3">
+      <c r="A5289" s="54" t="s">
+        <v>732</v>
+      </c>
+      <c r="B5289" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5289" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5290" spans="1:3">
+      <c r="A5290" s="54" t="s">
+        <v>737</v>
+      </c>
+      <c r="B5290" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5290" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5291" spans="1:3">
+      <c r="A5291" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5291" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5291" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5292" spans="1:3">
+      <c r="A5292" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="B5292" s="54">
+        <v>8</v>
+      </c>
+      <c r="C5292" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5293" spans="1:3">
+      <c r="A5293" s="53" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5293" s="53">
+        <v>16</v>
+      </c>
+      <c r="C5293" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5294" spans="1:3">
+      <c r="A5294" s="53" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5294" s="53">
+        <v>16</v>
+      </c>
+      <c r="C5294" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5295" spans="1:3">
+      <c r="A5295" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5295" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5295" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5296" spans="1:3">
+      <c r="A5296" s="53" t="s">
+        <v>766</v>
+      </c>
+      <c r="B5296" s="53">
+        <v>4</v>
+      </c>
+      <c r="C5296" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5297" spans="1:3">
+      <c r="A5297" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5297" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5297" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5298" spans="1:3">
+      <c r="A5298" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B5298" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5298" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5299" spans="1:3">
+      <c r="A5299" s="48"/>
+      <c r="B5299" s="48"/>
+      <c r="C5299" s="48"/>
+    </row>
+    <row r="5300" spans="1:3">
+      <c r="A5300" s="48"/>
+      <c r="B5300" s="48"/>
+      <c r="C5300" s="48"/>
+    </row>
+    <row r="5301" spans="1:3">
+      <c r="A5301" s="48"/>
+      <c r="B5301" s="48"/>
+      <c r="C5301" s="48"/>
+    </row>
+    <row r="5302" spans="1:3">
+      <c r="A5302" s="48"/>
+      <c r="B5302" s="48"/>
+      <c r="C5302" s="48"/>
+    </row>
+    <row r="5303" spans="1:3">
+      <c r="A5303" s="53"/>
+      <c r="B5303" s="53"/>
+      <c r="C5303" s="48"/>
+    </row>
+    <row r="5304" spans="1:3">
+      <c r="A5304" s="53"/>
+      <c r="B5304" s="53">
+        <f>SUM(B5282:B5303)</f>
+        <v>201</v>
+      </c>
+      <c r="C5304" s="53">
+        <f>SUM(C5282:C5303)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528C9B83-8D99-41D4-BF9B-1DA841492C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8BBB6B-88B6-4458-8B5D-239576351CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5537" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5651" uniqueCount="793">
   <si>
     <t>ToDo</t>
   </si>
@@ -2371,6 +2371,60 @@
   </si>
   <si>
     <t>10.09.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Setup Graz dnn</t>
+  </si>
+  <si>
+    <t>Phd: Sql query for test results</t>
+  </si>
+  <si>
+    <t>11.09.2022</t>
+  </si>
+  <si>
+    <t>12.09.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Fix gpu</t>
+  </si>
+  <si>
+    <t>Phd: Accelerate CE search</t>
+  </si>
+  <si>
+    <t>13.09.2022</t>
+  </si>
+  <si>
+    <t>Insumo: Finalize ML Based Productivity Estimator</t>
+  </si>
+  <si>
+    <t>14.09.2022</t>
+  </si>
+  <si>
+    <t>15.09.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Measure Srimukh Model Accuracy</t>
+  </si>
+  <si>
+    <t>16.09.2022</t>
+  </si>
+  <si>
+    <t>Phd: Accelerate CE search 1</t>
+  </si>
+  <si>
+    <t>Blackshark: Measure Srimukh Model Accuracy 2</t>
+  </si>
+  <si>
+    <t>Blackshark: Flyte Workshop 3</t>
+  </si>
+  <si>
+    <t>MT: Accelerate data gathering - Start Training 4</t>
+  </si>
+  <si>
+    <t>Insumo: Finalize ML Based Productivity Estimator 5</t>
+  </si>
+  <si>
+    <t>Blackshark: RoI Sampling Algorithm</t>
   </si>
 </sst>
 </file>
@@ -3716,10 +3770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5304"/>
+  <dimension ref="A1:G5448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5281" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A5288" sqref="A5288"/>
+    <sheetView tabSelected="1" topLeftCell="A5424" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D5435" sqref="D5435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -62683,7 +62737,7 @@
     </row>
     <row r="5292" spans="1:3">
       <c r="A5292" s="54" t="s">
-        <v>731</v>
+        <v>776</v>
       </c>
       <c r="B5292" s="54">
         <v>8</v>
@@ -62733,7 +62787,7 @@
         <v>4</v>
       </c>
       <c r="C5296" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5297" spans="1:3">
@@ -62749,7 +62803,7 @@
     </row>
     <row r="5298" spans="1:3">
       <c r="A5298" s="5" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B5298" s="5">
         <v>5</v>
@@ -62791,7 +62845,1375 @@
       </c>
       <c r="C5304" s="53">
         <f>SUM(C5282:C5303)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5305" spans="1:3">
+      <c r="A5305" s="46" t="s">
+        <v>777</v>
+      </c>
+      <c r="B5305" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5305" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5306" spans="1:3">
+      <c r="A5306" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5306" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5306" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5307" spans="1:3">
+      <c r="A5307" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5307" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5307" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5308" spans="1:3">
+      <c r="A5308" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5308" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5308" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5309" spans="1:3">
+      <c r="A5309" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5309" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5309" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5310" spans="1:3">
+      <c r="A5310" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5310" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5310" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5311" spans="1:3">
+      <c r="A5311" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5311" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5311" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5312" spans="1:3">
+      <c r="A5312" s="54" t="s">
+        <v>711</v>
+      </c>
+      <c r="B5312" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5312" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5313" spans="1:3">
+      <c r="A5313" s="54" t="s">
+        <v>732</v>
+      </c>
+      <c r="B5313" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5313" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5314" spans="1:3">
+      <c r="A5314" s="54" t="s">
+        <v>737</v>
+      </c>
+      <c r="B5314" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5314" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5315" spans="1:3">
+      <c r="A5315" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5315" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5315" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5316" spans="1:3">
+      <c r="A5316" s="54" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5316" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5316" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5317" spans="1:3">
+      <c r="A5317" s="53" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5317" s="53">
+        <v>16</v>
+      </c>
+      <c r="C5317" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5318" spans="1:3">
+      <c r="A5318" s="53" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5318" s="53">
+        <v>16</v>
+      </c>
+      <c r="C5318" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5319" spans="1:3">
+      <c r="A5319" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5319" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5319" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5320" spans="1:3">
+      <c r="A5320" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5320" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5320" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5321" spans="1:3">
+      <c r="A5321" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B5321" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5321" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5322" spans="1:3">
+      <c r="A5322" s="5"/>
+      <c r="B5322" s="5"/>
+      <c r="C5322" s="5"/>
+    </row>
+    <row r="5323" spans="1:3">
+      <c r="A5323" s="48"/>
+      <c r="B5323" s="48"/>
+      <c r="C5323" s="48"/>
+    </row>
+    <row r="5324" spans="1:3">
+      <c r="A5324" s="48"/>
+      <c r="B5324" s="48"/>
+      <c r="C5324" s="48"/>
+    </row>
+    <row r="5325" spans="1:3">
+      <c r="A5325" s="48"/>
+      <c r="B5325" s="48"/>
+      <c r="C5325" s="48"/>
+    </row>
+    <row r="5326" spans="1:3">
+      <c r="A5326" s="48"/>
+      <c r="B5326" s="48"/>
+      <c r="C5326" s="48"/>
+    </row>
+    <row r="5327" spans="1:3">
+      <c r="A5327" s="53"/>
+      <c r="B5327" s="53"/>
+      <c r="C5327" s="48"/>
+    </row>
+    <row r="5328" spans="1:3">
+      <c r="A5328" s="53"/>
+      <c r="B5328" s="53">
+        <f>SUM(B5306:B5327)</f>
+        <v>193</v>
+      </c>
+      <c r="C5328" s="53">
+        <f>SUM(C5306:C5327)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5329" spans="1:3">
+      <c r="A5329" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="B5329" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5329" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5330" spans="1:3">
+      <c r="A5330" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5330" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5330" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5331" spans="1:3">
+      <c r="A5331" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5331" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5331" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5332" spans="1:3">
+      <c r="A5332" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5332" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5332" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5333" spans="1:3">
+      <c r="A5333" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5333" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5333" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5334" spans="1:3">
+      <c r="A5334" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5334" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5334" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5335" spans="1:3">
+      <c r="A5335" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5335" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5335" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5336" spans="1:3">
+      <c r="A5336" s="54" t="s">
+        <v>711</v>
+      </c>
+      <c r="B5336" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5336" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5337" spans="1:3">
+      <c r="A5337" s="54" t="s">
+        <v>732</v>
+      </c>
+      <c r="B5337" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5337" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5338" spans="1:3">
+      <c r="A5338" s="54" t="s">
+        <v>737</v>
+      </c>
+      <c r="B5338" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5338" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5339" spans="1:3">
+      <c r="A5339" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5339" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5339" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5340" spans="1:3">
+      <c r="A5340" s="54" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5340" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5340" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5341" spans="1:3">
+      <c r="A5341" s="53" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5341" s="53">
+        <v>16</v>
+      </c>
+      <c r="C5341" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5342" spans="1:3">
+      <c r="A5342" s="53" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5342" s="53">
+        <v>16</v>
+      </c>
+      <c r="C5342" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5343" spans="1:3">
+      <c r="A5343" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5343" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5343" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5344" spans="1:3">
+      <c r="A5344" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5344" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5344" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5345" spans="1:3">
+      <c r="A5345" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B5345" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5345" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5346" spans="1:3">
+      <c r="A5346" s="47" t="s">
+        <v>779</v>
+      </c>
+      <c r="B5346" s="47">
+        <v>2</v>
+      </c>
+      <c r="C5346" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5347" spans="1:3">
+      <c r="A5347" s="48" t="s">
+        <v>780</v>
+      </c>
+      <c r="B5347" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5347" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5348" spans="1:3">
+      <c r="A5348" s="48"/>
+      <c r="B5348" s="48"/>
+      <c r="C5348" s="48"/>
+    </row>
+    <row r="5349" spans="1:3">
+      <c r="A5349" s="48"/>
+      <c r="B5349" s="48"/>
+      <c r="C5349" s="48"/>
+    </row>
+    <row r="5350" spans="1:3">
+      <c r="A5350" s="48"/>
+      <c r="B5350" s="48"/>
+      <c r="C5350" s="48"/>
+    </row>
+    <row r="5351" spans="1:3">
+      <c r="A5351" s="53"/>
+      <c r="B5351" s="53"/>
+      <c r="C5351" s="48"/>
+    </row>
+    <row r="5352" spans="1:3">
+      <c r="A5352" s="53"/>
+      <c r="B5352" s="53">
+        <f>SUM(B5330:B5351)</f>
+        <v>199</v>
+      </c>
+      <c r="C5352" s="53">
+        <f>SUM(C5330:C5351)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5353" spans="1:3">
+      <c r="A5353" s="46" t="s">
+        <v>781</v>
+      </c>
+      <c r="B5353" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5353" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5354" spans="1:3">
+      <c r="A5354" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5354" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5354" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5355" spans="1:3">
+      <c r="A5355" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5355" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5355" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5356" spans="1:3">
+      <c r="A5356" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5356" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5356" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5357" spans="1:3">
+      <c r="A5357" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5357" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5357" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5358" spans="1:3">
+      <c r="A5358" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5358" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5358" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5359" spans="1:3">
+      <c r="A5359" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5359" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5359" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5360" spans="1:3">
+      <c r="A5360" s="54" t="s">
+        <v>782</v>
+      </c>
+      <c r="B5360" s="54">
+        <v>8</v>
+      </c>
+      <c r="C5360" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5361" spans="1:3">
+      <c r="A5361" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5361" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5361" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5362" spans="1:3">
+      <c r="A5362" s="54" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5362" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5362" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5363" spans="1:3">
+      <c r="A5363" s="53" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5363" s="53">
+        <v>16</v>
+      </c>
+      <c r="C5363" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5364" spans="1:3">
+      <c r="A5364" s="53" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5364" s="53">
+        <v>10</v>
+      </c>
+      <c r="C5364" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5365" spans="1:3">
+      <c r="A5365" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5365" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5365" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5366" spans="1:3">
+      <c r="A5366" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5366" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5366" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5367" spans="1:3">
+      <c r="A5367" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B5367" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5367" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5368" spans="1:3">
+      <c r="A5368" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B5368" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5368" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5369" spans="1:3">
+      <c r="A5369" s="47" t="s">
+        <v>752</v>
+      </c>
+      <c r="B5369" s="47">
+        <v>2</v>
+      </c>
+      <c r="C5369" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5370" spans="1:3">
+      <c r="A5370" s="5"/>
+      <c r="B5370" s="5"/>
+      <c r="C5370" s="5"/>
+    </row>
+    <row r="5371" spans="1:3">
+      <c r="A5371" s="5"/>
+      <c r="B5371" s="5"/>
+      <c r="C5371" s="5"/>
+    </row>
+    <row r="5372" spans="1:3">
+      <c r="A5372" s="48"/>
+      <c r="B5372" s="48"/>
+      <c r="C5372" s="48"/>
+    </row>
+    <row r="5373" spans="1:3">
+      <c r="A5373" s="48"/>
+      <c r="B5373" s="48"/>
+      <c r="C5373" s="48"/>
+    </row>
+    <row r="5374" spans="1:3">
+      <c r="A5374" s="48"/>
+      <c r="B5374" s="48"/>
+      <c r="C5374" s="48"/>
+    </row>
+    <row r="5375" spans="1:3">
+      <c r="A5375" s="53"/>
+      <c r="B5375" s="53"/>
+      <c r="C5375" s="48"/>
+    </row>
+    <row r="5376" spans="1:3">
+      <c r="A5376" s="53"/>
+      <c r="B5376" s="53">
+        <f>SUM(B5354:B5375)</f>
+        <v>195</v>
+      </c>
+      <c r="C5376" s="53">
+        <f>SUM(C5354:C5375)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5377" spans="1:3">
+      <c r="A5377" s="46" t="s">
+        <v>783</v>
+      </c>
+      <c r="B5377" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5377" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5378" spans="1:3">
+      <c r="A5378" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5378" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5378" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5379" spans="1:3">
+      <c r="A5379" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5379" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5379" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5380" spans="1:3">
+      <c r="A5380" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5380" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5380" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5381" spans="1:3">
+      <c r="A5381" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5381" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5381" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5382" spans="1:3">
+      <c r="A5382" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5382" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5382" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5383" spans="1:3">
+      <c r="A5383" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5383" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5383" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5384" spans="1:3">
+      <c r="A5384" s="54" t="s">
+        <v>782</v>
+      </c>
+      <c r="B5384" s="54">
+        <v>5</v>
+      </c>
+      <c r="C5384" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5385" spans="1:3">
+      <c r="A5385" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5385" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5385" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5386" spans="1:3">
+      <c r="A5386" s="54" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5386" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5386" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5387" spans="1:3">
+      <c r="A5387" s="53" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5387" s="53">
+        <v>16</v>
+      </c>
+      <c r="C5387" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5388" spans="1:3">
+      <c r="A5388" s="53" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5388" s="53">
+        <v>10</v>
+      </c>
+      <c r="C5388" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5389" spans="1:3">
+      <c r="A5389" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5389" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5389" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5390" spans="1:3">
+      <c r="A5390" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5390" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5390" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5391" spans="1:3">
+      <c r="A5391" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B5391" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5391" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5392" spans="1:3">
+      <c r="A5392" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B5392" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5392" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5393" spans="1:3">
+      <c r="A5393" s="48"/>
+      <c r="B5393" s="48"/>
+      <c r="C5393" s="48"/>
+    </row>
+    <row r="5394" spans="1:3">
+      <c r="A5394" s="48"/>
+      <c r="B5394" s="48"/>
+      <c r="C5394" s="48"/>
+    </row>
+    <row r="5395" spans="1:3">
+      <c r="A5395" s="48"/>
+      <c r="B5395" s="48"/>
+      <c r="C5395" s="48"/>
+    </row>
+    <row r="5396" spans="1:3">
+      <c r="A5396" s="48"/>
+      <c r="B5396" s="48"/>
+      <c r="C5396" s="48"/>
+    </row>
+    <row r="5397" spans="1:3">
+      <c r="A5397" s="48"/>
+      <c r="B5397" s="48"/>
+      <c r="C5397" s="48"/>
+    </row>
+    <row r="5398" spans="1:3">
+      <c r="A5398" s="48"/>
+      <c r="B5398" s="48"/>
+      <c r="C5398" s="48"/>
+    </row>
+    <row r="5399" spans="1:3">
+      <c r="A5399" s="53"/>
+      <c r="B5399" s="53"/>
+      <c r="C5399" s="48"/>
+    </row>
+    <row r="5400" spans="1:3">
+      <c r="A5400" s="53"/>
+      <c r="B5400" s="53">
+        <f>SUM(B5378:B5399)</f>
+        <v>182</v>
+      </c>
+      <c r="C5400" s="53">
+        <f>SUM(C5378:C5399)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5401" spans="1:3">
+      <c r="A5401" s="46" t="s">
+        <v>784</v>
+      </c>
+      <c r="B5401" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5401" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5402" spans="1:3">
+      <c r="A5402" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5402" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5402" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5403" spans="1:3">
+      <c r="A5403" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5403" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5403" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5404" spans="1:3">
+      <c r="A5404" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5404" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5404" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5405" spans="1:3">
+      <c r="A5405" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5405" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5405" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5406" spans="1:3">
+      <c r="A5406" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5406" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5406" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5407" spans="1:3">
+      <c r="A5407" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5407" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5407" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5408" spans="1:3">
+      <c r="A5408" s="54" t="s">
+        <v>782</v>
+      </c>
+      <c r="B5408" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5408" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5409" spans="1:3">
+      <c r="A5409" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5409" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5409" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5410" spans="1:3">
+      <c r="A5410" s="54" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5410" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5410" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5411" spans="1:3">
+      <c r="A5411" s="53" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5411" s="53">
+        <v>8</v>
+      </c>
+      <c r="C5411" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5412" spans="1:3">
+      <c r="A5412" s="53" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5412" s="53">
+        <v>10</v>
+      </c>
+      <c r="C5412" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5413" spans="1:3">
+      <c r="A5413" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5413" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5413" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5414" spans="1:3">
+      <c r="A5414" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5414" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5414" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5415" spans="1:3">
+      <c r="A5415" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B5415" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5415" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5416" spans="1:3">
+      <c r="A5416" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B5416" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5416" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5417" spans="1:3">
+      <c r="A5417" s="48"/>
+      <c r="B5417" s="48"/>
+      <c r="C5417" s="48"/>
+    </row>
+    <row r="5418" spans="1:3">
+      <c r="A5418" s="48"/>
+      <c r="B5418" s="48"/>
+      <c r="C5418" s="48"/>
+    </row>
+    <row r="5419" spans="1:3">
+      <c r="A5419" s="48"/>
+      <c r="B5419" s="48"/>
+      <c r="C5419" s="48"/>
+    </row>
+    <row r="5420" spans="1:3">
+      <c r="A5420" s="48"/>
+      <c r="B5420" s="48"/>
+      <c r="C5420" s="48"/>
+    </row>
+    <row r="5421" spans="1:3">
+      <c r="A5421" s="48"/>
+      <c r="B5421" s="48"/>
+      <c r="C5421" s="48"/>
+    </row>
+    <row r="5422" spans="1:3">
+      <c r="A5422" s="48"/>
+      <c r="B5422" s="48"/>
+      <c r="C5422" s="48"/>
+    </row>
+    <row r="5423" spans="1:3">
+      <c r="A5423" s="53"/>
+      <c r="B5423" s="53"/>
+      <c r="C5423" s="48"/>
+    </row>
+    <row r="5424" spans="1:3">
+      <c r="A5424" s="53"/>
+      <c r="B5424" s="53">
+        <f>SUM(B5402:B5423)</f>
+        <v>181</v>
+      </c>
+      <c r="C5424" s="53">
+        <f>SUM(C5402:C5423)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5425" spans="1:3">
+      <c r="A5425" s="46" t="s">
+        <v>786</v>
+      </c>
+      <c r="B5425" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5425" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5426" spans="1:3">
+      <c r="A5426" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5426" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5426" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5427" spans="1:3">
+      <c r="A5427" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5427" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5427" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5428" spans="1:3">
+      <c r="A5428" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5428" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5428" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5429" spans="1:3">
+      <c r="A5429" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5429" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5429" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5430" spans="1:3">
+      <c r="A5430" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5430" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5430" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5431" spans="1:3">
+      <c r="A5431" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5431" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5431" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5432" spans="1:3">
+      <c r="A5432" s="54" t="s">
+        <v>791</v>
+      </c>
+      <c r="B5432" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5432" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5433" spans="1:3">
+      <c r="A5433" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5433" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5433" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5434" spans="1:3">
+      <c r="A5434" s="54" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5434" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5434" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5435" spans="1:3">
+      <c r="A5435" s="53" t="s">
+        <v>790</v>
+      </c>
+      <c r="B5435" s="53">
+        <v>8</v>
+      </c>
+      <c r="C5435" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5436" spans="1:3">
+      <c r="A5436" s="53" t="s">
+        <v>789</v>
+      </c>
+      <c r="B5436" s="53">
+        <v>10</v>
+      </c>
+      <c r="C5436" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5437" spans="1:3">
+      <c r="A5437" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5437" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5437" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5438" spans="1:3">
+      <c r="A5438" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5438" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5438" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5439" spans="1:3">
+      <c r="A5439" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B5439" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5439" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5440" spans="1:3">
+      <c r="A5440" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B5440" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5440" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5441" spans="1:3">
+      <c r="A5441" s="48" t="s">
+        <v>792</v>
+      </c>
+      <c r="B5441" s="48">
+        <v>16</v>
+      </c>
+      <c r="C5441" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5442" spans="1:3">
+      <c r="A5442" s="48"/>
+      <c r="B5442" s="48"/>
+      <c r="C5442" s="48"/>
+    </row>
+    <row r="5443" spans="1:3">
+      <c r="A5443" s="48"/>
+      <c r="B5443" s="48"/>
+      <c r="C5443" s="48"/>
+    </row>
+    <row r="5444" spans="1:3">
+      <c r="A5444" s="48"/>
+      <c r="B5444" s="48"/>
+      <c r="C5444" s="48"/>
+    </row>
+    <row r="5445" spans="1:3">
+      <c r="A5445" s="48"/>
+      <c r="B5445" s="48"/>
+      <c r="C5445" s="48"/>
+    </row>
+    <row r="5446" spans="1:3">
+      <c r="A5446" s="48"/>
+      <c r="B5446" s="48"/>
+      <c r="C5446" s="48"/>
+    </row>
+    <row r="5447" spans="1:3">
+      <c r="A5447" s="53"/>
+      <c r="B5447" s="53"/>
+      <c r="C5447" s="48"/>
+    </row>
+    <row r="5448" spans="1:3">
+      <c r="A5448" s="53"/>
+      <c r="B5448" s="53">
+        <f>SUM(B5426:B5447)</f>
+        <v>201</v>
+      </c>
+      <c r="C5448" s="53">
+        <f>SUM(C5426:C5447)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8BBB6B-88B6-4458-8B5D-239576351CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DA1481-B996-4F0A-AD3D-7FD23B884CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5651" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5670" uniqueCount="794">
   <si>
     <t>ToDo</t>
   </si>
@@ -2425,6 +2425,9 @@
   </si>
   <si>
     <t>Blackshark: RoI Sampling Algorithm</t>
+  </si>
+  <si>
+    <t>17.09.2022</t>
   </si>
 </sst>
 </file>
@@ -3770,10 +3773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5448"/>
+  <dimension ref="A1:G5473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5424" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5435" sqref="D5435"/>
+    <sheetView tabSelected="1" topLeftCell="A5448" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D5460" sqref="D5460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -64106,7 +64109,7 @@
         <v>8</v>
       </c>
       <c r="C5435" s="5">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5436" spans="1:3">
@@ -64161,7 +64164,7 @@
         <v>8</v>
       </c>
       <c r="C5440" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5441" spans="1:3">
@@ -64213,6 +64216,234 @@
       </c>
       <c r="C5448" s="53">
         <f>SUM(C5426:C5447)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5450" spans="1:3">
+      <c r="A5450" s="46" t="s">
+        <v>793</v>
+      </c>
+      <c r="B5450" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5450" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5451" spans="1:3">
+      <c r="A5451" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5451" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5451" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5452" spans="1:3">
+      <c r="A5452" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5452" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5452" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5453" spans="1:3">
+      <c r="A5453" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5453" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5453" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5454" spans="1:3">
+      <c r="A5454" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5454" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5454" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5455" spans="1:3">
+      <c r="A5455" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5455" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5455" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5456" spans="1:3">
+      <c r="A5456" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5456" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5456" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5457" spans="1:3">
+      <c r="A5457" s="54" t="s">
+        <v>791</v>
+      </c>
+      <c r="B5457" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5457" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5458" spans="1:3">
+      <c r="A5458" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5458" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5458" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5459" spans="1:3">
+      <c r="A5459" s="54" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5459" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5459" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5460" spans="1:3">
+      <c r="A5460" s="53" t="s">
+        <v>790</v>
+      </c>
+      <c r="B5460" s="53">
+        <v>6</v>
+      </c>
+      <c r="C5460" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5461" spans="1:3">
+      <c r="A5461" s="53" t="s">
+        <v>789</v>
+      </c>
+      <c r="B5461" s="53">
+        <v>10</v>
+      </c>
+      <c r="C5461" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5462" spans="1:3">
+      <c r="A5462" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5462" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5462" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5463" spans="1:3">
+      <c r="A5463" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5463" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5463" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5464" spans="1:3">
+      <c r="A5464" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B5464" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5464" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5465" spans="1:3">
+      <c r="A5465" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B5465" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5465" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5466" spans="1:3">
+      <c r="A5466" s="48" t="s">
+        <v>792</v>
+      </c>
+      <c r="B5466" s="48">
+        <v>16</v>
+      </c>
+      <c r="C5466" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5467" spans="1:3">
+      <c r="A5467" s="48"/>
+      <c r="B5467" s="48"/>
+      <c r="C5467" s="48"/>
+    </row>
+    <row r="5468" spans="1:3">
+      <c r="A5468" s="48"/>
+      <c r="B5468" s="48"/>
+      <c r="C5468" s="48"/>
+    </row>
+    <row r="5469" spans="1:3">
+      <c r="A5469" s="48"/>
+      <c r="B5469" s="48"/>
+      <c r="C5469" s="48"/>
+    </row>
+    <row r="5470" spans="1:3">
+      <c r="A5470" s="48"/>
+      <c r="B5470" s="48"/>
+      <c r="C5470" s="48"/>
+    </row>
+    <row r="5471" spans="1:3">
+      <c r="A5471" s="48"/>
+      <c r="B5471" s="48"/>
+      <c r="C5471" s="48"/>
+    </row>
+    <row r="5472" spans="1:3">
+      <c r="A5472" s="53"/>
+      <c r="B5472" s="53"/>
+      <c r="C5472" s="48"/>
+    </row>
+    <row r="5473" spans="1:3">
+      <c r="A5473" s="53"/>
+      <c r="B5473" s="53">
+        <f>SUM(B5451:B5472)</f>
+        <v>199</v>
+      </c>
+      <c r="C5473" s="53">
+        <f>SUM(C5451:C5472)</f>
         <v>3</v>
       </c>
     </row>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DA1481-B996-4F0A-AD3D-7FD23B884CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7DA075-5B67-487C-927C-01A0ACC382B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5670" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5744" uniqueCount="806">
   <si>
     <t>ToDo</t>
   </si>
@@ -2428,6 +2428,42 @@
   </si>
   <si>
     <t>17.09.2022</t>
+  </si>
+  <si>
+    <t>18.09.2022</t>
+  </si>
+  <si>
+    <t>MT: Fine Tune</t>
+  </si>
+  <si>
+    <t>20.09.2022</t>
+  </si>
+  <si>
+    <t>19.09.2022</t>
+  </si>
+  <si>
+    <t>25.09.2022</t>
+  </si>
+  <si>
+    <t>Phd: Implement Resnet in CIGT</t>
+  </si>
+  <si>
+    <t>Insumo: Data Analysis</t>
+  </si>
+  <si>
+    <t>Insumo: İş İlanı (1)</t>
+  </si>
+  <si>
+    <t>Blackshark: Flyte Workshop 3 (2)</t>
+  </si>
+  <si>
+    <t>Blackshark: RoI Sampling Algorithm (3)</t>
+  </si>
+  <si>
+    <t>Blackshark: Measure Srimukh Model Accuracy (4)</t>
+  </si>
+  <si>
+    <t>Phd: Q-Value Regression (5)</t>
   </si>
 </sst>
 </file>
@@ -3773,10 +3809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5473"/>
+  <dimension ref="A1:G5570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5448" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5460" sqref="D5460"/>
+    <sheetView tabSelected="1" topLeftCell="A5542" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A5558" sqref="A5558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -64330,14 +64366,14 @@
       </c>
     </row>
     <row r="5460" spans="1:3">
-      <c r="A5460" s="53" t="s">
+      <c r="A5460" s="52" t="s">
         <v>790</v>
       </c>
-      <c r="B5460" s="53">
-        <v>6</v>
-      </c>
-      <c r="C5460" s="5">
-        <v>3</v>
+      <c r="B5460" s="52">
+        <v>6</v>
+      </c>
+      <c r="C5460" s="47">
+        <v>6</v>
       </c>
     </row>
     <row r="5461" spans="1:3">
@@ -64392,7 +64428,7 @@
         <v>8</v>
       </c>
       <c r="C5465" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5466" spans="1:3">
@@ -64444,7 +64480,907 @@
       </c>
       <c r="C5473" s="53">
         <f>SUM(C5451:C5472)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5474" spans="1:3">
+      <c r="A5474" s="46" t="s">
+        <v>794</v>
+      </c>
+      <c r="B5474" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5474" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5475" spans="1:3">
+      <c r="A5475" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5475" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5475" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5476" spans="1:3">
+      <c r="A5476" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5476" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5476" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5477" spans="1:3">
+      <c r="A5477" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5477" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5477" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5478" spans="1:3">
+      <c r="A5478" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5478" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5478" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5479" spans="1:3">
+      <c r="A5479" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5479" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5479" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5480" spans="1:3">
+      <c r="A5480" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5480" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5480" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5481" spans="1:3">
+      <c r="A5481" s="54" t="s">
+        <v>791</v>
+      </c>
+      <c r="B5481" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5481" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5482" spans="1:3">
+      <c r="A5482" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5482" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5482" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5483" spans="1:3">
+      <c r="A5483" s="54" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5483" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5483" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5484" spans="1:3">
+      <c r="A5484" s="53" t="s">
+        <v>789</v>
+      </c>
+      <c r="B5484" s="53">
+        <v>10</v>
+      </c>
+      <c r="C5484" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5485" spans="1:3">
+      <c r="A5485" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5485" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5485" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5486" spans="1:3">
+      <c r="A5486" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5486" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5486" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5487" spans="1:3">
+      <c r="A5487" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B5487" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5487" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5488" spans="1:3">
+      <c r="A5488" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B5488" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5488" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5489" spans="1:3">
+      <c r="A5489" s="48" t="s">
+        <v>792</v>
+      </c>
+      <c r="B5489" s="48">
+        <v>16</v>
+      </c>
+      <c r="C5489" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5490" spans="1:3">
+      <c r="A5490" s="5"/>
+      <c r="B5490" s="5"/>
+      <c r="C5490" s="5"/>
+    </row>
+    <row r="5491" spans="1:3">
+      <c r="A5491" s="48"/>
+      <c r="B5491" s="48"/>
+      <c r="C5491" s="48"/>
+    </row>
+    <row r="5492" spans="1:3">
+      <c r="A5492" s="48"/>
+      <c r="B5492" s="48"/>
+      <c r="C5492" s="48"/>
+    </row>
+    <row r="5493" spans="1:3">
+      <c r="A5493" s="48"/>
+      <c r="B5493" s="48"/>
+      <c r="C5493" s="48"/>
+    </row>
+    <row r="5494" spans="1:3">
+      <c r="A5494" s="48"/>
+      <c r="B5494" s="48"/>
+      <c r="C5494" s="48"/>
+    </row>
+    <row r="5495" spans="1:3">
+      <c r="A5495" s="48"/>
+      <c r="B5495" s="48"/>
+      <c r="C5495" s="48"/>
+    </row>
+    <row r="5496" spans="1:3">
+      <c r="A5496" s="53"/>
+      <c r="B5496" s="53"/>
+      <c r="C5496" s="48"/>
+    </row>
+    <row r="5497" spans="1:3">
+      <c r="A5497" s="53"/>
+      <c r="B5497" s="53">
+        <f>SUM(B5475:B5496)</f>
+        <v>193</v>
+      </c>
+      <c r="C5497" s="53">
+        <f>SUM(C5475:C5496)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5498" spans="1:3">
+      <c r="A5498" s="46" t="s">
+        <v>797</v>
+      </c>
+      <c r="B5498" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5498" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5499" spans="1:3">
+      <c r="A5499" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5499" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5499" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5500" spans="1:3">
+      <c r="A5500" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5500" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5500" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5501" spans="1:3">
+      <c r="A5501" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5501" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5501" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5502" spans="1:3">
+      <c r="A5502" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5502" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5502" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5503" spans="1:3">
+      <c r="A5503" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5503" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5503" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5504" spans="1:3">
+      <c r="A5504" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5504" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5504" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5505" spans="1:3">
+      <c r="A5505" s="54" t="s">
+        <v>791</v>
+      </c>
+      <c r="B5505" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5505" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5506" spans="1:3">
+      <c r="A5506" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5506" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5506" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5507" spans="1:3">
+      <c r="A5507" s="54" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5507" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5507" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5508" spans="1:3">
+      <c r="A5508" s="53" t="s">
+        <v>789</v>
+      </c>
+      <c r="B5508" s="53">
+        <v>10</v>
+      </c>
+      <c r="C5508" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5509" spans="1:3">
+      <c r="A5509" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5509" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5509" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5510" spans="1:3">
+      <c r="A5510" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5510" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5510" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5511" spans="1:3">
+      <c r="A5511" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B5511" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5511" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5512" spans="1:3">
+      <c r="A5512" s="47" t="s">
+        <v>787</v>
+      </c>
+      <c r="B5512" s="47">
+        <v>8</v>
+      </c>
+      <c r="C5512" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5513" spans="1:3">
+      <c r="A5513" s="48" t="s">
+        <v>792</v>
+      </c>
+      <c r="B5513" s="48">
+        <v>16</v>
+      </c>
+      <c r="C5513" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5514" spans="1:3">
+      <c r="A5514" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="B5514" s="5">
         <v>3</v>
+      </c>
+      <c r="C5514" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5515" spans="1:3">
+      <c r="A5515" s="48"/>
+      <c r="B5515" s="48"/>
+      <c r="C5515" s="48"/>
+    </row>
+    <row r="5516" spans="1:3">
+      <c r="A5516" s="48"/>
+      <c r="B5516" s="48"/>
+      <c r="C5516" s="48"/>
+    </row>
+    <row r="5517" spans="1:3">
+      <c r="A5517" s="48"/>
+      <c r="B5517" s="48"/>
+      <c r="C5517" s="48"/>
+    </row>
+    <row r="5518" spans="1:3">
+      <c r="A5518" s="48"/>
+      <c r="B5518" s="48"/>
+      <c r="C5518" s="48"/>
+    </row>
+    <row r="5519" spans="1:3">
+      <c r="A5519" s="48"/>
+      <c r="B5519" s="48"/>
+      <c r="C5519" s="48"/>
+    </row>
+    <row r="5520" spans="1:3">
+      <c r="A5520" s="53"/>
+      <c r="B5520" s="53"/>
+      <c r="C5520" s="48"/>
+    </row>
+    <row r="5521" spans="1:3">
+      <c r="A5521" s="53"/>
+      <c r="B5521" s="53">
+        <f>SUM(B5499:B5520)</f>
+        <v>196</v>
+      </c>
+      <c r="C5521" s="53">
+        <f>SUM(C5499:C5520)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5522" spans="1:3">
+      <c r="A5522" s="46" t="s">
+        <v>796</v>
+      </c>
+      <c r="B5522" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5522" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5523" spans="1:3">
+      <c r="A5523" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5523" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5523" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5524" spans="1:3">
+      <c r="A5524" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5524" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5524" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5525" spans="1:3">
+      <c r="A5525" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5525" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5525" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5526" spans="1:3">
+      <c r="A5526" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5526" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5526" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5527" spans="1:3">
+      <c r="A5527" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5527" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5527" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5528" spans="1:3">
+      <c r="A5528" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5528" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5528" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5529" spans="1:3">
+      <c r="A5529" s="54" t="s">
+        <v>791</v>
+      </c>
+      <c r="B5529" s="54">
+        <v>20</v>
+      </c>
+      <c r="C5529" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5530" spans="1:3">
+      <c r="A5530" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5530" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5530" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5531" spans="1:3">
+      <c r="A5531" s="54" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5531" s="54">
+        <v>4</v>
+      </c>
+      <c r="C5531" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5532" spans="1:3">
+      <c r="A5532" s="53" t="s">
+        <v>789</v>
+      </c>
+      <c r="B5532" s="53">
+        <v>10</v>
+      </c>
+      <c r="C5532" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5533" spans="1:3">
+      <c r="A5533" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5533" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5533" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5534" spans="1:3">
+      <c r="A5534" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5534" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5534" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5535" spans="1:3">
+      <c r="A5535" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B5535" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5535" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5536" spans="1:3">
+      <c r="A5536" s="48" t="s">
+        <v>792</v>
+      </c>
+      <c r="B5536" s="48">
+        <v>16</v>
+      </c>
+      <c r="C5536" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5537" spans="1:3">
+      <c r="A5537" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="B5537" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5537" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5538" spans="1:3">
+      <c r="A5538" s="5"/>
+      <c r="B5538" s="5"/>
+      <c r="C5538" s="5"/>
+    </row>
+    <row r="5539" spans="1:3">
+      <c r="A5539" s="48"/>
+      <c r="B5539" s="48"/>
+      <c r="C5539" s="48"/>
+    </row>
+    <row r="5540" spans="1:3">
+      <c r="A5540" s="48"/>
+      <c r="B5540" s="48"/>
+      <c r="C5540" s="48"/>
+    </row>
+    <row r="5541" spans="1:3">
+      <c r="A5541" s="48"/>
+      <c r="B5541" s="48"/>
+      <c r="C5541" s="48"/>
+    </row>
+    <row r="5542" spans="1:3">
+      <c r="A5542" s="48"/>
+      <c r="B5542" s="48"/>
+      <c r="C5542" s="48"/>
+    </row>
+    <row r="5543" spans="1:3">
+      <c r="A5543" s="48"/>
+      <c r="B5543" s="48"/>
+      <c r="C5543" s="48"/>
+    </row>
+    <row r="5544" spans="1:3">
+      <c r="A5544" s="53"/>
+      <c r="B5544" s="53"/>
+      <c r="C5544" s="48"/>
+    </row>
+    <row r="5545" spans="1:3">
+      <c r="A5545" s="53"/>
+      <c r="B5545" s="53">
+        <f>SUM(B5523:B5544)</f>
+        <v>195</v>
+      </c>
+      <c r="C5545" s="53">
+        <f>SUM(C5523:C5544)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5547" spans="1:3">
+      <c r="A5547" s="46" t="s">
+        <v>798</v>
+      </c>
+      <c r="B5547" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5547" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5548" spans="1:3">
+      <c r="A5548" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5548" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5548" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5549" spans="1:3">
+      <c r="A5549" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5549" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5549" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5550" spans="1:3">
+      <c r="A5550" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5550" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5550" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5551" spans="1:3">
+      <c r="A5551" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5551" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5551" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5552" spans="1:3">
+      <c r="A5552" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5552" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5552" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5553" spans="1:3">
+      <c r="A5553" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5553" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5553" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5554" spans="1:3">
+      <c r="A5554" s="52" t="s">
+        <v>801</v>
+      </c>
+      <c r="B5554" s="52">
+        <v>1</v>
+      </c>
+      <c r="C5554" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5555" spans="1:3">
+      <c r="A5555" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5555" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5555" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5556" spans="1:3">
+      <c r="A5556" s="53" t="s">
+        <v>802</v>
+      </c>
+      <c r="B5556" s="53">
+        <v>10</v>
+      </c>
+      <c r="C5556" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5557" spans="1:3">
+      <c r="A5557" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5557" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5557" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5558" spans="1:3">
+      <c r="A5558" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5558" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5558" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5559" spans="1:3">
+      <c r="A5559" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B5559" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5559" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5560" spans="1:3">
+      <c r="A5560" s="48" t="s">
+        <v>803</v>
+      </c>
+      <c r="B5560" s="48">
+        <v>16</v>
+      </c>
+      <c r="C5560" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5561" spans="1:3">
+      <c r="A5561" s="48" t="s">
+        <v>805</v>
+      </c>
+      <c r="B5561" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5561" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5562" spans="1:3">
+      <c r="A5562" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B5562" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5562" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5563" spans="1:3">
+      <c r="A5563" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B5563" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5563" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5564" spans="1:3">
+      <c r="A5564" s="48"/>
+      <c r="B5564" s="48"/>
+      <c r="C5564" s="48"/>
+    </row>
+    <row r="5565" spans="1:3">
+      <c r="A5565" s="48"/>
+      <c r="B5565" s="48"/>
+      <c r="C5565" s="48"/>
+    </row>
+    <row r="5566" spans="1:3">
+      <c r="A5566" s="48"/>
+      <c r="B5566" s="48"/>
+      <c r="C5566" s="48"/>
+    </row>
+    <row r="5567" spans="1:3">
+      <c r="A5567" s="48"/>
+      <c r="B5567" s="48"/>
+      <c r="C5567" s="48"/>
+    </row>
+    <row r="5568" spans="1:3">
+      <c r="A5568" s="48"/>
+      <c r="B5568" s="48"/>
+      <c r="C5568" s="48"/>
+    </row>
+    <row r="5569" spans="1:3">
+      <c r="A5569" s="53"/>
+      <c r="B5569" s="53"/>
+      <c r="C5569" s="48"/>
+    </row>
+    <row r="5570" spans="1:3">
+      <c r="A5570" s="53"/>
+      <c r="B5570" s="53">
+        <f>SUM(B5548:B5569)</f>
+        <v>198</v>
+      </c>
+      <c r="C5570" s="53">
+        <f>SUM(C5548:C5569)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7DA075-5B67-487C-927C-01A0ACC382B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D856FF05-0DC0-4863-B89F-072D122947F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5744" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5780" uniqueCount="814">
   <si>
     <t>ToDo</t>
   </si>
@@ -2464,6 +2464,30 @@
   </si>
   <si>
     <t>Phd: Q-Value Regression (5)</t>
+  </si>
+  <si>
+    <t>Mt: Restart training</t>
+  </si>
+  <si>
+    <t>26.09.2022</t>
+  </si>
+  <si>
+    <t>27.09.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: RoI Sampling Algorithm (1)</t>
+  </si>
+  <si>
+    <t>Phd: Q-Value Regression (2)</t>
+  </si>
+  <si>
+    <t>Insumo: Data Analysis (3)</t>
+  </si>
+  <si>
+    <t>Blackshark: Integrate Ganesh Error Metric (4)</t>
+  </si>
+  <si>
+    <t>Phd: Knowledge Distillation Recap (5)</t>
   </si>
 </sst>
 </file>
@@ -2717,7 +2741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2795,6 +2819,7 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -3809,10 +3834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5570"/>
+  <dimension ref="A1:G5619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5542" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A5558" sqref="A5558"/>
+    <sheetView tabSelected="1" topLeftCell="A5595" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D5610" sqref="D5610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -65262,7 +65287,7 @@
         <v>10</v>
       </c>
       <c r="C5556" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5557" spans="1:3">
@@ -65343,9 +65368,15 @@
       </c>
     </row>
     <row r="5564" spans="1:3">
-      <c r="A5564" s="48"/>
-      <c r="B5564" s="48"/>
-      <c r="C5564" s="48"/>
+      <c r="A5564" s="47" t="s">
+        <v>806</v>
+      </c>
+      <c r="B5564" s="47">
+        <v>2</v>
+      </c>
+      <c r="C5564" s="47">
+        <v>4</v>
+      </c>
     </row>
     <row r="5565" spans="1:3">
       <c r="A5565" s="48"/>
@@ -65376,11 +65407,449 @@
       <c r="A5570" s="53"/>
       <c r="B5570" s="53">
         <f>SUM(B5548:B5569)</f>
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C5570" s="53">
         <f>SUM(C5548:C5569)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5571" spans="1:3">
+      <c r="A5571" s="46" t="s">
+        <v>807</v>
+      </c>
+      <c r="B5571" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5571" s="46" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5572" spans="1:3">
+      <c r="A5572" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5572" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5572" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5573" spans="1:3">
+      <c r="A5573" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5573" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5573" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5574" spans="1:3">
+      <c r="A5574" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5574" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5574" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5575" spans="1:3">
+      <c r="A5575" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5575" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5575" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5576" spans="1:3">
+      <c r="A5576" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5576" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5576" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5577" spans="1:3">
+      <c r="A5577" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5577" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5577" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5578" spans="1:3">
+      <c r="A5578" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5578" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5578" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5579" spans="1:3">
+      <c r="A5579" s="52" t="s">
+        <v>802</v>
+      </c>
+      <c r="B5579" s="52">
+        <v>8</v>
+      </c>
+      <c r="C5579" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5580" spans="1:3">
+      <c r="A5580" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5580" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5580" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5581" spans="1:3">
+      <c r="A5581" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5581" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5581" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5582" spans="1:3">
+      <c r="A5582" s="47" t="s">
+        <v>804</v>
+      </c>
+      <c r="B5582" s="47">
+        <v>5</v>
+      </c>
+      <c r="C5582" s="47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5583" spans="1:3">
+      <c r="A5583" s="48" t="s">
+        <v>803</v>
+      </c>
+      <c r="B5583" s="48">
+        <v>16</v>
+      </c>
+      <c r="C5583" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5584" spans="1:3">
+      <c r="A5584" s="48" t="s">
+        <v>805</v>
+      </c>
+      <c r="B5584" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5584" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5585" spans="1:3">
+      <c r="A5585" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B5585" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5585" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5586" spans="1:3">
+      <c r="A5586" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B5586" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5586" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5587" spans="1:3">
+      <c r="A5587" s="48"/>
+      <c r="B5587" s="48"/>
+      <c r="C5587" s="48"/>
+    </row>
+    <row r="5588" spans="1:3">
+      <c r="A5588" s="48"/>
+      <c r="B5588" s="48"/>
+      <c r="C5588" s="48"/>
+    </row>
+    <row r="5589" spans="1:3">
+      <c r="A5589" s="48"/>
+      <c r="B5589" s="48"/>
+      <c r="C5589" s="48"/>
+    </row>
+    <row r="5590" spans="1:3">
+      <c r="A5590" s="48"/>
+      <c r="B5590" s="48"/>
+      <c r="C5590" s="48"/>
+    </row>
+    <row r="5591" spans="1:3">
+      <c r="A5591" s="48"/>
+      <c r="B5591" s="48"/>
+      <c r="C5591" s="48"/>
+    </row>
+    <row r="5592" spans="1:3">
+      <c r="A5592" s="48"/>
+      <c r="B5592" s="48"/>
+      <c r="C5592" s="48"/>
+    </row>
+    <row r="5593" spans="1:3">
+      <c r="A5593" s="53"/>
+      <c r="B5593" s="53"/>
+      <c r="C5593" s="48"/>
+    </row>
+    <row r="5594" spans="1:3">
+      <c r="A5594" s="53"/>
+      <c r="B5594" s="53">
+        <f>SUM(B5572:B5593)</f>
+        <v>195</v>
+      </c>
+      <c r="C5594" s="53">
+        <f>SUM(C5572:C5593)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5596" spans="1:3">
+      <c r="A5596" s="46" t="s">
+        <v>808</v>
+      </c>
+      <c r="B5596" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5596" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5597" spans="1:3">
+      <c r="A5597" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5597" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5597" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5598" spans="1:3">
+      <c r="A5598" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5598" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5598" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5599" spans="1:3">
+      <c r="A5599" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5599" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5599" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5600" spans="1:3">
+      <c r="A5600" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5600" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5600" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5601" spans="1:3">
+      <c r="A5601" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5601" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5601" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5602" spans="1:3">
+      <c r="A5602" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5602" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5602" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5603" spans="1:3">
+      <c r="A5603" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5603" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5603" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5604" spans="1:3">
+      <c r="A5604" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5604" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5604" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5605" spans="1:3">
+      <c r="A5605" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5605" s="48">
+        <v>16</v>
+      </c>
+      <c r="C5605" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5606" spans="1:3">
+      <c r="A5606" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5606" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5606" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5607" spans="1:3">
+      <c r="A5607" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B5607" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5607" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5608" spans="1:3">
+      <c r="A5608" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B5608" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5608" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5609" spans="1:3">
+      <c r="A5609" s="55" t="s">
+        <v>752</v>
+      </c>
+      <c r="B5609" s="55">
+        <v>2</v>
+      </c>
+      <c r="C5609" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5610" spans="1:3">
+      <c r="A5610" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5610" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5610" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5611" spans="1:3">
+      <c r="A5611" s="5"/>
+      <c r="B5611" s="5"/>
+      <c r="C5611" s="5"/>
+    </row>
+    <row r="5612" spans="1:3">
+      <c r="A5612" s="48"/>
+      <c r="B5612" s="48"/>
+      <c r="C5612" s="48"/>
+    </row>
+    <row r="5613" spans="1:3">
+      <c r="A5613" s="48"/>
+      <c r="B5613" s="48"/>
+      <c r="C5613" s="48"/>
+    </row>
+    <row r="5614" spans="1:3">
+      <c r="A5614" s="48"/>
+      <c r="B5614" s="48"/>
+      <c r="C5614" s="48"/>
+    </row>
+    <row r="5615" spans="1:3">
+      <c r="A5615" s="48"/>
+      <c r="B5615" s="48"/>
+      <c r="C5615" s="48"/>
+    </row>
+    <row r="5616" spans="1:3">
+      <c r="A5616" s="48"/>
+      <c r="B5616" s="48"/>
+      <c r="C5616" s="48"/>
+    </row>
+    <row r="5617" spans="1:3">
+      <c r="A5617" s="48"/>
+      <c r="B5617" s="48"/>
+      <c r="C5617" s="48"/>
+    </row>
+    <row r="5618" spans="1:3">
+      <c r="A5618" s="53"/>
+      <c r="B5618" s="53"/>
+      <c r="C5618" s="48"/>
+    </row>
+    <row r="5619" spans="1:3">
+      <c r="A5619" s="53"/>
+      <c r="B5619" s="53">
+        <f>SUM(B5597:B5618)</f>
+        <v>166</v>
+      </c>
+      <c r="C5619" s="53">
+        <f>SUM(C5597:C5618)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D856FF05-0DC0-4863-B89F-072D122947F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BA36F6-0494-4FDD-BE9A-7BD81AE018A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5780" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5796" uniqueCount="815">
   <si>
     <t>ToDo</t>
   </si>
@@ -2488,6 +2488,9 @@
   </si>
   <si>
     <t>Phd: Knowledge Distillation Recap (5)</t>
+  </si>
+  <si>
+    <t>28.09.2022</t>
   </si>
 </sst>
 </file>
@@ -2819,7 +2822,7 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -3834,10 +3837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5619"/>
+  <dimension ref="A1:G5643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5595" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5610" sqref="D5610"/>
+    <sheetView tabSelected="1" topLeftCell="A5619" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D5627" sqref="D5627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -65740,10 +65743,10 @@
         <v>809</v>
       </c>
       <c r="B5605" s="48">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C5605" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5606" spans="1:3">
@@ -65776,7 +65779,7 @@
         <v>6</v>
       </c>
       <c r="C5608" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5609" spans="1:3">
@@ -65787,7 +65790,7 @@
         <v>2</v>
       </c>
       <c r="C5609" s="55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5610" spans="1:3">
@@ -65845,11 +65848,221 @@
       <c r="A5619" s="53"/>
       <c r="B5619" s="53">
         <f>SUM(B5597:B5618)</f>
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C5619" s="53">
         <f>SUM(C5597:C5618)</f>
-        <v>6</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5620" spans="1:3">
+      <c r="A5620" s="46" t="s">
+        <v>814</v>
+      </c>
+      <c r="B5620" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5620" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5621" spans="1:3">
+      <c r="A5621" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5621" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5621" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5622" spans="1:3">
+      <c r="A5622" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5622" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5622" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5623" spans="1:3">
+      <c r="A5623" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5623" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5623" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5624" spans="1:3">
+      <c r="A5624" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5624" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5624" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5625" spans="1:3">
+      <c r="A5625" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5625" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5625" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5626" spans="1:3">
+      <c r="A5626" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5626" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5626" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5627" spans="1:3">
+      <c r="A5627" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5627" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5627" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5628" spans="1:3">
+      <c r="A5628" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5628" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5628" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5629" spans="1:3">
+      <c r="A5629" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5629" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5629" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5630" spans="1:3">
+      <c r="A5630" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5630" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5630" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5631" spans="1:3">
+      <c r="A5631" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B5631" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5631" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5632" spans="1:3">
+      <c r="A5632" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B5632" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5632" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5633" spans="1:3">
+      <c r="A5633" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5633" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5633" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5634" spans="1:3">
+      <c r="A5634" s="5"/>
+      <c r="B5634" s="5"/>
+      <c r="C5634" s="5"/>
+    </row>
+    <row r="5635" spans="1:3">
+      <c r="A5635" s="5"/>
+      <c r="B5635" s="5"/>
+      <c r="C5635" s="5"/>
+    </row>
+    <row r="5636" spans="1:3">
+      <c r="A5636" s="48"/>
+      <c r="B5636" s="48"/>
+      <c r="C5636" s="48"/>
+    </row>
+    <row r="5637" spans="1:3">
+      <c r="A5637" s="48"/>
+      <c r="B5637" s="48"/>
+      <c r="C5637" s="48"/>
+    </row>
+    <row r="5638" spans="1:3">
+      <c r="A5638" s="48"/>
+      <c r="B5638" s="48"/>
+      <c r="C5638" s="48"/>
+    </row>
+    <row r="5639" spans="1:3">
+      <c r="A5639" s="48"/>
+      <c r="B5639" s="48"/>
+      <c r="C5639" s="48"/>
+    </row>
+    <row r="5640" spans="1:3">
+      <c r="A5640" s="48"/>
+      <c r="B5640" s="48"/>
+      <c r="C5640" s="48"/>
+    </row>
+    <row r="5641" spans="1:3">
+      <c r="A5641" s="48"/>
+      <c r="B5641" s="48"/>
+      <c r="C5641" s="48"/>
+    </row>
+    <row r="5642" spans="1:3">
+      <c r="A5642" s="53"/>
+      <c r="B5642" s="53"/>
+      <c r="C5642" s="48"/>
+    </row>
+    <row r="5643" spans="1:3">
+      <c r="A5643" s="53"/>
+      <c r="B5643" s="53">
+        <f>SUM(B5621:B5642)</f>
+        <v>169</v>
+      </c>
+      <c r="C5643" s="53">
+        <f>SUM(C5621:C5642)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BA36F6-0494-4FDD-BE9A-7BD81AE018A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC8E67F-AC16-4545-80AA-E40080B8A800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17892" windowHeight="6000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -3839,8 +3839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5619" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5627" sqref="D5627"/>
+    <sheetView tabSelected="1" topLeftCell="A5629" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D5632" sqref="D5632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -65995,7 +65995,7 @@
         <v>6</v>
       </c>
       <c r="C5632" s="5">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5633" spans="1:3">
@@ -66062,7 +66062,7 @@
       </c>
       <c r="C5643" s="53">
         <f>SUM(C5621:C5642)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC8E67F-AC16-4545-80AA-E40080B8A800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB95541-6CE7-442A-82F9-6BB81B600F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17892" windowHeight="6000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5796" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6007" uniqueCount="840">
   <si>
     <t>ToDo</t>
   </si>
@@ -2491,6 +2491,81 @@
   </si>
   <si>
     <t>28.09.2022</t>
+  </si>
+  <si>
+    <t>2.10.2022</t>
+  </si>
+  <si>
+    <t>Phd: Batch Normalization (0)</t>
+  </si>
+  <si>
+    <t>5.10.2022</t>
+  </si>
+  <si>
+    <t>Insumo: CVs</t>
+  </si>
+  <si>
+    <t>15.10.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Find feasible RoIs</t>
+  </si>
+  <si>
+    <t>Blackshark: Assign buildings to RoIs</t>
+  </si>
+  <si>
+    <t>Blackshark: Calculate ground truths with off nadir angle</t>
+  </si>
+  <si>
+    <t>Blackshark: Apply archetype regions</t>
+  </si>
+  <si>
+    <t>Blackshark: Optimize over archetype regions</t>
+  </si>
+  <si>
+    <t>16.10.2022</t>
+  </si>
+  <si>
+    <t>17.10.2022</t>
+  </si>
+  <si>
+    <t>MT: Inference</t>
+  </si>
+  <si>
+    <t>18.10.2022</t>
+  </si>
+  <si>
+    <t>20.10.2022</t>
+  </si>
+  <si>
+    <t>Phd: Implement Resnet in CIGT (1)</t>
+  </si>
+  <si>
+    <t>Insumo: Time series</t>
+  </si>
+  <si>
+    <t>CV: Prepare</t>
+  </si>
+  <si>
+    <t>MT: TensorRT conversion</t>
+  </si>
+  <si>
+    <t>MT: Triton Server Inference</t>
+  </si>
+  <si>
+    <t>21.10.2022</t>
+  </si>
+  <si>
+    <t>MT: Measure f1 value</t>
+  </si>
+  <si>
+    <t>22.10.2022</t>
+  </si>
+  <si>
+    <t>23.10.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Calculate class distributions</t>
   </si>
 </sst>
 </file>
@@ -3837,10 +3912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5643"/>
+  <dimension ref="A1:G5885"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5629" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5632" sqref="D5632"/>
+    <sheetView tabSelected="1" topLeftCell="A5863" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D5873" sqref="D5873"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -66063,6 +66138,2412 @@
       <c r="C5643" s="53">
         <f>SUM(C5621:C5642)</f>
         <v>14</v>
+      </c>
+    </row>
+    <row r="5645" spans="1:3">
+      <c r="A5645" s="46" t="s">
+        <v>815</v>
+      </c>
+      <c r="B5645" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5645" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5646" spans="1:3">
+      <c r="A5646" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5646" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5646" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5647" spans="1:3">
+      <c r="A5647" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5647" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5647" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5648" spans="1:3">
+      <c r="A5648" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5648" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5648" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5649" spans="1:3">
+      <c r="A5649" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5649" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5649" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5650" spans="1:3">
+      <c r="A5650" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5650" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5650" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5651" spans="1:3">
+      <c r="A5651" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5651" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5651" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5652" spans="1:3">
+      <c r="A5652" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5652" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5652" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5653" spans="1:3">
+      <c r="A5653" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5653" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5653" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5654" spans="1:3">
+      <c r="A5654" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5654" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5654" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5655" spans="1:3">
+      <c r="A5655" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5655" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5655" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5656" spans="1:3">
+      <c r="A5656" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B5656" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5656" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5657" spans="1:3">
+      <c r="A5657" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B5657" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5657" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5658" spans="1:3">
+      <c r="A5658" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5658" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5658" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5659" spans="1:3">
+      <c r="A5659" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="B5659" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5659" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5660" spans="1:3">
+      <c r="A5660" s="5"/>
+      <c r="B5660" s="5"/>
+      <c r="C5660" s="5"/>
+    </row>
+    <row r="5661" spans="1:3">
+      <c r="A5661" s="48"/>
+      <c r="B5661" s="48"/>
+      <c r="C5661" s="48"/>
+    </row>
+    <row r="5662" spans="1:3">
+      <c r="A5662" s="48"/>
+      <c r="B5662" s="48"/>
+      <c r="C5662" s="48"/>
+    </row>
+    <row r="5663" spans="1:3">
+      <c r="A5663" s="48"/>
+      <c r="B5663" s="48"/>
+      <c r="C5663" s="48"/>
+    </row>
+    <row r="5664" spans="1:3">
+      <c r="A5664" s="48"/>
+      <c r="B5664" s="48"/>
+      <c r="C5664" s="48"/>
+    </row>
+    <row r="5665" spans="1:3">
+      <c r="A5665" s="48"/>
+      <c r="B5665" s="48"/>
+      <c r="C5665" s="48"/>
+    </row>
+    <row r="5666" spans="1:3">
+      <c r="A5666" s="48"/>
+      <c r="B5666" s="48"/>
+      <c r="C5666" s="48"/>
+    </row>
+    <row r="5667" spans="1:3">
+      <c r="A5667" s="53"/>
+      <c r="B5667" s="53"/>
+      <c r="C5667" s="48"/>
+    </row>
+    <row r="5668" spans="1:3">
+      <c r="A5668" s="53"/>
+      <c r="B5668" s="53">
+        <f>SUM(B5646:B5667)</f>
+        <v>175</v>
+      </c>
+      <c r="C5668" s="53">
+        <f>SUM(C5646:C5667)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5669" spans="1:3">
+      <c r="A5669" s="46" t="s">
+        <v>817</v>
+      </c>
+      <c r="B5669" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5669" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5670" spans="1:3">
+      <c r="A5670" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5670" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5670" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5671" spans="1:3">
+      <c r="A5671" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5671" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5671" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5672" spans="1:3">
+      <c r="A5672" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5672" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5672" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5673" spans="1:3">
+      <c r="A5673" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5673" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5673" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5674" spans="1:3">
+      <c r="A5674" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5674" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5674" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5675" spans="1:3">
+      <c r="A5675" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5675" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5675" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5676" spans="1:3">
+      <c r="A5676" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5676" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5676" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5677" spans="1:3">
+      <c r="A5677" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5677" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5677" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5678" spans="1:3">
+      <c r="A5678" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5678" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5678" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5679" spans="1:3">
+      <c r="A5679" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5679" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5679" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5680" spans="1:3">
+      <c r="A5680" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B5680" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5680" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5681" spans="1:3">
+      <c r="A5681" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B5681" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5681" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5682" spans="1:3">
+      <c r="A5682" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5682" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5682" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5683" spans="1:3">
+      <c r="A5683" s="47" t="s">
+        <v>816</v>
+      </c>
+      <c r="B5683" s="47">
+        <v>6</v>
+      </c>
+      <c r="C5683" s="47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5684" spans="1:3">
+      <c r="A5684" s="47" t="s">
+        <v>818</v>
+      </c>
+      <c r="B5684" s="47">
+        <v>2</v>
+      </c>
+      <c r="C5684" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5685" spans="1:3">
+      <c r="A5685" s="48"/>
+      <c r="B5685" s="48"/>
+      <c r="C5685" s="48"/>
+    </row>
+    <row r="5686" spans="1:3">
+      <c r="A5686" s="48"/>
+      <c r="B5686" s="48"/>
+      <c r="C5686" s="48"/>
+    </row>
+    <row r="5687" spans="1:3">
+      <c r="A5687" s="48"/>
+      <c r="B5687" s="48"/>
+      <c r="C5687" s="48"/>
+    </row>
+    <row r="5688" spans="1:3">
+      <c r="A5688" s="48"/>
+      <c r="B5688" s="48"/>
+      <c r="C5688" s="48"/>
+    </row>
+    <row r="5689" spans="1:3">
+      <c r="A5689" s="48"/>
+      <c r="B5689" s="48"/>
+      <c r="C5689" s="48"/>
+    </row>
+    <row r="5690" spans="1:3">
+      <c r="A5690" s="48"/>
+      <c r="B5690" s="48"/>
+      <c r="C5690" s="48"/>
+    </row>
+    <row r="5691" spans="1:3">
+      <c r="A5691" s="53"/>
+      <c r="B5691" s="53"/>
+      <c r="C5691" s="48"/>
+    </row>
+    <row r="5692" spans="1:3">
+      <c r="A5692" s="53"/>
+      <c r="B5692" s="53">
+        <f>SUM(B5670:B5691)</f>
+        <v>177</v>
+      </c>
+      <c r="C5692" s="53">
+        <f>SUM(C5670:C5691)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5693" spans="1:3">
+      <c r="A5693" s="46" t="s">
+        <v>819</v>
+      </c>
+      <c r="B5693" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5693" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5694" spans="1:3">
+      <c r="A5694" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5694" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5694" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5695" spans="1:3">
+      <c r="A5695" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5695" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5695" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5696" spans="1:3">
+      <c r="A5696" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5696" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5696" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5697" spans="1:3">
+      <c r="A5697" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5697" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5697" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5698" spans="1:3">
+      <c r="A5698" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5698" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5698" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5699" spans="1:3">
+      <c r="A5699" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5699" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5699" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5700" spans="1:3">
+      <c r="A5700" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5700" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5700" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5701" spans="1:3">
+      <c r="A5701" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5701" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5701" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5702" spans="1:3">
+      <c r="A5702" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5702" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5702" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5703" spans="1:3">
+      <c r="A5703" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5703" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5703" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5704" spans="1:3">
+      <c r="A5704" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B5704" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5704" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5705" spans="1:3">
+      <c r="A5705" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B5705" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5705" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5706" spans="1:3">
+      <c r="A5706" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5706" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5706" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5707" spans="1:3">
+      <c r="A5707" s="48" t="s">
+        <v>820</v>
+      </c>
+      <c r="B5707" s="48">
+        <v>3</v>
+      </c>
+      <c r="C5707" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5708" spans="1:3">
+      <c r="A5708" s="48" t="s">
+        <v>821</v>
+      </c>
+      <c r="B5708" s="48">
+        <v>6</v>
+      </c>
+      <c r="C5708" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5709" spans="1:3">
+      <c r="A5709" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5709" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5709" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5710" spans="1:3">
+      <c r="A5710" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5710" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5710" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5711" spans="1:3">
+      <c r="A5711" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5711" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5711" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5712" spans="1:3">
+      <c r="A5712" s="48"/>
+      <c r="B5712" s="48"/>
+      <c r="C5712" s="48"/>
+    </row>
+    <row r="5713" spans="1:3">
+      <c r="A5713" s="48"/>
+      <c r="B5713" s="48"/>
+      <c r="C5713" s="48"/>
+    </row>
+    <row r="5714" spans="1:3">
+      <c r="A5714" s="48"/>
+      <c r="B5714" s="48"/>
+      <c r="C5714" s="48"/>
+    </row>
+    <row r="5715" spans="1:3">
+      <c r="A5715" s="53"/>
+      <c r="B5715" s="53"/>
+      <c r="C5715" s="48"/>
+    </row>
+    <row r="5716" spans="1:3">
+      <c r="A5716" s="53"/>
+      <c r="B5716" s="53">
+        <f>SUM(B5694:B5715)</f>
+        <v>198</v>
+      </c>
+      <c r="C5716" s="53">
+        <f>SUM(C5694:C5715)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5717" spans="1:3">
+      <c r="A5717" s="46" t="s">
+        <v>825</v>
+      </c>
+      <c r="B5717" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5717" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5718" spans="1:3">
+      <c r="A5718" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5718" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5718" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5719" spans="1:3">
+      <c r="A5719" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5719" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5719" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5720" spans="1:3">
+      <c r="A5720" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5720" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5720" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5721" spans="1:3">
+      <c r="A5721" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5721" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5721" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5722" spans="1:3">
+      <c r="A5722" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5722" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5722" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5723" spans="1:3">
+      <c r="A5723" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5723" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5723" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5724" spans="1:3">
+      <c r="A5724" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5724" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5724" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5725" spans="1:3">
+      <c r="A5725" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5725" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5725" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5726" spans="1:3">
+      <c r="A5726" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5726" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5726" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5727" spans="1:3">
+      <c r="A5727" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5727" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5727" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5728" spans="1:3">
+      <c r="A5728" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B5728" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5728" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5729" spans="1:3">
+      <c r="A5729" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B5729" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5729" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5730" spans="1:3">
+      <c r="A5730" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5730" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5730" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5731" spans="1:3">
+      <c r="A5731" s="48" t="s">
+        <v>820</v>
+      </c>
+      <c r="B5731" s="48">
+        <v>3</v>
+      </c>
+      <c r="C5731" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5732" spans="1:3">
+      <c r="A5732" s="48" t="s">
+        <v>821</v>
+      </c>
+      <c r="B5732" s="48">
+        <v>6</v>
+      </c>
+      <c r="C5732" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5733" spans="1:3">
+      <c r="A5733" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5733" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5733" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5734" spans="1:3">
+      <c r="A5734" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5734" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5734" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5735" spans="1:3">
+      <c r="A5735" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5735" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5735" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5736" spans="1:3">
+      <c r="A5736" s="48"/>
+      <c r="B5736" s="48"/>
+      <c r="C5736" s="48"/>
+    </row>
+    <row r="5737" spans="1:3">
+      <c r="A5737" s="48"/>
+      <c r="B5737" s="48"/>
+      <c r="C5737" s="48"/>
+    </row>
+    <row r="5738" spans="1:3">
+      <c r="A5738" s="48"/>
+      <c r="B5738" s="48"/>
+      <c r="C5738" s="48"/>
+    </row>
+    <row r="5739" spans="1:3">
+      <c r="A5739" s="53"/>
+      <c r="B5739" s="53"/>
+      <c r="C5739" s="48"/>
+    </row>
+    <row r="5740" spans="1:3">
+      <c r="A5740" s="53"/>
+      <c r="B5740" s="53">
+        <f>SUM(B5718:B5739)</f>
+        <v>198</v>
+      </c>
+      <c r="C5740" s="53">
+        <f>SUM(C5718:C5739)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5741" spans="1:3">
+      <c r="A5741" s="46" t="s">
+        <v>826</v>
+      </c>
+      <c r="B5741" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5741" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5742" spans="1:3">
+      <c r="A5742" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5742" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5742" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5743" spans="1:3">
+      <c r="A5743" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5743" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5743" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5744" spans="1:3">
+      <c r="A5744" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5744" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5744" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5745" spans="1:3">
+      <c r="A5745" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5745" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5745" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5746" spans="1:3">
+      <c r="A5746" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5746" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5746" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5747" spans="1:3">
+      <c r="A5747" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5747" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5747" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5748" spans="1:3">
+      <c r="A5748" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5748" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5748" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5749" spans="1:3">
+      <c r="A5749" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5749" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5749" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5750" spans="1:3">
+      <c r="A5750" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5750" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5750" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5751" spans="1:3">
+      <c r="A5751" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5751" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5751" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5752" spans="1:3">
+      <c r="A5752" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B5752" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5752" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5753" spans="1:3">
+      <c r="A5753" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B5753" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5753" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5754" spans="1:3">
+      <c r="A5754" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5754" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5754" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5755" spans="1:3">
+      <c r="A5755" s="47" t="s">
+        <v>820</v>
+      </c>
+      <c r="B5755" s="47">
+        <v>3</v>
+      </c>
+      <c r="C5755" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5756" spans="1:3">
+      <c r="A5756" s="48" t="s">
+        <v>821</v>
+      </c>
+      <c r="B5756" s="48">
+        <v>6</v>
+      </c>
+      <c r="C5756" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5757" spans="1:3">
+      <c r="A5757" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5757" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5757" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5758" spans="1:3">
+      <c r="A5758" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5758" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5758" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5759" spans="1:3">
+      <c r="A5759" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5759" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5759" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5760" spans="1:3">
+      <c r="A5760" s="48" t="s">
+        <v>827</v>
+      </c>
+      <c r="B5760" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5760" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5761" spans="1:3">
+      <c r="A5761" s="48"/>
+      <c r="B5761" s="48"/>
+      <c r="C5761" s="48"/>
+    </row>
+    <row r="5762" spans="1:3">
+      <c r="A5762" s="48"/>
+      <c r="B5762" s="48"/>
+      <c r="C5762" s="48"/>
+    </row>
+    <row r="5763" spans="1:3">
+      <c r="A5763" s="53"/>
+      <c r="B5763" s="53"/>
+      <c r="C5763" s="48"/>
+    </row>
+    <row r="5764" spans="1:3">
+      <c r="A5764" s="53"/>
+      <c r="B5764" s="53">
+        <f>SUM(B5742:B5763)</f>
+        <v>210</v>
+      </c>
+      <c r="C5764" s="53">
+        <f>SUM(C5742:C5763)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5765" spans="1:3">
+      <c r="A5765" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="B5765" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5765" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5766" spans="1:3">
+      <c r="A5766" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5766" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5766" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5767" spans="1:3">
+      <c r="A5767" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5767" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5767" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5768" spans="1:3">
+      <c r="A5768" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5768" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5768" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5769" spans="1:3">
+      <c r="A5769" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5769" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5769" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5770" spans="1:3">
+      <c r="A5770" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5770" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5770" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5771" spans="1:3">
+      <c r="A5771" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5771" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5771" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5772" spans="1:3">
+      <c r="A5772" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5772" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5772" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5773" spans="1:3">
+      <c r="A5773" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5773" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5773" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5774" spans="1:3">
+      <c r="A5774" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5774" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5774" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5775" spans="1:3">
+      <c r="A5775" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5775" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5775" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5776" spans="1:3">
+      <c r="A5776" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B5776" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5776" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5777" spans="1:3">
+      <c r="A5777" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B5777" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5777" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5778" spans="1:3">
+      <c r="A5778" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5778" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5778" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5779" spans="1:3">
+      <c r="A5779" s="48" t="s">
+        <v>821</v>
+      </c>
+      <c r="B5779" s="48">
+        <v>6</v>
+      </c>
+      <c r="C5779" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5780" spans="1:3">
+      <c r="A5780" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5780" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5780" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5781" spans="1:3">
+      <c r="A5781" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5781" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5781" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5782" spans="1:3">
+      <c r="A5782" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5782" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5782" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5783" spans="1:3">
+      <c r="A5783" s="48" t="s">
+        <v>827</v>
+      </c>
+      <c r="B5783" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5783" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5784" spans="1:3">
+      <c r="A5784" s="48"/>
+      <c r="B5784" s="48"/>
+      <c r="C5784" s="48"/>
+    </row>
+    <row r="5785" spans="1:3">
+      <c r="A5785" s="48"/>
+      <c r="B5785" s="48"/>
+      <c r="C5785" s="48"/>
+    </row>
+    <row r="5786" spans="1:3">
+      <c r="A5786" s="48"/>
+      <c r="B5786" s="48"/>
+      <c r="C5786" s="48"/>
+    </row>
+    <row r="5787" spans="1:3">
+      <c r="A5787" s="53"/>
+      <c r="B5787" s="53"/>
+      <c r="C5787" s="48"/>
+    </row>
+    <row r="5788" spans="1:3">
+      <c r="A5788" s="53"/>
+      <c r="B5788" s="53">
+        <f>SUM(B5766:B5787)</f>
+        <v>207</v>
+      </c>
+      <c r="C5788" s="53">
+        <f>SUM(C5766:C5787)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5789" spans="1:3">
+      <c r="A5789" s="46" t="s">
+        <v>829</v>
+      </c>
+      <c r="B5789" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5789" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5790" spans="1:3">
+      <c r="A5790" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5790" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5790" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5791" spans="1:3">
+      <c r="A5791" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5791" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5791" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5792" spans="1:3">
+      <c r="A5792" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5792" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5792" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5793" spans="1:3">
+      <c r="A5793" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5793" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5793" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5794" spans="1:3">
+      <c r="A5794" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5794" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5794" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5795" spans="1:3">
+      <c r="A5795" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5795" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5795" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5796" spans="1:3">
+      <c r="A5796" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5796" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5796" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5797" spans="1:3">
+      <c r="A5797" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5797" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5797" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5798" spans="1:3">
+      <c r="A5798" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5798" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5798" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5799" spans="1:3">
+      <c r="A5799" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5799" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5799" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5800" spans="1:3">
+      <c r="A5800" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B5800" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5800" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5801" spans="1:3">
+      <c r="A5801" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B5801" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5801" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5802" spans="1:3">
+      <c r="A5802" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5802" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5802" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5803" spans="1:3">
+      <c r="A5803" s="48" t="s">
+        <v>821</v>
+      </c>
+      <c r="B5803" s="48">
+        <v>6</v>
+      </c>
+      <c r="C5803" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5804" spans="1:3">
+      <c r="A5804" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5804" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5804" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5805" spans="1:3">
+      <c r="A5805" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5805" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5805" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5806" spans="1:3">
+      <c r="A5806" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5806" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5806" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5807" spans="1:3">
+      <c r="A5807" s="48" t="s">
+        <v>827</v>
+      </c>
+      <c r="B5807" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5807" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5808" spans="1:3">
+      <c r="A5808" s="47" t="s">
+        <v>832</v>
+      </c>
+      <c r="B5808" s="47">
+        <v>2</v>
+      </c>
+      <c r="C5808" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5809" spans="1:3">
+      <c r="A5809" s="48" t="s">
+        <v>833</v>
+      </c>
+      <c r="B5809" s="48">
+        <v>3</v>
+      </c>
+      <c r="C5809" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5810" spans="1:3">
+      <c r="A5810" s="48" t="s">
+        <v>834</v>
+      </c>
+      <c r="B5810" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5810" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5811" spans="1:3">
+      <c r="A5811" s="53"/>
+      <c r="B5811" s="53"/>
+      <c r="C5811" s="48"/>
+    </row>
+    <row r="5812" spans="1:3">
+      <c r="A5812" s="53"/>
+      <c r="B5812" s="53">
+        <f>SUM(B5790:B5811)</f>
+        <v>216</v>
+      </c>
+      <c r="C5812" s="53">
+        <f>SUM(C5790:C5811)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5814" spans="1:3">
+      <c r="A5814" s="46" t="s">
+        <v>835</v>
+      </c>
+      <c r="B5814" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5814" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5815" spans="1:3">
+      <c r="A5815" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5815" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5815" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5816" spans="1:3">
+      <c r="A5816" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5816" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5816" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5817" spans="1:3">
+      <c r="A5817" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5817" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5817" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5818" spans="1:3">
+      <c r="A5818" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5818" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5818" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5819" spans="1:3">
+      <c r="A5819" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5819" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5819" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5820" spans="1:3">
+      <c r="A5820" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5820" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5820" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5821" spans="1:3">
+      <c r="A5821" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5821" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5821" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5822" spans="1:3">
+      <c r="A5822" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5822" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5822" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5823" spans="1:3">
+      <c r="A5823" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5823" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5823" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5824" spans="1:3">
+      <c r="A5824" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5824" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5824" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5825" spans="1:3">
+      <c r="A5825" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B5825" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5825" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5826" spans="1:3">
+      <c r="A5826" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B5826" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5826" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5827" spans="1:3">
+      <c r="A5827" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5827" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5827" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5828" spans="1:3">
+      <c r="A5828" s="48" t="s">
+        <v>821</v>
+      </c>
+      <c r="B5828" s="48">
+        <v>6</v>
+      </c>
+      <c r="C5828" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5829" spans="1:3">
+      <c r="A5829" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5829" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5829" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5830" spans="1:3">
+      <c r="A5830" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5830" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5830" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5831" spans="1:3">
+      <c r="A5831" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5831" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5831" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5832" spans="1:3">
+      <c r="A5832" s="48" t="s">
+        <v>833</v>
+      </c>
+      <c r="B5832" s="48">
+        <v>6</v>
+      </c>
+      <c r="C5832" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5833" spans="1:3">
+      <c r="A5833" s="48" t="s">
+        <v>834</v>
+      </c>
+      <c r="B5833" s="48">
+        <v>8</v>
+      </c>
+      <c r="C5833" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5834" spans="1:3">
+      <c r="A5834" s="48" t="s">
+        <v>836</v>
+      </c>
+      <c r="B5834" s="48">
+        <v>2</v>
+      </c>
+      <c r="C5834" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5835" spans="1:3">
+      <c r="A5835" s="48"/>
+      <c r="B5835" s="48"/>
+      <c r="C5835" s="48"/>
+    </row>
+    <row r="5836" spans="1:3">
+      <c r="A5836" s="53"/>
+      <c r="B5836" s="53"/>
+      <c r="C5836" s="48"/>
+    </row>
+    <row r="5837" spans="1:3">
+      <c r="A5837" s="53"/>
+      <c r="B5837" s="53">
+        <f>SUM(B5815:B5836)</f>
+        <v>211</v>
+      </c>
+      <c r="C5837" s="53">
+        <f>SUM(C5815:C5836)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5838" spans="1:3">
+      <c r="A5838" s="46" t="s">
+        <v>837</v>
+      </c>
+      <c r="B5838" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5838" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5839" spans="1:3">
+      <c r="A5839" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5839" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5839" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5840" spans="1:3">
+      <c r="A5840" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5840" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5840" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5841" spans="1:3">
+      <c r="A5841" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5841" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5841" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5842" spans="1:3">
+      <c r="A5842" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5842" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5842" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5843" spans="1:3">
+      <c r="A5843" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5843" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5843" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5844" spans="1:3">
+      <c r="A5844" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5844" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5844" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5845" spans="1:3">
+      <c r="A5845" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5845" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5845" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5846" spans="1:3">
+      <c r="A5846" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5846" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5846" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5847" spans="1:3">
+      <c r="A5847" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5847" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5847" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5848" spans="1:3">
+      <c r="A5848" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5848" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5848" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5849" spans="1:3">
+      <c r="A5849" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B5849" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5849" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5850" spans="1:3">
+      <c r="A5850" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B5850" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5850" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5851" spans="1:3">
+      <c r="A5851" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5851" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5851" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5852" spans="1:3">
+      <c r="A5852" s="47" t="s">
+        <v>821</v>
+      </c>
+      <c r="B5852" s="47">
+        <v>6</v>
+      </c>
+      <c r="C5852" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5853" spans="1:3">
+      <c r="A5853" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5853" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5853" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5854" spans="1:3">
+      <c r="A5854" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5854" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5854" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5855" spans="1:3">
+      <c r="A5855" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5855" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5855" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5856" spans="1:3">
+      <c r="A5856" s="47" t="s">
+        <v>833</v>
+      </c>
+      <c r="B5856" s="47">
+        <v>2</v>
+      </c>
+      <c r="C5856" s="47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5857" spans="1:3">
+      <c r="A5857" s="48" t="s">
+        <v>834</v>
+      </c>
+      <c r="B5857" s="48">
+        <v>8</v>
+      </c>
+      <c r="C5857" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5858" spans="1:3">
+      <c r="A5858" s="47" t="s">
+        <v>836</v>
+      </c>
+      <c r="B5858" s="47">
+        <v>1</v>
+      </c>
+      <c r="C5858" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5859" spans="1:3">
+      <c r="A5859" s="48"/>
+      <c r="B5859" s="48"/>
+      <c r="C5859" s="48"/>
+    </row>
+    <row r="5860" spans="1:3">
+      <c r="A5860" s="53"/>
+      <c r="B5860" s="53"/>
+      <c r="C5860" s="48"/>
+    </row>
+    <row r="5861" spans="1:3">
+      <c r="A5861" s="53"/>
+      <c r="B5861" s="53">
+        <f>SUM(B5839:B5860)</f>
+        <v>206</v>
+      </c>
+      <c r="C5861" s="53">
+        <f>SUM(C5839:C5860)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5862" spans="1:3">
+      <c r="A5862" s="46" t="s">
+        <v>838</v>
+      </c>
+      <c r="B5862" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5862" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5863" spans="1:3">
+      <c r="A5863" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5863" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5863" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5864" spans="1:3">
+      <c r="A5864" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5864" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5864" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5865" spans="1:3">
+      <c r="A5865" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5865" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5865" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5866" spans="1:3">
+      <c r="A5866" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5866" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5866" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5867" spans="1:3">
+      <c r="A5867" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5867" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5867" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5868" spans="1:3">
+      <c r="A5868" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5868" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5868" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5869" spans="1:3">
+      <c r="A5869" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5869" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5869" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5870" spans="1:3">
+      <c r="A5870" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5870" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5870" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5871" spans="1:3">
+      <c r="A5871" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5871" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5871" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5872" spans="1:3">
+      <c r="A5872" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5872" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5872" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5873" spans="1:3">
+      <c r="A5873" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B5873" s="5">
+        <v>16</v>
+      </c>
+      <c r="C5873" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5874" spans="1:3">
+      <c r="A5874" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B5874" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5874" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5875" spans="1:3">
+      <c r="A5875" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5875" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5875" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5876" spans="1:3">
+      <c r="A5876" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5876" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5876" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5877" spans="1:3">
+      <c r="A5877" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5877" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5877" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5878" spans="1:3">
+      <c r="A5878" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5878" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5878" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5879" spans="1:3">
+      <c r="A5879" s="47" t="s">
+        <v>834</v>
+      </c>
+      <c r="B5879" s="47">
+        <v>8</v>
+      </c>
+      <c r="C5879" s="47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5880" spans="1:3">
+      <c r="A5880" s="48" t="s">
+        <v>839</v>
+      </c>
+      <c r="B5880" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5880" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5881" spans="1:3">
+      <c r="A5881" s="48"/>
+      <c r="B5881" s="48"/>
+      <c r="C5881" s="48"/>
+    </row>
+    <row r="5882" spans="1:3">
+      <c r="A5882" s="48"/>
+      <c r="B5882" s="48"/>
+      <c r="C5882" s="48"/>
+    </row>
+    <row r="5883" spans="1:3">
+      <c r="A5883" s="48"/>
+      <c r="B5883" s="48"/>
+      <c r="C5883" s="48"/>
+    </row>
+    <row r="5884" spans="1:3">
+      <c r="A5884" s="53"/>
+      <c r="B5884" s="53"/>
+      <c r="C5884" s="48"/>
+    </row>
+    <row r="5885" spans="1:3">
+      <c r="A5885" s="53"/>
+      <c r="B5885" s="53">
+        <f>SUM(B5863:B5884)</f>
+        <v>209</v>
+      </c>
+      <c r="C5885" s="53">
+        <f>SUM(C5863:C5884)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB95541-6CE7-442A-82F9-6BB81B600F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20812C51-7BDF-4912-85EC-1CD5854C41E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6007" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6149" uniqueCount="853">
   <si>
     <t>ToDo</t>
   </si>
@@ -2566,6 +2566,45 @@
   </si>
   <si>
     <t>Blackshark: Calculate class distributions</t>
+  </si>
+  <si>
+    <t>Job Applications</t>
+  </si>
+  <si>
+    <t>24-25.10.2022</t>
+  </si>
+  <si>
+    <t>MT: Deploy inference</t>
+  </si>
+  <si>
+    <t>26.10.2022</t>
+  </si>
+  <si>
+    <t>27.10.2022</t>
+  </si>
+  <si>
+    <t>28.10.2022</t>
+  </si>
+  <si>
+    <t>29.10.2022</t>
+  </si>
+  <si>
+    <t>Insumo: Recalculate productivity scores</t>
+  </si>
+  <si>
+    <t>30.10.2022</t>
+  </si>
+  <si>
+    <t>Insumo: Prepare Case</t>
+  </si>
+  <si>
+    <t>Phd: Implement composite Conv + Batch Norm layer with Batch Norm masking considerations</t>
+  </si>
+  <si>
+    <t>31.10.2022</t>
+  </si>
+  <si>
+    <t>Phd: Implement Resnet BasicBlock</t>
   </si>
 </sst>
 </file>
@@ -3912,10 +3951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5885"/>
+  <dimension ref="A1:G6053"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5863" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5873" sqref="D5873"/>
+    <sheetView tabSelected="1" topLeftCell="A6030" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D6047" sqref="D6047"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -68544,6 +68583,1656 @@
       <c r="C5885" s="53">
         <f>SUM(C5863:C5884)</f>
         <v>16</v>
+      </c>
+    </row>
+    <row r="5886" spans="1:3">
+      <c r="A5886" s="46" t="s">
+        <v>841</v>
+      </c>
+      <c r="B5886" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5886" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5887" spans="1:3">
+      <c r="A5887" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5887" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5887" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5888" spans="1:3">
+      <c r="A5888" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5888" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5888" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5889" spans="1:3">
+      <c r="A5889" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5889" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5889" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5890" spans="1:3">
+      <c r="A5890" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5890" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5890" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5891" spans="1:3">
+      <c r="A5891" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5891" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5891" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5892" spans="1:3">
+      <c r="A5892" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5892" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5892" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5893" spans="1:3">
+      <c r="A5893" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5893" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5893" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5894" spans="1:3">
+      <c r="A5894" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5894" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5894" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5895" spans="1:3">
+      <c r="A5895" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5895" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5895" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5896" spans="1:3">
+      <c r="A5896" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5896" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5896" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5897" spans="1:3">
+      <c r="A5897" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B5897" s="5">
+        <v>16</v>
+      </c>
+      <c r="C5897" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5898" spans="1:3">
+      <c r="A5898" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B5898" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5898" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5899" spans="1:3">
+      <c r="A5899" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5899" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5899" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5900" spans="1:3">
+      <c r="A5900" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5900" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5900" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5901" spans="1:3">
+      <c r="A5901" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5901" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5901" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5902" spans="1:3">
+      <c r="A5902" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5902" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5902" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5903" spans="1:3">
+      <c r="A5903" s="48" t="s">
+        <v>839</v>
+      </c>
+      <c r="B5903" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5903" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5904" spans="1:3">
+      <c r="A5904" s="47" t="s">
+        <v>840</v>
+      </c>
+      <c r="B5904" s="47">
+        <v>2</v>
+      </c>
+      <c r="C5904" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5905" spans="1:3">
+      <c r="A5905" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="B5905" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5905" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5906" spans="1:3">
+      <c r="A5906" s="48"/>
+      <c r="B5906" s="48"/>
+      <c r="C5906" s="48"/>
+    </row>
+    <row r="5907" spans="1:3">
+      <c r="A5907" s="48"/>
+      <c r="B5907" s="48"/>
+      <c r="C5907" s="48"/>
+    </row>
+    <row r="5908" spans="1:3">
+      <c r="A5908" s="53"/>
+      <c r="B5908" s="53"/>
+      <c r="C5908" s="48"/>
+    </row>
+    <row r="5909" spans="1:3">
+      <c r="A5909" s="53"/>
+      <c r="B5909" s="53">
+        <f>SUM(B5887:B5908)</f>
+        <v>207</v>
+      </c>
+      <c r="C5909" s="53">
+        <f>SUM(C5887:C5908)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5910" spans="1:3">
+      <c r="A5910" s="46" t="s">
+        <v>843</v>
+      </c>
+      <c r="B5910" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5910" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5911" spans="1:3">
+      <c r="A5911" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5911" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5911" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5912" spans="1:3">
+      <c r="A5912" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5912" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5912" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5913" spans="1:3">
+      <c r="A5913" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5913" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5913" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5914" spans="1:3">
+      <c r="A5914" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5914" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5914" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5915" spans="1:3">
+      <c r="A5915" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5915" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5915" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5916" spans="1:3">
+      <c r="A5916" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5916" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5916" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5917" spans="1:3">
+      <c r="A5917" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5917" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5917" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5918" spans="1:3">
+      <c r="A5918" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5918" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5918" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5919" spans="1:3">
+      <c r="A5919" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5919" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5919" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5920" spans="1:3">
+      <c r="A5920" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5920" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5920" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5921" spans="1:3">
+      <c r="A5921" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B5921" s="5">
+        <v>16</v>
+      </c>
+      <c r="C5921" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5922" spans="1:3">
+      <c r="A5922" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B5922" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5922" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5923" spans="1:3">
+      <c r="A5923" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5923" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5923" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5924" spans="1:3">
+      <c r="A5924" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5924" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5924" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5925" spans="1:3">
+      <c r="A5925" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5925" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5925" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5926" spans="1:3">
+      <c r="A5926" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5926" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5926" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5927" spans="1:3">
+      <c r="A5927" s="48" t="s">
+        <v>839</v>
+      </c>
+      <c r="B5927" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5927" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5928" spans="1:3">
+      <c r="A5928" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="B5928" s="48">
+        <v>8</v>
+      </c>
+      <c r="C5928" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5929" spans="1:3">
+      <c r="A5929" s="48"/>
+      <c r="B5929" s="48"/>
+      <c r="C5929" s="48"/>
+    </row>
+    <row r="5930" spans="1:3">
+      <c r="A5930" s="48"/>
+      <c r="B5930" s="48"/>
+      <c r="C5930" s="48"/>
+    </row>
+    <row r="5931" spans="1:3">
+      <c r="A5931" s="48"/>
+      <c r="B5931" s="48"/>
+      <c r="C5931" s="48"/>
+    </row>
+    <row r="5932" spans="1:3">
+      <c r="A5932" s="53"/>
+      <c r="B5932" s="53"/>
+      <c r="C5932" s="48"/>
+    </row>
+    <row r="5933" spans="1:3">
+      <c r="A5933" s="53"/>
+      <c r="B5933" s="53">
+        <f>SUM(B5911:B5932)</f>
+        <v>209</v>
+      </c>
+      <c r="C5933" s="53">
+        <f>SUM(C5911:C5932)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5934" spans="1:3">
+      <c r="A5934" s="46" t="s">
+        <v>844</v>
+      </c>
+      <c r="B5934" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5934" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5935" spans="1:3">
+      <c r="A5935" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5935" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5935" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5936" spans="1:3">
+      <c r="A5936" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5936" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5936" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5937" spans="1:3">
+      <c r="A5937" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5937" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5937" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5938" spans="1:3">
+      <c r="A5938" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5938" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5938" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5939" spans="1:3">
+      <c r="A5939" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5939" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5939" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5940" spans="1:3">
+      <c r="A5940" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5940" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5940" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5941" spans="1:3">
+      <c r="A5941" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5941" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5941" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5942" spans="1:3">
+      <c r="A5942" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5942" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5942" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5943" spans="1:3">
+      <c r="A5943" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5943" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5943" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5944" spans="1:3">
+      <c r="A5944" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5944" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5944" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5945" spans="1:3">
+      <c r="A5945" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B5945" s="5">
+        <v>16</v>
+      </c>
+      <c r="C5945" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5946" spans="1:3">
+      <c r="A5946" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B5946" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5946" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5947" spans="1:3">
+      <c r="A5947" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5947" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5947" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5948" spans="1:3">
+      <c r="A5948" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5948" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5948" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5949" spans="1:3">
+      <c r="A5949" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5949" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5949" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5950" spans="1:3">
+      <c r="A5950" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5950" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5950" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5951" spans="1:3">
+      <c r="A5951" s="48" t="s">
+        <v>839</v>
+      </c>
+      <c r="B5951" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5951" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5952" spans="1:3">
+      <c r="A5952" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="B5952" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5952" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5953" spans="1:3">
+      <c r="A5953" s="48"/>
+      <c r="B5953" s="48"/>
+      <c r="C5953" s="48"/>
+    </row>
+    <row r="5954" spans="1:3">
+      <c r="A5954" s="48"/>
+      <c r="B5954" s="48"/>
+      <c r="C5954" s="48"/>
+    </row>
+    <row r="5955" spans="1:3">
+      <c r="A5955" s="48"/>
+      <c r="B5955" s="48"/>
+      <c r="C5955" s="48"/>
+    </row>
+    <row r="5956" spans="1:3">
+      <c r="A5956" s="53"/>
+      <c r="B5956" s="53"/>
+      <c r="C5956" s="48"/>
+    </row>
+    <row r="5957" spans="1:3">
+      <c r="A5957" s="53"/>
+      <c r="B5957" s="53">
+        <f>SUM(B5935:B5956)</f>
+        <v>200</v>
+      </c>
+      <c r="C5957" s="53">
+        <f>SUM(C5935:C5956)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5958" spans="1:3">
+      <c r="A5958" s="46" t="s">
+        <v>845</v>
+      </c>
+      <c r="B5958" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5958" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5959" spans="1:3">
+      <c r="A5959" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5959" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5959" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5960" spans="1:3">
+      <c r="A5960" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5960" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5960" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5961" spans="1:3">
+      <c r="A5961" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5961" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5961" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5962" spans="1:3">
+      <c r="A5962" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5962" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5962" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5963" spans="1:3">
+      <c r="A5963" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5963" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5963" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5964" spans="1:3">
+      <c r="A5964" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5964" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5964" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5965" spans="1:3">
+      <c r="A5965" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5965" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5965" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5966" spans="1:3">
+      <c r="A5966" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5966" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5966" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5967" spans="1:3">
+      <c r="A5967" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5967" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5967" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5968" spans="1:3">
+      <c r="A5968" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5968" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5968" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5969" spans="1:3">
+      <c r="A5969" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B5969" s="5">
+        <v>16</v>
+      </c>
+      <c r="C5969" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5970" spans="1:3">
+      <c r="A5970" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B5970" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5970" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5971" spans="1:3">
+      <c r="A5971" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5971" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5971" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5972" spans="1:3">
+      <c r="A5972" s="47" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5972" s="47">
+        <v>4</v>
+      </c>
+      <c r="C5972" s="47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5973" spans="1:3">
+      <c r="A5973" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5973" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5973" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5974" spans="1:3">
+      <c r="A5974" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5974" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5974" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5975" spans="1:3">
+      <c r="A5975" s="48" t="s">
+        <v>839</v>
+      </c>
+      <c r="B5975" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5975" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5976" spans="1:3">
+      <c r="A5976" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="B5976" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5976" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5977" spans="1:3">
+      <c r="A5977" s="48"/>
+      <c r="B5977" s="48"/>
+      <c r="C5977" s="48"/>
+    </row>
+    <row r="5978" spans="1:3">
+      <c r="A5978" s="48"/>
+      <c r="B5978" s="48"/>
+      <c r="C5978" s="48"/>
+    </row>
+    <row r="5979" spans="1:3">
+      <c r="A5979" s="48"/>
+      <c r="B5979" s="48"/>
+      <c r="C5979" s="48"/>
+    </row>
+    <row r="5980" spans="1:3">
+      <c r="A5980" s="53"/>
+      <c r="B5980" s="53"/>
+      <c r="C5980" s="48"/>
+    </row>
+    <row r="5981" spans="1:3">
+      <c r="A5981" s="53"/>
+      <c r="B5981" s="53">
+        <f>SUM(B5959:B5980)</f>
+        <v>200</v>
+      </c>
+      <c r="C5981" s="53">
+        <f>SUM(C5959:C5980)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5982" spans="1:3">
+      <c r="A5982" s="46" t="s">
+        <v>846</v>
+      </c>
+      <c r="B5982" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5982" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5983" spans="1:3">
+      <c r="A5983" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5983" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5983" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5984" spans="1:3">
+      <c r="A5984" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5984" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5984" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5985" spans="1:3">
+      <c r="A5985" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5985" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5985" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5986" spans="1:3">
+      <c r="A5986" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5986" s="54">
+        <v>24</v>
+      </c>
+      <c r="C5986" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5987" spans="1:3">
+      <c r="A5987" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5987" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5987" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5988" spans="1:3">
+      <c r="A5988" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5988" s="54">
+        <v>12</v>
+      </c>
+      <c r="C5988" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5989" spans="1:3">
+      <c r="A5989" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5989" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5989" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5990" spans="1:3">
+      <c r="A5990" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5990" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5990" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5991" spans="1:3">
+      <c r="A5991" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5991" s="48">
+        <v>21</v>
+      </c>
+      <c r="C5991" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5992" spans="1:3">
+      <c r="A5992" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5992" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5992" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5993" spans="1:3">
+      <c r="A5993" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B5993" s="5">
+        <v>16</v>
+      </c>
+      <c r="C5993" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5994" spans="1:3">
+      <c r="A5994" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="B5994" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5994" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5995" spans="1:3">
+      <c r="A5995" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5995" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5995" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5996" spans="1:3">
+      <c r="A5996" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5996" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5996" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5997" spans="1:3">
+      <c r="A5997" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5997" s="48">
+        <v>12</v>
+      </c>
+      <c r="C5997" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5998" spans="1:3">
+      <c r="A5998" s="48" t="s">
+        <v>839</v>
+      </c>
+      <c r="B5998" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5998" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5999" spans="1:3">
+      <c r="A5999" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="B5999" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5999" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6000" spans="1:3">
+      <c r="A6000" s="48"/>
+      <c r="B6000" s="48"/>
+      <c r="C6000" s="5"/>
+    </row>
+    <row r="6001" spans="1:3">
+      <c r="A6001" s="48"/>
+      <c r="B6001" s="48"/>
+      <c r="C6001" s="48"/>
+    </row>
+    <row r="6002" spans="1:3">
+      <c r="A6002" s="48"/>
+      <c r="B6002" s="48"/>
+      <c r="C6002" s="48"/>
+    </row>
+    <row r="6003" spans="1:3">
+      <c r="A6003" s="48"/>
+      <c r="B6003" s="48"/>
+      <c r="C6003" s="48"/>
+    </row>
+    <row r="6004" spans="1:3">
+      <c r="A6004" s="53"/>
+      <c r="B6004" s="53"/>
+      <c r="C6004" s="48"/>
+    </row>
+    <row r="6005" spans="1:3">
+      <c r="A6005" s="53"/>
+      <c r="B6005" s="53">
+        <f>SUM(B5983:B6004)</f>
+        <v>201</v>
+      </c>
+      <c r="C6005" s="53">
+        <f>SUM(C5983:C6004)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6006" spans="1:3">
+      <c r="A6006" s="46" t="s">
+        <v>848</v>
+      </c>
+      <c r="B6006" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6006" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6007" spans="1:3">
+      <c r="A6007" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6007" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6007" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6008" spans="1:3">
+      <c r="A6008" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6008" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6008" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6009" spans="1:3">
+      <c r="A6009" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6009" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6009" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6010" spans="1:3">
+      <c r="A6010" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6010" s="54">
+        <v>24</v>
+      </c>
+      <c r="C6010" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6011" spans="1:3">
+      <c r="A6011" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6011" s="54">
+        <v>2</v>
+      </c>
+      <c r="C6011" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6012" spans="1:3">
+      <c r="A6012" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B6012" s="48">
+        <v>21</v>
+      </c>
+      <c r="C6012" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6013" spans="1:3">
+      <c r="A6013" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6013" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6013" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6014" spans="1:3">
+      <c r="A6014" s="47" t="s">
+        <v>850</v>
+      </c>
+      <c r="B6014" s="47">
+        <v>4</v>
+      </c>
+      <c r="C6014" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6015" spans="1:3">
+      <c r="A6015" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="B6015" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6015" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6016" spans="1:3">
+      <c r="A6016" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6016" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6016" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6017" spans="1:3">
+      <c r="A6017" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B6017" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6017" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6018" spans="1:3">
+      <c r="A6018" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B6018" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6018" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6019" spans="1:3">
+      <c r="A6019" s="47" t="s">
+        <v>839</v>
+      </c>
+      <c r="B6019" s="47">
+        <v>4</v>
+      </c>
+      <c r="C6019" s="47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6020" spans="1:3">
+      <c r="A6020" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="B6020" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6020" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6021" spans="1:3">
+      <c r="A6021" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B6021" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6021" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6022" spans="1:3">
+      <c r="A6022" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6022" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6022" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6023" spans="1:3">
+      <c r="A6023" s="5"/>
+      <c r="B6023" s="5"/>
+      <c r="C6023" s="5"/>
+    </row>
+    <row r="6024" spans="1:3">
+      <c r="A6024" s="48"/>
+      <c r="B6024" s="48"/>
+      <c r="C6024" s="5"/>
+    </row>
+    <row r="6025" spans="1:3">
+      <c r="A6025" s="48"/>
+      <c r="B6025" s="48"/>
+      <c r="C6025" s="48"/>
+    </row>
+    <row r="6026" spans="1:3">
+      <c r="A6026" s="48"/>
+      <c r="B6026" s="48"/>
+      <c r="C6026" s="48"/>
+    </row>
+    <row r="6027" spans="1:3">
+      <c r="A6027" s="48"/>
+      <c r="B6027" s="48"/>
+      <c r="C6027" s="48"/>
+    </row>
+    <row r="6028" spans="1:3">
+      <c r="A6028" s="53"/>
+      <c r="B6028" s="53"/>
+      <c r="C6028" s="48"/>
+    </row>
+    <row r="6029" spans="1:3">
+      <c r="A6029" s="53"/>
+      <c r="B6029" s="53">
+        <f>SUM(B6007:B6028)</f>
+        <v>174</v>
+      </c>
+      <c r="C6029" s="53">
+        <f>SUM(C6007:C6028)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6030" spans="1:3">
+      <c r="A6030" s="46" t="s">
+        <v>851</v>
+      </c>
+      <c r="B6030" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6030" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6031" spans="1:3">
+      <c r="A6031" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6031" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6031" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6032" spans="1:3">
+      <c r="A6032" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6032" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6032" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6033" spans="1:3">
+      <c r="A6033" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6033" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6033" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6034" spans="1:3">
+      <c r="A6034" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6034" s="54">
+        <v>24</v>
+      </c>
+      <c r="C6034" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6035" spans="1:3">
+      <c r="A6035" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6035" s="54">
+        <v>2</v>
+      </c>
+      <c r="C6035" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6036" spans="1:3">
+      <c r="A6036" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B6036" s="48">
+        <v>21</v>
+      </c>
+      <c r="C6036" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6037" spans="1:3">
+      <c r="A6037" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6037" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6037" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6038" spans="1:3">
+      <c r="A6038" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="B6038" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6038" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6039" spans="1:3">
+      <c r="A6039" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6039" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6039" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6040" spans="1:3">
+      <c r="A6040" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B6040" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6040" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6041" spans="1:3">
+      <c r="A6041" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B6041" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6041" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6042" spans="1:3">
+      <c r="A6042" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="B6042" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6042" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6043" spans="1:3">
+      <c r="A6043" s="47" t="s">
+        <v>849</v>
+      </c>
+      <c r="B6043" s="47">
+        <v>1</v>
+      </c>
+      <c r="C6043" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6044" spans="1:3">
+      <c r="A6044" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6044" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6044" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6045" spans="1:3">
+      <c r="A6045" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B6045" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6045" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6046" spans="1:3">
+      <c r="A6046" s="5"/>
+      <c r="B6046" s="5"/>
+      <c r="C6046" s="5"/>
+    </row>
+    <row r="6047" spans="1:3">
+      <c r="A6047" s="5"/>
+      <c r="B6047" s="5"/>
+      <c r="C6047" s="5"/>
+    </row>
+    <row r="6048" spans="1:3">
+      <c r="A6048" s="48"/>
+      <c r="B6048" s="48"/>
+      <c r="C6048" s="5"/>
+    </row>
+    <row r="6049" spans="1:3">
+      <c r="A6049" s="48"/>
+      <c r="B6049" s="48"/>
+      <c r="C6049" s="48"/>
+    </row>
+    <row r="6050" spans="1:3">
+      <c r="A6050" s="48"/>
+      <c r="B6050" s="48"/>
+      <c r="C6050" s="48"/>
+    </row>
+    <row r="6051" spans="1:3">
+      <c r="A6051" s="48"/>
+      <c r="B6051" s="48"/>
+      <c r="C6051" s="48"/>
+    </row>
+    <row r="6052" spans="1:3">
+      <c r="A6052" s="53"/>
+      <c r="B6052" s="53"/>
+      <c r="C6052" s="48"/>
+    </row>
+    <row r="6053" spans="1:3">
+      <c r="A6053" s="53"/>
+      <c r="B6053" s="53">
+        <f>SUM(B6031:B6052)</f>
+        <v>164</v>
+      </c>
+      <c r="C6053" s="53">
+        <f>SUM(C6031:C6052)</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20812C51-7BDF-4912-85EC-1CD5854C41E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5729A0-DF98-4D93-86CF-EC096E49BFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6149" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6208" uniqueCount="859">
   <si>
     <t>ToDo</t>
   </si>
@@ -2605,6 +2605,24 @@
   </si>
   <si>
     <t>Phd: Implement Resnet BasicBlock</t>
+  </si>
+  <si>
+    <t>1.11.2022</t>
+  </si>
+  <si>
+    <t>2.11.2022</t>
+  </si>
+  <si>
+    <t>MT: 1000 class training</t>
+  </si>
+  <si>
+    <t>3.11.2022</t>
+  </si>
+  <si>
+    <t>4.11.2022</t>
+  </si>
+  <si>
+    <t>MT: Quality Test</t>
   </si>
 </sst>
 </file>
@@ -3951,10 +3969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6053"/>
+  <dimension ref="A1:G6149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6030" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D6047" sqref="D6047"/>
+    <sheetView tabSelected="1" topLeftCell="A6126" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D6137" sqref="D6137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -70142,7 +70160,7 @@
         <v>12</v>
       </c>
       <c r="C6041" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6042" spans="1:3">
@@ -70179,14 +70197,14 @@
       </c>
     </row>
     <row r="6045" spans="1:3">
-      <c r="A6045" s="5" t="s">
+      <c r="A6045" s="47" t="s">
         <v>852</v>
       </c>
-      <c r="B6045" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6045" s="5">
-        <v>8</v>
+      <c r="B6045" s="47">
+        <v>4</v>
+      </c>
+      <c r="C6045" s="47">
+        <v>10</v>
       </c>
     </row>
     <row r="6046" spans="1:3">
@@ -70232,7 +70250,817 @@
       </c>
       <c r="C6053" s="53">
         <f>SUM(C6031:C6052)</f>
-        <v>11</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6054" spans="1:3">
+      <c r="A6054" s="46" t="s">
+        <v>853</v>
+      </c>
+      <c r="B6054" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6054" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6055" spans="1:3">
+      <c r="A6055" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6055" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6055" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6056" spans="1:3">
+      <c r="A6056" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6056" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6056" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6057" spans="1:3">
+      <c r="A6057" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6057" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6057" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6058" spans="1:3">
+      <c r="A6058" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6058" s="54">
+        <v>24</v>
+      </c>
+      <c r="C6058" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6059" spans="1:3">
+      <c r="A6059" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6059" s="54">
+        <v>2</v>
+      </c>
+      <c r="C6059" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6060" spans="1:3">
+      <c r="A6060" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6060" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6060" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6061" spans="1:3">
+      <c r="A6061" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="B6061" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6061" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6062" spans="1:3">
+      <c r="A6062" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6062" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6062" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6063" spans="1:3">
+      <c r="A6063" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B6063" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6063" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6064" spans="1:3">
+      <c r="A6064" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B6064" s="48">
+        <v>10</v>
+      </c>
+      <c r="C6064" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6065" spans="1:3">
+      <c r="A6065" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="B6065" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6065" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6066" spans="1:3">
+      <c r="A6066" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6066" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6066" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6067" spans="1:3">
+      <c r="A6067" s="5"/>
+      <c r="B6067" s="5"/>
+      <c r="C6067" s="5"/>
+    </row>
+    <row r="6068" spans="1:3">
+      <c r="A6068" s="48"/>
+      <c r="B6068" s="48"/>
+      <c r="C6068" s="48"/>
+    </row>
+    <row r="6069" spans="1:3">
+      <c r="A6069" s="48"/>
+      <c r="B6069" s="48"/>
+      <c r="C6069" s="48"/>
+    </row>
+    <row r="6070" spans="1:3">
+      <c r="A6070" s="48"/>
+      <c r="B6070" s="48"/>
+      <c r="C6070" s="48"/>
+    </row>
+    <row r="6071" spans="1:3">
+      <c r="A6071" s="48"/>
+      <c r="B6071" s="48"/>
+      <c r="C6071" s="48"/>
+    </row>
+    <row r="6072" spans="1:3">
+      <c r="A6072" s="48"/>
+      <c r="B6072" s="48"/>
+      <c r="C6072" s="48"/>
+    </row>
+    <row r="6073" spans="1:3">
+      <c r="A6073" s="48"/>
+      <c r="B6073" s="48"/>
+      <c r="C6073" s="48"/>
+    </row>
+    <row r="6074" spans="1:3">
+      <c r="A6074" s="48"/>
+      <c r="B6074" s="48"/>
+      <c r="C6074" s="48"/>
+    </row>
+    <row r="6075" spans="1:3">
+      <c r="A6075" s="48"/>
+      <c r="B6075" s="48"/>
+      <c r="C6075" s="48"/>
+    </row>
+    <row r="6076" spans="1:3">
+      <c r="A6076" s="53"/>
+      <c r="B6076" s="53"/>
+      <c r="C6076" s="48"/>
+    </row>
+    <row r="6077" spans="1:3">
+      <c r="A6077" s="53"/>
+      <c r="B6077" s="53">
+        <f>SUM(B6055:B6076)</f>
+        <v>136</v>
+      </c>
+      <c r="C6077" s="53">
+        <f>SUM(C6055:C6076)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6078" spans="1:3">
+      <c r="A6078" s="46" t="s">
+        <v>854</v>
+      </c>
+      <c r="B6078" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6078" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6079" spans="1:3">
+      <c r="A6079" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6079" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6079" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6080" spans="1:3">
+      <c r="A6080" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6080" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6080" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6081" spans="1:3">
+      <c r="A6081" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6081" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6081" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6082" spans="1:3">
+      <c r="A6082" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6082" s="54">
+        <v>24</v>
+      </c>
+      <c r="C6082" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6083" spans="1:3">
+      <c r="A6083" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6083" s="54">
+        <v>2</v>
+      </c>
+      <c r="C6083" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6084" spans="1:3">
+      <c r="A6084" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6084" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6084" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6085" spans="1:3">
+      <c r="A6085" s="47" t="s">
+        <v>847</v>
+      </c>
+      <c r="B6085" s="47">
+        <v>5</v>
+      </c>
+      <c r="C6085" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6086" spans="1:3">
+      <c r="A6086" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6086" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6086" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6087" spans="1:3">
+      <c r="A6087" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B6087" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6087" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6088" spans="1:3">
+      <c r="A6088" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B6088" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6088" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6089" spans="1:3">
+      <c r="A6089" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="B6089" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6089" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6090" spans="1:3">
+      <c r="A6090" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6090" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6090" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6091" spans="1:3">
+      <c r="A6091" s="47" t="s">
+        <v>855</v>
+      </c>
+      <c r="B6091" s="47">
+        <v>4</v>
+      </c>
+      <c r="C6091" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6092" spans="1:3">
+      <c r="A6092" s="48"/>
+      <c r="B6092" s="48"/>
+      <c r="C6092" s="48"/>
+    </row>
+    <row r="6093" spans="1:3">
+      <c r="A6093" s="48"/>
+      <c r="B6093" s="48"/>
+      <c r="C6093" s="48"/>
+    </row>
+    <row r="6094" spans="1:3">
+      <c r="A6094" s="48"/>
+      <c r="B6094" s="48"/>
+      <c r="C6094" s="48"/>
+    </row>
+    <row r="6095" spans="1:3">
+      <c r="A6095" s="48"/>
+      <c r="B6095" s="48"/>
+      <c r="C6095" s="48"/>
+    </row>
+    <row r="6096" spans="1:3">
+      <c r="A6096" s="48"/>
+      <c r="B6096" s="48"/>
+      <c r="C6096" s="48"/>
+    </row>
+    <row r="6097" spans="1:3">
+      <c r="A6097" s="48"/>
+      <c r="B6097" s="48"/>
+      <c r="C6097" s="48"/>
+    </row>
+    <row r="6098" spans="1:3">
+      <c r="A6098" s="48"/>
+      <c r="B6098" s="48"/>
+      <c r="C6098" s="48"/>
+    </row>
+    <row r="6099" spans="1:3">
+      <c r="A6099" s="48"/>
+      <c r="B6099" s="48"/>
+      <c r="C6099" s="48"/>
+    </row>
+    <row r="6100" spans="1:3">
+      <c r="A6100" s="53"/>
+      <c r="B6100" s="53"/>
+      <c r="C6100" s="48"/>
+    </row>
+    <row r="6101" spans="1:3">
+      <c r="A6101" s="53"/>
+      <c r="B6101" s="53">
+        <f>SUM(B6079:B6100)</f>
+        <v>133</v>
+      </c>
+      <c r="C6101" s="53">
+        <f>SUM(C6079:C6100)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6102" spans="1:3">
+      <c r="A6102" s="46" t="s">
+        <v>856</v>
+      </c>
+      <c r="B6102" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6102" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6103" spans="1:3">
+      <c r="A6103" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6103" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6104" spans="1:3">
+      <c r="A6104" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6104" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6105" spans="1:3">
+      <c r="A6105" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6105" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6105" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6106" spans="1:3">
+      <c r="A6106" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6106" s="54">
+        <v>24</v>
+      </c>
+      <c r="C6106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6107" spans="1:3">
+      <c r="A6107" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6107" s="54">
+        <v>2</v>
+      </c>
+      <c r="C6107" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6108" spans="1:3">
+      <c r="A6108" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6108" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6108" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6109" spans="1:3">
+      <c r="A6109" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6109" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6110" spans="1:3">
+      <c r="A6110" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B6110" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6110" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6111" spans="1:3">
+      <c r="A6111" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B6111" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6111" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6112" spans="1:3">
+      <c r="A6112" s="47" t="s">
+        <v>842</v>
+      </c>
+      <c r="B6112" s="47">
+        <v>6</v>
+      </c>
+      <c r="C6112" s="47">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6113" spans="1:3">
+      <c r="A6113" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6113" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6113" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6114" spans="1:3">
+      <c r="A6114" s="5"/>
+      <c r="B6114" s="5"/>
+      <c r="C6114" s="5"/>
+    </row>
+    <row r="6115" spans="1:3">
+      <c r="A6115" s="5"/>
+      <c r="B6115" s="5"/>
+      <c r="C6115" s="5"/>
+    </row>
+    <row r="6116" spans="1:3">
+      <c r="A6116" s="48"/>
+      <c r="B6116" s="48"/>
+      <c r="C6116" s="48"/>
+    </row>
+    <row r="6117" spans="1:3">
+      <c r="A6117" s="48"/>
+      <c r="B6117" s="48"/>
+      <c r="C6117" s="48"/>
+    </row>
+    <row r="6118" spans="1:3">
+      <c r="A6118" s="48"/>
+      <c r="B6118" s="48"/>
+      <c r="C6118" s="48"/>
+    </row>
+    <row r="6119" spans="1:3">
+      <c r="A6119" s="48"/>
+      <c r="B6119" s="48"/>
+      <c r="C6119" s="48"/>
+    </row>
+    <row r="6120" spans="1:3">
+      <c r="A6120" s="48"/>
+      <c r="B6120" s="48"/>
+      <c r="C6120" s="48"/>
+    </row>
+    <row r="6121" spans="1:3">
+      <c r="A6121" s="48"/>
+      <c r="B6121" s="48"/>
+      <c r="C6121" s="48"/>
+    </row>
+    <row r="6122" spans="1:3">
+      <c r="A6122" s="48"/>
+      <c r="B6122" s="48"/>
+      <c r="C6122" s="48"/>
+    </row>
+    <row r="6123" spans="1:3">
+      <c r="A6123" s="48"/>
+      <c r="B6123" s="48"/>
+      <c r="C6123" s="48"/>
+    </row>
+    <row r="6124" spans="1:3">
+      <c r="A6124" s="53"/>
+      <c r="B6124" s="53"/>
+      <c r="C6124" s="48"/>
+    </row>
+    <row r="6125" spans="1:3">
+      <c r="A6125" s="53"/>
+      <c r="B6125" s="53">
+        <f>SUM(B6103:B6124)</f>
+        <v>126</v>
+      </c>
+      <c r="C6125" s="53">
+        <f>SUM(C6103:C6124)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6126" spans="1:3">
+      <c r="A6126" s="46" t="s">
+        <v>857</v>
+      </c>
+      <c r="B6126" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6126" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6127" spans="1:3">
+      <c r="A6127" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6127" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6128" spans="1:3">
+      <c r="A6128" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6128" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6129" spans="1:3">
+      <c r="A6129" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6129" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6130" spans="1:3">
+      <c r="A6130" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6130" s="54">
+        <v>24</v>
+      </c>
+      <c r="C6130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6131" spans="1:3">
+      <c r="A6131" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6131" s="54">
+        <v>2</v>
+      </c>
+      <c r="C6131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6132" spans="1:3">
+      <c r="A6132" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6132" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6133" spans="1:3">
+      <c r="A6133" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6133" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6133" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6134" spans="1:3">
+      <c r="A6134" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B6134" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6134" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6135" spans="1:3">
+      <c r="A6135" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="B6135" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6135" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6136" spans="1:3">
+      <c r="A6136" s="48" t="s">
+        <v>858</v>
+      </c>
+      <c r="B6136" s="48">
+        <v>6</v>
+      </c>
+      <c r="C6136" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6137" spans="1:3">
+      <c r="A6137" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6137" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6137" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6138" spans="1:3">
+      <c r="A6138" s="5"/>
+      <c r="B6138" s="5"/>
+      <c r="C6138" s="5"/>
+    </row>
+    <row r="6139" spans="1:3">
+      <c r="A6139" s="5"/>
+      <c r="B6139" s="5"/>
+      <c r="C6139" s="5"/>
+    </row>
+    <row r="6140" spans="1:3">
+      <c r="A6140" s="48"/>
+      <c r="B6140" s="48"/>
+      <c r="C6140" s="48"/>
+    </row>
+    <row r="6141" spans="1:3">
+      <c r="A6141" s="48"/>
+      <c r="B6141" s="48"/>
+      <c r="C6141" s="48"/>
+    </row>
+    <row r="6142" spans="1:3">
+      <c r="A6142" s="48"/>
+      <c r="B6142" s="48"/>
+      <c r="C6142" s="48"/>
+    </row>
+    <row r="6143" spans="1:3">
+      <c r="A6143" s="48"/>
+      <c r="B6143" s="48"/>
+      <c r="C6143" s="48"/>
+    </row>
+    <row r="6144" spans="1:3">
+      <c r="A6144" s="48"/>
+      <c r="B6144" s="48"/>
+      <c r="C6144" s="48"/>
+    </row>
+    <row r="6145" spans="1:3">
+      <c r="A6145" s="48"/>
+      <c r="B6145" s="48"/>
+      <c r="C6145" s="48"/>
+    </row>
+    <row r="6146" spans="1:3">
+      <c r="A6146" s="48"/>
+      <c r="B6146" s="48"/>
+      <c r="C6146" s="48"/>
+    </row>
+    <row r="6147" spans="1:3">
+      <c r="A6147" s="48"/>
+      <c r="B6147" s="48"/>
+      <c r="C6147" s="48"/>
+    </row>
+    <row r="6148" spans="1:3">
+      <c r="A6148" s="53"/>
+      <c r="B6148" s="53"/>
+      <c r="C6148" s="48"/>
+    </row>
+    <row r="6149" spans="1:3">
+      <c r="A6149" s="53"/>
+      <c r="B6149" s="53">
+        <f>SUM(B6127:B6148)</f>
+        <v>126</v>
+      </c>
+      <c r="C6149" s="53">
+        <f>SUM(C6127:C6148)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5729A0-DF98-4D93-86CF-EC096E49BFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEA1E08-30A0-47BA-96A8-0777CED709A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6208" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6350" uniqueCount="879">
   <si>
     <t>ToDo</t>
   </si>
@@ -2623,6 +2623,66 @@
   </si>
   <si>
     <t>MT: Quality Test</t>
+  </si>
+  <si>
+    <t>5.11.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Pick actual crop locations</t>
+  </si>
+  <si>
+    <t>Blackshark: Implement crop downloader</t>
+  </si>
+  <si>
+    <t>Blackshark: Integrate height map algorithm</t>
+  </si>
+  <si>
+    <t>6.11.2022</t>
+  </si>
+  <si>
+    <t>7.11.2022</t>
+  </si>
+  <si>
+    <t>Blackshark: Start training with new data</t>
+  </si>
+  <si>
+    <t>Blackshark: Prepare documentations</t>
+  </si>
+  <si>
+    <t>MT: Image similarity analysis</t>
+  </si>
+  <si>
+    <t>Insumo: Finalize Producitivity Score Recalculation</t>
+  </si>
+  <si>
+    <t>8.11.2022</t>
+  </si>
+  <si>
+    <t>MT: HB Test Set Control</t>
+  </si>
+  <si>
+    <t>Blackshark: Handovers</t>
+  </si>
+  <si>
+    <t>9.11.2022</t>
+  </si>
+  <si>
+    <t>10.11.2022</t>
+  </si>
+  <si>
+    <t>11.11.2022</t>
+  </si>
+  <si>
+    <t>Insumo: Correlation analysis</t>
+  </si>
+  <si>
+    <t>Insumo: A priori algorithm</t>
+  </si>
+  <si>
+    <t>12.11.2022</t>
+  </si>
+  <si>
+    <t>13.11.2022</t>
   </si>
 </sst>
 </file>
@@ -3969,10 +4029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6149"/>
+  <dimension ref="A1:G6365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6126" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D6137" sqref="D6137"/>
+    <sheetView tabSelected="1" topLeftCell="A6337" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D6349" sqref="D6349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -70954,25 +71014,25 @@
       </c>
     </row>
     <row r="6134" spans="1:3">
-      <c r="A6134" s="48" t="s">
+      <c r="A6134" s="47" t="s">
         <v>823</v>
       </c>
-      <c r="B6134" s="48">
-        <v>4</v>
-      </c>
-      <c r="C6134" s="5">
-        <v>0</v>
+      <c r="B6134" s="47">
+        <v>4</v>
+      </c>
+      <c r="C6134" s="47">
+        <v>8</v>
       </c>
     </row>
     <row r="6135" spans="1:3">
-      <c r="A6135" s="48" t="s">
+      <c r="A6135" s="47" t="s">
         <v>824</v>
       </c>
-      <c r="B6135" s="48">
-        <v>4</v>
-      </c>
-      <c r="C6135" s="5">
-        <v>2</v>
+      <c r="B6135" s="47">
+        <v>4</v>
+      </c>
+      <c r="C6135" s="47">
+        <v>4</v>
       </c>
     </row>
     <row r="6136" spans="1:3">
@@ -70994,7 +71054,7 @@
         <v>6</v>
       </c>
       <c r="C6137" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6138" spans="1:3">
@@ -71060,7 +71120,1885 @@
       </c>
       <c r="C6149" s="53">
         <f>SUM(C6127:C6148)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6150" spans="1:3">
+      <c r="A6150" s="46" t="s">
+        <v>859</v>
+      </c>
+      <c r="B6150" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6150" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6151" spans="1:3">
+      <c r="A6151" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6151" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6151" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6152" spans="1:3">
+      <c r="A6152" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6152" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6152" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6153" spans="1:3">
+      <c r="A6153" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6153" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6153" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6154" spans="1:3">
+      <c r="A6154" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6154" s="54">
+        <v>24</v>
+      </c>
+      <c r="C6154" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6155" spans="1:3">
+      <c r="A6155" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6155" s="54">
+        <v>2</v>
+      </c>
+      <c r="C6155" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6156" spans="1:3">
+      <c r="A6156" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6156" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6156" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6157" spans="1:3">
+      <c r="A6157" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6157" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6157" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6158" spans="1:3">
+      <c r="A6158" s="47" t="s">
+        <v>860</v>
+      </c>
+      <c r="B6158" s="47">
+        <v>4</v>
+      </c>
+      <c r="C6158" s="47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6159" spans="1:3">
+      <c r="A6159" s="48" t="s">
+        <v>858</v>
+      </c>
+      <c r="B6159" s="48">
+        <v>6</v>
+      </c>
+      <c r="C6159" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6160" spans="1:3">
+      <c r="A6160" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6160" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6160" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6161" spans="1:3">
+      <c r="A6161" s="48" t="s">
+        <v>861</v>
+      </c>
+      <c r="B6161" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6162" spans="1:3">
+      <c r="A6162" s="48" t="s">
+        <v>862</v>
+      </c>
+      <c r="B6162" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6163" spans="1:3">
+      <c r="A6163" s="5"/>
+      <c r="B6163" s="5"/>
+      <c r="C6163" s="5"/>
+    </row>
+    <row r="6164" spans="1:3">
+      <c r="A6164" s="48"/>
+      <c r="B6164" s="48"/>
+      <c r="C6164" s="48"/>
+    </row>
+    <row r="6165" spans="1:3">
+      <c r="A6165" s="48"/>
+      <c r="B6165" s="48"/>
+      <c r="C6165" s="48"/>
+    </row>
+    <row r="6166" spans="1:3">
+      <c r="A6166" s="48"/>
+      <c r="B6166" s="48"/>
+      <c r="C6166" s="48"/>
+    </row>
+    <row r="6167" spans="1:3">
+      <c r="A6167" s="48"/>
+      <c r="B6167" s="48"/>
+      <c r="C6167" s="48"/>
+    </row>
+    <row r="6168" spans="1:3">
+      <c r="A6168" s="48"/>
+      <c r="B6168" s="48"/>
+      <c r="C6168" s="48"/>
+    </row>
+    <row r="6169" spans="1:3">
+      <c r="A6169" s="48"/>
+      <c r="B6169" s="48"/>
+      <c r="C6169" s="48"/>
+    </row>
+    <row r="6170" spans="1:3">
+      <c r="A6170" s="48"/>
+      <c r="B6170" s="48"/>
+      <c r="C6170" s="48"/>
+    </row>
+    <row r="6171" spans="1:3">
+      <c r="A6171" s="48"/>
+      <c r="B6171" s="48"/>
+      <c r="C6171" s="48"/>
+    </row>
+    <row r="6172" spans="1:3">
+      <c r="A6172" s="53"/>
+      <c r="B6172" s="53"/>
+      <c r="C6172" s="48"/>
+    </row>
+    <row r="6173" spans="1:3">
+      <c r="A6173" s="53"/>
+      <c r="B6173" s="53">
+        <f>SUM(B6151:B6172)</f>
+        <v>128</v>
+      </c>
+      <c r="C6173" s="53">
+        <f>SUM(C6151:C6172)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6174" spans="1:3">
+      <c r="A6174" s="46" t="s">
+        <v>863</v>
+      </c>
+      <c r="B6174" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6174" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6175" spans="1:3">
+      <c r="A6175" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6175" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6175" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6176" spans="1:3">
+      <c r="A6176" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6176" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6176" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6177" spans="1:3">
+      <c r="A6177" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6177" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6177" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6178" spans="1:3">
+      <c r="A6178" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6178" s="54">
+        <v>24</v>
+      </c>
+      <c r="C6178" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6179" spans="1:3">
+      <c r="A6179" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6179" s="54">
+        <v>2</v>
+      </c>
+      <c r="C6179" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6180" spans="1:3">
+      <c r="A6180" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6180" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6180" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6181" spans="1:3">
+      <c r="A6181" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6181" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6181" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6182" spans="1:3">
+      <c r="A6182" s="48" t="s">
+        <v>858</v>
+      </c>
+      <c r="B6182" s="48">
+        <v>6</v>
+      </c>
+      <c r="C6182" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6183" spans="1:3">
+      <c r="A6183" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6183" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6183" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6184" spans="1:3">
+      <c r="A6184" s="47" t="s">
+        <v>861</v>
+      </c>
+      <c r="B6184" s="47">
+        <v>8</v>
+      </c>
+      <c r="C6184" s="47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6185" spans="1:3">
+      <c r="A6185" s="48" t="s">
+        <v>862</v>
+      </c>
+      <c r="B6185" s="48">
+        <v>8</v>
+      </c>
+      <c r="C6185" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6186" spans="1:3">
+      <c r="A6186" s="48"/>
+      <c r="B6186" s="48"/>
+      <c r="C6186" s="5"/>
+    </row>
+    <row r="6187" spans="1:3">
+      <c r="A6187" s="5"/>
+      <c r="B6187" s="5"/>
+      <c r="C6187" s="5"/>
+    </row>
+    <row r="6188" spans="1:3">
+      <c r="A6188" s="48"/>
+      <c r="B6188" s="48"/>
+      <c r="C6188" s="48"/>
+    </row>
+    <row r="6189" spans="1:3">
+      <c r="A6189" s="48"/>
+      <c r="B6189" s="48"/>
+      <c r="C6189" s="48"/>
+    </row>
+    <row r="6190" spans="1:3">
+      <c r="A6190" s="48"/>
+      <c r="B6190" s="48"/>
+      <c r="C6190" s="48"/>
+    </row>
+    <row r="6191" spans="1:3">
+      <c r="A6191" s="48"/>
+      <c r="B6191" s="48"/>
+      <c r="C6191" s="48"/>
+    </row>
+    <row r="6192" spans="1:3">
+      <c r="A6192" s="48"/>
+      <c r="B6192" s="48"/>
+      <c r="C6192" s="48"/>
+    </row>
+    <row r="6193" spans="1:3">
+      <c r="A6193" s="48"/>
+      <c r="B6193" s="48"/>
+      <c r="C6193" s="48"/>
+    </row>
+    <row r="6194" spans="1:3">
+      <c r="A6194" s="48"/>
+      <c r="B6194" s="48"/>
+      <c r="C6194" s="48"/>
+    </row>
+    <row r="6195" spans="1:3">
+      <c r="A6195" s="48"/>
+      <c r="B6195" s="48"/>
+      <c r="C6195" s="48"/>
+    </row>
+    <row r="6196" spans="1:3">
+      <c r="A6196" s="53"/>
+      <c r="B6196" s="53"/>
+      <c r="C6196" s="48"/>
+    </row>
+    <row r="6197" spans="1:3">
+      <c r="A6197" s="53"/>
+      <c r="B6197" s="53">
+        <f>SUM(B6175:B6196)</f>
+        <v>132</v>
+      </c>
+      <c r="C6197" s="53">
+        <f>SUM(C6175:C6196)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6198" spans="1:3">
+      <c r="A6198" s="46" t="s">
+        <v>864</v>
+      </c>
+      <c r="B6198" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6198" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6199" spans="1:3">
+      <c r="A6199" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6199" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6199" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6200" spans="1:3">
+      <c r="A6200" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6200" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6200" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6201" spans="1:3">
+      <c r="A6201" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6201" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6201" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6202" spans="1:3">
+      <c r="A6202" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6202" s="54">
+        <v>24</v>
+      </c>
+      <c r="C6202" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6203" spans="1:3">
+      <c r="A6203" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6203" s="54">
+        <v>2</v>
+      </c>
+      <c r="C6203" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6204" spans="1:3">
+      <c r="A6204" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6204" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6204" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6205" spans="1:3">
+      <c r="A6205" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6205" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6205" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6206" spans="1:3">
+      <c r="A6206" s="47" t="s">
+        <v>858</v>
+      </c>
+      <c r="B6206" s="47">
+        <v>10</v>
+      </c>
+      <c r="C6206" s="47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6207" spans="1:3">
+      <c r="A6207" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6207" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6207" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6208" spans="1:3">
+      <c r="A6208" s="47" t="s">
+        <v>862</v>
+      </c>
+      <c r="B6208" s="47">
+        <v>8</v>
+      </c>
+      <c r="C6208" s="47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6209" spans="1:3">
+      <c r="A6209" s="48" t="s">
+        <v>865</v>
+      </c>
+      <c r="B6209" s="48">
+        <v>8</v>
+      </c>
+      <c r="C6209" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6210" spans="1:3">
+      <c r="A6210" s="48" t="s">
+        <v>866</v>
+      </c>
+      <c r="B6210" s="48">
+        <v>16</v>
+      </c>
+      <c r="C6210" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6211" spans="1:3">
+      <c r="A6211" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B6211" s="5">
+        <v>16</v>
+      </c>
+      <c r="C6211" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6212" spans="1:3">
+      <c r="A6212" s="48" t="s">
+        <v>868</v>
+      </c>
+      <c r="B6212" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6212" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6213" spans="1:3">
+      <c r="A6213" s="48"/>
+      <c r="B6213" s="48"/>
+      <c r="C6213" s="48"/>
+    </row>
+    <row r="6214" spans="1:3">
+      <c r="A6214" s="48"/>
+      <c r="B6214" s="48"/>
+      <c r="C6214" s="48"/>
+    </row>
+    <row r="6215" spans="1:3">
+      <c r="A6215" s="48"/>
+      <c r="B6215" s="48"/>
+      <c r="C6215" s="48"/>
+    </row>
+    <row r="6216" spans="1:3">
+      <c r="A6216" s="48"/>
+      <c r="B6216" s="48"/>
+      <c r="C6216" s="48"/>
+    </row>
+    <row r="6217" spans="1:3">
+      <c r="A6217" s="48"/>
+      <c r="B6217" s="48"/>
+      <c r="C6217" s="48"/>
+    </row>
+    <row r="6218" spans="1:3">
+      <c r="A6218" s="48"/>
+      <c r="B6218" s="48"/>
+      <c r="C6218" s="48"/>
+    </row>
+    <row r="6219" spans="1:3">
+      <c r="A6219" s="48"/>
+      <c r="B6219" s="48"/>
+      <c r="C6219" s="48"/>
+    </row>
+    <row r="6220" spans="1:3">
+      <c r="A6220" s="53"/>
+      <c r="B6220" s="53"/>
+      <c r="C6220" s="48"/>
+    </row>
+    <row r="6221" spans="1:3">
+      <c r="A6221" s="53"/>
+      <c r="B6221" s="53">
+        <f>SUM(B6199:B6220)</f>
+        <v>172</v>
+      </c>
+      <c r="C6221" s="53">
+        <f>SUM(C6199:C6220)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6222" spans="1:3">
+      <c r="A6222" s="46" t="s">
+        <v>869</v>
+      </c>
+      <c r="B6222" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6222" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6223" spans="1:3">
+      <c r="A6223" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6223" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6223" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6224" spans="1:3">
+      <c r="A6224" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6224" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6224" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6225" spans="1:3">
+      <c r="A6225" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6225" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6225" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6226" spans="1:3">
+      <c r="A6226" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6226" s="54">
+        <v>24</v>
+      </c>
+      <c r="C6226" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6227" spans="1:3">
+      <c r="A6227" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6227" s="54">
+        <v>2</v>
+      </c>
+      <c r="C6227" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6228" spans="1:3">
+      <c r="A6228" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6228" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6228" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6229" spans="1:3">
+      <c r="A6229" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6229" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6229" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6230" spans="1:3">
+      <c r="A6230" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6230" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6230" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6231" spans="1:3">
+      <c r="A6231" s="48" t="s">
+        <v>865</v>
+      </c>
+      <c r="B6231" s="48">
+        <v>8</v>
+      </c>
+      <c r="C6231" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6232" spans="1:3">
+      <c r="A6232" s="48" t="s">
+        <v>866</v>
+      </c>
+      <c r="B6232" s="48">
+        <v>16</v>
+      </c>
+      <c r="C6232" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6233" spans="1:3">
+      <c r="A6233" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B6233" s="5">
+        <v>16</v>
+      </c>
+      <c r="C6233" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6234" spans="1:3">
+      <c r="A6234" s="48" t="s">
+        <v>868</v>
+      </c>
+      <c r="B6234" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6234" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6235" spans="1:3">
+      <c r="A6235" s="48" t="s">
+        <v>870</v>
+      </c>
+      <c r="B6235" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6235" s="48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6236" spans="1:3">
+      <c r="A6236" s="47" t="s">
+        <v>871</v>
+      </c>
+      <c r="B6236" s="47">
+        <v>4</v>
+      </c>
+      <c r="C6236" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6237" spans="1:3">
+      <c r="A6237" s="48"/>
+      <c r="B6237" s="48"/>
+      <c r="C6237" s="48"/>
+    </row>
+    <row r="6238" spans="1:3">
+      <c r="A6238" s="48"/>
+      <c r="B6238" s="48"/>
+      <c r="C6238" s="48"/>
+    </row>
+    <row r="6239" spans="1:3">
+      <c r="A6239" s="48"/>
+      <c r="B6239" s="48"/>
+      <c r="C6239" s="48"/>
+    </row>
+    <row r="6240" spans="1:3">
+      <c r="A6240" s="48"/>
+      <c r="B6240" s="48"/>
+      <c r="C6240" s="48"/>
+    </row>
+    <row r="6241" spans="1:3">
+      <c r="A6241" s="48"/>
+      <c r="B6241" s="48"/>
+      <c r="C6241" s="48"/>
+    </row>
+    <row r="6242" spans="1:3">
+      <c r="A6242" s="48"/>
+      <c r="B6242" s="48"/>
+      <c r="C6242" s="48"/>
+    </row>
+    <row r="6243" spans="1:3">
+      <c r="A6243" s="48"/>
+      <c r="B6243" s="48"/>
+      <c r="C6243" s="48"/>
+    </row>
+    <row r="6244" spans="1:3">
+      <c r="A6244" s="53"/>
+      <c r="B6244" s="53"/>
+      <c r="C6244" s="48"/>
+    </row>
+    <row r="6245" spans="1:3">
+      <c r="A6245" s="53"/>
+      <c r="B6245" s="53">
+        <f>SUM(B6223:B6244)</f>
+        <v>162</v>
+      </c>
+      <c r="C6245" s="53">
+        <f>SUM(C6223:C6244)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6246" spans="1:3">
+      <c r="A6246" s="46" t="s">
+        <v>872</v>
+      </c>
+      <c r="B6246" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6246" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6247" spans="1:3">
+      <c r="A6247" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6247" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6247" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6248" spans="1:3">
+      <c r="A6248" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6248" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6248" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6249" spans="1:3">
+      <c r="A6249" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6249" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6249" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6250" spans="1:3">
+      <c r="A6250" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6250" s="54">
+        <v>24</v>
+      </c>
+      <c r="C6250" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6251" spans="1:3">
+      <c r="A6251" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6251" s="54">
+        <v>2</v>
+      </c>
+      <c r="C6251" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6252" spans="1:3">
+      <c r="A6252" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6252" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6252" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6253" spans="1:3">
+      <c r="A6253" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6253" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6253" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6254" spans="1:3">
+      <c r="A6254" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6254" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6254" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6255" spans="1:3">
+      <c r="A6255" s="48" t="s">
+        <v>865</v>
+      </c>
+      <c r="B6255" s="48">
+        <v>8</v>
+      </c>
+      <c r="C6255" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6256" spans="1:3">
+      <c r="A6256" s="48" t="s">
+        <v>866</v>
+      </c>
+      <c r="B6256" s="48">
+        <v>16</v>
+      </c>
+      <c r="C6256" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6257" spans="1:3">
+      <c r="A6257" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B6257" s="5">
+        <v>16</v>
+      </c>
+      <c r="C6257" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6258" spans="1:3">
+      <c r="A6258" s="48" t="s">
+        <v>868</v>
+      </c>
+      <c r="B6258" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6258" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6259" spans="1:3">
+      <c r="A6259" s="48" t="s">
+        <v>870</v>
+      </c>
+      <c r="B6259" s="48">
+        <v>6</v>
+      </c>
+      <c r="C6259" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6260" spans="1:3">
+      <c r="A6260" s="47" t="s">
+        <v>871</v>
+      </c>
+      <c r="B6260" s="47">
+        <v>3</v>
+      </c>
+      <c r="C6260" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6261" spans="1:3">
+      <c r="A6261" s="48"/>
+      <c r="B6261" s="48"/>
+      <c r="C6261" s="48"/>
+    </row>
+    <row r="6262" spans="1:3">
+      <c r="A6262" s="48"/>
+      <c r="B6262" s="48"/>
+      <c r="C6262" s="48"/>
+    </row>
+    <row r="6263" spans="1:3">
+      <c r="A6263" s="48"/>
+      <c r="B6263" s="48"/>
+      <c r="C6263" s="48"/>
+    </row>
+    <row r="6264" spans="1:3">
+      <c r="A6264" s="48"/>
+      <c r="B6264" s="48"/>
+      <c r="C6264" s="48"/>
+    </row>
+    <row r="6265" spans="1:3">
+      <c r="A6265" s="48"/>
+      <c r="B6265" s="48"/>
+      <c r="C6265" s="48"/>
+    </row>
+    <row r="6266" spans="1:3">
+      <c r="A6266" s="48"/>
+      <c r="B6266" s="48"/>
+      <c r="C6266" s="48"/>
+    </row>
+    <row r="6267" spans="1:3">
+      <c r="A6267" s="48"/>
+      <c r="B6267" s="48"/>
+      <c r="C6267" s="48"/>
+    </row>
+    <row r="6268" spans="1:3">
+      <c r="A6268" s="53"/>
+      <c r="B6268" s="53"/>
+      <c r="C6268" s="48"/>
+    </row>
+    <row r="6269" spans="1:3">
+      <c r="A6269" s="53"/>
+      <c r="B6269" s="53">
+        <f>SUM(B6247:B6268)</f>
+        <v>163</v>
+      </c>
+      <c r="C6269" s="53">
+        <f>SUM(C6247:C6268)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6270" spans="1:3">
+      <c r="A6270" s="46" t="s">
+        <v>873</v>
+      </c>
+      <c r="B6270" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6270" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6271" spans="1:3">
+      <c r="A6271" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6271" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6271" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6272" spans="1:3">
+      <c r="A6272" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6272" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6272" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6273" spans="1:3">
+      <c r="A6273" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6273" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6273" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6274" spans="1:3">
+      <c r="A6274" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6274" s="54">
+        <v>24</v>
+      </c>
+      <c r="C6274" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6275" spans="1:3">
+      <c r="A6275" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6275" s="54">
+        <v>2</v>
+      </c>
+      <c r="C6275" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6276" spans="1:3">
+      <c r="A6276" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6276" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6276" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6277" spans="1:3">
+      <c r="A6277" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6277" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6277" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6278" spans="1:3">
+      <c r="A6278" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6278" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6278" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6279" spans="1:3">
+      <c r="A6279" s="47" t="s">
+        <v>865</v>
+      </c>
+      <c r="B6279" s="47">
+        <v>8</v>
+      </c>
+      <c r="C6279" s="47">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6280" spans="1:3">
+      <c r="A6280" s="48" t="s">
+        <v>866</v>
+      </c>
+      <c r="B6280" s="48">
+        <v>16</v>
+      </c>
+      <c r="C6280" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6281" spans="1:3">
+      <c r="A6281" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B6281" s="5">
+        <v>16</v>
+      </c>
+      <c r="C6281" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6282" spans="1:3">
+      <c r="A6282" s="47" t="s">
+        <v>868</v>
+      </c>
+      <c r="B6282" s="47">
+        <v>4</v>
+      </c>
+      <c r="C6282" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6283" spans="1:3">
+      <c r="A6283" s="48" t="s">
+        <v>870</v>
+      </c>
+      <c r="B6283" s="48">
+        <v>6</v>
+      </c>
+      <c r="C6283" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6284" spans="1:3">
+      <c r="A6284" s="48"/>
+      <c r="B6284" s="48"/>
+      <c r="C6284" s="48"/>
+    </row>
+    <row r="6285" spans="1:3">
+      <c r="A6285" s="48"/>
+      <c r="B6285" s="48"/>
+      <c r="C6285" s="48"/>
+    </row>
+    <row r="6286" spans="1:3">
+      <c r="A6286" s="48"/>
+      <c r="B6286" s="48"/>
+      <c r="C6286" s="48"/>
+    </row>
+    <row r="6287" spans="1:3">
+      <c r="A6287" s="48"/>
+      <c r="B6287" s="48"/>
+      <c r="C6287" s="48"/>
+    </row>
+    <row r="6288" spans="1:3">
+      <c r="A6288" s="48"/>
+      <c r="B6288" s="48"/>
+      <c r="C6288" s="48"/>
+    </row>
+    <row r="6289" spans="1:3">
+      <c r="A6289" s="48"/>
+      <c r="B6289" s="48"/>
+      <c r="C6289" s="48"/>
+    </row>
+    <row r="6290" spans="1:3">
+      <c r="A6290" s="48"/>
+      <c r="B6290" s="48"/>
+      <c r="C6290" s="48"/>
+    </row>
+    <row r="6291" spans="1:3">
+      <c r="A6291" s="48"/>
+      <c r="B6291" s="48"/>
+      <c r="C6291" s="48"/>
+    </row>
+    <row r="6292" spans="1:3">
+      <c r="A6292" s="53"/>
+      <c r="B6292" s="53"/>
+      <c r="C6292" s="48"/>
+    </row>
+    <row r="6293" spans="1:3">
+      <c r="A6293" s="53"/>
+      <c r="B6293" s="53">
+        <f>SUM(B6271:B6292)</f>
+        <v>160</v>
+      </c>
+      <c r="C6293" s="53">
+        <f>SUM(C6271:C6292)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6294" spans="1:3">
+      <c r="A6294" s="46" t="s">
+        <v>874</v>
+      </c>
+      <c r="B6294" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6294" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6295" spans="1:3">
+      <c r="A6295" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6295" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6295" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6296" spans="1:3">
+      <c r="A6296" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6296" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6296" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6297" spans="1:3">
+      <c r="A6297" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6297" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6297" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6298" spans="1:3">
+      <c r="A6298" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6298" s="54">
+        <v>24</v>
+      </c>
+      <c r="C6298" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6299" spans="1:3">
+      <c r="A6299" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6299" s="54">
+        <v>2</v>
+      </c>
+      <c r="C6299" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6300" spans="1:3">
+      <c r="A6300" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6300" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6300" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6301" spans="1:3">
+      <c r="A6301" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6301" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6301" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6302" spans="1:3">
+      <c r="A6302" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6302" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6302" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6303" spans="1:3">
+      <c r="A6303" s="47" t="s">
+        <v>866</v>
+      </c>
+      <c r="B6303" s="47">
+        <v>16</v>
+      </c>
+      <c r="C6303" s="47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6304" spans="1:3">
+      <c r="A6304" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B6304" s="5">
+        <v>16</v>
+      </c>
+      <c r="C6304" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6305" spans="1:3">
+      <c r="A6305" s="48" t="s">
+        <v>870</v>
+      </c>
+      <c r="B6305" s="48">
+        <v>6</v>
+      </c>
+      <c r="C6305" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6306" spans="1:3">
+      <c r="A6306" s="48" t="s">
+        <v>875</v>
+      </c>
+      <c r="B6306" s="48">
+        <v>6</v>
+      </c>
+      <c r="C6306" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6307" spans="1:3">
+      <c r="A6307" s="48" t="s">
+        <v>876</v>
+      </c>
+      <c r="B6307" s="48">
+        <v>6</v>
+      </c>
+      <c r="C6307" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6308" spans="1:3">
+      <c r="A6308" s="48"/>
+      <c r="B6308" s="48"/>
+      <c r="C6308" s="48"/>
+    </row>
+    <row r="6309" spans="1:3">
+      <c r="A6309" s="48"/>
+      <c r="B6309" s="48"/>
+      <c r="C6309" s="48"/>
+    </row>
+    <row r="6310" spans="1:3">
+      <c r="A6310" s="48"/>
+      <c r="B6310" s="48"/>
+      <c r="C6310" s="48"/>
+    </row>
+    <row r="6311" spans="1:3">
+      <c r="A6311" s="48"/>
+      <c r="B6311" s="48"/>
+      <c r="C6311" s="48"/>
+    </row>
+    <row r="6312" spans="1:3">
+      <c r="A6312" s="48"/>
+      <c r="B6312" s="48"/>
+      <c r="C6312" s="48"/>
+    </row>
+    <row r="6313" spans="1:3">
+      <c r="A6313" s="48"/>
+      <c r="B6313" s="48"/>
+      <c r="C6313" s="48"/>
+    </row>
+    <row r="6314" spans="1:3">
+      <c r="A6314" s="48"/>
+      <c r="B6314" s="48"/>
+      <c r="C6314" s="48"/>
+    </row>
+    <row r="6315" spans="1:3">
+      <c r="A6315" s="48"/>
+      <c r="B6315" s="48"/>
+      <c r="C6315" s="48"/>
+    </row>
+    <row r="6316" spans="1:3">
+      <c r="A6316" s="53"/>
+      <c r="B6316" s="53"/>
+      <c r="C6316" s="48"/>
+    </row>
+    <row r="6317" spans="1:3">
+      <c r="A6317" s="53"/>
+      <c r="B6317" s="53">
+        <f>SUM(B6295:B6316)</f>
+        <v>160</v>
+      </c>
+      <c r="C6317" s="53">
+        <f>SUM(C6295:C6316)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6318" spans="1:3">
+      <c r="A6318" s="46" t="s">
+        <v>877</v>
+      </c>
+      <c r="B6318" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6318" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6319" spans="1:3">
+      <c r="A6319" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6319" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6319" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6320" spans="1:3">
+      <c r="A6320" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6320" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6320" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6321" spans="1:3">
+      <c r="A6321" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6321" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6321" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6322" spans="1:3">
+      <c r="A6322" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6322" s="54">
+        <v>24</v>
+      </c>
+      <c r="C6322" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6323" spans="1:3">
+      <c r="A6323" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6323" s="54">
+        <v>2</v>
+      </c>
+      <c r="C6323" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6324" spans="1:3">
+      <c r="A6324" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6324" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6324" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6325" spans="1:3">
+      <c r="A6325" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6325" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6325" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6326" spans="1:3">
+      <c r="A6326" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6326" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6326" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6327" spans="1:3">
+      <c r="A6327" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B6327" s="5">
+        <v>16</v>
+      </c>
+      <c r="C6327" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6328" spans="1:3">
+      <c r="A6328" s="48" t="s">
+        <v>870</v>
+      </c>
+      <c r="B6328" s="48">
+        <v>6</v>
+      </c>
+      <c r="C6328" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6329" spans="1:3">
+      <c r="A6329" s="48" t="s">
+        <v>875</v>
+      </c>
+      <c r="B6329" s="48">
+        <v>6</v>
+      </c>
+      <c r="C6329" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6330" spans="1:3">
+      <c r="A6330" s="48" t="s">
+        <v>876</v>
+      </c>
+      <c r="B6330" s="48">
+        <v>6</v>
+      </c>
+      <c r="C6330" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6331" spans="1:3">
+      <c r="A6331" s="48"/>
+      <c r="B6331" s="48"/>
+      <c r="C6331" s="5"/>
+    </row>
+    <row r="6332" spans="1:3">
+      <c r="A6332" s="48"/>
+      <c r="B6332" s="48"/>
+      <c r="C6332" s="48"/>
+    </row>
+    <row r="6333" spans="1:3">
+      <c r="A6333" s="48"/>
+      <c r="B6333" s="48"/>
+      <c r="C6333" s="48"/>
+    </row>
+    <row r="6334" spans="1:3">
+      <c r="A6334" s="48"/>
+      <c r="B6334" s="48"/>
+      <c r="C6334" s="48"/>
+    </row>
+    <row r="6335" spans="1:3">
+      <c r="A6335" s="48"/>
+      <c r="B6335" s="48"/>
+      <c r="C6335" s="48"/>
+    </row>
+    <row r="6336" spans="1:3">
+      <c r="A6336" s="48"/>
+      <c r="B6336" s="48"/>
+      <c r="C6336" s="48"/>
+    </row>
+    <row r="6337" spans="1:3">
+      <c r="A6337" s="48"/>
+      <c r="B6337" s="48"/>
+      <c r="C6337" s="48"/>
+    </row>
+    <row r="6338" spans="1:3">
+      <c r="A6338" s="48"/>
+      <c r="B6338" s="48"/>
+      <c r="C6338" s="48"/>
+    </row>
+    <row r="6339" spans="1:3">
+      <c r="A6339" s="48"/>
+      <c r="B6339" s="48"/>
+      <c r="C6339" s="48"/>
+    </row>
+    <row r="6340" spans="1:3">
+      <c r="A6340" s="53"/>
+      <c r="B6340" s="53"/>
+      <c r="C6340" s="48"/>
+    </row>
+    <row r="6341" spans="1:3">
+      <c r="A6341" s="53"/>
+      <c r="B6341" s="53">
+        <f>SUM(B6319:B6340)</f>
+        <v>144</v>
+      </c>
+      <c r="C6341" s="53">
+        <f>SUM(C6319:C6340)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6342" spans="1:3">
+      <c r="A6342" s="46" t="s">
+        <v>878</v>
+      </c>
+      <c r="B6342" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6342" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6343" spans="1:3">
+      <c r="A6343" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6343" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6343" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6344" spans="1:3">
+      <c r="A6344" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6344" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6344" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6345" spans="1:3">
+      <c r="A6345" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6345" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6345" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6346" spans="1:3">
+      <c r="A6346" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6346" s="54">
+        <v>24</v>
+      </c>
+      <c r="C6346" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6347" spans="1:3">
+      <c r="A6347" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6347" s="54">
+        <v>2</v>
+      </c>
+      <c r="C6347" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6348" spans="1:3">
+      <c r="A6348" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6348" s="48">
+        <v>10</v>
+      </c>
+      <c r="C6348" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6349" spans="1:3">
+      <c r="A6349" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6349" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6349" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6350" spans="1:3">
+      <c r="A6350" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6350" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6350" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6351" spans="1:3">
+      <c r="A6351" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B6351" s="5">
+        <v>16</v>
+      </c>
+      <c r="C6351" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6352" spans="1:3">
+      <c r="A6352" s="48" t="s">
+        <v>870</v>
+      </c>
+      <c r="B6352" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6352" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6353" spans="1:3">
+      <c r="A6353" s="48" t="s">
+        <v>875</v>
+      </c>
+      <c r="B6353" s="48">
+        <v>6</v>
+      </c>
+      <c r="C6353" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6354" spans="1:3">
+      <c r="A6354" s="48" t="s">
+        <v>876</v>
+      </c>
+      <c r="B6354" s="48">
+        <v>6</v>
+      </c>
+      <c r="C6354" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6355" spans="1:3">
+      <c r="A6355" s="48"/>
+      <c r="B6355" s="48"/>
+      <c r="C6355" s="5"/>
+    </row>
+    <row r="6356" spans="1:3">
+      <c r="A6356" s="48"/>
+      <c r="B6356" s="48"/>
+      <c r="C6356" s="48"/>
+    </row>
+    <row r="6357" spans="1:3">
+      <c r="A6357" s="48"/>
+      <c r="B6357" s="48"/>
+      <c r="C6357" s="48"/>
+    </row>
+    <row r="6358" spans="1:3">
+      <c r="A6358" s="48"/>
+      <c r="B6358" s="48"/>
+      <c r="C6358" s="48"/>
+    </row>
+    <row r="6359" spans="1:3">
+      <c r="A6359" s="48"/>
+      <c r="B6359" s="48"/>
+      <c r="C6359" s="48"/>
+    </row>
+    <row r="6360" spans="1:3">
+      <c r="A6360" s="48"/>
+      <c r="B6360" s="48"/>
+      <c r="C6360" s="48"/>
+    </row>
+    <row r="6361" spans="1:3">
+      <c r="A6361" s="48"/>
+      <c r="B6361" s="48"/>
+      <c r="C6361" s="48"/>
+    </row>
+    <row r="6362" spans="1:3">
+      <c r="A6362" s="48"/>
+      <c r="B6362" s="48"/>
+      <c r="C6362" s="48"/>
+    </row>
+    <row r="6363" spans="1:3">
+      <c r="A6363" s="48"/>
+      <c r="B6363" s="48"/>
+      <c r="C6363" s="48"/>
+    </row>
+    <row r="6364" spans="1:3">
+      <c r="A6364" s="53"/>
+      <c r="B6364" s="53"/>
+      <c r="C6364" s="48"/>
+    </row>
+    <row r="6365" spans="1:3">
+      <c r="A6365" s="53"/>
+      <c r="B6365" s="53">
+        <f>SUM(B6343:B6364)</f>
+        <v>140</v>
+      </c>
+      <c r="C6365" s="53">
+        <f>SUM(C6343:C6364)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -8,22 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\phd_work3\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2E6D63-8603-4C2E-B64A-ADE3F3A19542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0600B3D7-7CAA-49F2-8235-286FB488061D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sayfa3" sheetId="2" r:id="rId2"/>
-    <sheet name="Sayfa2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sayfa4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sayfa5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sayfa6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sayfa7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sayfa8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sayfa11" sheetId="11" r:id="rId9"/>
-    <sheet name="Sayfa9" sheetId="9" r:id="rId10"/>
-    <sheet name="Sayfa10" sheetId="10" r:id="rId11"/>
+    <sheet name="Sayfa15" sheetId="15" r:id="rId2"/>
+    <sheet name="Sayfa12" sheetId="12" r:id="rId3"/>
+    <sheet name="Sayfa3" sheetId="2" r:id="rId4"/>
+    <sheet name="Sayfa2" sheetId="3" r:id="rId5"/>
+    <sheet name="Sayfa4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sayfa5" sheetId="5" r:id="rId7"/>
+    <sheet name="Sayfa6" sheetId="6" r:id="rId8"/>
+    <sheet name="Sayfa7" sheetId="7" r:id="rId9"/>
+    <sheet name="Sayfa8" sheetId="8" r:id="rId10"/>
+    <sheet name="Sayfa11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sayfa9" sheetId="9" r:id="rId12"/>
+    <sheet name="Sayfa13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sayfa14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sayfa10" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7467" uniqueCount="1465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7693" uniqueCount="1502">
   <si>
     <t>ToDo</t>
   </si>
@@ -4492,6 +4496,117 @@
   </si>
   <si>
     <t>26.12.2022</t>
+  </si>
+  <si>
+    <t>27.12.2022</t>
+  </si>
+  <si>
+    <t>Phd: Q-Value Classification Experiments</t>
+  </si>
+  <si>
+    <t>28.12.2022</t>
+  </si>
+  <si>
+    <t>MT: Age and Gender Understand</t>
+  </si>
+  <si>
+    <t>MT: New evaluation code</t>
+  </si>
+  <si>
+    <t>MT: Load checkpoint - Resume training</t>
+  </si>
+  <si>
+    <t>29.12.2022</t>
+  </si>
+  <si>
+    <t>30.12.2022</t>
+  </si>
+  <si>
+    <t>31.12.2022</t>
+  </si>
+  <si>
+    <t>1.1.2023</t>
+  </si>
+  <si>
+    <t>Insumo: Email Correlation Analysis</t>
+  </si>
+  <si>
+    <t>Phd: Q-Value Combined Classification</t>
+  </si>
+  <si>
+    <t>2.1.2023</t>
+  </si>
+  <si>
+    <t>MT: Write HB documentation</t>
+  </si>
+  <si>
+    <t>Habit:X Streak:3</t>
+  </si>
+  <si>
+    <t>Email Domain: @xxx.com</t>
+  </si>
+  <si>
+    <t>Habit:A Streak:2</t>
+  </si>
+  <si>
+    <t>Habit:A Streak:4</t>
+  </si>
+  <si>
+    <t>Habit:Y Streak: 3</t>
+  </si>
+  <si>
+    <t>User 1</t>
+  </si>
+  <si>
+    <t>User 2</t>
+  </si>
+  <si>
+    <t>User 3</t>
+  </si>
+  <si>
+    <t>User 4</t>
+  </si>
+  <si>
+    <t>User 5</t>
+  </si>
+  <si>
+    <t>Habit: B Streak 5</t>
+  </si>
+  <si>
+    <t>3.1.2023</t>
+  </si>
+  <si>
+    <t>Tecloq: Prepare slides</t>
+  </si>
+  <si>
+    <t>MT: Add support for &gt;0.5 training size</t>
+  </si>
+  <si>
+    <t>4.1.2023</t>
+  </si>
+  <si>
+    <t>5.1.2023</t>
+  </si>
+  <si>
+    <t>Au: Prepare documents</t>
+  </si>
+  <si>
+    <t>Phd: Re-read paper</t>
+  </si>
+  <si>
+    <t>6.1.2023</t>
+  </si>
+  <si>
+    <t>7.1.2023</t>
+  </si>
+  <si>
+    <t>8.1.2023</t>
+  </si>
+  <si>
+    <t>9.1.2023</t>
+  </si>
+  <si>
+    <t>10.1.2023</t>
   </si>
 </sst>
 </file>
@@ -4566,7 +4681,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4660,6 +4775,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4757,7 +4884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4837,6 +4964,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -5851,10 +5983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7302"/>
+  <dimension ref="A1:G7663"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7277" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7286" sqref="D7286"/>
+    <sheetView tabSelected="1" topLeftCell="A7633" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7646" sqref="D7646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -82775,14 +82907,14 @@
       </c>
     </row>
     <row r="7285" spans="1:3">
-      <c r="A7285" s="48" t="s">
+      <c r="A7285" s="47" t="s">
         <v>810</v>
       </c>
-      <c r="B7285" s="48">
+      <c r="B7285" s="47">
         <v>10</v>
       </c>
-      <c r="C7285" s="48">
-        <v>1</v>
+      <c r="C7285" s="47">
+        <v>7</v>
       </c>
     </row>
     <row r="7286" spans="1:3">
@@ -82897,7 +83029,3007 @@
       </c>
       <c r="C7302" s="53">
         <f>SUM(C7280:C7301)</f>
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7303" spans="1:3">
+      <c r="A7303" s="46" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B7303" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7303" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7304" spans="1:3">
+      <c r="A7304" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7304" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7304" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7305" spans="1:3">
+      <c r="A7305" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7305" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7305" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7306" spans="1:3">
+      <c r="A7306" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7306" s="48">
+        <v>12</v>
+      </c>
+      <c r="C7306" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7307" spans="1:3">
+      <c r="A7307" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7307" s="53">
+        <v>24</v>
+      </c>
+      <c r="C7307" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7308" spans="1:3">
+      <c r="A7308" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7308" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7308" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7309" spans="1:3">
+      <c r="A7309" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7309" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7309" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7310" spans="1:3">
+      <c r="A7310" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7310" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7310" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7311" spans="1:3">
+      <c r="A7311" s="48" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B7311" s="48">
+        <v>4</v>
+      </c>
+      <c r="C7311" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7312" spans="1:3">
+      <c r="A7312" s="48" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B7312" s="48">
+        <v>3</v>
+      </c>
+      <c r="C7312" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7313" spans="1:3">
+      <c r="A7313" s="48" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B7313" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7313" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7314" spans="1:3">
+      <c r="A7314" s="5"/>
+      <c r="B7314" s="5"/>
+      <c r="C7314" s="5"/>
+    </row>
+    <row r="7315" spans="1:3">
+      <c r="A7315" s="48"/>
+      <c r="B7315" s="48"/>
+      <c r="C7315" s="48"/>
+    </row>
+    <row r="7316" spans="1:3">
+      <c r="A7316" s="48"/>
+      <c r="B7316" s="48"/>
+      <c r="C7316" s="48"/>
+    </row>
+    <row r="7317" spans="1:3">
+      <c r="A7317" s="48"/>
+      <c r="B7317" s="48"/>
+      <c r="C7317" s="48"/>
+    </row>
+    <row r="7318" spans="1:3">
+      <c r="A7318" s="48"/>
+      <c r="B7318" s="48"/>
+      <c r="C7318" s="48"/>
+    </row>
+    <row r="7319" spans="1:3">
+      <c r="A7319" s="48"/>
+      <c r="B7319" s="48"/>
+      <c r="C7319" s="48"/>
+    </row>
+    <row r="7320" spans="1:3">
+      <c r="A7320" s="48"/>
+      <c r="B7320" s="48"/>
+      <c r="C7320" s="48"/>
+    </row>
+    <row r="7321" spans="1:3">
+      <c r="A7321" s="48"/>
+      <c r="B7321" s="48"/>
+      <c r="C7321" s="48"/>
+    </row>
+    <row r="7322" spans="1:3">
+      <c r="A7322" s="48"/>
+      <c r="B7322" s="48"/>
+      <c r="C7322" s="48"/>
+    </row>
+    <row r="7323" spans="1:3">
+      <c r="A7323" s="48"/>
+      <c r="B7323" s="48"/>
+      <c r="C7323" s="48"/>
+    </row>
+    <row r="7324" spans="1:3">
+      <c r="A7324" s="48"/>
+      <c r="B7324" s="48"/>
+      <c r="C7324" s="48"/>
+    </row>
+    <row r="7325" spans="1:3">
+      <c r="A7325" s="53"/>
+      <c r="B7325" s="53"/>
+      <c r="C7325" s="48"/>
+    </row>
+    <row r="7326" spans="1:3">
+      <c r="A7326" s="53"/>
+      <c r="B7326" s="53">
+        <f>SUM(B7304:B7325)</f>
+        <v>117</v>
+      </c>
+      <c r="C7326" s="53">
+        <f>SUM(C7304:C7325)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7327" spans="1:3">
+      <c r="A7327" s="46" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B7327" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7327" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7328" spans="1:3">
+      <c r="A7328" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7328" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7328" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7329" spans="1:3">
+      <c r="A7329" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7329" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7329" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7330" spans="1:3">
+      <c r="A7330" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7330" s="48">
+        <v>12</v>
+      </c>
+      <c r="C7330" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7331" spans="1:3">
+      <c r="A7331" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7331" s="53">
+        <v>24</v>
+      </c>
+      <c r="C7331" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7332" spans="1:3">
+      <c r="A7332" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7332" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7332" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7333" spans="1:3">
+      <c r="A7333" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7333" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7333" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7334" spans="1:3">
+      <c r="A7334" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7334" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7334" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7335" spans="1:3">
+      <c r="A7335" s="48" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B7335" s="48">
+        <v>4</v>
+      </c>
+      <c r="C7335" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7336" spans="1:3">
+      <c r="A7336" s="48" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B7336" s="48">
+        <v>3</v>
+      </c>
+      <c r="C7336" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7337" spans="1:3">
+      <c r="A7337" s="48" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B7337" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7337" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7338" spans="1:3">
+      <c r="A7338" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B7338" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7338" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7339" spans="1:3">
+      <c r="A7339" s="48" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B7339" s="48">
+        <v>4</v>
+      </c>
+      <c r="C7339" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7340" spans="1:3">
+      <c r="A7340" s="48" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B7340" s="48">
+        <v>2</v>
+      </c>
+      <c r="C7340" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7341" spans="1:3">
+      <c r="A7341" s="48"/>
+      <c r="B7341" s="48"/>
+      <c r="C7341" s="48"/>
+    </row>
+    <row r="7342" spans="1:3">
+      <c r="A7342" s="48"/>
+      <c r="B7342" s="48"/>
+      <c r="C7342" s="48"/>
+    </row>
+    <row r="7343" spans="1:3">
+      <c r="A7343" s="48"/>
+      <c r="B7343" s="48"/>
+      <c r="C7343" s="48"/>
+    </row>
+    <row r="7344" spans="1:3">
+      <c r="A7344" s="48"/>
+      <c r="B7344" s="48"/>
+      <c r="C7344" s="48"/>
+    </row>
+    <row r="7345" spans="1:3">
+      <c r="A7345" s="48"/>
+      <c r="B7345" s="48"/>
+      <c r="C7345" s="48"/>
+    </row>
+    <row r="7346" spans="1:3">
+      <c r="A7346" s="48"/>
+      <c r="B7346" s="48"/>
+      <c r="C7346" s="48"/>
+    </row>
+    <row r="7347" spans="1:3">
+      <c r="A7347" s="48"/>
+      <c r="B7347" s="48"/>
+      <c r="C7347" s="48"/>
+    </row>
+    <row r="7348" spans="1:3">
+      <c r="A7348" s="48"/>
+      <c r="B7348" s="48"/>
+      <c r="C7348" s="48"/>
+    </row>
+    <row r="7349" spans="1:3">
+      <c r="A7349" s="53"/>
+      <c r="B7349" s="53"/>
+      <c r="C7349" s="48"/>
+    </row>
+    <row r="7350" spans="1:3">
+      <c r="A7350" s="53"/>
+      <c r="B7350" s="53">
+        <f>SUM(B7328:B7349)</f>
+        <v>129</v>
+      </c>
+      <c r="C7350" s="53">
+        <f>SUM(C7328:C7349)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7351" spans="1:3">
+      <c r="A7351" s="46" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B7351" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7351" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7352" spans="1:3">
+      <c r="A7352" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7352" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7352" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7353" spans="1:3">
+      <c r="A7353" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7353" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7353" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7354" spans="1:3">
+      <c r="A7354" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7354" s="48">
+        <v>12</v>
+      </c>
+      <c r="C7354" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7355" spans="1:3">
+      <c r="A7355" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7355" s="53">
+        <v>24</v>
+      </c>
+      <c r="C7355" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7356" spans="1:3">
+      <c r="A7356" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7356" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7356" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7357" spans="1:3">
+      <c r="A7357" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7357" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7357" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7358" spans="1:3">
+      <c r="A7358" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7358" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7358" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7359" spans="1:3">
+      <c r="A7359" s="48" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B7359" s="48">
+        <v>4</v>
+      </c>
+      <c r="C7359" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7360" spans="1:3">
+      <c r="A7360" s="48" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B7360" s="48">
+        <v>3</v>
+      </c>
+      <c r="C7360" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7361" spans="1:3">
+      <c r="A7361" s="48" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B7361" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7361" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7362" spans="1:3">
+      <c r="A7362" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B7362" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7362" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7363" spans="1:3">
+      <c r="A7363" s="48" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B7363" s="48">
+        <v>4</v>
+      </c>
+      <c r="C7363" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7364" spans="1:3">
+      <c r="A7364" s="47" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B7364" s="47">
+        <v>2</v>
+      </c>
+      <c r="C7364" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7365" spans="1:3">
+      <c r="A7365" s="48"/>
+      <c r="B7365" s="48"/>
+      <c r="C7365" s="48"/>
+    </row>
+    <row r="7366" spans="1:3">
+      <c r="A7366" s="48"/>
+      <c r="B7366" s="48"/>
+      <c r="C7366" s="48"/>
+    </row>
+    <row r="7367" spans="1:3">
+      <c r="A7367" s="48"/>
+      <c r="B7367" s="48"/>
+      <c r="C7367" s="48"/>
+    </row>
+    <row r="7368" spans="1:3">
+      <c r="A7368" s="48"/>
+      <c r="B7368" s="48"/>
+      <c r="C7368" s="48"/>
+    </row>
+    <row r="7369" spans="1:3">
+      <c r="A7369" s="48"/>
+      <c r="B7369" s="48"/>
+      <c r="C7369" s="48"/>
+    </row>
+    <row r="7370" spans="1:3">
+      <c r="A7370" s="48"/>
+      <c r="B7370" s="48"/>
+      <c r="C7370" s="48"/>
+    </row>
+    <row r="7371" spans="1:3">
+      <c r="A7371" s="48"/>
+      <c r="B7371" s="48"/>
+      <c r="C7371" s="48"/>
+    </row>
+    <row r="7372" spans="1:3">
+      <c r="A7372" s="48"/>
+      <c r="B7372" s="48"/>
+      <c r="C7372" s="48"/>
+    </row>
+    <row r="7373" spans="1:3">
+      <c r="A7373" s="53"/>
+      <c r="B7373" s="53"/>
+      <c r="C7373" s="48"/>
+    </row>
+    <row r="7374" spans="1:3">
+      <c r="A7374" s="53"/>
+      <c r="B7374" s="53">
+        <f>SUM(B7352:B7373)</f>
+        <v>129</v>
+      </c>
+      <c r="C7374" s="53">
+        <f>SUM(C7352:C7373)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7375" spans="1:3">
+      <c r="A7375" s="46" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B7375" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7375" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7376" spans="1:3">
+      <c r="A7376" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7376" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7376" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7377" spans="1:3">
+      <c r="A7377" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7377" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7377" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7378" spans="1:3">
+      <c r="A7378" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7378" s="48">
+        <v>12</v>
+      </c>
+      <c r="C7378" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7379" spans="1:3">
+      <c r="A7379" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7379" s="53">
+        <v>24</v>
+      </c>
+      <c r="C7379" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7380" spans="1:3">
+      <c r="A7380" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7380" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7380" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7381" spans="1:3">
+      <c r="A7381" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7381" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7381" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7382" spans="1:3">
+      <c r="A7382" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7382" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7382" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7383" spans="1:3">
+      <c r="A7383" s="48" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B7383" s="48">
+        <v>4</v>
+      </c>
+      <c r="C7383" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7384" spans="1:3">
+      <c r="A7384" s="48" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B7384" s="48">
+        <v>3</v>
+      </c>
+      <c r="C7384" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7385" spans="1:3">
+      <c r="A7385" s="48" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B7385" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7385" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7386" spans="1:3">
+      <c r="A7386" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B7386" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7386" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7387" spans="1:3">
+      <c r="A7387" s="48" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B7387" s="48">
+        <v>4</v>
+      </c>
+      <c r="C7387" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7388" spans="1:3">
+      <c r="A7388" s="48"/>
+      <c r="B7388" s="48"/>
+      <c r="C7388" s="48"/>
+    </row>
+    <row r="7389" spans="1:3">
+      <c r="A7389" s="48"/>
+      <c r="B7389" s="48"/>
+      <c r="C7389" s="48"/>
+    </row>
+    <row r="7390" spans="1:3">
+      <c r="A7390" s="48"/>
+      <c r="B7390" s="48"/>
+      <c r="C7390" s="48"/>
+    </row>
+    <row r="7391" spans="1:3">
+      <c r="A7391" s="48"/>
+      <c r="B7391" s="48"/>
+      <c r="C7391" s="48"/>
+    </row>
+    <row r="7392" spans="1:3">
+      <c r="A7392" s="48"/>
+      <c r="B7392" s="48"/>
+      <c r="C7392" s="48"/>
+    </row>
+    <row r="7393" spans="1:3">
+      <c r="A7393" s="48"/>
+      <c r="B7393" s="48"/>
+      <c r="C7393" s="48"/>
+    </row>
+    <row r="7394" spans="1:3">
+      <c r="A7394" s="48"/>
+      <c r="B7394" s="48"/>
+      <c r="C7394" s="48"/>
+    </row>
+    <row r="7395" spans="1:3">
+      <c r="A7395" s="48"/>
+      <c r="B7395" s="48"/>
+      <c r="C7395" s="48"/>
+    </row>
+    <row r="7396" spans="1:3">
+      <c r="A7396" s="48"/>
+      <c r="B7396" s="48"/>
+      <c r="C7396" s="48"/>
+    </row>
+    <row r="7397" spans="1:3">
+      <c r="A7397" s="53"/>
+      <c r="B7397" s="53"/>
+      <c r="C7397" s="48"/>
+    </row>
+    <row r="7398" spans="1:3">
+      <c r="A7398" s="53"/>
+      <c r="B7398" s="53">
+        <f>SUM(B7376:B7397)</f>
+        <v>127</v>
+      </c>
+      <c r="C7398" s="53">
+        <f>SUM(C7376:C7397)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7399" spans="1:3">
+      <c r="A7399" s="46" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B7399" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7399" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7400" spans="1:3">
+      <c r="A7400" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7400" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7400" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7401" spans="1:3">
+      <c r="A7401" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7401" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7401" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7402" spans="1:3">
+      <c r="A7402" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7402" s="48">
+        <v>12</v>
+      </c>
+      <c r="C7402" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7403" spans="1:3">
+      <c r="A7403" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7403" s="53">
+        <v>24</v>
+      </c>
+      <c r="C7403" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7404" spans="1:3">
+      <c r="A7404" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7404" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7404" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7405" spans="1:3">
+      <c r="A7405" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7405" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7405" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7406" spans="1:3">
+      <c r="A7406" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7406" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7406" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7407" spans="1:3">
+      <c r="A7407" s="48" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B7407" s="48">
+        <v>4</v>
+      </c>
+      <c r="C7407" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7408" spans="1:3">
+      <c r="A7408" s="48" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B7408" s="48">
+        <v>3</v>
+      </c>
+      <c r="C7408" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7409" spans="1:3">
+      <c r="A7409" s="48" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B7409" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7409" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7410" spans="1:3">
+      <c r="A7410" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B7410" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7410" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7411" spans="1:3">
+      <c r="A7411" s="48" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B7411" s="48">
+        <v>4</v>
+      </c>
+      <c r="C7411" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7412" spans="1:3">
+      <c r="A7412" s="48"/>
+      <c r="B7412" s="48"/>
+      <c r="C7412" s="48"/>
+    </row>
+    <row r="7413" spans="1:3">
+      <c r="A7413" s="48"/>
+      <c r="B7413" s="48"/>
+      <c r="C7413" s="48"/>
+    </row>
+    <row r="7414" spans="1:3">
+      <c r="A7414" s="48"/>
+      <c r="B7414" s="48"/>
+      <c r="C7414" s="48"/>
+    </row>
+    <row r="7415" spans="1:3">
+      <c r="A7415" s="48"/>
+      <c r="B7415" s="48"/>
+      <c r="C7415" s="48"/>
+    </row>
+    <row r="7416" spans="1:3">
+      <c r="A7416" s="48"/>
+      <c r="B7416" s="48"/>
+      <c r="C7416" s="48"/>
+    </row>
+    <row r="7417" spans="1:3">
+      <c r="A7417" s="48"/>
+      <c r="B7417" s="48"/>
+      <c r="C7417" s="48"/>
+    </row>
+    <row r="7418" spans="1:3">
+      <c r="A7418" s="48"/>
+      <c r="B7418" s="48"/>
+      <c r="C7418" s="48"/>
+    </row>
+    <row r="7419" spans="1:3">
+      <c r="A7419" s="48"/>
+      <c r="B7419" s="48"/>
+      <c r="C7419" s="48"/>
+    </row>
+    <row r="7420" spans="1:3">
+      <c r="A7420" s="48"/>
+      <c r="B7420" s="48"/>
+      <c r="C7420" s="48"/>
+    </row>
+    <row r="7421" spans="1:3">
+      <c r="A7421" s="53"/>
+      <c r="B7421" s="53"/>
+      <c r="C7421" s="48"/>
+    </row>
+    <row r="7422" spans="1:3">
+      <c r="A7422" s="53"/>
+      <c r="B7422" s="53">
+        <f>SUM(B7400:B7421)</f>
+        <v>127</v>
+      </c>
+      <c r="C7422" s="53">
+        <f>SUM(C7400:C7421)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7423" spans="1:3">
+      <c r="A7423" s="46" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B7423" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7423" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7424" spans="1:3">
+      <c r="A7424" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7424" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7424" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7425" spans="1:3">
+      <c r="A7425" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7425" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7425" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7426" spans="1:3">
+      <c r="A7426" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7426" s="48">
+        <v>12</v>
+      </c>
+      <c r="C7426" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7427" spans="1:3">
+      <c r="A7427" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7427" s="53">
+        <v>24</v>
+      </c>
+      <c r="C7427" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7428" spans="1:3">
+      <c r="A7428" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7428" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7428" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7429" spans="1:3">
+      <c r="A7429" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7429" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7429" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7430" spans="1:3">
+      <c r="A7430" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7430" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7430" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7431" spans="1:3">
+      <c r="A7431" s="48" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B7431" s="48">
+        <v>4</v>
+      </c>
+      <c r="C7431" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7432" spans="1:3">
+      <c r="A7432" s="47" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B7432" s="47">
+        <v>3</v>
+      </c>
+      <c r="C7432" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7433" spans="1:3">
+      <c r="A7433" s="47" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B7433" s="47">
+        <v>8</v>
+      </c>
+      <c r="C7433" s="47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7434" spans="1:3">
+      <c r="A7434" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B7434" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7434" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7435" spans="1:3">
+      <c r="A7435" s="48" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B7435" s="48">
+        <v>4</v>
+      </c>
+      <c r="C7435" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7436" spans="1:3">
+      <c r="A7436" s="48" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B7436" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7436" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7437" spans="1:3">
+      <c r="A7437" s="48" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B7437" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7437" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7438" spans="1:3">
+      <c r="A7438" s="48"/>
+      <c r="B7438" s="48"/>
+      <c r="C7438" s="48"/>
+    </row>
+    <row r="7439" spans="1:3">
+      <c r="A7439" s="48"/>
+      <c r="B7439" s="48"/>
+      <c r="C7439" s="48"/>
+    </row>
+    <row r="7440" spans="1:3">
+      <c r="A7440" s="48"/>
+      <c r="B7440" s="48"/>
+      <c r="C7440" s="48"/>
+    </row>
+    <row r="7441" spans="1:3">
+      <c r="A7441" s="48"/>
+      <c r="B7441" s="48"/>
+      <c r="C7441" s="48"/>
+    </row>
+    <row r="7442" spans="1:3">
+      <c r="A7442" s="48"/>
+      <c r="B7442" s="48"/>
+      <c r="C7442" s="48"/>
+    </row>
+    <row r="7443" spans="1:3">
+      <c r="A7443" s="48"/>
+      <c r="B7443" s="48"/>
+      <c r="C7443" s="48"/>
+    </row>
+    <row r="7444" spans="1:3">
+      <c r="A7444" s="48"/>
+      <c r="B7444" s="48"/>
+      <c r="C7444" s="48"/>
+    </row>
+    <row r="7445" spans="1:3">
+      <c r="A7445" s="53"/>
+      <c r="B7445" s="53"/>
+      <c r="C7445" s="48"/>
+    </row>
+    <row r="7446" spans="1:3">
+      <c r="A7446" s="53"/>
+      <c r="B7446" s="53">
+        <f>SUM(B7424:B7445)</f>
+        <v>139</v>
+      </c>
+      <c r="C7446" s="53">
+        <f>SUM(C7424:C7445)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7447" spans="1:3">
+      <c r="A7447" s="46" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B7447" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7447" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7448" spans="1:3">
+      <c r="A7448" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7448" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7448" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7449" spans="1:3">
+      <c r="A7449" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7449" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7449" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7450" spans="1:3">
+      <c r="A7450" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7450" s="48">
+        <v>12</v>
+      </c>
+      <c r="C7450" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7451" spans="1:3">
+      <c r="A7451" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7451" s="53">
+        <v>24</v>
+      </c>
+      <c r="C7451" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7452" spans="1:3">
+      <c r="A7452" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7452" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7452" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7453" spans="1:3">
+      <c r="A7453" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7453" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7453" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7454" spans="1:3">
+      <c r="A7454" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7454" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7454" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7455" spans="1:3">
+      <c r="A7455" s="48" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B7455" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7455" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7456" spans="1:3">
+      <c r="A7456" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B7456" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7456" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7457" spans="1:3">
+      <c r="A7457" s="47" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B7457" s="47">
+        <v>4</v>
+      </c>
+      <c r="C7457" s="47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7458" spans="1:3">
+      <c r="A7458" s="48" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B7458" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7458" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7459" spans="1:3">
+      <c r="A7459" s="48" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B7459" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7459" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7460" spans="1:3">
+      <c r="A7460" s="5"/>
+      <c r="B7460" s="5"/>
+      <c r="C7460" s="5"/>
+    </row>
+    <row r="7461" spans="1:3">
+      <c r="A7461" s="5"/>
+      <c r="B7461" s="5"/>
+      <c r="C7461" s="5"/>
+    </row>
+    <row r="7462" spans="1:3">
+      <c r="A7462" s="48"/>
+      <c r="B7462" s="48"/>
+      <c r="C7462" s="48"/>
+    </row>
+    <row r="7463" spans="1:3">
+      <c r="A7463" s="48"/>
+      <c r="B7463" s="48"/>
+      <c r="C7463" s="48"/>
+    </row>
+    <row r="7464" spans="1:3">
+      <c r="A7464" s="48"/>
+      <c r="B7464" s="48"/>
+      <c r="C7464" s="48"/>
+    </row>
+    <row r="7465" spans="1:3">
+      <c r="A7465" s="48"/>
+      <c r="B7465" s="48"/>
+      <c r="C7465" s="48"/>
+    </row>
+    <row r="7466" spans="1:3">
+      <c r="A7466" s="48"/>
+      <c r="B7466" s="48"/>
+      <c r="C7466" s="48"/>
+    </row>
+    <row r="7467" spans="1:3">
+      <c r="A7467" s="48"/>
+      <c r="B7467" s="48"/>
+      <c r="C7467" s="48"/>
+    </row>
+    <row r="7468" spans="1:3">
+      <c r="A7468" s="48"/>
+      <c r="B7468" s="48"/>
+      <c r="C7468" s="48"/>
+    </row>
+    <row r="7469" spans="1:3">
+      <c r="A7469" s="53"/>
+      <c r="B7469" s="53"/>
+      <c r="C7469" s="48"/>
+    </row>
+    <row r="7470" spans="1:3">
+      <c r="A7470" s="53"/>
+      <c r="B7470" s="53">
+        <f>SUM(B7448:B7469)</f>
+        <v>130</v>
+      </c>
+      <c r="C7470" s="53">
+        <f>SUM(C7448:C7469)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7471" spans="1:3">
+      <c r="A7471" s="46" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B7471" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7471" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7472" spans="1:3">
+      <c r="A7472" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7472" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7472" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7473" spans="1:3">
+      <c r="A7473" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7473" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7473" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7474" spans="1:3">
+      <c r="A7474" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7474" s="48">
+        <v>12</v>
+      </c>
+      <c r="C7474" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7475" spans="1:3">
+      <c r="A7475" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7475" s="53">
+        <v>24</v>
+      </c>
+      <c r="C7475" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7476" spans="1:3">
+      <c r="A7476" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7476" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7476" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7477" spans="1:3">
+      <c r="A7477" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7477" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7477" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7478" spans="1:3">
+      <c r="A7478" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7478" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7478" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7479" spans="1:3">
+      <c r="A7479" s="47" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B7479" s="47">
+        <v>6</v>
+      </c>
+      <c r="C7479" s="47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7480" spans="1:3">
+      <c r="A7480" s="5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B7480" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7480" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7481" spans="1:3">
+      <c r="A7481" s="48" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B7481" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7481" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7482" spans="1:3">
+      <c r="A7482" s="48" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B7482" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7482" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7483" spans="1:3">
+      <c r="A7483" s="47" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B7483" s="47">
+        <v>1</v>
+      </c>
+      <c r="C7483" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7484" spans="1:3">
+      <c r="A7484" s="5"/>
+      <c r="B7484" s="5"/>
+      <c r="C7484" s="5"/>
+    </row>
+    <row r="7485" spans="1:3">
+      <c r="A7485" s="5"/>
+      <c r="B7485" s="5"/>
+      <c r="C7485" s="5"/>
+    </row>
+    <row r="7486" spans="1:3">
+      <c r="A7486" s="48"/>
+      <c r="B7486" s="48"/>
+      <c r="C7486" s="48"/>
+    </row>
+    <row r="7487" spans="1:3">
+      <c r="A7487" s="48"/>
+      <c r="B7487" s="48"/>
+      <c r="C7487" s="48"/>
+    </row>
+    <row r="7488" spans="1:3">
+      <c r="A7488" s="48"/>
+      <c r="B7488" s="48"/>
+      <c r="C7488" s="48"/>
+    </row>
+    <row r="7489" spans="1:3">
+      <c r="A7489" s="48"/>
+      <c r="B7489" s="48"/>
+      <c r="C7489" s="48"/>
+    </row>
+    <row r="7490" spans="1:3">
+      <c r="A7490" s="48"/>
+      <c r="B7490" s="48"/>
+      <c r="C7490" s="48"/>
+    </row>
+    <row r="7491" spans="1:3">
+      <c r="A7491" s="48"/>
+      <c r="B7491" s="48"/>
+      <c r="C7491" s="48"/>
+    </row>
+    <row r="7492" spans="1:3">
+      <c r="A7492" s="48"/>
+      <c r="B7492" s="48"/>
+      <c r="C7492" s="48"/>
+    </row>
+    <row r="7493" spans="1:3">
+      <c r="A7493" s="53"/>
+      <c r="B7493" s="53"/>
+      <c r="C7493" s="48"/>
+    </row>
+    <row r="7494" spans="1:3">
+      <c r="A7494" s="53"/>
+      <c r="B7494" s="53">
+        <f>SUM(B7472:B7493)</f>
+        <v>125</v>
+      </c>
+      <c r="C7494" s="53">
+        <f>SUM(C7472:C7493)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7495" spans="1:3">
+      <c r="A7495" s="46" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B7495" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7495" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7496" spans="1:3">
+      <c r="A7496" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7496" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7496" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7497" spans="1:3">
+      <c r="A7497" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7497" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7497" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7498" spans="1:3">
+      <c r="A7498" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7498" s="48">
+        <v>12</v>
+      </c>
+      <c r="C7498" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7499" spans="1:3">
+      <c r="A7499" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7499" s="53">
+        <v>24</v>
+      </c>
+      <c r="C7499" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7500" spans="1:3">
+      <c r="A7500" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7500" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7500" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7501" spans="1:3">
+      <c r="A7501" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7501" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7501" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7502" spans="1:3">
+      <c r="A7502" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7502" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7502" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7503" spans="1:3">
+      <c r="A7503" s="47" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B7503" s="47">
+        <v>2</v>
+      </c>
+      <c r="C7503" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7504" spans="1:3">
+      <c r="A7504" s="48" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B7504" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7504" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7505" spans="1:3">
+      <c r="A7505" s="48" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B7505" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7505" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7506" spans="1:3">
+      <c r="A7506" s="5"/>
+      <c r="B7506" s="5"/>
+      <c r="C7506" s="48"/>
+    </row>
+    <row r="7507" spans="1:3">
+      <c r="A7507" s="48"/>
+      <c r="B7507" s="48"/>
+      <c r="C7507" s="48"/>
+    </row>
+    <row r="7508" spans="1:3">
+      <c r="A7508" s="48"/>
+      <c r="B7508" s="48"/>
+      <c r="C7508" s="48"/>
+    </row>
+    <row r="7509" spans="1:3">
+      <c r="A7509" s="5"/>
+      <c r="B7509" s="5"/>
+      <c r="C7509" s="5"/>
+    </row>
+    <row r="7510" spans="1:3">
+      <c r="A7510" s="48"/>
+      <c r="B7510" s="48"/>
+      <c r="C7510" s="48"/>
+    </row>
+    <row r="7511" spans="1:3">
+      <c r="A7511" s="48"/>
+      <c r="B7511" s="48"/>
+      <c r="C7511" s="48"/>
+    </row>
+    <row r="7512" spans="1:3">
+      <c r="A7512" s="48"/>
+      <c r="B7512" s="48"/>
+      <c r="C7512" s="48"/>
+    </row>
+    <row r="7513" spans="1:3">
+      <c r="A7513" s="48"/>
+      <c r="B7513" s="48"/>
+      <c r="C7513" s="48"/>
+    </row>
+    <row r="7514" spans="1:3">
+      <c r="A7514" s="48"/>
+      <c r="B7514" s="48"/>
+      <c r="C7514" s="48"/>
+    </row>
+    <row r="7515" spans="1:3">
+      <c r="A7515" s="48"/>
+      <c r="B7515" s="48"/>
+      <c r="C7515" s="48"/>
+    </row>
+    <row r="7516" spans="1:3">
+      <c r="A7516" s="48"/>
+      <c r="B7516" s="48"/>
+      <c r="C7516" s="48"/>
+    </row>
+    <row r="7517" spans="1:3">
+      <c r="A7517" s="53"/>
+      <c r="B7517" s="53"/>
+      <c r="C7517" s="48"/>
+    </row>
+    <row r="7518" spans="1:3">
+      <c r="A7518" s="53"/>
+      <c r="B7518" s="53">
+        <f>SUM(B7496:B7517)</f>
+        <v>118</v>
+      </c>
+      <c r="C7518" s="53">
+        <f>SUM(C7496:C7517)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7519" spans="1:3">
+      <c r="A7519" s="46" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B7519" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7519" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7520" spans="1:3">
+      <c r="A7520" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7520" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7520" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7521" spans="1:3">
+      <c r="A7521" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7521" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7521" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7522" spans="1:3">
+      <c r="A7522" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7522" s="48">
+        <v>12</v>
+      </c>
+      <c r="C7522" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7523" spans="1:3">
+      <c r="A7523" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7523" s="53">
+        <v>24</v>
+      </c>
+      <c r="C7523" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7524" spans="1:3">
+      <c r="A7524" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7524" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7524" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7525" spans="1:3">
+      <c r="A7525" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7525" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7525" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7526" spans="1:3">
+      <c r="A7526" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7526" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7526" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7527" spans="1:3">
+      <c r="A7527" s="48" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B7527" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7527" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7528" spans="1:3">
+      <c r="A7528" s="48" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B7528" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7528" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7529" spans="1:3">
+      <c r="A7529" s="48" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B7529" s="48">
+        <v>2</v>
+      </c>
+      <c r="C7529" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7530" spans="1:3">
+      <c r="A7530" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B7530" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7530" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7531" spans="1:3">
+      <c r="A7531" s="48"/>
+      <c r="B7531" s="48"/>
+      <c r="C7531" s="48"/>
+    </row>
+    <row r="7532" spans="1:3">
+      <c r="A7532" s="48"/>
+      <c r="B7532" s="48"/>
+      <c r="C7532" s="48"/>
+    </row>
+    <row r="7533" spans="1:3">
+      <c r="A7533" s="5"/>
+      <c r="B7533" s="5"/>
+      <c r="C7533" s="5"/>
+    </row>
+    <row r="7534" spans="1:3">
+      <c r="A7534" s="48"/>
+      <c r="B7534" s="48"/>
+      <c r="C7534" s="48"/>
+    </row>
+    <row r="7535" spans="1:3">
+      <c r="A7535" s="48"/>
+      <c r="B7535" s="48"/>
+      <c r="C7535" s="48"/>
+    </row>
+    <row r="7536" spans="1:3">
+      <c r="A7536" s="48"/>
+      <c r="B7536" s="48"/>
+      <c r="C7536" s="48"/>
+    </row>
+    <row r="7537" spans="1:3">
+      <c r="A7537" s="48"/>
+      <c r="B7537" s="48"/>
+      <c r="C7537" s="48"/>
+    </row>
+    <row r="7538" spans="1:3">
+      <c r="A7538" s="48"/>
+      <c r="B7538" s="48"/>
+      <c r="C7538" s="48"/>
+    </row>
+    <row r="7539" spans="1:3">
+      <c r="A7539" s="48"/>
+      <c r="B7539" s="48"/>
+      <c r="C7539" s="48"/>
+    </row>
+    <row r="7540" spans="1:3">
+      <c r="A7540" s="48"/>
+      <c r="B7540" s="48"/>
+      <c r="C7540" s="48"/>
+    </row>
+    <row r="7541" spans="1:3">
+      <c r="A7541" s="53"/>
+      <c r="B7541" s="53"/>
+      <c r="C7541" s="48"/>
+    </row>
+    <row r="7542" spans="1:3">
+      <c r="A7542" s="53"/>
+      <c r="B7542" s="53">
+        <f>SUM(B7520:B7541)</f>
+        <v>122</v>
+      </c>
+      <c r="C7542" s="53">
+        <f>SUM(C7520:C7541)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7543" spans="1:3">
+      <c r="A7543" s="46" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B7543" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7543" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7544" spans="1:3">
+      <c r="A7544" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7544" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7544" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7545" spans="1:3">
+      <c r="A7545" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7545" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7545" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7546" spans="1:3">
+      <c r="A7546" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7546" s="48">
+        <v>12</v>
+      </c>
+      <c r="C7546" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7547" spans="1:3">
+      <c r="A7547" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7547" s="53">
+        <v>24</v>
+      </c>
+      <c r="C7547" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7548" spans="1:3">
+      <c r="A7548" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7548" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7548" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7549" spans="1:3">
+      <c r="A7549" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7549" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7549" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7550" spans="1:3">
+      <c r="A7550" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7550" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7550" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7551" spans="1:3">
+      <c r="A7551" s="48" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B7551" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7551" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7552" spans="1:3">
+      <c r="A7552" s="48" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B7552" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7552" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7553" spans="1:3">
+      <c r="A7553" s="47" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B7553" s="47">
+        <v>2</v>
+      </c>
+      <c r="C7553" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7554" spans="1:3">
+      <c r="A7554" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B7554" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7554" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7555" spans="1:3">
+      <c r="A7555" s="48"/>
+      <c r="B7555" s="48"/>
+      <c r="C7555" s="48"/>
+    </row>
+    <row r="7556" spans="1:3">
+      <c r="A7556" s="48"/>
+      <c r="B7556" s="48"/>
+      <c r="C7556" s="48"/>
+    </row>
+    <row r="7557" spans="1:3">
+      <c r="A7557" s="5"/>
+      <c r="B7557" s="5"/>
+      <c r="C7557" s="5"/>
+    </row>
+    <row r="7558" spans="1:3">
+      <c r="A7558" s="48"/>
+      <c r="B7558" s="48"/>
+      <c r="C7558" s="48"/>
+    </row>
+    <row r="7559" spans="1:3">
+      <c r="A7559" s="48"/>
+      <c r="B7559" s="48"/>
+      <c r="C7559" s="48"/>
+    </row>
+    <row r="7560" spans="1:3">
+      <c r="A7560" s="48"/>
+      <c r="B7560" s="48"/>
+      <c r="C7560" s="48"/>
+    </row>
+    <row r="7561" spans="1:3">
+      <c r="A7561" s="48"/>
+      <c r="B7561" s="48"/>
+      <c r="C7561" s="48"/>
+    </row>
+    <row r="7562" spans="1:3">
+      <c r="A7562" s="48"/>
+      <c r="B7562" s="48"/>
+      <c r="C7562" s="48"/>
+    </row>
+    <row r="7563" spans="1:3">
+      <c r="A7563" s="48"/>
+      <c r="B7563" s="48"/>
+      <c r="C7563" s="48"/>
+    </row>
+    <row r="7564" spans="1:3">
+      <c r="A7564" s="48"/>
+      <c r="B7564" s="48"/>
+      <c r="C7564" s="48"/>
+    </row>
+    <row r="7565" spans="1:3">
+      <c r="A7565" s="53"/>
+      <c r="B7565" s="53"/>
+      <c r="C7565" s="48"/>
+    </row>
+    <row r="7566" spans="1:3">
+      <c r="A7566" s="53"/>
+      <c r="B7566" s="53">
+        <f>SUM(B7544:B7565)</f>
+        <v>122</v>
+      </c>
+      <c r="C7566" s="53">
+        <f>SUM(C7544:C7565)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7567" spans="1:3">
+      <c r="A7567" s="46" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B7567" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7567" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7568" spans="1:3">
+      <c r="A7568" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7568" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7568" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7569" spans="1:3">
+      <c r="A7569" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7569" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7569" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7570" spans="1:3">
+      <c r="A7570" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7570" s="48">
+        <v>12</v>
+      </c>
+      <c r="C7570" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7571" spans="1:3">
+      <c r="A7571" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7571" s="53">
+        <v>24</v>
+      </c>
+      <c r="C7571" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7572" spans="1:3">
+      <c r="A7572" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7572" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7572" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7573" spans="1:3">
+      <c r="A7573" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7573" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7573" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7574" spans="1:3">
+      <c r="A7574" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7574" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7574" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7575" spans="1:3">
+      <c r="A7575" s="48" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B7575" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7575" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7576" spans="1:3">
+      <c r="A7576" s="48" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B7576" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7576" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7577" spans="1:3">
+      <c r="A7577" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B7577" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7577" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7578" spans="1:3">
+      <c r="A7578" s="5"/>
+      <c r="B7578" s="5"/>
+      <c r="C7578" s="48"/>
+    </row>
+    <row r="7579" spans="1:3">
+      <c r="A7579" s="48"/>
+      <c r="B7579" s="48"/>
+      <c r="C7579" s="48"/>
+    </row>
+    <row r="7580" spans="1:3">
+      <c r="A7580" s="48"/>
+      <c r="B7580" s="48"/>
+      <c r="C7580" s="48"/>
+    </row>
+    <row r="7581" spans="1:3">
+      <c r="A7581" s="5"/>
+      <c r="B7581" s="5"/>
+      <c r="C7581" s="5"/>
+    </row>
+    <row r="7582" spans="1:3">
+      <c r="A7582" s="48"/>
+      <c r="B7582" s="48"/>
+      <c r="C7582" s="48"/>
+    </row>
+    <row r="7583" spans="1:3">
+      <c r="A7583" s="48"/>
+      <c r="B7583" s="48"/>
+      <c r="C7583" s="48"/>
+    </row>
+    <row r="7584" spans="1:3">
+      <c r="A7584" s="48"/>
+      <c r="B7584" s="48"/>
+      <c r="C7584" s="48"/>
+    </row>
+    <row r="7585" spans="1:3">
+      <c r="A7585" s="48"/>
+      <c r="B7585" s="48"/>
+      <c r="C7585" s="48"/>
+    </row>
+    <row r="7586" spans="1:3">
+      <c r="A7586" s="48"/>
+      <c r="B7586" s="48"/>
+      <c r="C7586" s="48"/>
+    </row>
+    <row r="7587" spans="1:3">
+      <c r="A7587" s="48"/>
+      <c r="B7587" s="48"/>
+      <c r="C7587" s="48"/>
+    </row>
+    <row r="7588" spans="1:3">
+      <c r="A7588" s="48"/>
+      <c r="B7588" s="48"/>
+      <c r="C7588" s="48"/>
+    </row>
+    <row r="7589" spans="1:3">
+      <c r="A7589" s="53"/>
+      <c r="B7589" s="53"/>
+      <c r="C7589" s="48"/>
+    </row>
+    <row r="7590" spans="1:3">
+      <c r="A7590" s="53"/>
+      <c r="B7590" s="53">
+        <f>SUM(B7568:B7589)</f>
+        <v>120</v>
+      </c>
+      <c r="C7590" s="53">
+        <f>SUM(C7568:C7589)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7591" spans="1:3">
+      <c r="A7591" s="46" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B7591" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7591" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7592" spans="1:3">
+      <c r="A7592" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7592" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7592" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7593" spans="1:3">
+      <c r="A7593" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7593" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7593" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7594" spans="1:3">
+      <c r="A7594" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7594" s="48">
+        <v>12</v>
+      </c>
+      <c r="C7594" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7595" spans="1:3">
+      <c r="A7595" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7595" s="53">
+        <v>24</v>
+      </c>
+      <c r="C7595" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7596" spans="1:3">
+      <c r="A7596" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7596" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7596" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7597" spans="1:3">
+      <c r="A7597" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7597" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7597" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7598" spans="1:3">
+      <c r="A7598" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7598" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7598" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7599" spans="1:3">
+      <c r="A7599" s="48" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B7599" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7599" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7600" spans="1:3">
+      <c r="A7600" s="48" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B7600" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7600" s="48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7601" spans="1:3">
+      <c r="A7601" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B7601" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7601" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7602" spans="1:3">
+      <c r="A7602" s="5"/>
+      <c r="B7602" s="5"/>
+      <c r="C7602" s="48"/>
+    </row>
+    <row r="7603" spans="1:3">
+      <c r="A7603" s="48"/>
+      <c r="B7603" s="48"/>
+      <c r="C7603" s="48"/>
+    </row>
+    <row r="7604" spans="1:3">
+      <c r="A7604" s="48"/>
+      <c r="B7604" s="48"/>
+      <c r="C7604" s="48"/>
+    </row>
+    <row r="7605" spans="1:3">
+      <c r="A7605" s="5"/>
+      <c r="B7605" s="5"/>
+      <c r="C7605" s="5"/>
+    </row>
+    <row r="7606" spans="1:3">
+      <c r="A7606" s="48"/>
+      <c r="B7606" s="48"/>
+      <c r="C7606" s="48"/>
+    </row>
+    <row r="7607" spans="1:3">
+      <c r="A7607" s="48"/>
+      <c r="B7607" s="48"/>
+      <c r="C7607" s="48"/>
+    </row>
+    <row r="7608" spans="1:3">
+      <c r="A7608" s="48"/>
+      <c r="B7608" s="48"/>
+      <c r="C7608" s="48"/>
+    </row>
+    <row r="7609" spans="1:3">
+      <c r="A7609" s="48"/>
+      <c r="B7609" s="48"/>
+      <c r="C7609" s="48"/>
+    </row>
+    <row r="7610" spans="1:3">
+      <c r="A7610" s="48"/>
+      <c r="B7610" s="48"/>
+      <c r="C7610" s="48"/>
+    </row>
+    <row r="7611" spans="1:3">
+      <c r="A7611" s="48"/>
+      <c r="B7611" s="48"/>
+      <c r="C7611" s="48"/>
+    </row>
+    <row r="7612" spans="1:3">
+      <c r="A7612" s="48"/>
+      <c r="B7612" s="48"/>
+      <c r="C7612" s="48"/>
+    </row>
+    <row r="7613" spans="1:3">
+      <c r="A7613" s="53"/>
+      <c r="B7613" s="53"/>
+      <c r="C7613" s="48"/>
+    </row>
+    <row r="7614" spans="1:3">
+      <c r="A7614" s="53"/>
+      <c r="B7614" s="53">
+        <f>SUM(B7592:B7613)</f>
+        <v>120</v>
+      </c>
+      <c r="C7614" s="53">
+        <f>SUM(C7592:C7613)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7616" spans="1:3">
+      <c r="A7616" s="46" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B7616" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7616" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7617" spans="1:3">
+      <c r="A7617" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7617" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7617" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7618" spans="1:3">
+      <c r="A7618" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7618" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7618" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7619" spans="1:3">
+      <c r="A7619" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7619" s="48">
+        <v>12</v>
+      </c>
+      <c r="C7619" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7620" spans="1:3">
+      <c r="A7620" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7620" s="53">
+        <v>24</v>
+      </c>
+      <c r="C7620" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7621" spans="1:3">
+      <c r="A7621" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7621" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7621" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7622" spans="1:3">
+      <c r="A7622" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7622" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7622" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7623" spans="1:3">
+      <c r="A7623" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7623" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7623" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7624" spans="1:3">
+      <c r="A7624" s="48" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B7624" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7624" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7625" spans="1:3">
+      <c r="A7625" s="48" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B7625" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7625" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7626" spans="1:3">
+      <c r="A7626" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B7626" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7626" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7627" spans="1:3">
+      <c r="A7627" s="5"/>
+      <c r="B7627" s="5"/>
+      <c r="C7627" s="48"/>
+    </row>
+    <row r="7628" spans="1:3">
+      <c r="A7628" s="48"/>
+      <c r="B7628" s="48"/>
+      <c r="C7628" s="48"/>
+    </row>
+    <row r="7629" spans="1:3">
+      <c r="A7629" s="48"/>
+      <c r="B7629" s="48"/>
+      <c r="C7629" s="48"/>
+    </row>
+    <row r="7630" spans="1:3">
+      <c r="A7630" s="5"/>
+      <c r="B7630" s="5"/>
+      <c r="C7630" s="5"/>
+    </row>
+    <row r="7631" spans="1:3">
+      <c r="A7631" s="48"/>
+      <c r="B7631" s="48"/>
+      <c r="C7631" s="48"/>
+    </row>
+    <row r="7632" spans="1:3">
+      <c r="A7632" s="48"/>
+      <c r="B7632" s="48"/>
+      <c r="C7632" s="48"/>
+    </row>
+    <row r="7633" spans="1:3">
+      <c r="A7633" s="48"/>
+      <c r="B7633" s="48"/>
+      <c r="C7633" s="48"/>
+    </row>
+    <row r="7634" spans="1:3">
+      <c r="A7634" s="48"/>
+      <c r="B7634" s="48"/>
+      <c r="C7634" s="48"/>
+    </row>
+    <row r="7635" spans="1:3">
+      <c r="A7635" s="48"/>
+      <c r="B7635" s="48"/>
+      <c r="C7635" s="48"/>
+    </row>
+    <row r="7636" spans="1:3">
+      <c r="A7636" s="48"/>
+      <c r="B7636" s="48"/>
+      <c r="C7636" s="48"/>
+    </row>
+    <row r="7637" spans="1:3">
+      <c r="A7637" s="48"/>
+      <c r="B7637" s="48"/>
+      <c r="C7637" s="48"/>
+    </row>
+    <row r="7638" spans="1:3">
+      <c r="A7638" s="53"/>
+      <c r="B7638" s="53"/>
+      <c r="C7638" s="48"/>
+    </row>
+    <row r="7639" spans="1:3">
+      <c r="A7639" s="53"/>
+      <c r="B7639" s="53">
+        <f>SUM(B7617:B7638)</f>
+        <v>120</v>
+      </c>
+      <c r="C7639" s="53">
+        <f>SUM(C7617:C7638)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7640" spans="1:3">
+      <c r="A7640" s="46" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B7640" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7640" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7641" spans="1:3">
+      <c r="A7641" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7641" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7641" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7642" spans="1:3">
+      <c r="A7642" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7642" s="48">
+        <v>24</v>
+      </c>
+      <c r="C7642" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7643" spans="1:3">
+      <c r="A7643" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7643" s="48">
+        <v>12</v>
+      </c>
+      <c r="C7643" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7644" spans="1:3">
+      <c r="A7644" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7644" s="53">
+        <v>24</v>
+      </c>
+      <c r="C7644" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7645" spans="1:3">
+      <c r="A7645" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7645" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7645" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7646" spans="1:3">
+      <c r="A7646" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7646" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7646" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7647" spans="1:3">
+      <c r="A7647" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7647" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7647" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7648" spans="1:3">
+      <c r="A7648" s="48" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B7648" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7648" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7649" spans="1:3">
+      <c r="A7649" s="48" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B7649" s="48">
+        <v>8</v>
+      </c>
+      <c r="C7649" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7650" spans="1:3">
+      <c r="A7650" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B7650" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7650" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7651" spans="1:3">
+      <c r="A7651" s="5"/>
+      <c r="B7651" s="5"/>
+      <c r="C7651" s="48"/>
+    </row>
+    <row r="7652" spans="1:3">
+      <c r="A7652" s="48"/>
+      <c r="B7652" s="48"/>
+      <c r="C7652" s="48"/>
+    </row>
+    <row r="7653" spans="1:3">
+      <c r="A7653" s="48"/>
+      <c r="B7653" s="48"/>
+      <c r="C7653" s="48"/>
+    </row>
+    <row r="7654" spans="1:3">
+      <c r="A7654" s="5"/>
+      <c r="B7654" s="5"/>
+      <c r="C7654" s="5"/>
+    </row>
+    <row r="7655" spans="1:3">
+      <c r="A7655" s="48"/>
+      <c r="B7655" s="48"/>
+      <c r="C7655" s="48"/>
+    </row>
+    <row r="7656" spans="1:3">
+      <c r="A7656" s="48"/>
+      <c r="B7656" s="48"/>
+      <c r="C7656" s="48"/>
+    </row>
+    <row r="7657" spans="1:3">
+      <c r="A7657" s="48"/>
+      <c r="B7657" s="48"/>
+      <c r="C7657" s="48"/>
+    </row>
+    <row r="7658" spans="1:3">
+      <c r="A7658" s="48"/>
+      <c r="B7658" s="48"/>
+      <c r="C7658" s="48"/>
+    </row>
+    <row r="7659" spans="1:3">
+      <c r="A7659" s="48"/>
+      <c r="B7659" s="48"/>
+      <c r="C7659" s="48"/>
+    </row>
+    <row r="7660" spans="1:3">
+      <c r="A7660" s="48"/>
+      <c r="B7660" s="48"/>
+      <c r="C7660" s="48"/>
+    </row>
+    <row r="7661" spans="1:3">
+      <c r="A7661" s="48"/>
+      <c r="B7661" s="48"/>
+      <c r="C7661" s="48"/>
+    </row>
+    <row r="7662" spans="1:3">
+      <c r="A7662" s="53"/>
+      <c r="B7662" s="53"/>
+      <c r="C7662" s="48"/>
+    </row>
+    <row r="7663" spans="1:3">
+      <c r="A7663" s="53"/>
+      <c r="B7663" s="53">
+        <f>SUM(B7641:B7662)</f>
+        <v>120</v>
+      </c>
+      <c r="C7663" s="53">
+        <f>SUM(C7641:C7662)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -82908,6 +86040,853 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F638D9D7-55B5-48F0-B7B9-BEEF8630E7C4}">
+  <dimension ref="B5:M54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="10" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:12">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="47" t="s">
+        <v>890</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="46" t="s">
+        <v>891</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="5"/>
+      <c r="D8" s="46" t="s">
+        <v>891</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="46" t="s">
+        <v>893</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="46" t="s">
+        <v>894</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="46" t="s">
+        <v>895</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="46" t="s">
+        <v>896</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="46" t="s">
+        <v>897</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="46" t="s">
+        <v>898</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="46" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="C17" s="46" t="s">
+        <v>891</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="C18" s="5"/>
+      <c r="D18" s="46" t="s">
+        <v>891</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="46" t="s">
+        <v>893</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="46" t="s">
+        <v>894</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="46" t="s">
+        <v>895</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="46" t="s">
+        <v>898</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="46" t="s">
+        <v>898</v>
+      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="46" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="56" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="58" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F31" s="58">
+        <v>2</v>
+      </c>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="47" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="48" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="58" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="5" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="60" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="5"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="5"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="5"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="5"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="5"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="5"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="5"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="57"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="57"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="57"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="57"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="57"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="57"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="57"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="57"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="57"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="57"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="57"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="57"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="57"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="57"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="57"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900C611E-12C4-401E-841F-BFA85A94CE95}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="38" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="38" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f>A6*(A6*B6 + 0.5*(4-B6))/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C15" si="0">A7*(A7*B7 + 0.5*(4-B7))/4</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BB5982-E85E-4516-ADAF-9E3216DF96F2}">
   <dimension ref="A1:F487"/>
   <sheetViews>
@@ -92666,7 +96645,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2BDF97-ECA4-401E-BED5-7A3A8D9CCAF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171472E7-EBD9-42DE-BA87-40AF0C8E5366}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A346C4C-CF78-4BE2-9011-21EB7249A98B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -92681,6 +96687,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03D0A79-EDCA-4AE7-81ED-00106B514201}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FD5AD6-A140-4AF8-8F5C-D92567E37348}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -92798,7 +96828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
@@ -93730,7 +97760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -94078,7 +98108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L99"/>
   <sheetViews>
@@ -95095,12 +99125,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -95356,12 +99386,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -95544,489 +99574,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F638D9D7-55B5-48F0-B7B9-BEEF8630E7C4}">
-  <dimension ref="C5:L26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="10" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:12">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="3:12">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="47" t="s">
-        <v>890</v>
-      </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="3:12">
-      <c r="C7" s="46" t="s">
-        <v>891</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="5"/>
-      <c r="D8" s="46" t="s">
-        <v>891</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="3:12">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="46" t="s">
-        <v>892</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="3:12">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="46" t="s">
-        <v>893</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="3:12">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="46" t="s">
-        <v>894</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="3:12">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="46" t="s">
-        <v>895</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="3:12">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="46" t="s">
-        <v>896</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="3:12">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="46" t="s">
-        <v>897</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="3:12">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="46" t="s">
-        <v>898</v>
-      </c>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="3:12">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="46" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12">
-      <c r="C17" s="46" t="s">
-        <v>891</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="3:12">
-      <c r="C18" s="5"/>
-      <c r="D18" s="46" t="s">
-        <v>891</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="46" t="s">
-        <v>892</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="46" t="s">
-        <v>892</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="3:12">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="46" t="s">
-        <v>893</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="46" t="s">
-        <v>894</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="3:12">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="46" t="s">
-        <v>895</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="3:12">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="46" t="s">
-        <v>898</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="3:12">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="46" t="s">
-        <v>898</v>
-      </c>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="3:12">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="46" t="s">
-        <v>891</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900C611E-12C4-401E-841F-BFA85A94CE95}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="38" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="38" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <f>A6*(A6*B6 + 0.5*(4-B6))/4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7:C15" si="0">A7*(A7*B7 + 0.5*(4-B7))/4</f>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>